--- a/各个子模块/模型模块/多次实验.xlsx
+++ b/各个子模块/模型模块/多次实验.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\毕业论文程序\MODIS\各个子模块\模型模块\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48EC7988-08EC-4B49-B80D-3F6AF235E422}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB553700-EFD2-4CAC-A586-40BABAD12CE6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,10 +23,10 @@
     <sheet name="Lasso-监测点" sheetId="15" r:id="rId8"/>
     <sheet name="Lasso-月" sheetId="18" r:id="rId9"/>
     <sheet name="弹性网络-月" sheetId="19" r:id="rId10"/>
-    <sheet name="多输入-监测点" sheetId="10" r:id="rId11"/>
-    <sheet name="分布式-监测站" sheetId="4" r:id="rId12"/>
-    <sheet name="多输入-月份" sheetId="9" r:id="rId13"/>
-    <sheet name="分布式-月份" sheetId="5" r:id="rId14"/>
+    <sheet name="分布式-监测站" sheetId="4" r:id="rId11"/>
+    <sheet name="分布式-月份" sheetId="5" r:id="rId12"/>
+    <sheet name="多输入-监测点" sheetId="10" r:id="rId13"/>
+    <sheet name="多输入-月份" sheetId="9" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="40">
   <si>
     <t>实验次数</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -142,9 +142,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>随机监测点检验</t>
-  </si>
-  <si>
     <t>模型</t>
   </si>
   <si>
@@ -182,6 +179,18 @@
     <t>随机月份检验</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>随机监测点检验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实验耗时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平均耗时/秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -189,8 +198,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="181" formatCode="0.0_);[Red]\(0.0\)"/>
-    <numFmt numFmtId="183" formatCode="0.0%"/>
+    <numFmt numFmtId="177" formatCode="0.0_);[Red]\(0.0\)"/>
+    <numFmt numFmtId="178" formatCode="0.0%"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -264,7 +273,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -278,9 +287,6 @@
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
@@ -314,35 +320,33 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="183" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="1">
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -360,6 +364,2066 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'监测点=总'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MI-NN MAE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd" cmpd="dbl">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'监测点=总'!$B$2:$B$101</c:f>
+              <c:numCache>
+                <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>18.93111683478968</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25.005026011293928</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.24212735713941</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20.727550221856671</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17.005730777207852</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17.67060122561621</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19.074073148402981</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19.015457369579799</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18.456924423420311</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17.250613125360871</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>18.59936855365325</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16.916888057140881</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20.345343921074509</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>17.863085064774658</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>19.4871022296389</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>17.676211183967609</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>21.094640980547851</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18.046294036343181</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20.325069976465851</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>17.203681263680451</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>16.95184109203198</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>17.362219320669279</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>16.92807485484051</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>18.754597379938151</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>16.933508818115062</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>17.416312261910392</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>17.197264165154628</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>17.089201849936241</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>19.853159096994911</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>19.812990297528039</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>18.506367274271401</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>18.618835350055129</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>17.186668804043549</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>18.305484966531061</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>18.037386524440471</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>17.39358555885655</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>18.664533949523101</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>17.578801895018991</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>19.10331298705573</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>16.962191893545761</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>18.225694341195069</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>19.624887303872569</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>19.551118314494289</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>17.305977196058791</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>21.321115640024129</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>17.905993536673769</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>20.38916823825739</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>18.23679429042344</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>17.7176945222722</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>21.1500086131913</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>17.36429773851</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>18.401530591173149</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>18.348875284638691</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>19.52927784780065</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>17.14832441239977</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>20.576190830719302</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>18.306816938438811</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>17.019409488031201</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>20.069027760834199</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>19.224740011426579</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>17.265133877383139</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>18.200003812774419</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>17.304893062975609</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>20.759868750301091</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>17.443583989956021</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>17.68500799768676</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>18.703130126158111</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>17.665803814109651</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>17.435710118648561</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>22.10029608386883</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>18.58566241765616</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>17.849067231203939</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>17.175096097450091</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>18.73727173838353</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>18.359057005077581</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>17.26170788965505</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>16.85302969973155</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>18.381750350000001</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>17.015261479999999</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>18.577994960000002</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>18.650469210000001</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>16.862798260000002</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>19.10232916</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>16.998495009999999</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>16.907621800000001</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>19.279068393004199</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>19.870311725365958</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>17.93544275508809</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>21.834799744014479</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>16.950351407268158</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>18.27377434798537</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>19.67836876980525</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>17.735401414892639</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>17.96870476432029</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>18.166560827272509</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>19.228519348617059</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>18.728120977180001</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>24.961437791139321</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>17.741042814027441</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>17.957066779893541</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-30CE-4AB4-80B1-991F6693F1D2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'监测点=总'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DP-NN MAE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'监测点=总'!$F$2:$F$101</c:f>
+              <c:numCache>
+                <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>15.67985028891275</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16.43741601312913</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.48337202941623</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.142572430638239</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.40110705491136</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17.68949429734657</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15.306633703059561</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15.16572977690052</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14.748790530185881</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16.302268797002469</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16.826099115327061</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14.76996196173592</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>16.088498882846881</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>17.30162946566109</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16.598652779613449</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16.637350837092189</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>14.539568518476839</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18.126475535436029</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>16.548133942139351</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>16.233913053742569</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>17.558765173894152</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>17.326072729853149</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>16.920961266277288</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>17.006274880498871</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>17.01595481043465</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>15.15711858304506</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>18.173537731128679</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>17.96373483931281</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>15.608450758004279</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>17.355855202841131</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>15.5929631240085</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>16.26902779266916</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>16.217775215923659</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>16.3212338237783</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>17.04663387283999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>16.547333398276969</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>16.495602712729539</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>16.959992323416351</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>17.128601004114731</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>14.88754211655254</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>14.536325869788801</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>16.16457996245493</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>16.92358643603816</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>16.98472837176849</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>17.208191620909659</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>15.677206373328801</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>16.234701418814989</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>16.70892059661664</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>15.57185120485692</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>17.438890535647051</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>15.32210892266562</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>13.89076694095535</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>16.04751944014329</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>15.779619100534109</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>17.11227793064592</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>15.73825061786015</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>16.804342799042509</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>18.371342053013031</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>17.43815071927213</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>16.782171265312488</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>15.64900676200236</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>16.307807020652749</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>18.064148771525161</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>18.301058175818831</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>17.519227792334078</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>16.823239465228671</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>19.079189123999111</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>18.511727048216301</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>15.168017621192689</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>13.90844385104848</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>17.27210055036144</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>15.070790409612989</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>17.42122485911025</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>16.934056447192159</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>18.52479982992115</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>16.580825957445651</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>17.06268014122935</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>16.606672438556011</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>14.84916482042952</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>16.923955379168969</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>17.942858737071621</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>17.717293109028279</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>16.436900894527529</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>17.77854036344257</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>18.381750347372879</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>17.015261484747452</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>18.577994964537279</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>16.998495011619411</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>16.907621798165788</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>15.383206035619629</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>16.916182833562232</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>16.699626876141469</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>18.241206662516969</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>16.574575111914971</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>16.37123359294382</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>17.21931965809905</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>16.803445501469181</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>16.637465455526321</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>16.389756517296469</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>17.159158888131341</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-30CE-4AB4-80B1-991F6693F1D2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'监测点=总'!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LASSO-MAE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd" cmpd="dbl">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="picture"/>
+            <c:spPr>
+              <a:blipFill>
+                <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+                <a:stretch>
+                  <a:fillRect/>
+                </a:stretch>
+              </a:blipFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'监测点=总'!$J$2:$J$101</c:f>
+              <c:numCache>
+                <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>22.319199700826939</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22.722223521530651</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22.167310723973799</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21.738350461870141</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21.923221545520409</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22.06656112562025</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21.24400583482063</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22.784536744726761</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>22.265576345532882</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>21.46462486852673</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>22.334254390731139</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>21.3283517615499</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>21.325172775175439</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>22.028330555197311</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>22.21258450608525</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>23.455603462846931</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>21.221173255085951</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>21.601376586065701</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>21.672907190082551</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>21.880288336406672</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>22.449711233460679</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22.169942294489701</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22.278857636960449</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>22.08447672563657</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>22.088980895277739</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>21.62016238221311</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>22.222028366077261</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>23.35431363332485</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>21.903860109846981</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>21.955497202296922</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>22.17553894426522</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>21.965410193574829</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>21.348886209905992</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>22.683719211962259</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>21.98363011206256</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>22.09091886629836</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>22.276621080335509</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>21.725106907007191</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>22.924356581708771</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>22.15820885377433</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>21.100930543662709</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>21.22556859250944</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>20.59923021236904</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>22.251798849672429</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>22.08085300215124</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>21.44557191336289</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>22.505304873554021</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>22.563010332039781</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>22.51586666992657</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>22.144975011715019</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>22.70892085366275</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>21.564431369693249</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>21.869634194449731</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>22.273713417673189</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>21.644215599705721</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>22.16984851939414</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>21.427407211330351</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>21.975893564699149</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>20.890476842057399</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>22.534581378388189</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>21.187525620877661</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>23.034964221390169</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>22.664692109013782</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>21.750745102097259</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>21.606310914385151</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>21.550816635208449</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>21.952122872129198</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>22.1173975415259</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>22.83325235966575</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>22.250464337038729</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>21.958886986329169</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>21.175771552283791</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>22.300422059716659</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>22.900575411046709</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>22.419752714466568</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>21.777056941674029</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>22.290372309278052</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>21.98930900389734</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>21.08825505571647</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>21.477977740395509</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>21.797942501352619</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>22.13919275528653</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>21.701996544585331</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>21.55579483231746</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>21.59416583576774</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>21.750335145850659</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>22.78207331132792</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>22.000177179438101</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>21.646208515861609</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>23.13458738634381</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>21.85864795057423</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>22.111065180815459</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>21.73422510984043</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>22.23732466508007</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>22.421974967496389</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>21.602536293590941</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>22.36094461398849</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>22.68043893938825</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>21.96329168367318</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>22.231082731648751</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-30CE-4AB4-80B1-991F6693F1D2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'监测点=总'!$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>B-OLSR-MAE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd" cmpd="dbl">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:prstDash val="lgDash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'监测点=总'!$N$2:$N$101</c:f>
+              <c:numCache>
+                <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>19.183422772023761</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19.587711759635621</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.013917084059731</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19.344005865639929</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19.35067502180264</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19.357328136585011</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19.361875301206609</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18.969258813521929</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>19.737760467974979</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19.95175945557439</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20.094973018559131</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>18.755464606830881</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>18.77949700508179</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>18.752006595134251</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>18.842641776007511</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>19.140789753451891</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>19.232718810242069</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18.995106902951481</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19.08120163850392</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19.29021099658863</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>19.30800054323408</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>19.6298733773897</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>19.869051702109971</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>18.784151788404731</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>19.099986745313139</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>18.911789052582751</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>19.458669769553062</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>18.81880762116387</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>19.642409140710331</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>19.875804394744321</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>19.876022623755741</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>19.06689138360851</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>19.85314350186648</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>18.616036022815909</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>18.667602180976921</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>18.65180299101781</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>18.637956917827189</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>18.639404780399531</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>18.655004206576599</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>18.661118672873229</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>18.70923087287138</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>18.72549541314654</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>18.752940866303572</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>18.791173299391868</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>18.803016829811789</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>18.826006782893391</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>18.833866707914719</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>18.85579937365933</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>18.911506586767171</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>18.913314420903191</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>18.91567175118729</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>18.91759100056133</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>18.92399063897474</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>18.966116173814779</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>18.97112999427079</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>18.98742747029387</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>18.997842990870229</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>19.015450940763529</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>19.03889712991586</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>19.061604900969851</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>19.079905797318279</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>19.08050200266495</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>19.101801153807621</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>19.116982231951489</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>19.121553316063931</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>19.132813616166828</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>19.151443628086579</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>19.152167537237219</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>19.15831150568216</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>19.16243492819914</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>19.16598597119334</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>19.169935342979532</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>19.21233914333898</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>19.27378032675864</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>19.27689389578628</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>19.278594465344231</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>19.286575459553148</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>19.28921556491493</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>19.3137681779098</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>19.32366905253317</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>19.335295896345869</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>19.407156208594131</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>19.439343546932179</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>19.461564506944502</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>19.467862208294729</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>19.515290426962569</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>19.51824951671529</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>19.52290432448217</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>19.596183189564449</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>19.621027821045079</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>19.639772091807409</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>19.69708871476028</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>19.702994634867419</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>19.707979888807539</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>19.788591341037041</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>19.795657060251969</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>19.80429162772031</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>19.812786085772789</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>19.894069687511401</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>19.923963301749399</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-30CE-4AB4-80B1-991F6693F1D2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'监测点=总'!$R$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>EN-MAE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd" cmpd="dbl">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:alpha val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'监测点=总'!$R$2:$R$101</c:f>
+              <c:numCache>
+                <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>21.856391414595141</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21.897068528748719</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21.509006705117699</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21.261313665979429</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20.907101727279059</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21.8960853198862</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21.80384854785008</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20.18997591030028</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>22.064971023255929</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>21.282401691066688</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>22.16092299902051</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>21.63529266987392</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20.734189692450119</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>21.092456857501571</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>21.679348581792649</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>21.462376629782671</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>21.384395129969938</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>21.746028310308908</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>21.57895723661176</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>21.655291561853272</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20.500539223119301</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22.55401050407778</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>19.699832395104551</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>21.502081791139499</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>21.144874456794859</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>21.624264947395901</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>21.277500733932669</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>21.536616076085611</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>22.018811862176001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>22.943399587201931</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>21.065613665209352</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>20.767285310361739</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>20.478100310883569</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>20.53761135038263</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>21.691483698082749</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>20.768097408229309</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>21.022095283931399</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>22.07469926549955</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>21.453351509030519</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>21.03003977360197</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>21.545166074833869</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>20.611304460967311</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>21.620346355031881</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>20.6355314311791</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>21.042389151294309</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>20.68571108471577</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>21.273438962901722</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>21.425330751893188</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>21.502538606781229</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>21.89671888447247</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>21.19318830123829</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>22.321997886232381</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>22.804375723235619</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>21.487962327536259</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>21.574055621577131</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>20.70285116702178</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>20.373883747999042</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>20.70590064866337</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>21.529180068716929</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>21.123063407435851</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>20.8849869377547</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>20.960393349554899</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>20.518211010972301</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>21.986543798338889</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>20.214176419286339</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>21.620577493606049</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>21.183850728658079</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>21.251170800391101</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>21.39120251095013</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>22.50734490418176</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>20.92283317038552</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>20.971528169101511</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>21.12758495092444</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>21.84154536988143</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>21.197299656842311</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>21.148452649438411</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>20.362567145231392</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>21.783045989186249</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>20.61891865020624</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>21.715492140487299</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>22.002644343612658</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>20.798619154550771</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>20.580196653466469</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>21.2657016716967</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>20.510281560172569</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>20.61519527256991</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>20.332680309378649</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>21.51935086361717</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>21.170882032386739</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>22.42120649474391</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>20.898535465755401</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>21.267736547164521</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>20.99021235187757</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>20.733538926815559</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>21.38413641817646</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>21.078588877966219</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>20.54922454752645</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>21.951462132265942</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>21.346748919596731</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>22.70484117050432</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-30CE-4AB4-80B1-991F6693F1D2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="625610104"/>
+        <c:axId val="625613304"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="625610104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>实验次数</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="625613304"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="9"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="625613304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="26"/>
+          <c:min val="13"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>MAE</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0_);[Red]\(#,##0\)" sourceLinked="0"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="625610104"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -1328,6 +3392,47 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>81642</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>59871</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>185696</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>102453</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98BE97A8-FFD6-4411-BA70-2A0672BCE2F5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
       <xdr:row>1</xdr:row>
@@ -1684,262 +3789,635 @@
 </a:theme>
 </file>
 
+<file path=xl/theme/themeOverride1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <a:clrScheme name="Office">
+    <a:dk1>
+      <a:sysClr val="windowText" lastClr="000000"/>
+    </a:dk1>
+    <a:lt1>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
+    </a:lt1>
+    <a:dk2>
+      <a:srgbClr val="1F497D"/>
+    </a:dk2>
+    <a:lt2>
+      <a:srgbClr val="EEECE1"/>
+    </a:lt2>
+    <a:accent1>
+      <a:srgbClr val="4F81BD"/>
+    </a:accent1>
+    <a:accent2>
+      <a:srgbClr val="C0504D"/>
+    </a:accent2>
+    <a:accent3>
+      <a:srgbClr val="9BBB59"/>
+    </a:accent3>
+    <a:accent4>
+      <a:srgbClr val="8064A2"/>
+    </a:accent4>
+    <a:accent5>
+      <a:srgbClr val="4BACC6"/>
+    </a:accent5>
+    <a:accent6>
+      <a:srgbClr val="F79646"/>
+    </a:accent6>
+    <a:hlink>
+      <a:srgbClr val="0000FF"/>
+    </a:hlink>
+    <a:folHlink>
+      <a:srgbClr val="800080"/>
+    </a:folHlink>
+  </a:clrScheme>
+  <a:fontScheme name="Office">
+    <a:majorFont>
+      <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="宋体"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Times New Roman"/>
+      <a:font script="Hebr" typeface="Times New Roman"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="MoolBoran"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Times New Roman"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+      <a:font script="Armn" typeface="Arial"/>
+      <a:font script="Bugi" typeface="Leelawadee UI"/>
+      <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+      <a:font script="Java" typeface="Javanese Text"/>
+      <a:font script="Lisu" typeface="Segoe UI"/>
+      <a:font script="Mymr" typeface="Myanmar Text"/>
+      <a:font script="Nkoo" typeface="Ebrima"/>
+      <a:font script="Olck" typeface="Nirmala UI"/>
+      <a:font script="Osma" typeface="Ebrima"/>
+      <a:font script="Phag" typeface="Phagspa"/>
+      <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+      <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+      <a:font script="Syre" typeface="Estrangelo Edessa"/>
+      <a:font script="Sora" typeface="Nirmala UI"/>
+      <a:font script="Tale" typeface="Microsoft Tai Le"/>
+      <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+      <a:font script="Tfng" typeface="Ebrima"/>
+    </a:majorFont>
+    <a:minorFont>
+      <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="宋体"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Arial"/>
+      <a:font script="Hebr" typeface="Arial"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="DaunPenh"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Arial"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+      <a:font script="Armn" typeface="Arial"/>
+      <a:font script="Bugi" typeface="Leelawadee UI"/>
+      <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+      <a:font script="Java" typeface="Javanese Text"/>
+      <a:font script="Lisu" typeface="Segoe UI"/>
+      <a:font script="Mymr" typeface="Myanmar Text"/>
+      <a:font script="Nkoo" typeface="Ebrima"/>
+      <a:font script="Olck" typeface="Nirmala UI"/>
+      <a:font script="Osma" typeface="Ebrima"/>
+      <a:font script="Phag" typeface="Phagspa"/>
+      <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+      <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+      <a:font script="Syre" typeface="Estrangelo Edessa"/>
+      <a:font script="Sora" typeface="Nirmala UI"/>
+      <a:font script="Tale" typeface="Microsoft Tai Le"/>
+      <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+      <a:font script="Tfng" typeface="Ebrima"/>
+    </a:minorFont>
+  </a:fontScheme>
+  <a:fmtScheme name="Office">
+    <a:fillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="50000"/>
+              <a:satMod val="300000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="35000">
+            <a:schemeClr val="phClr">
+              <a:tint val="37000"/>
+              <a:satMod val="300000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:tint val="15000"/>
+              <a:satMod val="350000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="16200000" scaled="1"/>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:shade val="51000"/>
+              <a:satMod val="130000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="80000">
+            <a:schemeClr val="phClr">
+              <a:shade val="93000"/>
+              <a:satMod val="130000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="94000"/>
+              <a:satMod val="135000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="16200000" scaled="0"/>
+      </a:gradFill>
+    </a:fillStyleLst>
+    <a:lnStyleLst>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+            <a:satMod val="105000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+      </a:ln>
+      <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+      </a:ln>
+      <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+      </a:ln>
+    </a:lnStyleLst>
+    <a:effectStyleLst>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="38000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="35000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="35000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront">
+            <a:rot lat="0" lon="0" rev="0"/>
+          </a:camera>
+          <a:lightRig rig="threePt" dir="t">
+            <a:rot lat="0" lon="0" rev="1200000"/>
+          </a:lightRig>
+        </a:scene3d>
+        <a:sp3d>
+          <a:bevelT w="63500" h="25400"/>
+        </a:sp3d>
+      </a:effectStyle>
+    </a:effectStyleLst>
+    <a:bgFillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="40000"/>
+              <a:satMod val="350000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="40000">
+            <a:schemeClr val="phClr">
+              <a:tint val="45000"/>
+              <a:shade val="99000"/>
+              <a:satMod val="350000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="20000"/>
+              <a:satMod val="255000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="80000"/>
+              <a:satMod val="300000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="30000"/>
+              <a:satMod val="200000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+      </a:gradFill>
+    </a:bgFillStyleLst>
+  </a:fmtScheme>
+</a:themeOverride>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9B45C74-46E5-450D-B772-448AC085728C}">
-  <dimension ref="B8:S23"/>
+  <dimension ref="B8:S27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C15:C17"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H29" activeCellId="1" sqref="C15:C17 H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="8.88671875" style="12"/>
+    <col min="1" max="1" width="8.88671875" style="12"/>
+    <col min="2" max="2" width="12.77734375" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="12"/>
   </cols>
   <sheetData>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="13" t="s">
+    <row r="8" spans="2:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="14" t="s">
+      <c r="C9" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="D9" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="E9" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="F9" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="F9" s="16" t="s">
+      <c r="G9" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="G9" s="16" t="s">
+      <c r="H9" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="H9" s="17" t="s">
+      <c r="I9" s="23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="I9" s="24" t="s">
+      <c r="C10" s="17">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="D10" s="14">
+        <v>18.5</v>
+      </c>
+      <c r="E10" s="15">
+        <v>19.2</v>
+      </c>
+      <c r="F10" s="15">
+        <v>21.3</v>
+      </c>
+      <c r="G10" s="15">
+        <v>22</v>
+      </c>
+      <c r="H10" s="18"/>
+      <c r="K10" s="19"/>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="20">
+        <v>0.41799999999999998</v>
+      </c>
+      <c r="D11" s="21">
+        <v>0.44600000000000001</v>
+      </c>
+      <c r="E11" s="22">
+        <v>0.56599999999999995</v>
+      </c>
+      <c r="F11" s="22">
+        <v>0.67</v>
+      </c>
+      <c r="G11" s="22">
+        <v>0.69899999999999995</v>
+      </c>
+      <c r="H11" s="18"/>
+      <c r="K11" s="19"/>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="17">
+        <v>691.5</v>
+      </c>
+      <c r="D12" s="14">
+        <v>901.2</v>
+      </c>
+      <c r="E12" s="15">
+        <v>788.6</v>
+      </c>
+      <c r="F12" s="15">
+        <v>1008.9</v>
+      </c>
+      <c r="G12" s="15">
+        <v>1079.4000000000001</v>
+      </c>
+      <c r="H12" s="18"/>
+      <c r="K12" s="19"/>
+    </row>
+    <row r="13" spans="2:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="28" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="18">
-        <v>16.600000000000001</v>
-      </c>
-      <c r="D10" s="15">
-        <v>18.5</v>
-      </c>
-      <c r="E10" s="16">
-        <v>19.2</v>
-      </c>
-      <c r="F10" s="16">
-        <v>21.3</v>
-      </c>
-      <c r="G10" s="16">
-        <v>22</v>
-      </c>
-      <c r="H10" s="19"/>
-      <c r="K10" s="20"/>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="21">
-        <v>0.41799999999999998</v>
-      </c>
-      <c r="D11" s="22">
-        <v>0.44600000000000001</v>
-      </c>
-      <c r="E11" s="23">
-        <v>0.56599999999999995</v>
-      </c>
-      <c r="F11" s="23">
-        <v>0.67</v>
-      </c>
-      <c r="G11" s="23">
-        <v>0.69899999999999995</v>
-      </c>
-      <c r="H11" s="19"/>
-      <c r="K11" s="20"/>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B12" s="16" t="s">
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B14" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="H14" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="I14" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="18">
-        <v>691.5</v>
-      </c>
-      <c r="D12" s="15">
-        <v>901.2</v>
-      </c>
-      <c r="E12" s="16">
-        <v>788.6</v>
-      </c>
-      <c r="F12" s="16">
-        <v>1008.9</v>
-      </c>
-      <c r="G12" s="16">
-        <v>1079.4000000000001</v>
-      </c>
-      <c r="H12" s="19"/>
-      <c r="K12" s="20"/>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B13" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B14" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="F14" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="G14" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="H14" s="17" t="s">
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="I14" s="24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B15" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="29">
-        <v>18.672425062794002</v>
-      </c>
-      <c r="D15" s="26">
+      <c r="C15" s="31">
+        <v>17.714447968158144</v>
+      </c>
+      <c r="D15" s="25">
         <v>22.403933922889721</v>
       </c>
-      <c r="E15" s="25">
+      <c r="E15" s="24">
         <v>53.758520641295291</v>
       </c>
-      <c r="F15" s="25">
+      <c r="F15" s="24">
         <v>21.881703601175396</v>
       </c>
-      <c r="G15" s="25">
+      <c r="G15" s="24">
         <v>23.332144055188696</v>
       </c>
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
-      <c r="K15" s="20"/>
+      <c r="K15" s="19"/>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B16" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="30">
-        <v>0.52191175773029652</v>
-      </c>
-      <c r="D16" s="28">
+      <c r="B16" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="32">
+        <v>0.46839570911107264</v>
+      </c>
+      <c r="D16" s="27">
         <v>0.61850161039518636</v>
       </c>
-      <c r="E16" s="27">
+      <c r="E16" s="26">
         <v>2.1120723162306616</v>
       </c>
-      <c r="F16" s="27">
+      <c r="F16" s="26">
         <v>0.70659718639835523</v>
       </c>
-      <c r="G16" s="27">
+      <c r="G16" s="26">
         <v>0.75024394871689193</v>
       </c>
       <c r="H16" s="9"/>
       <c r="I16" s="9"/>
-      <c r="K16" s="20"/>
+      <c r="K16" s="19"/>
     </row>
     <row r="17" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B17" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="29">
-        <v>837.2230572550958</v>
-      </c>
-      <c r="D17" s="26">
+      <c r="B17" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="31">
+        <v>766.22593446405608</v>
+      </c>
+      <c r="D17" s="25">
         <v>1126.7618663529986</v>
       </c>
-      <c r="E17" s="25">
+      <c r="E17" s="24">
         <v>3966.7200196394642</v>
       </c>
-      <c r="F17" s="25">
+      <c r="F17" s="24">
         <v>1037.9565956156507</v>
       </c>
-      <c r="G17" s="25">
+      <c r="G17" s="24">
         <v>1197.8755360535106</v>
       </c>
       <c r="H17" s="9"/>
       <c r="I17" s="9"/>
-      <c r="K17" s="20"/>
-    </row>
-    <row r="18" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="E18" s="9"/>
-    </row>
-    <row r="22" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="9"/>
-      <c r="N22" s="9"/>
-      <c r="O22" s="9"/>
-      <c r="P22" s="9"/>
-      <c r="Q22" s="9"/>
-      <c r="R22" s="9"/>
-      <c r="S22" s="9"/>
-    </row>
-    <row r="23" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
+      <c r="K17" s="19"/>
+    </row>
+    <row r="19" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B19" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
+    </row>
+    <row r="20" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B20" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G20" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="H20" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="I20" s="23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B21" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="25">
+        <v>4.7</v>
+      </c>
+      <c r="D21" s="25">
+        <v>2.8</v>
+      </c>
+      <c r="E21" s="25">
+        <v>1</v>
+      </c>
+      <c r="F21" s="25">
+        <v>0.3</v>
+      </c>
+      <c r="G21" s="25">
+        <v>0.8</v>
+      </c>
+      <c r="H21" s="25"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="9"/>
+      <c r="Q21" s="9"/>
+      <c r="R21" s="9"/>
+      <c r="S21" s="9"/>
+    </row>
+    <row r="27" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B13:K13"/>
-    <mergeCell ref="B8:K8"/>
+  <mergeCells count="3">
+    <mergeCell ref="B19:I19"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B13:I13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1947,7 +4425,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FF1F1A8-0852-48DF-880F-E268E04A84F1}">
   <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A88" workbookViewId="0">
       <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
@@ -3077,6 +5555,2972 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A98F3469-9E37-4672-9697-BBA196A398D4}">
+  <dimension ref="A1:D102"/>
+  <sheetViews>
+    <sheetView topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="C102" sqref="C102"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>15.67985028891275</v>
+      </c>
+      <c r="C2">
+        <v>0.41443892796648613</v>
+      </c>
+      <c r="D2">
+        <v>660.00856706302648</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>16.43741601312913</v>
+      </c>
+      <c r="C3">
+        <v>0.4632823365703706</v>
+      </c>
+      <c r="D3">
+        <v>644.63920199105314</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>15.48337202941623</v>
+      </c>
+      <c r="C4">
+        <v>0.35650837986054429</v>
+      </c>
+      <c r="D4">
+        <v>649.28870015049768</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>15.142572430638239</v>
+      </c>
+      <c r="C5">
+        <v>0.36890316337238088</v>
+      </c>
+      <c r="D5">
+        <v>569.22563454330964</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>16.40110705491136</v>
+      </c>
+      <c r="C6">
+        <v>0.37813232187406109</v>
+      </c>
+      <c r="D6">
+        <v>705.98603667558507</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>17.68949429734657</v>
+      </c>
+      <c r="C7">
+        <v>0.3554068792913736</v>
+      </c>
+      <c r="D7">
+        <v>816.47226729520696</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>15.306633703059561</v>
+      </c>
+      <c r="C8">
+        <v>0.38197620230117513</v>
+      </c>
+      <c r="D8">
+        <v>583.27345949821961</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>15.16572977690052</v>
+      </c>
+      <c r="C9">
+        <v>0.39287267479845672</v>
+      </c>
+      <c r="D9">
+        <v>597.39057740678663</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>14.748790530185881</v>
+      </c>
+      <c r="C10">
+        <v>0.38391702096596408</v>
+      </c>
+      <c r="D10">
+        <v>513.92234453772517</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>16.302268797002469</v>
+      </c>
+      <c r="C11">
+        <v>0.3381892382606615</v>
+      </c>
+      <c r="D11">
+        <v>618.42703243023448</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>16.826099115327061</v>
+      </c>
+      <c r="C12">
+        <v>0.38675106184803709</v>
+      </c>
+      <c r="D12">
+        <v>725.35513522249971</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>14.76996196173592</v>
+      </c>
+      <c r="C13">
+        <v>0.38506032418983738</v>
+      </c>
+      <c r="D13">
+        <v>481.69343954807408</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="8">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>16.088498882846881</v>
+      </c>
+      <c r="C14">
+        <v>0.40430975442478562</v>
+      </c>
+      <c r="D14">
+        <v>687.44579940192727</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="8">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>17.30162946566109</v>
+      </c>
+      <c r="C15">
+        <v>0.56188545929304456</v>
+      </c>
+      <c r="D15">
+        <v>736.61717732388377</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="8">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>16.598652779613449</v>
+      </c>
+      <c r="C16">
+        <v>0.47928232518985642</v>
+      </c>
+      <c r="D16">
+        <v>688.45869897745081</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="8">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>16.637350837092189</v>
+      </c>
+      <c r="C17">
+        <v>0.48043994556654063</v>
+      </c>
+      <c r="D17">
+        <v>656.33833756436093</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="8">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>14.539568518476839</v>
+      </c>
+      <c r="C18">
+        <v>0.40028743025401059</v>
+      </c>
+      <c r="D18">
+        <v>490.4956433030863</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="8">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>18.126475535436029</v>
+      </c>
+      <c r="C19">
+        <v>0.38276355342242141</v>
+      </c>
+      <c r="D19">
+        <v>863.32868431264478</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="8">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>16.548133942139351</v>
+      </c>
+      <c r="C20">
+        <v>0.38756657666477801</v>
+      </c>
+      <c r="D20">
+        <v>660.44231128455112</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="8">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>16.233913053742569</v>
+      </c>
+      <c r="C21">
+        <v>0.46760688885332607</v>
+      </c>
+      <c r="D21">
+        <v>602.06970962430159</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="8">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>17.558765173894152</v>
+      </c>
+      <c r="C22">
+        <v>0.39421567740903107</v>
+      </c>
+      <c r="D22">
+        <v>819.61614922604417</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="8">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>17.326072729853149</v>
+      </c>
+      <c r="C23">
+        <v>0.43745746031164029</v>
+      </c>
+      <c r="D23">
+        <v>682.23034777417411</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="8">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>16.920961266277288</v>
+      </c>
+      <c r="C24">
+        <v>0.42597926682706511</v>
+      </c>
+      <c r="D24">
+        <v>721.21726600315549</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="8">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>17.006274880498871</v>
+      </c>
+      <c r="C25">
+        <v>0.44193765016374148</v>
+      </c>
+      <c r="D25">
+        <v>681.32006572829971</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="8">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>17.01595481043465</v>
+      </c>
+      <c r="C26">
+        <v>0.44800706145441188</v>
+      </c>
+      <c r="D26">
+        <v>735.27491228423082</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="8">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>15.15711858304506</v>
+      </c>
+      <c r="C27">
+        <v>0.439590310987793</v>
+      </c>
+      <c r="D27">
+        <v>507.22642579086857</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="8">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>18.173537731128679</v>
+      </c>
+      <c r="C28">
+        <v>0.47042116975004589</v>
+      </c>
+      <c r="D28">
+        <v>804.59412592218496</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="8">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>17.96373483931281</v>
+      </c>
+      <c r="C29">
+        <v>0.41975115082508913</v>
+      </c>
+      <c r="D29">
+        <v>761.52175898961013</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="8">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>15.608450758004279</v>
+      </c>
+      <c r="C30">
+        <v>0.39106477947208268</v>
+      </c>
+      <c r="D30">
+        <v>601.26730598692154</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="8">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>17.355855202841131</v>
+      </c>
+      <c r="C31">
+        <v>0.36787665207774972</v>
+      </c>
+      <c r="D31">
+        <v>859.79886232438253</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="8">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>15.5929631240085</v>
+      </c>
+      <c r="C32">
+        <v>0.3801376201037262</v>
+      </c>
+      <c r="D32">
+        <v>595.62455316851003</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="8">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>16.26902779266916</v>
+      </c>
+      <c r="C33">
+        <v>0.38050158813108109</v>
+      </c>
+      <c r="D33">
+        <v>674.42680178367868</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="8">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>16.217775215923659</v>
+      </c>
+      <c r="C34">
+        <v>0.43743414095744282</v>
+      </c>
+      <c r="D34">
+        <v>607.26880108483351</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="8">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>16.3212338237783</v>
+      </c>
+      <c r="C35">
+        <v>0.36541552090092572</v>
+      </c>
+      <c r="D35">
+        <v>681.57918996482158</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="8">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>17.04663387283999</v>
+      </c>
+      <c r="C36">
+        <v>0.40494362327003502</v>
+      </c>
+      <c r="D36">
+        <v>703.73629578546115</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="8">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>16.547333398276969</v>
+      </c>
+      <c r="C37">
+        <v>0.44645297663514011</v>
+      </c>
+      <c r="D37">
+        <v>672.68904532754732</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="8">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>16.495602712729539</v>
+      </c>
+      <c r="C38">
+        <v>0.37771893754858382</v>
+      </c>
+      <c r="D38">
+        <v>703.69560469912437</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="8">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>16.959992323416351</v>
+      </c>
+      <c r="C39">
+        <v>0.40031281551769721</v>
+      </c>
+      <c r="D39">
+        <v>758.39210564282655</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="8">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>17.128601004114731</v>
+      </c>
+      <c r="C40">
+        <v>0.46021073361907727</v>
+      </c>
+      <c r="D40">
+        <v>686.19381042349698</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="8">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>14.88754211655254</v>
+      </c>
+      <c r="C41">
+        <v>0.39623149178244421</v>
+      </c>
+      <c r="D41">
+        <v>512.32939830257601</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="8">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>14.536325869788801</v>
+      </c>
+      <c r="C42">
+        <v>0.38619919253522561</v>
+      </c>
+      <c r="D42">
+        <v>527.93579741766086</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="8">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>16.16457996245493</v>
+      </c>
+      <c r="C43">
+        <v>0.47767334862442012</v>
+      </c>
+      <c r="D43">
+        <v>590.96417492234718</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="8">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>16.92358643603816</v>
+      </c>
+      <c r="C44">
+        <v>0.41259262872145541</v>
+      </c>
+      <c r="D44">
+        <v>745.5142159974265</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="8">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>16.98472837176849</v>
+      </c>
+      <c r="C45">
+        <v>0.49225901456711407</v>
+      </c>
+      <c r="D45">
+        <v>644.81398828717488</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="8">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>17.208191620909659</v>
+      </c>
+      <c r="C46">
+        <v>0.34818601597449472</v>
+      </c>
+      <c r="D46">
+        <v>730.84277790677845</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="8">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>15.677206373328801</v>
+      </c>
+      <c r="C47">
+        <v>0.33215263351187241</v>
+      </c>
+      <c r="D47">
+        <v>632.52314008070971</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="8">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>16.234701418814989</v>
+      </c>
+      <c r="C48">
+        <v>0.3822394051879997</v>
+      </c>
+      <c r="D48">
+        <v>688.6781240467659</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="8">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>16.70892059661664</v>
+      </c>
+      <c r="C49">
+        <v>0.41657645264656989</v>
+      </c>
+      <c r="D49">
+        <v>700.14010479411843</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="8">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>15.57185120485692</v>
+      </c>
+      <c r="C50">
+        <v>0.41457816903502542</v>
+      </c>
+      <c r="D50">
+        <v>596.38126706778007</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="8">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>17.438890535647051</v>
+      </c>
+      <c r="C51">
+        <v>0.50842052694661144</v>
+      </c>
+      <c r="D51">
+        <v>706.82715526293384</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="8">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>15.32210892266562</v>
+      </c>
+      <c r="C52">
+        <v>0.40374164197774493</v>
+      </c>
+      <c r="D52">
+        <v>629.33771819425169</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="8">
+        <v>52</v>
+      </c>
+      <c r="B53" s="6">
+        <v>13.89076694095535</v>
+      </c>
+      <c r="C53" s="6">
+        <v>0.3478710998111022</v>
+      </c>
+      <c r="D53" s="6">
+        <v>498.73243829494868</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="8">
+        <v>53</v>
+      </c>
+      <c r="B54" s="6">
+        <v>16.04751944014329</v>
+      </c>
+      <c r="C54" s="6">
+        <v>0.39936246046791901</v>
+      </c>
+      <c r="D54" s="6">
+        <v>691.16405244949533</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="8">
+        <v>54</v>
+      </c>
+      <c r="B55" s="6">
+        <v>15.779619100534109</v>
+      </c>
+      <c r="C55" s="6">
+        <v>0.43434653724467109</v>
+      </c>
+      <c r="D55" s="6">
+        <v>601.97315843235367</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="8">
+        <v>55</v>
+      </c>
+      <c r="B56" s="6">
+        <v>17.11227793064592</v>
+      </c>
+      <c r="C56" s="6">
+        <v>0.40955494290174937</v>
+      </c>
+      <c r="D56" s="6">
+        <v>705.94584452658876</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="8">
+        <v>56</v>
+      </c>
+      <c r="B57" s="6">
+        <v>15.73825061786015</v>
+      </c>
+      <c r="C57" s="6">
+        <v>0.37723378097318688</v>
+      </c>
+      <c r="D57" s="6">
+        <v>624.71446579963208</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="8">
+        <v>57</v>
+      </c>
+      <c r="B58" s="6">
+        <v>16.804342799042509</v>
+      </c>
+      <c r="C58" s="6">
+        <v>0.41530238507532002</v>
+      </c>
+      <c r="D58" s="6">
+        <v>714.7938241227738</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="8">
+        <v>58</v>
+      </c>
+      <c r="B59" s="6">
+        <v>18.371342053013031</v>
+      </c>
+      <c r="C59" s="6">
+        <v>0.47962944697847398</v>
+      </c>
+      <c r="D59" s="6">
+        <v>791.2167782128065</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="8">
+        <v>59</v>
+      </c>
+      <c r="B60" s="6">
+        <v>17.43815071927213</v>
+      </c>
+      <c r="C60" s="6">
+        <v>0.37645618264195319</v>
+      </c>
+      <c r="D60" s="6">
+        <v>789.69085820918133</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="8">
+        <v>60</v>
+      </c>
+      <c r="B61" s="6">
+        <v>16.782171265312488</v>
+      </c>
+      <c r="C61" s="6">
+        <v>0.41468161674332299</v>
+      </c>
+      <c r="D61" s="6">
+        <v>668.1365615197351</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="8">
+        <v>61</v>
+      </c>
+      <c r="B62" s="7">
+        <v>15.64900676200236</v>
+      </c>
+      <c r="C62" s="7">
+        <v>0.37679510485115719</v>
+      </c>
+      <c r="D62" s="7">
+        <v>609.26967397801684</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="8">
+        <v>62</v>
+      </c>
+      <c r="B63" s="7">
+        <v>16.307807020652749</v>
+      </c>
+      <c r="C63" s="7">
+        <v>0.43359464122350411</v>
+      </c>
+      <c r="D63" s="7">
+        <v>713.01384080067908</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="8">
+        <v>63</v>
+      </c>
+      <c r="B64" s="7">
+        <v>18.064148771525161</v>
+      </c>
+      <c r="C64" s="7">
+        <v>0.5353999530434328</v>
+      </c>
+      <c r="D64" s="7">
+        <v>790.34277895661467</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="8">
+        <v>64</v>
+      </c>
+      <c r="B65" s="7">
+        <v>18.301058175818831</v>
+      </c>
+      <c r="C65" s="7">
+        <v>0.4948234093668521</v>
+      </c>
+      <c r="D65" s="7">
+        <v>770.27131797106642</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="8">
+        <v>65</v>
+      </c>
+      <c r="B66" s="7">
+        <v>17.519227792334078</v>
+      </c>
+      <c r="C66" s="7">
+        <v>0.42578535045194132</v>
+      </c>
+      <c r="D66" s="7">
+        <v>815.19438765812515</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="8">
+        <v>66</v>
+      </c>
+      <c r="B67" s="7">
+        <v>16.823239465228671</v>
+      </c>
+      <c r="C67" s="7">
+        <v>0.47630644132180272</v>
+      </c>
+      <c r="D67" s="7">
+        <v>747.33006487887803</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="8">
+        <v>67</v>
+      </c>
+      <c r="B68" s="7">
+        <v>19.079189123999111</v>
+      </c>
+      <c r="C68" s="7">
+        <v>0.42890460930217172</v>
+      </c>
+      <c r="D68" s="7">
+        <v>974.36103279658118</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="8">
+        <v>68</v>
+      </c>
+      <c r="B69" s="7">
+        <v>18.511727048216301</v>
+      </c>
+      <c r="C69" s="7">
+        <v>0.4911533538849881</v>
+      </c>
+      <c r="D69" s="7">
+        <v>823.13509702423733</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="8">
+        <v>69</v>
+      </c>
+      <c r="B70" s="7">
+        <v>15.168017621192689</v>
+      </c>
+      <c r="C70" s="7">
+        <v>0.37814216203141782</v>
+      </c>
+      <c r="D70" s="7">
+        <v>599.83293145013249</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="8">
+        <v>70</v>
+      </c>
+      <c r="B71" s="7">
+        <v>13.90844385104848</v>
+      </c>
+      <c r="C71" s="7">
+        <v>0.35724968152108921</v>
+      </c>
+      <c r="D71" s="7">
+        <v>477.9484552263857</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="8">
+        <v>71</v>
+      </c>
+      <c r="B72" s="7">
+        <v>17.27210055036144</v>
+      </c>
+      <c r="C72" s="7">
+        <v>0.33530038542408941</v>
+      </c>
+      <c r="D72" s="7">
+        <v>860.92987767115585</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="8">
+        <v>72</v>
+      </c>
+      <c r="B73" s="7">
+        <v>15.070790409612989</v>
+      </c>
+      <c r="C73" s="7">
+        <v>0.35291107538935451</v>
+      </c>
+      <c r="D73" s="7">
+        <v>704.38099474460921</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="8">
+        <v>73</v>
+      </c>
+      <c r="B74" s="7">
+        <v>17.42122485911025</v>
+      </c>
+      <c r="C74" s="7">
+        <v>0.40665590290054809</v>
+      </c>
+      <c r="D74" s="7">
+        <v>734.80109282248884</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="8">
+        <v>74</v>
+      </c>
+      <c r="B75" s="7">
+        <v>16.934056447192159</v>
+      </c>
+      <c r="C75" s="7">
+        <v>0.36522783330823</v>
+      </c>
+      <c r="D75" s="7">
+        <v>730.09693351321289</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="8">
+        <v>75</v>
+      </c>
+      <c r="B76" s="7">
+        <v>18.52479982992115</v>
+      </c>
+      <c r="C76" s="7">
+        <v>0.47188832559634047</v>
+      </c>
+      <c r="D76" s="7">
+        <v>826.10001618419369</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="8">
+        <v>76</v>
+      </c>
+      <c r="B77" s="7">
+        <v>16.580825957445651</v>
+      </c>
+      <c r="C77" s="7">
+        <v>0.46847214858017161</v>
+      </c>
+      <c r="D77" s="7">
+        <v>634.94200626727832</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="8">
+        <v>77</v>
+      </c>
+      <c r="B78" s="8">
+        <v>17.06268014122935</v>
+      </c>
+      <c r="C78" s="8">
+        <v>0.5252968944142099</v>
+      </c>
+      <c r="D78" s="8">
+        <v>716.73818275298379</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="8">
+        <v>78</v>
+      </c>
+      <c r="B79" s="8">
+        <v>16.606672438556011</v>
+      </c>
+      <c r="C79" s="8">
+        <v>0.38003746579914</v>
+      </c>
+      <c r="D79" s="8">
+        <v>770.57678189543981</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="8">
+        <v>79</v>
+      </c>
+      <c r="B80" s="8">
+        <v>14.84916482042952</v>
+      </c>
+      <c r="C80" s="8">
+        <v>0.32982145157463172</v>
+      </c>
+      <c r="D80" s="8">
+        <v>543.99976505388781</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="8">
+        <v>80</v>
+      </c>
+      <c r="B81" s="8">
+        <v>16.923955379168969</v>
+      </c>
+      <c r="C81" s="8">
+        <v>0.46934567326186333</v>
+      </c>
+      <c r="D81" s="8">
+        <v>702.69089485866107</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="8">
+        <v>81</v>
+      </c>
+      <c r="B82" s="8">
+        <v>17.942858737071621</v>
+      </c>
+      <c r="C82" s="8">
+        <v>0.47111303661177523</v>
+      </c>
+      <c r="D82" s="8">
+        <v>822.52907901314256</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="8">
+        <v>82</v>
+      </c>
+      <c r="B83" s="8">
+        <v>17.717293109028279</v>
+      </c>
+      <c r="C83" s="8">
+        <v>0.39502655087691602</v>
+      </c>
+      <c r="D83" s="8">
+        <v>848.30019831607569</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="8">
+        <v>83</v>
+      </c>
+      <c r="B84" s="8">
+        <v>16.436900894527529</v>
+      </c>
+      <c r="C84" s="8">
+        <v>0.38075421456748437</v>
+      </c>
+      <c r="D84" s="8">
+        <v>716.4120219791464</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="8">
+        <v>84</v>
+      </c>
+      <c r="B85" s="8">
+        <v>17.77854036344257</v>
+      </c>
+      <c r="C85" s="8">
+        <v>0.56361169917779319</v>
+      </c>
+      <c r="D85" s="8">
+        <v>700.93204425950898</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="8">
+        <v>85</v>
+      </c>
+      <c r="B86" s="8">
+        <v>18.381750347372879</v>
+      </c>
+      <c r="C86" s="8">
+        <v>0.42351001450658199</v>
+      </c>
+      <c r="D86" s="8">
+        <v>987.18010636793292</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="8">
+        <v>86</v>
+      </c>
+      <c r="B87" s="8">
+        <v>17.015261484747452</v>
+      </c>
+      <c r="C87" s="8">
+        <v>0.37125414208462121</v>
+      </c>
+      <c r="D87" s="8">
+        <v>713.2087495957885</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="8">
+        <v>87</v>
+      </c>
+      <c r="B88" s="8">
+        <v>18.577994964537279</v>
+      </c>
+      <c r="C88" s="8">
+        <v>0.45404497009167788</v>
+      </c>
+      <c r="D88" s="8">
+        <v>879.80724047840374</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="8">
+        <v>88</v>
+      </c>
+      <c r="B89" s="8">
+        <v>16.998495011619411</v>
+      </c>
+      <c r="C89" s="8">
+        <v>0.44236347944705418</v>
+      </c>
+      <c r="D89" s="8">
+        <v>664.473427622028</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="8">
+        <v>89</v>
+      </c>
+      <c r="B90" s="8">
+        <v>16.907621798165788</v>
+      </c>
+      <c r="C90" s="8">
+        <v>0.4254144503411042</v>
+      </c>
+      <c r="D90" s="8">
+        <v>737.12541844798182</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="8">
+        <v>90</v>
+      </c>
+      <c r="B91" s="8">
+        <v>15.383206035619629</v>
+      </c>
+      <c r="C91" s="8">
+        <v>0.40750123454330278</v>
+      </c>
+      <c r="D91" s="8">
+        <v>600.04168720748123</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="8">
+        <v>91</v>
+      </c>
+      <c r="B92" s="8">
+        <v>16.916182833562232</v>
+      </c>
+      <c r="C92" s="8">
+        <v>0.4475519414652594</v>
+      </c>
+      <c r="D92" s="8">
+        <v>643.25673132990596</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="8">
+        <v>92</v>
+      </c>
+      <c r="B93" s="8">
+        <v>16.699626876141469</v>
+      </c>
+      <c r="C93" s="8">
+        <v>0.41521845344995828</v>
+      </c>
+      <c r="D93" s="8">
+        <v>747.88029741864159</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="8">
+        <v>93</v>
+      </c>
+      <c r="B94" s="8">
+        <v>18.241206662516969</v>
+      </c>
+      <c r="C94" s="8">
+        <v>0.45134807267673538</v>
+      </c>
+      <c r="D94" s="8">
+        <v>851.12970819164821</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="8">
+        <v>94</v>
+      </c>
+      <c r="B95" s="8">
+        <v>16.574575111914971</v>
+      </c>
+      <c r="C95" s="8">
+        <v>0.41935339027643181</v>
+      </c>
+      <c r="D95" s="8">
+        <v>648.13130045787955</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="8">
+        <v>95</v>
+      </c>
+      <c r="B96" s="8">
+        <v>16.37123359294382</v>
+      </c>
+      <c r="C96" s="8">
+        <v>0.41198038346534382</v>
+      </c>
+      <c r="D96" s="8">
+        <v>645.14885820989048</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="8">
+        <v>96</v>
+      </c>
+      <c r="B97" s="8">
+        <v>17.21931965809905</v>
+      </c>
+      <c r="C97" s="8">
+        <v>0.46079355472315608</v>
+      </c>
+      <c r="D97" s="8">
+        <v>706.21623926102518</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="8">
+        <v>97</v>
+      </c>
+      <c r="B98" s="8">
+        <v>16.803445501469181</v>
+      </c>
+      <c r="C98" s="8">
+        <v>0.42231881894554141</v>
+      </c>
+      <c r="D98" s="8">
+        <v>709.54891961143608</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="8">
+        <v>98</v>
+      </c>
+      <c r="B99" s="8">
+        <v>16.637465455526321</v>
+      </c>
+      <c r="C99" s="8">
+        <v>0.47958087442783548</v>
+      </c>
+      <c r="D99" s="8">
+        <v>632.68130004317527</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="8">
+        <v>99</v>
+      </c>
+      <c r="B100" s="8">
+        <v>16.389756517296469</v>
+      </c>
+      <c r="C100" s="8">
+        <v>0.3971456166769422</v>
+      </c>
+      <c r="D100" s="8">
+        <v>622.65925739335376</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="8">
+        <v>100</v>
+      </c>
+      <c r="B101" s="8">
+        <v>17.159158888131341</v>
+      </c>
+      <c r="C101" s="8">
+        <v>0.43822938205406969</v>
+      </c>
+      <c r="D101" s="8">
+        <v>722.1162197012427</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>4</v>
+      </c>
+      <c r="B102">
+        <f>AVERAGE(B2:B101)</f>
+        <v>16.610465128616237</v>
+      </c>
+      <c r="C102" s="8">
+        <f t="shared" ref="C102:D102" si="0">AVERAGE(C2:C101)</f>
+        <v>0.41865524718935665</v>
+      </c>
+      <c r="D102" s="8">
+        <f t="shared" si="0"/>
+        <v>691.45942961322942</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:D172">
+    <sortCondition ref="A1"/>
+  </sortState>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF3DF320-42DD-427F-A1B9-7F82607FFA45}">
+  <dimension ref="A1:R101"/>
+  <sheetViews>
+    <sheetView topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:D101"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>20.859149669418031</v>
+      </c>
+      <c r="C2">
+        <v>0.54021226495973662</v>
+      </c>
+      <c r="D2">
+        <v>979.96478727813849</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>19.08266913072362</v>
+      </c>
+      <c r="C3">
+        <v>0.5878140138986272</v>
+      </c>
+      <c r="D3">
+        <v>879.55072236226727</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>18.148754578207551</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.45016521740763182</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1229.559041516713</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>17.889540234037561</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.54838384984127131</v>
+      </c>
+      <c r="D5" s="1">
+        <v>646.33553680858074</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>17.302165720911809</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.50614577711581843</v>
+      </c>
+      <c r="D6" s="1">
+        <v>830.42529647508354</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>16.751026985846899</v>
+      </c>
+      <c r="C7">
+        <v>0.57896205488454167</v>
+      </c>
+      <c r="D7">
+        <v>594.66760243699696</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>16.420880356679159</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.44619867780141548</v>
+      </c>
+      <c r="D8" s="1">
+        <v>725.8033302125192</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>15.759525043096639</v>
+      </c>
+      <c r="C9">
+        <v>0.5488698586916344</v>
+      </c>
+      <c r="D9">
+        <v>605.83192954762683</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>14.563455465186451</v>
+      </c>
+      <c r="C10">
+        <v>0.56379888391279942</v>
+      </c>
+      <c r="D10">
+        <v>447.00299597201177</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>13.4605028514341</v>
+      </c>
+      <c r="C11">
+        <v>0.51908734431538595</v>
+      </c>
+      <c r="D11">
+        <v>383.87764724872</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>15.53777182695659</v>
+      </c>
+      <c r="C12">
+        <v>0.4878318043992545</v>
+      </c>
+      <c r="D12">
+        <v>656.43518169095273</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>12.1439189991262</v>
+      </c>
+      <c r="C13">
+        <v>0.53230140145042315</v>
+      </c>
+      <c r="D13">
+        <v>294.32966129116681</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>19.509516149838479</v>
+      </c>
+      <c r="C14">
+        <v>0.48123947025218128</v>
+      </c>
+      <c r="D14">
+        <v>798.69534941323263</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>14.02176501918283</v>
+      </c>
+      <c r="C15">
+        <v>0.37758681434348768</v>
+      </c>
+      <c r="D15">
+        <v>445.0108862435261</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>12.65719487614628</v>
+      </c>
+      <c r="C16">
+        <v>0.42612520511372309</v>
+      </c>
+      <c r="D16">
+        <v>409.99734555957872</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>14.290270645715561</v>
+      </c>
+      <c r="C17">
+        <v>0.54291730249836601</v>
+      </c>
+      <c r="D17">
+        <v>418.5952867591248</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>16.862993575315901</v>
+      </c>
+      <c r="C18">
+        <v>0.43646785501859398</v>
+      </c>
+      <c r="D18">
+        <v>640.60733674250605</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>17.095197691560099</v>
+      </c>
+      <c r="C19">
+        <v>0.45355910543817202</v>
+      </c>
+      <c r="D19">
+        <v>664.33961220113224</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>17.287956295141981</v>
+      </c>
+      <c r="C20">
+        <v>0.48791122406818588</v>
+      </c>
+      <c r="D20">
+        <v>635.79930878181381</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>21.18058613564147</v>
+      </c>
+      <c r="C21">
+        <v>0.41154204220901341</v>
+      </c>
+      <c r="D21">
+        <v>1018.038514183792</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2">
+        <v>14.85468190691938</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0.4850067106468664</v>
+      </c>
+      <c r="D22" s="2">
+        <v>443.32261619050871</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23" s="7">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2">
+        <v>20.4611539769876</v>
+      </c>
+      <c r="C23" s="2">
+        <v>0.39712712215685603</v>
+      </c>
+      <c r="D23" s="2">
+        <v>875.88878804860201</v>
+      </c>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A24" s="7">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2">
+        <v>25.673156048023401</v>
+      </c>
+      <c r="C24" s="2">
+        <v>0.38437652992069998</v>
+      </c>
+      <c r="D24" s="2">
+        <v>1549.5600910063799</v>
+      </c>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A25" s="7">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2">
+        <v>17.014183115820781</v>
+      </c>
+      <c r="C25" s="2">
+        <v>0.55228414269166981</v>
+      </c>
+      <c r="D25" s="2">
+        <v>753.43707846239704</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A26" s="7">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2">
+        <v>22.47801894288887</v>
+      </c>
+      <c r="C26" s="2">
+        <v>0.36663990463483748</v>
+      </c>
+      <c r="D26" s="2">
+        <v>1279.074987584228</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A27" s="7">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2">
+        <v>12.4925473105669</v>
+      </c>
+      <c r="C27" s="2">
+        <v>0.43660416103112498</v>
+      </c>
+      <c r="D27" s="2">
+        <v>332.494444324364</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A28" s="7">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2">
+        <v>19.334344140040152</v>
+      </c>
+      <c r="C28" s="2">
+        <v>0.46469755658917578</v>
+      </c>
+      <c r="D28" s="2">
+        <v>779.1177636027162</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A29" s="7">
+        <v>28</v>
+      </c>
+      <c r="B29" s="2">
+        <v>25.70712838632414</v>
+      </c>
+      <c r="C29" s="2">
+        <v>0.46828238211433232</v>
+      </c>
+      <c r="D29" s="2">
+        <v>1548.3733622721611</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A30" s="7">
+        <v>29</v>
+      </c>
+      <c r="B30" s="2">
+        <v>21.498433697178179</v>
+      </c>
+      <c r="C30" s="2">
+        <v>0.41139809749681361</v>
+      </c>
+      <c r="D30" s="2">
+        <v>961.3529197336544</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A31" s="7">
+        <v>30</v>
+      </c>
+      <c r="B31" s="3">
+        <v>19.3066134391647</v>
+      </c>
+      <c r="C31" s="3">
+        <v>0.41644305167609802</v>
+      </c>
+      <c r="D31" s="3">
+        <v>814.51075088819096</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A32" s="7">
+        <v>31</v>
+      </c>
+      <c r="B32" s="8">
+        <v>20.286111264766639</v>
+      </c>
+      <c r="C32" s="8">
+        <v>0.44345777079660409</v>
+      </c>
+      <c r="D32" s="8">
+        <v>1049.3822305353401</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A33" s="7">
+        <v>32</v>
+      </c>
+      <c r="B33" s="3">
+        <v>17.473023981322498</v>
+      </c>
+      <c r="C33" s="3">
+        <v>0.41033943028168801</v>
+      </c>
+      <c r="D33" s="3">
+        <v>952.82376850290302</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A34" s="7">
+        <v>33</v>
+      </c>
+      <c r="B34" s="8">
+        <v>19.085844341301492</v>
+      </c>
+      <c r="C34" s="8">
+        <v>0.37153037624719559</v>
+      </c>
+      <c r="D34" s="8">
+        <v>778.09522555087153</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A35" s="7">
+        <v>34</v>
+      </c>
+      <c r="B35" s="3">
+        <v>19.438754944728601</v>
+      </c>
+      <c r="C35" s="3">
+        <v>0.404722852171296</v>
+      </c>
+      <c r="D35" s="3">
+        <v>874.66837345228998</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A36" s="7">
+        <v>35</v>
+      </c>
+      <c r="B36" s="8">
+        <v>27.759338088012161</v>
+      </c>
+      <c r="C36" s="8">
+        <v>0.42631465124550882</v>
+      </c>
+      <c r="D36" s="8">
+        <v>1815.862622483884</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A37" s="7">
+        <v>36</v>
+      </c>
+      <c r="B37" s="3">
+        <v>15.65814827984436</v>
+      </c>
+      <c r="C37" s="3">
+        <v>0.44525557167993912</v>
+      </c>
+      <c r="D37" s="3">
+        <v>677.68881747693729</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A38" s="7">
+        <v>37</v>
+      </c>
+      <c r="B38" s="3">
+        <v>18.406121922258571</v>
+      </c>
+      <c r="C38" s="3">
+        <v>0.5027179028566453</v>
+      </c>
+      <c r="D38" s="3">
+        <v>856.24168469966128</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A39" s="7">
+        <v>38</v>
+      </c>
+      <c r="B39" s="3">
+        <v>15.215832653054299</v>
+      </c>
+      <c r="C39" s="3">
+        <v>0.33723570057569402</v>
+      </c>
+      <c r="D39" s="3">
+        <v>502.134289661926</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A40" s="7">
+        <v>39</v>
+      </c>
+      <c r="B40" s="3">
+        <v>27.0519355859951</v>
+      </c>
+      <c r="C40" s="3">
+        <v>0.39399284856813699</v>
+      </c>
+      <c r="D40" s="3">
+        <v>1886.8551693097099</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A41" s="7">
+        <v>40</v>
+      </c>
+      <c r="B41" s="3">
+        <v>29.797671585362991</v>
+      </c>
+      <c r="C41" s="3">
+        <v>0.51239231928453799</v>
+      </c>
+      <c r="D41" s="3">
+        <v>1931.0873056131441</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A42" s="7">
+        <v>41</v>
+      </c>
+      <c r="B42" s="3">
+        <v>16.65479914312785</v>
+      </c>
+      <c r="C42" s="3">
+        <v>0.56038237823745407</v>
+      </c>
+      <c r="D42" s="3">
+        <v>569.82618452599286</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A43" s="7">
+        <v>42</v>
+      </c>
+      <c r="B43" s="3">
+        <v>15.32080467775018</v>
+      </c>
+      <c r="C43" s="3">
+        <v>0.53638670605035488</v>
+      </c>
+      <c r="D43" s="3">
+        <v>468.93612957412768</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A44" s="7">
+        <v>43</v>
+      </c>
+      <c r="B44" s="3">
+        <v>19.538516197944158</v>
+      </c>
+      <c r="C44" s="3">
+        <v>0.38562131922167442</v>
+      </c>
+      <c r="D44" s="3">
+        <v>951.09492836720381</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A45" s="7">
+        <v>44</v>
+      </c>
+      <c r="B45" s="3">
+        <v>18.602508980209631</v>
+      </c>
+      <c r="C45" s="3">
+        <v>0.51699685103726056</v>
+      </c>
+      <c r="D45" s="3">
+        <v>750.85066509931778</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A46" s="7">
+        <v>45</v>
+      </c>
+      <c r="B46" s="3">
+        <v>15.49392153413342</v>
+      </c>
+      <c r="C46" s="3">
+        <v>0.59322814650862976</v>
+      </c>
+      <c r="D46" s="3">
+        <v>440.15209825768142</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A47" s="7">
+        <v>46</v>
+      </c>
+      <c r="B47" s="3">
+        <v>16.92920855083721</v>
+      </c>
+      <c r="C47" s="3">
+        <v>0.49999840305899901</v>
+      </c>
+      <c r="D47" s="3">
+        <v>796.46652236824957</v>
+      </c>
+      <c r="H47" s="4"/>
+      <c r="I47" s="4"/>
+      <c r="J47" s="4"/>
+      <c r="K47" s="4"/>
+      <c r="L47" s="4"/>
+      <c r="M47" s="4"/>
+      <c r="N47" s="4"/>
+      <c r="O47" s="4"/>
+      <c r="P47" s="4"/>
+      <c r="Q47" s="4"/>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A48" s="7">
+        <v>47</v>
+      </c>
+      <c r="B48" s="8">
+        <v>14.53778451337055</v>
+      </c>
+      <c r="C48" s="8">
+        <v>0.46642471739523822</v>
+      </c>
+      <c r="D48" s="8">
+        <v>458.10461703179141</v>
+      </c>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
+      <c r="J48" s="4"/>
+      <c r="K48" s="4"/>
+      <c r="L48" s="4"/>
+      <c r="M48" s="4"/>
+      <c r="N48" s="4"/>
+      <c r="O48" s="4"/>
+      <c r="P48" s="4"/>
+      <c r="Q48" s="4"/>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A49" s="7">
+        <v>48</v>
+      </c>
+      <c r="B49" s="3">
+        <v>13.878625839706009</v>
+      </c>
+      <c r="C49" s="3">
+        <v>0.54588763098937321</v>
+      </c>
+      <c r="D49" s="3">
+        <v>376.18084784589979</v>
+      </c>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
+      <c r="J49" s="4"/>
+      <c r="K49" s="4"/>
+      <c r="L49" s="4"/>
+      <c r="M49" s="4"/>
+      <c r="N49" s="4"/>
+      <c r="O49" s="4"/>
+      <c r="P49" s="4"/>
+      <c r="Q49" s="4"/>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A50" s="7">
+        <v>49</v>
+      </c>
+      <c r="B50" s="4">
+        <v>17.289373791609101</v>
+      </c>
+      <c r="C50" s="4">
+        <v>0.44007302020617128</v>
+      </c>
+      <c r="D50" s="4">
+        <v>887.70732832040073</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A51" s="7">
+        <v>50</v>
+      </c>
+      <c r="B51" s="4">
+        <v>20.995381588760569</v>
+      </c>
+      <c r="C51" s="4">
+        <v>0.44465226755631609</v>
+      </c>
+      <c r="D51" s="4">
+        <v>1028.9304391862449</v>
+      </c>
+      <c r="G51" s="5"/>
+      <c r="H51" s="5"/>
+      <c r="I51" s="5"/>
+      <c r="J51" s="5"/>
+      <c r="K51" s="5"/>
+      <c r="L51" s="5"/>
+      <c r="M51" s="5"/>
+      <c r="N51" s="5"/>
+      <c r="O51" s="5"/>
+      <c r="P51" s="5"/>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A52" s="7">
+        <v>51</v>
+      </c>
+      <c r="B52" s="4">
+        <v>16.891590254226251</v>
+      </c>
+      <c r="C52" s="4">
+        <v>0.52503234210569116</v>
+      </c>
+      <c r="D52" s="4">
+        <v>638.97802857915713</v>
+      </c>
+      <c r="G52" s="5"/>
+      <c r="H52" s="5"/>
+      <c r="I52" s="5"/>
+      <c r="J52" s="5"/>
+      <c r="K52" s="5"/>
+      <c r="L52" s="5"/>
+      <c r="M52" s="5"/>
+      <c r="N52" s="5"/>
+      <c r="O52" s="5"/>
+      <c r="P52" s="5"/>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A53" s="7">
+        <v>52</v>
+      </c>
+      <c r="B53" s="4">
+        <v>13.61785450155881</v>
+      </c>
+      <c r="C53" s="4">
+        <v>0.3923712531911544</v>
+      </c>
+      <c r="D53" s="4">
+        <v>396.92975197419662</v>
+      </c>
+      <c r="G53" s="5"/>
+      <c r="H53" s="5"/>
+      <c r="I53" s="5"/>
+      <c r="J53" s="5"/>
+      <c r="K53" s="5"/>
+      <c r="L53" s="5"/>
+      <c r="M53" s="5"/>
+      <c r="N53" s="5"/>
+      <c r="O53" s="5"/>
+      <c r="P53" s="5"/>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A54" s="7">
+        <v>53</v>
+      </c>
+      <c r="B54" s="4">
+        <v>21.984216671501269</v>
+      </c>
+      <c r="C54" s="4">
+        <v>0.47861303984995129</v>
+      </c>
+      <c r="D54" s="4">
+        <v>1205.461291562111</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A55" s="7">
+        <v>54</v>
+      </c>
+      <c r="B55" s="4">
+        <v>21.559183179012258</v>
+      </c>
+      <c r="C55" s="4">
+        <v>0.4367423603182819</v>
+      </c>
+      <c r="D55" s="4">
+        <v>1320.316200248614</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A56" s="7">
+        <v>55</v>
+      </c>
+      <c r="B56" s="4">
+        <v>14.395162222733619</v>
+      </c>
+      <c r="C56" s="4">
+        <v>0.35351988030836468</v>
+      </c>
+      <c r="D56" s="4">
+        <v>456.81033605648599</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A57" s="7">
+        <v>56</v>
+      </c>
+      <c r="B57" s="4">
+        <v>15.666833832917</v>
+      </c>
+      <c r="C57" s="4">
+        <v>0.43165363505936699</v>
+      </c>
+      <c r="D57" s="4">
+        <v>734.27473809506091</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A58" s="7">
+        <v>57</v>
+      </c>
+      <c r="B58" s="4">
+        <v>17.271099060967401</v>
+      </c>
+      <c r="C58" s="4">
+        <v>0.41430740203007982</v>
+      </c>
+      <c r="D58" s="4">
+        <v>788.70976272175426</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A59" s="7">
+        <v>58</v>
+      </c>
+      <c r="B59" s="4">
+        <v>14.6707011425761</v>
+      </c>
+      <c r="C59" s="4">
+        <v>0.42292445848904459</v>
+      </c>
+      <c r="D59" s="4">
+        <v>491.72007316879262</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A60" s="7">
+        <v>59</v>
+      </c>
+      <c r="B60" s="4">
+        <v>14.630177664108921</v>
+      </c>
+      <c r="C60" s="4">
+        <v>0.58061399196202279</v>
+      </c>
+      <c r="D60" s="4">
+        <v>423.30548095550802</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A61" s="7">
+        <v>60</v>
+      </c>
+      <c r="B61" s="4">
+        <v>14.050029229373189</v>
+      </c>
+      <c r="C61" s="4">
+        <v>0.38641425607064361</v>
+      </c>
+      <c r="D61" s="4">
+        <v>636.66886132730463</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A62" s="7">
+        <v>61</v>
+      </c>
+      <c r="B62" s="4">
+        <v>20.031457644688881</v>
+      </c>
+      <c r="C62" s="4">
+        <v>0.47673452134095362</v>
+      </c>
+      <c r="D62" s="4">
+        <v>1012.466326529097</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A63" s="7">
+        <v>62</v>
+      </c>
+      <c r="B63" s="4">
+        <v>17.5119047138406</v>
+      </c>
+      <c r="C63" s="4">
+        <v>0.38799857641062402</v>
+      </c>
+      <c r="D63" s="4">
+        <v>744.98311622939298</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A64" s="7">
+        <v>63</v>
+      </c>
+      <c r="B64" s="4">
+        <v>15.8777828779087</v>
+      </c>
+      <c r="C64" s="4">
+        <v>0.523102696864302</v>
+      </c>
+      <c r="D64" s="4">
+        <v>552.51242305382095</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="7">
+        <v>64</v>
+      </c>
+      <c r="B65" s="4">
+        <v>17.767482769437841</v>
+      </c>
+      <c r="C65" s="4">
+        <v>0.51133357820117609</v>
+      </c>
+      <c r="D65" s="4">
+        <v>716.64890340435738</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="7">
+        <v>65</v>
+      </c>
+      <c r="B66" s="4">
+        <v>14.723173377546059</v>
+      </c>
+      <c r="C66" s="4">
+        <v>0.40197578041640419</v>
+      </c>
+      <c r="D66" s="4">
+        <v>598.00512954951193</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="7">
+        <v>66</v>
+      </c>
+      <c r="B67" s="4">
+        <v>18.308998881593709</v>
+      </c>
+      <c r="C67" s="4">
+        <v>0.60096406006980974</v>
+      </c>
+      <c r="D67" s="4">
+        <v>681.98781308930018</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="7">
+        <v>67</v>
+      </c>
+      <c r="B68" s="4">
+        <v>13.72648743363025</v>
+      </c>
+      <c r="C68" s="4">
+        <v>0.57798245136577231</v>
+      </c>
+      <c r="D68" s="4">
+        <v>345.08829055065769</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="7">
+        <v>68</v>
+      </c>
+      <c r="B69" s="4">
+        <v>10.98608999035083</v>
+      </c>
+      <c r="C69" s="4">
+        <v>0.46298989682273939</v>
+      </c>
+      <c r="D69" s="4">
+        <v>214.86038049290261</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="7">
+        <v>69</v>
+      </c>
+      <c r="B70" s="5">
+        <v>19.18217627541857</v>
+      </c>
+      <c r="C70" s="5">
+        <v>0.42270306742821478</v>
+      </c>
+      <c r="D70" s="5">
+        <v>826.45202100675237</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="7">
+        <v>70</v>
+      </c>
+      <c r="B71" s="5">
+        <v>18.10133329864534</v>
+      </c>
+      <c r="C71" s="5">
+        <v>0.57279093187572683</v>
+      </c>
+      <c r="D71" s="5">
+        <v>663.76306042415047</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="7">
+        <v>71</v>
+      </c>
+      <c r="B72" s="5">
+        <v>18.7242229488972</v>
+      </c>
+      <c r="C72" s="5">
+        <v>0.40104236816324201</v>
+      </c>
+      <c r="D72" s="5">
+        <v>953.38885702221398</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="7">
+        <v>72</v>
+      </c>
+      <c r="B73" s="5">
+        <v>15.060520479151901</v>
+      </c>
+      <c r="C73" s="5">
+        <v>0.42641172768150798</v>
+      </c>
+      <c r="D73" s="5">
+        <v>486.35180532588902</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="7">
+        <v>73</v>
+      </c>
+      <c r="B74" s="5">
+        <v>15.046953358014459</v>
+      </c>
+      <c r="C74" s="5">
+        <v>0.43279144368936401</v>
+      </c>
+      <c r="D74" s="5">
+        <v>536.27299341169874</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="7">
+        <v>74</v>
+      </c>
+      <c r="B75" s="5">
+        <v>16.821936047762499</v>
+      </c>
+      <c r="C75" s="5">
+        <v>0.39023981792939222</v>
+      </c>
+      <c r="D75" s="5">
+        <v>643.20902740982194</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="7">
+        <v>75</v>
+      </c>
+      <c r="B76" s="5">
+        <v>14.6446789286259</v>
+      </c>
+      <c r="C76" s="5">
+        <v>0.62700559634517505</v>
+      </c>
+      <c r="D76" s="5">
+        <v>431.57844408828601</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="7">
+        <v>76</v>
+      </c>
+      <c r="B77" s="5">
+        <v>24.715600951377191</v>
+      </c>
+      <c r="C77" s="5">
+        <v>0.39201828877698192</v>
+      </c>
+      <c r="D77" s="5">
+        <v>1317.7667941369391</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="7">
+        <v>77</v>
+      </c>
+      <c r="B78" s="5">
+        <v>12.907185544608399</v>
+      </c>
+      <c r="C78" s="5">
+        <v>0.55268171994910398</v>
+      </c>
+      <c r="D78" s="5">
+        <v>295.07061913058902</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="7">
+        <v>78</v>
+      </c>
+      <c r="B79" s="5">
+        <v>20.49874200028237</v>
+      </c>
+      <c r="C79" s="5">
+        <v>0.49213331706442581</v>
+      </c>
+      <c r="D79" s="5">
+        <v>930.87538365229375</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="7">
+        <v>79</v>
+      </c>
+      <c r="B80" s="5">
+        <v>18.634307973818171</v>
+      </c>
+      <c r="C80" s="5">
+        <v>0.56917657602183269</v>
+      </c>
+      <c r="D80" s="5">
+        <v>694.96757431569233</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="7">
+        <v>80</v>
+      </c>
+      <c r="B81" s="5">
+        <v>14.431379349301279</v>
+      </c>
+      <c r="C81" s="5">
+        <v>0.35344648707886939</v>
+      </c>
+      <c r="D81" s="5">
+        <v>455.91635885615722</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="7">
+        <v>81</v>
+      </c>
+      <c r="B82" s="5">
+        <v>21.955557959774701</v>
+      </c>
+      <c r="C82" s="5">
+        <v>0.41434899671416298</v>
+      </c>
+      <c r="D82" s="5">
+        <v>1392.4946228761601</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="7">
+        <v>82</v>
+      </c>
+      <c r="B83" s="5">
+        <v>28.330595645364099</v>
+      </c>
+      <c r="C83" s="5">
+        <v>0.62896962985032301</v>
+      </c>
+      <c r="D83" s="5">
+        <v>1518.52514740835</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="7">
+        <v>83</v>
+      </c>
+      <c r="B84" s="5">
+        <v>22.736767377908709</v>
+      </c>
+      <c r="C84" s="5">
+        <v>0.39158503174320791</v>
+      </c>
+      <c r="D84" s="5">
+        <v>1181.3918839774119</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="7">
+        <v>84</v>
+      </c>
+      <c r="B85" s="5">
+        <v>22.969114845099838</v>
+      </c>
+      <c r="C85" s="5">
+        <v>0.5697723382123594</v>
+      </c>
+      <c r="D85" s="5">
+        <v>1129.355733785806</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="7">
+        <v>85</v>
+      </c>
+      <c r="B86" s="5">
+        <v>14.11642476210268</v>
+      </c>
+      <c r="C86" s="5">
+        <v>0.63887880408818309</v>
+      </c>
+      <c r="D86" s="5">
+        <v>331.60215741045789</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="7">
+        <v>86</v>
+      </c>
+      <c r="B87" s="5">
+        <v>14.690952690271001</v>
+      </c>
+      <c r="C87" s="5">
+        <v>0.47002864874335798</v>
+      </c>
+      <c r="D87" s="5">
+        <v>688.60793217038201</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="7">
+        <v>87</v>
+      </c>
+      <c r="B88" s="5">
+        <v>16.340055120908509</v>
+      </c>
+      <c r="C88" s="5">
+        <v>0.47549942632609338</v>
+      </c>
+      <c r="D88" s="5">
+        <v>579.21347874999276</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="7">
+        <v>88</v>
+      </c>
+      <c r="B89" s="5">
+        <v>20.457389060201631</v>
+      </c>
+      <c r="C89" s="5">
+        <v>0.41802695224483949</v>
+      </c>
+      <c r="D89" s="5">
+        <v>974.4097335410147</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="7">
+        <v>89</v>
+      </c>
+      <c r="B90" s="5">
+        <v>13.71490249683692</v>
+      </c>
+      <c r="C90" s="5">
+        <v>0.42200765822646052</v>
+      </c>
+      <c r="D90" s="5">
+        <v>421.01345481137781</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="7">
+        <v>90</v>
+      </c>
+      <c r="B91" s="5">
+        <v>21.517169132175081</v>
+      </c>
+      <c r="C91" s="5">
+        <v>0.42678954907633981</v>
+      </c>
+      <c r="D91" s="5">
+        <v>1089.896214207396</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="7">
+        <v>91</v>
+      </c>
+      <c r="B92" s="5">
+        <v>18.251804938536502</v>
+      </c>
+      <c r="C92" s="5">
+        <v>0.45561018399740699</v>
+      </c>
+      <c r="D92" s="5">
+        <v>701.92529063629695</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="7">
+        <v>92</v>
+      </c>
+      <c r="B93" s="5">
+        <v>17.103687532869149</v>
+      </c>
+      <c r="C93" s="5">
+        <v>0.42561545380866689</v>
+      </c>
+      <c r="D93" s="5">
+        <v>697.74809402351514</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="7">
+        <v>93</v>
+      </c>
+      <c r="B94" s="5">
+        <v>20.18757875256436</v>
+      </c>
+      <c r="C94" s="5">
+        <v>0.34963523511051942</v>
+      </c>
+      <c r="D94" s="5">
+        <v>1185.90501392651</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="7">
+        <v>94</v>
+      </c>
+      <c r="B95" s="8">
+        <v>13.831790295342101</v>
+      </c>
+      <c r="C95" s="8">
+        <v>0.49403336202207598</v>
+      </c>
+      <c r="D95" s="8">
+        <v>415.47978149083099</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="7">
+        <v>95</v>
+      </c>
+      <c r="B96" s="5">
+        <v>16.236818187793322</v>
+      </c>
+      <c r="C96" s="5">
+        <v>0.48815863862967351</v>
+      </c>
+      <c r="D96" s="5">
+        <v>748.16783298256496</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="7">
+        <v>96</v>
+      </c>
+      <c r="B97" s="5">
+        <v>13.69875275656325</v>
+      </c>
+      <c r="C97" s="5">
+        <v>0.35490842553601232</v>
+      </c>
+      <c r="D97" s="5">
+        <v>417.3205412152746</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="7">
+        <v>97</v>
+      </c>
+      <c r="B98" s="5">
+        <v>19.817429323072439</v>
+      </c>
+      <c r="C98" s="5">
+        <v>0.40058502501418042</v>
+      </c>
+      <c r="D98" s="5">
+        <v>835.69893450782979</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="7">
+        <v>98</v>
+      </c>
+      <c r="B99" s="5">
+        <v>13.908041017914689</v>
+      </c>
+      <c r="C99" s="5">
+        <v>0.50822022997454686</v>
+      </c>
+      <c r="D99" s="5">
+        <v>408.17816718688613</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="7">
+        <v>99</v>
+      </c>
+      <c r="B100">
+        <v>14.53454929675793</v>
+      </c>
+      <c r="C100">
+        <v>0.41685185252894191</v>
+      </c>
+      <c r="D100">
+        <v>478.83448315209728</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101">
+        <v>15.5473433417064</v>
+      </c>
+      <c r="C101" s="7">
+        <v>0.54473925583224503</v>
+      </c>
+      <c r="D101" s="7">
+        <v>536.39567927469705</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:D102">
+    <sortCondition ref="A1"/>
+  </sortState>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B5400D3-04D7-4EA0-A25A-18B610F39CF4}">
   <dimension ref="A1:D102"/>
   <sheetViews>
@@ -4527,1459 +9971,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A98F3469-9E37-4672-9697-BBA196A398D4}">
-  <dimension ref="A1:D102"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="T58" sqref="I48:T58"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>15.67985028891275</v>
-      </c>
-      <c r="C2">
-        <v>0.41443892796648613</v>
-      </c>
-      <c r="D2">
-        <v>660.00856706302648</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>16.43741601312913</v>
-      </c>
-      <c r="C3">
-        <v>0.4632823365703706</v>
-      </c>
-      <c r="D3">
-        <v>644.63920199105314</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>15.48337202941623</v>
-      </c>
-      <c r="C4">
-        <v>0.35650837986054429</v>
-      </c>
-      <c r="D4">
-        <v>649.28870015049768</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>15.142572430638239</v>
-      </c>
-      <c r="C5">
-        <v>0.36890316337238088</v>
-      </c>
-      <c r="D5">
-        <v>569.22563454330964</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>16.40110705491136</v>
-      </c>
-      <c r="C6">
-        <v>0.37813232187406109</v>
-      </c>
-      <c r="D6">
-        <v>705.98603667558507</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>17.68949429734657</v>
-      </c>
-      <c r="C7">
-        <v>0.3554068792913736</v>
-      </c>
-      <c r="D7">
-        <v>816.47226729520696</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>15.306633703059561</v>
-      </c>
-      <c r="C8">
-        <v>0.38197620230117513</v>
-      </c>
-      <c r="D8">
-        <v>583.27345949821961</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="8">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>15.16572977690052</v>
-      </c>
-      <c r="C9">
-        <v>0.39287267479845672</v>
-      </c>
-      <c r="D9">
-        <v>597.39057740678663</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>14.748790530185881</v>
-      </c>
-      <c r="C10">
-        <v>0.38391702096596408</v>
-      </c>
-      <c r="D10">
-        <v>513.92234453772517</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="8">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>16.302268797002469</v>
-      </c>
-      <c r="C11">
-        <v>0.3381892382606615</v>
-      </c>
-      <c r="D11">
-        <v>618.42703243023448</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="8">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>16.826099115327061</v>
-      </c>
-      <c r="C12">
-        <v>0.38675106184803709</v>
-      </c>
-      <c r="D12">
-        <v>725.35513522249971</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="8">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>14.76996196173592</v>
-      </c>
-      <c r="C13">
-        <v>0.38506032418983738</v>
-      </c>
-      <c r="D13">
-        <v>481.69343954807408</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="8">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>16.088498882846881</v>
-      </c>
-      <c r="C14">
-        <v>0.40430975442478562</v>
-      </c>
-      <c r="D14">
-        <v>687.44579940192727</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="8">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <v>17.30162946566109</v>
-      </c>
-      <c r="C15">
-        <v>0.56188545929304456</v>
-      </c>
-      <c r="D15">
-        <v>736.61717732388377</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="8">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>16.598652779613449</v>
-      </c>
-      <c r="C16">
-        <v>0.47928232518985642</v>
-      </c>
-      <c r="D16">
-        <v>688.45869897745081</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="8">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>16.637350837092189</v>
-      </c>
-      <c r="C17">
-        <v>0.48043994556654063</v>
-      </c>
-      <c r="D17">
-        <v>656.33833756436093</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="8">
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <v>14.539568518476839</v>
-      </c>
-      <c r="C18">
-        <v>0.40028743025401059</v>
-      </c>
-      <c r="D18">
-        <v>490.4956433030863</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="8">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <v>18.126475535436029</v>
-      </c>
-      <c r="C19">
-        <v>0.38276355342242141</v>
-      </c>
-      <c r="D19">
-        <v>863.32868431264478</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="8">
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <v>16.548133942139351</v>
-      </c>
-      <c r="C20">
-        <v>0.38756657666477801</v>
-      </c>
-      <c r="D20">
-        <v>660.44231128455112</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="8">
-        <v>20</v>
-      </c>
-      <c r="B21">
-        <v>16.233913053742569</v>
-      </c>
-      <c r="C21">
-        <v>0.46760688885332607</v>
-      </c>
-      <c r="D21">
-        <v>602.06970962430159</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="8">
-        <v>21</v>
-      </c>
-      <c r="B22">
-        <v>17.558765173894152</v>
-      </c>
-      <c r="C22">
-        <v>0.39421567740903107</v>
-      </c>
-      <c r="D22">
-        <v>819.61614922604417</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="8">
-        <v>22</v>
-      </c>
-      <c r="B23">
-        <v>17.326072729853149</v>
-      </c>
-      <c r="C23">
-        <v>0.43745746031164029</v>
-      </c>
-      <c r="D23">
-        <v>682.23034777417411</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="8">
-        <v>23</v>
-      </c>
-      <c r="B24">
-        <v>16.920961266277288</v>
-      </c>
-      <c r="C24">
-        <v>0.42597926682706511</v>
-      </c>
-      <c r="D24">
-        <v>721.21726600315549</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="8">
-        <v>24</v>
-      </c>
-      <c r="B25">
-        <v>17.006274880498871</v>
-      </c>
-      <c r="C25">
-        <v>0.44193765016374148</v>
-      </c>
-      <c r="D25">
-        <v>681.32006572829971</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="8">
-        <v>25</v>
-      </c>
-      <c r="B26">
-        <v>17.01595481043465</v>
-      </c>
-      <c r="C26">
-        <v>0.44800706145441188</v>
-      </c>
-      <c r="D26">
-        <v>735.27491228423082</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="8">
-        <v>26</v>
-      </c>
-      <c r="B27">
-        <v>15.15711858304506</v>
-      </c>
-      <c r="C27">
-        <v>0.439590310987793</v>
-      </c>
-      <c r="D27">
-        <v>507.22642579086857</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="8">
-        <v>27</v>
-      </c>
-      <c r="B28">
-        <v>18.173537731128679</v>
-      </c>
-      <c r="C28">
-        <v>0.47042116975004589</v>
-      </c>
-      <c r="D28">
-        <v>804.59412592218496</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="8">
-        <v>28</v>
-      </c>
-      <c r="B29">
-        <v>17.96373483931281</v>
-      </c>
-      <c r="C29">
-        <v>0.41975115082508913</v>
-      </c>
-      <c r="D29">
-        <v>761.52175898961013</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="8">
-        <v>29</v>
-      </c>
-      <c r="B30">
-        <v>15.608450758004279</v>
-      </c>
-      <c r="C30">
-        <v>0.39106477947208268</v>
-      </c>
-      <c r="D30">
-        <v>601.26730598692154</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="8">
-        <v>30</v>
-      </c>
-      <c r="B31">
-        <v>17.355855202841131</v>
-      </c>
-      <c r="C31">
-        <v>0.36787665207774972</v>
-      </c>
-      <c r="D31">
-        <v>859.79886232438253</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="8">
-        <v>31</v>
-      </c>
-      <c r="B32">
-        <v>15.5929631240085</v>
-      </c>
-      <c r="C32">
-        <v>0.3801376201037262</v>
-      </c>
-      <c r="D32">
-        <v>595.62455316851003</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="8">
-        <v>32</v>
-      </c>
-      <c r="B33">
-        <v>16.26902779266916</v>
-      </c>
-      <c r="C33">
-        <v>0.38050158813108109</v>
-      </c>
-      <c r="D33">
-        <v>674.42680178367868</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="8">
-        <v>33</v>
-      </c>
-      <c r="B34">
-        <v>16.217775215923659</v>
-      </c>
-      <c r="C34">
-        <v>0.43743414095744282</v>
-      </c>
-      <c r="D34">
-        <v>607.26880108483351</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="8">
-        <v>34</v>
-      </c>
-      <c r="B35">
-        <v>16.3212338237783</v>
-      </c>
-      <c r="C35">
-        <v>0.36541552090092572</v>
-      </c>
-      <c r="D35">
-        <v>681.57918996482158</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="8">
-        <v>35</v>
-      </c>
-      <c r="B36">
-        <v>17.04663387283999</v>
-      </c>
-      <c r="C36">
-        <v>0.40494362327003502</v>
-      </c>
-      <c r="D36">
-        <v>703.73629578546115</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="8">
-        <v>36</v>
-      </c>
-      <c r="B37">
-        <v>16.547333398276969</v>
-      </c>
-      <c r="C37">
-        <v>0.44645297663514011</v>
-      </c>
-      <c r="D37">
-        <v>672.68904532754732</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="8">
-        <v>37</v>
-      </c>
-      <c r="B38">
-        <v>16.495602712729539</v>
-      </c>
-      <c r="C38">
-        <v>0.37771893754858382</v>
-      </c>
-      <c r="D38">
-        <v>703.69560469912437</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="8">
-        <v>38</v>
-      </c>
-      <c r="B39">
-        <v>16.959992323416351</v>
-      </c>
-      <c r="C39">
-        <v>0.40031281551769721</v>
-      </c>
-      <c r="D39">
-        <v>758.39210564282655</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="8">
-        <v>39</v>
-      </c>
-      <c r="B40">
-        <v>17.128601004114731</v>
-      </c>
-      <c r="C40">
-        <v>0.46021073361907727</v>
-      </c>
-      <c r="D40">
-        <v>686.19381042349698</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="8">
-        <v>40</v>
-      </c>
-      <c r="B41">
-        <v>14.88754211655254</v>
-      </c>
-      <c r="C41">
-        <v>0.39623149178244421</v>
-      </c>
-      <c r="D41">
-        <v>512.32939830257601</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="8">
-        <v>41</v>
-      </c>
-      <c r="B42">
-        <v>14.536325869788801</v>
-      </c>
-      <c r="C42">
-        <v>0.38619919253522561</v>
-      </c>
-      <c r="D42">
-        <v>527.93579741766086</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="8">
-        <v>42</v>
-      </c>
-      <c r="B43">
-        <v>16.16457996245493</v>
-      </c>
-      <c r="C43">
-        <v>0.47767334862442012</v>
-      </c>
-      <c r="D43">
-        <v>590.96417492234718</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="8">
-        <v>43</v>
-      </c>
-      <c r="B44">
-        <v>16.92358643603816</v>
-      </c>
-      <c r="C44">
-        <v>0.41259262872145541</v>
-      </c>
-      <c r="D44">
-        <v>745.5142159974265</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="8">
-        <v>44</v>
-      </c>
-      <c r="B45">
-        <v>16.98472837176849</v>
-      </c>
-      <c r="C45">
-        <v>0.49225901456711407</v>
-      </c>
-      <c r="D45">
-        <v>644.81398828717488</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="8">
-        <v>45</v>
-      </c>
-      <c r="B46">
-        <v>17.208191620909659</v>
-      </c>
-      <c r="C46">
-        <v>0.34818601597449472</v>
-      </c>
-      <c r="D46">
-        <v>730.84277790677845</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="8">
-        <v>46</v>
-      </c>
-      <c r="B47">
-        <v>15.677206373328801</v>
-      </c>
-      <c r="C47">
-        <v>0.33215263351187241</v>
-      </c>
-      <c r="D47">
-        <v>632.52314008070971</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="8">
-        <v>47</v>
-      </c>
-      <c r="B48">
-        <v>16.234701418814989</v>
-      </c>
-      <c r="C48">
-        <v>0.3822394051879997</v>
-      </c>
-      <c r="D48">
-        <v>688.6781240467659</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="8">
-        <v>48</v>
-      </c>
-      <c r="B49">
-        <v>16.70892059661664</v>
-      </c>
-      <c r="C49">
-        <v>0.41657645264656989</v>
-      </c>
-      <c r="D49">
-        <v>700.14010479411843</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="8">
-        <v>49</v>
-      </c>
-      <c r="B50">
-        <v>15.57185120485692</v>
-      </c>
-      <c r="C50">
-        <v>0.41457816903502542</v>
-      </c>
-      <c r="D50">
-        <v>596.38126706778007</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="8">
-        <v>50</v>
-      </c>
-      <c r="B51">
-        <v>17.438890535647051</v>
-      </c>
-      <c r="C51">
-        <v>0.50842052694661144</v>
-      </c>
-      <c r="D51">
-        <v>706.82715526293384</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="8">
-        <v>51</v>
-      </c>
-      <c r="B52">
-        <v>15.32210892266562</v>
-      </c>
-      <c r="C52">
-        <v>0.40374164197774493</v>
-      </c>
-      <c r="D52">
-        <v>629.33771819425169</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="8">
-        <v>52</v>
-      </c>
-      <c r="B53" s="6">
-        <v>13.89076694095535</v>
-      </c>
-      <c r="C53" s="6">
-        <v>0.3478710998111022</v>
-      </c>
-      <c r="D53" s="6">
-        <v>498.73243829494868</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="8">
-        <v>53</v>
-      </c>
-      <c r="B54" s="6">
-        <v>16.04751944014329</v>
-      </c>
-      <c r="C54" s="6">
-        <v>0.39936246046791901</v>
-      </c>
-      <c r="D54" s="6">
-        <v>691.16405244949533</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="8">
-        <v>54</v>
-      </c>
-      <c r="B55" s="6">
-        <v>15.779619100534109</v>
-      </c>
-      <c r="C55" s="6">
-        <v>0.43434653724467109</v>
-      </c>
-      <c r="D55" s="6">
-        <v>601.97315843235367</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="8">
-        <v>55</v>
-      </c>
-      <c r="B56" s="6">
-        <v>17.11227793064592</v>
-      </c>
-      <c r="C56" s="6">
-        <v>0.40955494290174937</v>
-      </c>
-      <c r="D56" s="6">
-        <v>705.94584452658876</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="8">
-        <v>56</v>
-      </c>
-      <c r="B57" s="6">
-        <v>15.73825061786015</v>
-      </c>
-      <c r="C57" s="6">
-        <v>0.37723378097318688</v>
-      </c>
-      <c r="D57" s="6">
-        <v>624.71446579963208</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="8">
-        <v>57</v>
-      </c>
-      <c r="B58" s="6">
-        <v>16.804342799042509</v>
-      </c>
-      <c r="C58" s="6">
-        <v>0.41530238507532002</v>
-      </c>
-      <c r="D58" s="6">
-        <v>714.7938241227738</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="8">
-        <v>58</v>
-      </c>
-      <c r="B59" s="6">
-        <v>18.371342053013031</v>
-      </c>
-      <c r="C59" s="6">
-        <v>0.47962944697847398</v>
-      </c>
-      <c r="D59" s="6">
-        <v>791.2167782128065</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="8">
-        <v>59</v>
-      </c>
-      <c r="B60" s="6">
-        <v>17.43815071927213</v>
-      </c>
-      <c r="C60" s="6">
-        <v>0.37645618264195319</v>
-      </c>
-      <c r="D60" s="6">
-        <v>789.69085820918133</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="8">
-        <v>60</v>
-      </c>
-      <c r="B61" s="6">
-        <v>16.782171265312488</v>
-      </c>
-      <c r="C61" s="6">
-        <v>0.41468161674332299</v>
-      </c>
-      <c r="D61" s="6">
-        <v>668.1365615197351</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="8">
-        <v>61</v>
-      </c>
-      <c r="B62" s="7">
-        <v>15.64900676200236</v>
-      </c>
-      <c r="C62" s="7">
-        <v>0.37679510485115719</v>
-      </c>
-      <c r="D62" s="7">
-        <v>609.26967397801684</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="8">
-        <v>62</v>
-      </c>
-      <c r="B63" s="7">
-        <v>16.307807020652749</v>
-      </c>
-      <c r="C63" s="7">
-        <v>0.43359464122350411</v>
-      </c>
-      <c r="D63" s="7">
-        <v>713.01384080067908</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="8">
-        <v>63</v>
-      </c>
-      <c r="B64" s="7">
-        <v>18.064148771525161</v>
-      </c>
-      <c r="C64" s="7">
-        <v>0.5353999530434328</v>
-      </c>
-      <c r="D64" s="7">
-        <v>790.34277895661467</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="8">
-        <v>64</v>
-      </c>
-      <c r="B65" s="7">
-        <v>18.301058175818831</v>
-      </c>
-      <c r="C65" s="7">
-        <v>0.4948234093668521</v>
-      </c>
-      <c r="D65" s="7">
-        <v>770.27131797106642</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="8">
-        <v>65</v>
-      </c>
-      <c r="B66" s="7">
-        <v>17.519227792334078</v>
-      </c>
-      <c r="C66" s="7">
-        <v>0.42578535045194132</v>
-      </c>
-      <c r="D66" s="7">
-        <v>815.19438765812515</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="8">
-        <v>66</v>
-      </c>
-      <c r="B67" s="7">
-        <v>16.823239465228671</v>
-      </c>
-      <c r="C67" s="7">
-        <v>0.47630644132180272</v>
-      </c>
-      <c r="D67" s="7">
-        <v>747.33006487887803</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="8">
-        <v>67</v>
-      </c>
-      <c r="B68" s="7">
-        <v>19.079189123999111</v>
-      </c>
-      <c r="C68" s="7">
-        <v>0.42890460930217172</v>
-      </c>
-      <c r="D68" s="7">
-        <v>974.36103279658118</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="8">
-        <v>68</v>
-      </c>
-      <c r="B69" s="7">
-        <v>18.511727048216301</v>
-      </c>
-      <c r="C69" s="7">
-        <v>0.4911533538849881</v>
-      </c>
-      <c r="D69" s="7">
-        <v>823.13509702423733</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="8">
-        <v>69</v>
-      </c>
-      <c r="B70" s="7">
-        <v>15.168017621192689</v>
-      </c>
-      <c r="C70" s="7">
-        <v>0.37814216203141782</v>
-      </c>
-      <c r="D70" s="7">
-        <v>599.83293145013249</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="8">
-        <v>70</v>
-      </c>
-      <c r="B71" s="7">
-        <v>13.90844385104848</v>
-      </c>
-      <c r="C71" s="7">
-        <v>0.35724968152108921</v>
-      </c>
-      <c r="D71" s="7">
-        <v>477.9484552263857</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="8">
-        <v>71</v>
-      </c>
-      <c r="B72" s="7">
-        <v>17.27210055036144</v>
-      </c>
-      <c r="C72" s="7">
-        <v>0.33530038542408941</v>
-      </c>
-      <c r="D72" s="7">
-        <v>860.92987767115585</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="8">
-        <v>72</v>
-      </c>
-      <c r="B73" s="7">
-        <v>15.070790409612989</v>
-      </c>
-      <c r="C73" s="7">
-        <v>0.35291107538935451</v>
-      </c>
-      <c r="D73" s="7">
-        <v>704.38099474460921</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="8">
-        <v>73</v>
-      </c>
-      <c r="B74" s="7">
-        <v>17.42122485911025</v>
-      </c>
-      <c r="C74" s="7">
-        <v>0.40665590290054809</v>
-      </c>
-      <c r="D74" s="7">
-        <v>734.80109282248884</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="8">
-        <v>74</v>
-      </c>
-      <c r="B75" s="7">
-        <v>16.934056447192159</v>
-      </c>
-      <c r="C75" s="7">
-        <v>0.36522783330823</v>
-      </c>
-      <c r="D75" s="7">
-        <v>730.09693351321289</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="8">
-        <v>75</v>
-      </c>
-      <c r="B76" s="7">
-        <v>18.52479982992115</v>
-      </c>
-      <c r="C76" s="7">
-        <v>0.47188832559634047</v>
-      </c>
-      <c r="D76" s="7">
-        <v>826.10001618419369</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="8">
-        <v>76</v>
-      </c>
-      <c r="B77" s="7">
-        <v>16.580825957445651</v>
-      </c>
-      <c r="C77" s="7">
-        <v>0.46847214858017161</v>
-      </c>
-      <c r="D77" s="7">
-        <v>634.94200626727832</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="8">
-        <v>77</v>
-      </c>
-      <c r="B78" s="8">
-        <v>17.06268014122935</v>
-      </c>
-      <c r="C78" s="8">
-        <v>0.5252968944142099</v>
-      </c>
-      <c r="D78" s="8">
-        <v>716.73818275298379</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="8">
-        <v>78</v>
-      </c>
-      <c r="B79" s="8">
-        <v>16.606672438556011</v>
-      </c>
-      <c r="C79" s="8">
-        <v>0.38003746579914</v>
-      </c>
-      <c r="D79" s="8">
-        <v>770.57678189543981</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="8">
-        <v>79</v>
-      </c>
-      <c r="B80" s="8">
-        <v>14.84916482042952</v>
-      </c>
-      <c r="C80" s="8">
-        <v>0.32982145157463172</v>
-      </c>
-      <c r="D80" s="8">
-        <v>543.99976505388781</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="8">
-        <v>80</v>
-      </c>
-      <c r="B81" s="8">
-        <v>16.923955379168969</v>
-      </c>
-      <c r="C81" s="8">
-        <v>0.46934567326186333</v>
-      </c>
-      <c r="D81" s="8">
-        <v>702.69089485866107</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="8">
-        <v>81</v>
-      </c>
-      <c r="B82" s="8">
-        <v>17.942858737071621</v>
-      </c>
-      <c r="C82" s="8">
-        <v>0.47111303661177523</v>
-      </c>
-      <c r="D82" s="8">
-        <v>822.52907901314256</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="8">
-        <v>82</v>
-      </c>
-      <c r="B83" s="8">
-        <v>17.717293109028279</v>
-      </c>
-      <c r="C83" s="8">
-        <v>0.39502655087691602</v>
-      </c>
-      <c r="D83" s="8">
-        <v>848.30019831607569</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="8">
-        <v>83</v>
-      </c>
-      <c r="B84" s="8">
-        <v>16.436900894527529</v>
-      </c>
-      <c r="C84" s="8">
-        <v>0.38075421456748437</v>
-      </c>
-      <c r="D84" s="8">
-        <v>716.4120219791464</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="8">
-        <v>84</v>
-      </c>
-      <c r="B85" s="8">
-        <v>17.77854036344257</v>
-      </c>
-      <c r="C85" s="8">
-        <v>0.56361169917779319</v>
-      </c>
-      <c r="D85" s="8">
-        <v>700.93204425950898</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="8">
-        <v>85</v>
-      </c>
-      <c r="B86" s="8">
-        <v>18.381750347372879</v>
-      </c>
-      <c r="C86" s="8">
-        <v>0.42351001450658199</v>
-      </c>
-      <c r="D86" s="8">
-        <v>987.18010636793292</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="8">
-        <v>86</v>
-      </c>
-      <c r="B87" s="8">
-        <v>17.015261484747452</v>
-      </c>
-      <c r="C87" s="8">
-        <v>0.37125414208462121</v>
-      </c>
-      <c r="D87" s="8">
-        <v>713.2087495957885</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="8">
-        <v>87</v>
-      </c>
-      <c r="B88" s="8">
-        <v>18.577994964537279</v>
-      </c>
-      <c r="C88" s="8">
-        <v>0.45404497009167788</v>
-      </c>
-      <c r="D88" s="8">
-        <v>879.80724047840374</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="8">
-        <v>88</v>
-      </c>
-      <c r="B89" s="8">
-        <v>16.998495011619411</v>
-      </c>
-      <c r="C89" s="8">
-        <v>0.44236347944705418</v>
-      </c>
-      <c r="D89" s="8">
-        <v>664.473427622028</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="8">
-        <v>89</v>
-      </c>
-      <c r="B90" s="8">
-        <v>16.907621798165788</v>
-      </c>
-      <c r="C90" s="8">
-        <v>0.4254144503411042</v>
-      </c>
-      <c r="D90" s="8">
-        <v>737.12541844798182</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="8">
-        <v>90</v>
-      </c>
-      <c r="B91" s="8">
-        <v>15.383206035619629</v>
-      </c>
-      <c r="C91" s="8">
-        <v>0.40750123454330278</v>
-      </c>
-      <c r="D91" s="8">
-        <v>600.04168720748123</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" s="8">
-        <v>91</v>
-      </c>
-      <c r="B92" s="8">
-        <v>16.916182833562232</v>
-      </c>
-      <c r="C92" s="8">
-        <v>0.4475519414652594</v>
-      </c>
-      <c r="D92" s="8">
-        <v>643.25673132990596</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="8">
-        <v>92</v>
-      </c>
-      <c r="B93" s="8">
-        <v>16.699626876141469</v>
-      </c>
-      <c r="C93" s="8">
-        <v>0.41521845344995828</v>
-      </c>
-      <c r="D93" s="8">
-        <v>747.88029741864159</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="8">
-        <v>93</v>
-      </c>
-      <c r="B94" s="8">
-        <v>18.241206662516969</v>
-      </c>
-      <c r="C94" s="8">
-        <v>0.45134807267673538</v>
-      </c>
-      <c r="D94" s="8">
-        <v>851.12970819164821</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="8">
-        <v>94</v>
-      </c>
-      <c r="B95" s="8">
-        <v>16.574575111914971</v>
-      </c>
-      <c r="C95" s="8">
-        <v>0.41935339027643181</v>
-      </c>
-      <c r="D95" s="8">
-        <v>648.13130045787955</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" s="8">
-        <v>95</v>
-      </c>
-      <c r="B96" s="8">
-        <v>16.37123359294382</v>
-      </c>
-      <c r="C96" s="8">
-        <v>0.41198038346534382</v>
-      </c>
-      <c r="D96" s="8">
-        <v>645.14885820989048</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="8">
-        <v>96</v>
-      </c>
-      <c r="B97" s="8">
-        <v>17.21931965809905</v>
-      </c>
-      <c r="C97" s="8">
-        <v>0.46079355472315608</v>
-      </c>
-      <c r="D97" s="8">
-        <v>706.21623926102518</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="8">
-        <v>97</v>
-      </c>
-      <c r="B98" s="8">
-        <v>16.803445501469181</v>
-      </c>
-      <c r="C98" s="8">
-        <v>0.42231881894554141</v>
-      </c>
-      <c r="D98" s="8">
-        <v>709.54891961143608</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="8">
-        <v>98</v>
-      </c>
-      <c r="B99" s="8">
-        <v>16.637465455526321</v>
-      </c>
-      <c r="C99" s="8">
-        <v>0.47958087442783548</v>
-      </c>
-      <c r="D99" s="8">
-        <v>632.68130004317527</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="8">
-        <v>99</v>
-      </c>
-      <c r="B100" s="8">
-        <v>16.389756517296469</v>
-      </c>
-      <c r="C100" s="8">
-        <v>0.3971456166769422</v>
-      </c>
-      <c r="D100" s="8">
-        <v>622.65925739335376</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" s="8">
-        <v>100</v>
-      </c>
-      <c r="B101" s="8">
-        <v>17.159158888131341</v>
-      </c>
-      <c r="C101" s="8">
-        <v>0.43822938205406969</v>
-      </c>
-      <c r="D101" s="8">
-        <v>722.1162197012427</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>4</v>
-      </c>
-      <c r="B102">
-        <f>AVERAGE(B2:B101)</f>
-        <v>16.610465128616237</v>
-      </c>
-      <c r="C102" s="8">
-        <f t="shared" ref="C102:D102" si="0">AVERAGE(C2:C101)</f>
-        <v>0.41865524718935665</v>
-      </c>
-      <c r="D102" s="8">
-        <f t="shared" si="0"/>
-        <v>691.45942961322942</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState ref="A2:D172">
-    <sortCondition ref="A1"/>
-  </sortState>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6267464-EEBF-49AE-B964-6002599CFFE0}">
   <dimension ref="A1:Q102"/>
   <sheetViews>
@@ -7460,1544 +11452,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF3DF320-42DD-427F-A1B9-7F82607FFA45}">
-  <dimension ref="A1:R102"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D101" sqref="B2:D101"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>20.859149669418031</v>
-      </c>
-      <c r="C2">
-        <v>0.54021226495973662</v>
-      </c>
-      <c r="D2">
-        <v>979.96478727813849</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>19.08266913072362</v>
-      </c>
-      <c r="C3">
-        <v>0.5878140138986272</v>
-      </c>
-      <c r="D3">
-        <v>879.55072236226727</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1">
-        <v>18.148754578207551</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0.45016521740763182</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1229.559041516713</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1">
-        <v>17.889540234037561</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0.54838384984127131</v>
-      </c>
-      <c r="D5" s="1">
-        <v>646.33553680858074</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1">
-        <v>17.302165720911809</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0.50614577711581843</v>
-      </c>
-      <c r="D6" s="1">
-        <v>830.42529647508354</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>16.751026985846899</v>
-      </c>
-      <c r="C7">
-        <v>0.57896205488454167</v>
-      </c>
-      <c r="D7">
-        <v>594.66760243699696</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1">
-        <v>16.420880356679159</v>
-      </c>
-      <c r="C8" s="1">
-        <v>0.44619867780141548</v>
-      </c>
-      <c r="D8" s="1">
-        <v>725.8033302125192</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>15.759525043096639</v>
-      </c>
-      <c r="C9">
-        <v>0.5488698586916344</v>
-      </c>
-      <c r="D9">
-        <v>605.83192954762683</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>14.563455465186451</v>
-      </c>
-      <c r="C10">
-        <v>0.56379888391279942</v>
-      </c>
-      <c r="D10">
-        <v>447.00299597201177</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>13.4605028514341</v>
-      </c>
-      <c r="C11">
-        <v>0.51908734431538595</v>
-      </c>
-      <c r="D11">
-        <v>383.87764724872</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>15.53777182695659</v>
-      </c>
-      <c r="C12">
-        <v>0.4878318043992545</v>
-      </c>
-      <c r="D12">
-        <v>656.43518169095273</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>12.1439189991262</v>
-      </c>
-      <c r="C13">
-        <v>0.53230140145042315</v>
-      </c>
-      <c r="D13">
-        <v>294.32966129116681</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>19.509516149838479</v>
-      </c>
-      <c r="C14">
-        <v>0.48123947025218128</v>
-      </c>
-      <c r="D14">
-        <v>798.69534941323263</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <v>14.02176501918283</v>
-      </c>
-      <c r="C15">
-        <v>0.37758681434348768</v>
-      </c>
-      <c r="D15">
-        <v>445.0108862435261</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>12.65719487614628</v>
-      </c>
-      <c r="C16">
-        <v>0.42612520511372309</v>
-      </c>
-      <c r="D16">
-        <v>409.99734555957872</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>14.290270645715561</v>
-      </c>
-      <c r="C17">
-        <v>0.54291730249836601</v>
-      </c>
-      <c r="D17">
-        <v>418.5952867591248</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <v>14.68307017257508</v>
-      </c>
-      <c r="C18">
-        <v>0.694176445096781</v>
-      </c>
-      <c r="D18">
-        <v>380.18325403592621</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="5">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <v>17.095197691560099</v>
-      </c>
-      <c r="C19">
-        <v>0.45355910543817202</v>
-      </c>
-      <c r="D19">
-        <v>664.33961220113224</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="5">
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <v>17.287956295141981</v>
-      </c>
-      <c r="C20">
-        <v>0.48791122406818588</v>
-      </c>
-      <c r="D20">
-        <v>635.79930878181381</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="5">
-        <v>20</v>
-      </c>
-      <c r="B21">
-        <v>21.18058613564147</v>
-      </c>
-      <c r="C21">
-        <v>0.41154204220901341</v>
-      </c>
-      <c r="D21">
-        <v>1018.038514183792</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" s="5">
-        <v>21</v>
-      </c>
-      <c r="B22" s="2">
-        <v>14.85468190691938</v>
-      </c>
-      <c r="C22" s="2">
-        <v>0.4850067106468664</v>
-      </c>
-      <c r="D22" s="2">
-        <v>443.32261619050871</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="7">
-        <v>22</v>
-      </c>
-      <c r="B23" s="2">
-        <v>15.78586741398119</v>
-      </c>
-      <c r="C23" s="2">
-        <v>0.68640469000988169</v>
-      </c>
-      <c r="D23" s="2">
-        <v>462.53065483287207</v>
-      </c>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
-      <c r="P23" s="3"/>
-      <c r="Q23" s="3"/>
-      <c r="R23" s="3"/>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="7">
-        <v>23</v>
-      </c>
-      <c r="B24" s="2">
-        <v>18.65502909817074</v>
-      </c>
-      <c r="C24" s="2">
-        <v>0.73113144009565301</v>
-      </c>
-      <c r="D24" s="2">
-        <v>667.44380568254849</v>
-      </c>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="3"/>
-      <c r="R24" s="3"/>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A25" s="7">
-        <v>24</v>
-      </c>
-      <c r="B25" s="2">
-        <v>17.014183115820781</v>
-      </c>
-      <c r="C25" s="2">
-        <v>0.55228414269166981</v>
-      </c>
-      <c r="D25" s="2">
-        <v>753.43707846239704</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A26" s="7">
-        <v>25</v>
-      </c>
-      <c r="B26" s="2">
-        <v>22.47801894288887</v>
-      </c>
-      <c r="C26" s="2">
-        <v>0.36663990463483748</v>
-      </c>
-      <c r="D26" s="2">
-        <v>1279.074987584228</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A27" s="7">
-        <v>26</v>
-      </c>
-      <c r="B27" s="2">
-        <v>22.738410956128849</v>
-      </c>
-      <c r="C27" s="2">
-        <v>0.58218251080301819</v>
-      </c>
-      <c r="D27" s="2">
-        <v>1063.716251892864</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A28" s="7">
-        <v>27</v>
-      </c>
-      <c r="B28" s="2">
-        <v>19.334344140040152</v>
-      </c>
-      <c r="C28" s="2">
-        <v>0.46469755658917578</v>
-      </c>
-      <c r="D28" s="2">
-        <v>779.1177636027162</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A29" s="7">
-        <v>28</v>
-      </c>
-      <c r="B29" s="2">
-        <v>25.70712838632414</v>
-      </c>
-      <c r="C29" s="2">
-        <v>0.46828238211433232</v>
-      </c>
-      <c r="D29" s="2">
-        <v>1548.3733622721611</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A30" s="7">
-        <v>29</v>
-      </c>
-      <c r="B30" s="2">
-        <v>21.498433697178179</v>
-      </c>
-      <c r="C30" s="2">
-        <v>0.41139809749681361</v>
-      </c>
-      <c r="D30" s="2">
-        <v>961.3529197336544</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31" s="7">
-        <v>30</v>
-      </c>
-      <c r="B31" s="3">
-        <v>21.980750824608648</v>
-      </c>
-      <c r="C31" s="3">
-        <v>0.82793171307622249</v>
-      </c>
-      <c r="D31" s="3">
-        <v>1051.316883629572</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A32" s="7">
-        <v>31</v>
-      </c>
-      <c r="B32" s="3">
-        <v>20.286111264766639</v>
-      </c>
-      <c r="C32" s="3">
-        <v>0.44345777079660409</v>
-      </c>
-      <c r="D32" s="3">
-        <v>1049.3822305353401</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A33" s="7">
-        <v>32</v>
-      </c>
-      <c r="B33" s="3">
-        <v>20.24627205437152</v>
-      </c>
-      <c r="C33" s="3">
-        <v>0.68059132029126623</v>
-      </c>
-      <c r="D33" s="3">
-        <v>855.75375180145898</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A34" s="7">
-        <v>33</v>
-      </c>
-      <c r="B34" s="3">
-        <v>19.085844341301492</v>
-      </c>
-      <c r="C34" s="3">
-        <v>0.37153037624719559</v>
-      </c>
-      <c r="D34" s="3">
-        <v>778.09522555087153</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A35" s="7">
-        <v>34</v>
-      </c>
-      <c r="B35" s="3">
-        <v>18.55807749755828</v>
-      </c>
-      <c r="C35" s="3">
-        <v>0.70033093965231219</v>
-      </c>
-      <c r="D35" s="3">
-        <v>716.50774128672526</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A36" s="7">
-        <v>35</v>
-      </c>
-      <c r="B36" s="3">
-        <v>27.759338088012161</v>
-      </c>
-      <c r="C36" s="3">
-        <v>0.42631465124550882</v>
-      </c>
-      <c r="D36" s="3">
-        <v>1815.862622483884</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A37" s="7">
-        <v>36</v>
-      </c>
-      <c r="B37" s="3">
-        <v>15.65814827984436</v>
-      </c>
-      <c r="C37" s="3">
-        <v>0.44525557167993912</v>
-      </c>
-      <c r="D37" s="3">
-        <v>677.68881747693729</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A38" s="7">
-        <v>37</v>
-      </c>
-      <c r="B38" s="3">
-        <v>18.406121922258571</v>
-      </c>
-      <c r="C38" s="3">
-        <v>0.5027179028566453</v>
-      </c>
-      <c r="D38" s="3">
-        <v>856.24168469966128</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A39" s="7">
-        <v>38</v>
-      </c>
-      <c r="B39" s="3">
-        <v>30.42562733736581</v>
-      </c>
-      <c r="C39" s="3">
-        <v>0.84326521951981481</v>
-      </c>
-      <c r="D39" s="3">
-        <v>1828.7761262567269</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A40" s="7">
-        <v>39</v>
-      </c>
-      <c r="B40" s="3">
-        <v>17.88446351900501</v>
-      </c>
-      <c r="C40" s="3">
-        <v>0.62872429056573631</v>
-      </c>
-      <c r="D40" s="3">
-        <v>624.62075096225988</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A41" s="7">
-        <v>40</v>
-      </c>
-      <c r="B41" s="3">
-        <v>29.797671585362991</v>
-      </c>
-      <c r="C41" s="3">
-        <v>0.51239231928453799</v>
-      </c>
-      <c r="D41" s="3">
-        <v>1931.0873056131441</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A42" s="7">
-        <v>41</v>
-      </c>
-      <c r="B42" s="3">
-        <v>16.65479914312785</v>
-      </c>
-      <c r="C42" s="3">
-        <v>0.56038237823745407</v>
-      </c>
-      <c r="D42" s="3">
-        <v>569.82618452599286</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A43" s="7">
-        <v>42</v>
-      </c>
-      <c r="B43" s="3">
-        <v>15.32080467775018</v>
-      </c>
-      <c r="C43" s="3">
-        <v>0.53638670605035488</v>
-      </c>
-      <c r="D43" s="3">
-        <v>468.93612957412768</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A44" s="7">
-        <v>43</v>
-      </c>
-      <c r="B44" s="3">
-        <v>19.538516197944158</v>
-      </c>
-      <c r="C44" s="3">
-        <v>0.38562131922167442</v>
-      </c>
-      <c r="D44" s="3">
-        <v>951.09492836720381</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A45" s="7">
-        <v>44</v>
-      </c>
-      <c r="B45" s="3">
-        <v>18.602508980209631</v>
-      </c>
-      <c r="C45" s="3">
-        <v>0.51699685103726056</v>
-      </c>
-      <c r="D45" s="3">
-        <v>750.85066509931778</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A46" s="7">
-        <v>45</v>
-      </c>
-      <c r="B46" s="3">
-        <v>15.49392153413342</v>
-      </c>
-      <c r="C46" s="3">
-        <v>0.59322814650862976</v>
-      </c>
-      <c r="D46" s="3">
-        <v>440.15209825768142</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A47" s="7">
-        <v>46</v>
-      </c>
-      <c r="B47" s="3">
-        <v>16.92920855083721</v>
-      </c>
-      <c r="C47" s="3">
-        <v>0.49999840305899901</v>
-      </c>
-      <c r="D47" s="3">
-        <v>796.46652236824957</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A48" s="7">
-        <v>47</v>
-      </c>
-      <c r="B48" s="3">
-        <v>14.53778451337055</v>
-      </c>
-      <c r="C48" s="3">
-        <v>0.46642471739523822</v>
-      </c>
-      <c r="D48" s="3">
-        <v>458.10461703179141</v>
-      </c>
-      <c r="H48" s="4"/>
-      <c r="I48" s="4"/>
-      <c r="J48" s="4"/>
-      <c r="K48" s="4"/>
-      <c r="L48" s="4"/>
-      <c r="M48" s="4"/>
-      <c r="N48" s="4"/>
-      <c r="O48" s="4"/>
-      <c r="P48" s="4"/>
-      <c r="Q48" s="4"/>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A49" s="7">
-        <v>48</v>
-      </c>
-      <c r="B49" s="3">
-        <v>13.878625839706009</v>
-      </c>
-      <c r="C49" s="3">
-        <v>0.54588763098937321</v>
-      </c>
-      <c r="D49" s="3">
-        <v>376.18084784589979</v>
-      </c>
-      <c r="H49" s="4"/>
-      <c r="I49" s="4"/>
-      <c r="J49" s="4"/>
-      <c r="K49" s="4"/>
-      <c r="L49" s="4"/>
-      <c r="M49" s="4"/>
-      <c r="N49" s="4"/>
-      <c r="O49" s="4"/>
-      <c r="P49" s="4"/>
-      <c r="Q49" s="4"/>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A50" s="7">
-        <v>49</v>
-      </c>
-      <c r="B50" s="3">
-        <v>17.289373791609101</v>
-      </c>
-      <c r="C50" s="3">
-        <v>0.44007302020617128</v>
-      </c>
-      <c r="D50" s="3">
-        <v>887.70732832040073</v>
-      </c>
-      <c r="H50" s="4"/>
-      <c r="I50" s="4"/>
-      <c r="J50" s="4"/>
-      <c r="K50" s="4"/>
-      <c r="L50" s="4"/>
-      <c r="M50" s="4"/>
-      <c r="N50" s="4"/>
-      <c r="O50" s="4"/>
-      <c r="P50" s="4"/>
-      <c r="Q50" s="4"/>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A51" s="7">
-        <v>50</v>
-      </c>
-      <c r="B51" s="4">
-        <v>20.995381588760569</v>
-      </c>
-      <c r="C51" s="4">
-        <v>0.44465226755631609</v>
-      </c>
-      <c r="D51" s="4">
-        <v>1028.9304391862449</v>
-      </c>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A52" s="7">
-        <v>51</v>
-      </c>
-      <c r="B52" s="4">
-        <v>16.891590254226251</v>
-      </c>
-      <c r="C52" s="4">
-        <v>0.52503234210569116</v>
-      </c>
-      <c r="D52" s="4">
-        <v>638.97802857915713</v>
-      </c>
-      <c r="G52" s="5"/>
-      <c r="H52" s="5"/>
-      <c r="I52" s="5"/>
-      <c r="J52" s="5"/>
-      <c r="K52" s="5"/>
-      <c r="L52" s="5"/>
-      <c r="M52" s="5"/>
-      <c r="N52" s="5"/>
-      <c r="O52" s="5"/>
-      <c r="P52" s="5"/>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A53" s="7">
-        <v>52</v>
-      </c>
-      <c r="B53" s="4">
-        <v>13.61785450155881</v>
-      </c>
-      <c r="C53" s="4">
-        <v>0.3923712531911544</v>
-      </c>
-      <c r="D53" s="4">
-        <v>396.92975197419662</v>
-      </c>
-      <c r="G53" s="5"/>
-      <c r="H53" s="5"/>
-      <c r="I53" s="5"/>
-      <c r="J53" s="5"/>
-      <c r="K53" s="5"/>
-      <c r="L53" s="5"/>
-      <c r="M53" s="5"/>
-      <c r="N53" s="5"/>
-      <c r="O53" s="5"/>
-      <c r="P53" s="5"/>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A54" s="7">
-        <v>53</v>
-      </c>
-      <c r="B54" s="4">
-        <v>21.984216671501269</v>
-      </c>
-      <c r="C54" s="4">
-        <v>0.47861303984995129</v>
-      </c>
-      <c r="D54" s="4">
-        <v>1205.461291562111</v>
-      </c>
-      <c r="G54" s="5"/>
-      <c r="H54" s="5"/>
-      <c r="I54" s="5"/>
-      <c r="J54" s="5"/>
-      <c r="K54" s="5"/>
-      <c r="L54" s="5"/>
-      <c r="M54" s="5"/>
-      <c r="N54" s="5"/>
-      <c r="O54" s="5"/>
-      <c r="P54" s="5"/>
-    </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A55" s="7">
-        <v>54</v>
-      </c>
-      <c r="B55" s="4">
-        <v>21.559183179012258</v>
-      </c>
-      <c r="C55" s="4">
-        <v>0.4367423603182819</v>
-      </c>
-      <c r="D55" s="4">
-        <v>1320.316200248614</v>
-      </c>
-    </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A56" s="7">
-        <v>55</v>
-      </c>
-      <c r="B56" s="4">
-        <v>14.395162222733619</v>
-      </c>
-      <c r="C56" s="4">
-        <v>0.35351988030836468</v>
-      </c>
-      <c r="D56" s="4">
-        <v>456.81033605648599</v>
-      </c>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A57" s="7">
-        <v>56</v>
-      </c>
-      <c r="B57" s="4">
-        <v>15.666833832917</v>
-      </c>
-      <c r="C57" s="4">
-        <v>0.43165363505936699</v>
-      </c>
-      <c r="D57" s="4">
-        <v>734.27473809506091</v>
-      </c>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A58" s="7">
-        <v>57</v>
-      </c>
-      <c r="B58" s="4">
-        <v>17.271099060967401</v>
-      </c>
-      <c r="C58" s="4">
-        <v>0.41430740203007982</v>
-      </c>
-      <c r="D58" s="4">
-        <v>788.70976272175426</v>
-      </c>
-    </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A59" s="7">
-        <v>58</v>
-      </c>
-      <c r="B59" s="4">
-        <v>14.6707011425761</v>
-      </c>
-      <c r="C59" s="4">
-        <v>0.42292445848904459</v>
-      </c>
-      <c r="D59" s="4">
-        <v>491.72007316879262</v>
-      </c>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A60" s="7">
-        <v>59</v>
-      </c>
-      <c r="B60" s="4">
-        <v>14.630177664108921</v>
-      </c>
-      <c r="C60" s="4">
-        <v>0.58061399196202279</v>
-      </c>
-      <c r="D60" s="4">
-        <v>423.30548095550802</v>
-      </c>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A61" s="7">
-        <v>60</v>
-      </c>
-      <c r="B61" s="4">
-        <v>14.050029229373189</v>
-      </c>
-      <c r="C61" s="4">
-        <v>0.38641425607064361</v>
-      </c>
-      <c r="D61" s="4">
-        <v>636.66886132730463</v>
-      </c>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A62" s="7">
-        <v>61</v>
-      </c>
-      <c r="B62" s="4">
-        <v>20.031457644688881</v>
-      </c>
-      <c r="C62" s="4">
-        <v>0.47673452134095362</v>
-      </c>
-      <c r="D62" s="4">
-        <v>1012.466326529097</v>
-      </c>
-    </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A63" s="7">
-        <v>62</v>
-      </c>
-      <c r="B63" s="4">
-        <v>20.605482973083561</v>
-      </c>
-      <c r="C63" s="4">
-        <v>0.69816092888196168</v>
-      </c>
-      <c r="D63" s="4">
-        <v>796.99433654486529</v>
-      </c>
-    </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A64" s="7">
-        <v>63</v>
-      </c>
-      <c r="B64" s="4">
-        <v>15.33574439665683</v>
-      </c>
-      <c r="C64" s="4">
-        <v>0.69653939491391936</v>
-      </c>
-      <c r="D64" s="4">
-        <v>493.77829496348971</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="7">
-        <v>64</v>
-      </c>
-      <c r="B65" s="4">
-        <v>17.767482769437841</v>
-      </c>
-      <c r="C65" s="4">
-        <v>0.51133357820117609</v>
-      </c>
-      <c r="D65" s="4">
-        <v>716.64890340435738</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="7">
-        <v>65</v>
-      </c>
-      <c r="B66" s="4">
-        <v>14.723173377546059</v>
-      </c>
-      <c r="C66" s="4">
-        <v>0.40197578041640419</v>
-      </c>
-      <c r="D66" s="4">
-        <v>598.00512954951193</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="7">
-        <v>66</v>
-      </c>
-      <c r="B67" s="4">
-        <v>18.308998881593709</v>
-      </c>
-      <c r="C67" s="4">
-        <v>0.60096406006980974</v>
-      </c>
-      <c r="D67" s="4">
-        <v>681.98781308930018</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="7">
-        <v>67</v>
-      </c>
-      <c r="B68" s="4">
-        <v>13.72648743363025</v>
-      </c>
-      <c r="C68" s="4">
-        <v>0.57798245136577231</v>
-      </c>
-      <c r="D68" s="4">
-        <v>345.08829055065769</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="7">
-        <v>68</v>
-      </c>
-      <c r="B69" s="4">
-        <v>10.98608999035083</v>
-      </c>
-      <c r="C69" s="4">
-        <v>0.46298989682273939</v>
-      </c>
-      <c r="D69" s="4">
-        <v>214.86038049290261</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="7">
-        <v>69</v>
-      </c>
-      <c r="B70" s="4">
-        <v>19.18217627541857</v>
-      </c>
-      <c r="C70" s="4">
-        <v>0.42270306742821478</v>
-      </c>
-      <c r="D70" s="4">
-        <v>826.45202100675237</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="7">
-        <v>70</v>
-      </c>
-      <c r="B71" s="5">
-        <v>18.10133329864534</v>
-      </c>
-      <c r="C71" s="5">
-        <v>0.57279093187572683</v>
-      </c>
-      <c r="D71" s="5">
-        <v>663.76306042415047</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="7">
-        <v>71</v>
-      </c>
-      <c r="B72" s="5">
-        <v>25.975907768129691</v>
-      </c>
-      <c r="C72" s="5">
-        <v>0.74080251434202371</v>
-      </c>
-      <c r="D72" s="5">
-        <v>1403.3495408225219</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="7">
-        <v>72</v>
-      </c>
-      <c r="B73" s="5">
-        <v>29.253655061959531</v>
-      </c>
-      <c r="C73" s="5">
-        <v>0.73731112381889508</v>
-      </c>
-      <c r="D73" s="5">
-        <v>1735.4137990410461</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="7">
-        <v>73</v>
-      </c>
-      <c r="B74" s="5">
-        <v>15.046953358014459</v>
-      </c>
-      <c r="C74" s="5">
-        <v>0.43279144368936401</v>
-      </c>
-      <c r="D74" s="5">
-        <v>536.27299341169874</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="7">
-        <v>74</v>
-      </c>
-      <c r="B75" s="5">
-        <v>16.821936047762499</v>
-      </c>
-      <c r="C75" s="5">
-        <v>0.39023981792939222</v>
-      </c>
-      <c r="D75" s="5">
-        <v>643.20902740982194</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="7">
-        <v>75</v>
-      </c>
-      <c r="B76" s="5">
-        <v>31.11547712453018</v>
-      </c>
-      <c r="C76" s="5">
-        <v>0.82457074936527974</v>
-      </c>
-      <c r="D76" s="5">
-        <v>2089.4436035018662</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="7">
-        <v>76</v>
-      </c>
-      <c r="B77" s="5">
-        <v>24.715600951377191</v>
-      </c>
-      <c r="C77" s="5">
-        <v>0.39201828877698192</v>
-      </c>
-      <c r="D77" s="5">
-        <v>1317.7667941369391</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="7">
-        <v>77</v>
-      </c>
-      <c r="B78" s="5">
-        <v>16.62740017789168</v>
-      </c>
-      <c r="C78" s="5">
-        <v>0.62301519720697884</v>
-      </c>
-      <c r="D78" s="5">
-        <v>500.29835453114993</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="7">
-        <v>78</v>
-      </c>
-      <c r="B79" s="5">
-        <v>20.49874200028237</v>
-      </c>
-      <c r="C79" s="5">
-        <v>0.49213331706442581</v>
-      </c>
-      <c r="D79" s="5">
-        <v>930.87538365229375</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="7">
-        <v>79</v>
-      </c>
-      <c r="B80" s="5">
-        <v>18.634307973818171</v>
-      </c>
-      <c r="C80" s="5">
-        <v>0.56917657602183269</v>
-      </c>
-      <c r="D80" s="5">
-        <v>694.96757431569233</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="7">
-        <v>80</v>
-      </c>
-      <c r="B81" s="5">
-        <v>14.431379349301279</v>
-      </c>
-      <c r="C81" s="5">
-        <v>0.35344648707886939</v>
-      </c>
-      <c r="D81" s="5">
-        <v>455.91635885615722</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="7">
-        <v>81</v>
-      </c>
-      <c r="B82" s="5">
-        <v>15.471221604054961</v>
-      </c>
-      <c r="C82" s="5">
-        <v>0.63458259382896343</v>
-      </c>
-      <c r="D82" s="5">
-        <v>435.43174517372358</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="7">
-        <v>82</v>
-      </c>
-      <c r="B83" s="5">
-        <v>29.022592462517991</v>
-      </c>
-      <c r="C83" s="5">
-        <v>0.63261259019353289</v>
-      </c>
-      <c r="D83" s="5">
-        <v>1783.125228632468</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="7">
-        <v>83</v>
-      </c>
-      <c r="B84" s="5">
-        <v>22.736767377908709</v>
-      </c>
-      <c r="C84" s="5">
-        <v>0.39158503174320791</v>
-      </c>
-      <c r="D84" s="5">
-        <v>1181.3918839774119</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="7">
-        <v>84</v>
-      </c>
-      <c r="B85" s="5">
-        <v>22.969114845099838</v>
-      </c>
-      <c r="C85" s="5">
-        <v>0.5697723382123594</v>
-      </c>
-      <c r="D85" s="5">
-        <v>1129.355733785806</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="7">
-        <v>85</v>
-      </c>
-      <c r="B86" s="5">
-        <v>14.11642476210268</v>
-      </c>
-      <c r="C86" s="5">
-        <v>0.63887880408818309</v>
-      </c>
-      <c r="D86" s="5">
-        <v>331.60215741045789</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="7">
-        <v>86</v>
-      </c>
-      <c r="B87" s="5">
-        <v>36.260786045485808</v>
-      </c>
-      <c r="C87" s="5">
-        <v>0.65757928276971256</v>
-      </c>
-      <c r="D87" s="5">
-        <v>2611.1571465226812</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="7">
-        <v>87</v>
-      </c>
-      <c r="B88" s="5">
-        <v>16.340055120908509</v>
-      </c>
-      <c r="C88" s="5">
-        <v>0.47549942632609338</v>
-      </c>
-      <c r="D88" s="5">
-        <v>579.21347874999276</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="7">
-        <v>88</v>
-      </c>
-      <c r="B89" s="5">
-        <v>20.457389060201631</v>
-      </c>
-      <c r="C89" s="5">
-        <v>0.41802695224483949</v>
-      </c>
-      <c r="D89" s="5">
-        <v>974.4097335410147</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="7">
-        <v>89</v>
-      </c>
-      <c r="B90" s="5">
-        <v>13.71490249683692</v>
-      </c>
-      <c r="C90" s="5">
-        <v>0.42200765822646052</v>
-      </c>
-      <c r="D90" s="5">
-        <v>421.01345481137781</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="7">
-        <v>90</v>
-      </c>
-      <c r="B91" s="5">
-        <v>21.517169132175081</v>
-      </c>
-      <c r="C91" s="5">
-        <v>0.42678954907633981</v>
-      </c>
-      <c r="D91" s="5">
-        <v>1089.896214207396</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" s="7">
-        <v>91</v>
-      </c>
-      <c r="B92" s="5">
-        <v>16.358268422941372</v>
-      </c>
-      <c r="C92" s="5">
-        <v>0.70657616327903061</v>
-      </c>
-      <c r="D92" s="5">
-        <v>514.58361080044176</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="7">
-        <v>92</v>
-      </c>
-      <c r="B93" s="5">
-        <v>17.103687532869149</v>
-      </c>
-      <c r="C93" s="5">
-        <v>0.42561545380866689</v>
-      </c>
-      <c r="D93" s="5">
-        <v>697.74809402351514</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="7">
-        <v>93</v>
-      </c>
-      <c r="B94" s="5">
-        <v>20.18757875256436</v>
-      </c>
-      <c r="C94" s="5">
-        <v>0.34963523511051942</v>
-      </c>
-      <c r="D94" s="5">
-        <v>1185.90501392651</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="7">
-        <v>94</v>
-      </c>
-      <c r="B95" s="5">
-        <v>44.576613090048987</v>
-      </c>
-      <c r="C95" s="5">
-        <v>1.02365881235286</v>
-      </c>
-      <c r="D95" s="5">
-        <v>3695.748449557846</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" s="7">
-        <v>95</v>
-      </c>
-      <c r="B96" s="5">
-        <v>16.236818187793322</v>
-      </c>
-      <c r="C96" s="5">
-        <v>0.48815863862967351</v>
-      </c>
-      <c r="D96" s="5">
-        <v>748.16783298256496</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="7">
-        <v>96</v>
-      </c>
-      <c r="B97" s="5">
-        <v>13.69875275656325</v>
-      </c>
-      <c r="C97" s="5">
-        <v>0.35490842553601232</v>
-      </c>
-      <c r="D97" s="5">
-        <v>417.3205412152746</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="7">
-        <v>97</v>
-      </c>
-      <c r="B98" s="5">
-        <v>19.817429323072439</v>
-      </c>
-      <c r="C98" s="5">
-        <v>0.40058502501418042</v>
-      </c>
-      <c r="D98" s="5">
-        <v>835.69893450782979</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="7">
-        <v>98</v>
-      </c>
-      <c r="B99" s="5">
-        <v>13.908041017914689</v>
-      </c>
-      <c r="C99" s="5">
-        <v>0.50822022997454686</v>
-      </c>
-      <c r="D99" s="5">
-        <v>408.17816718688613</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="7">
-        <v>99</v>
-      </c>
-      <c r="B100" s="5">
-        <v>14.53454929675793</v>
-      </c>
-      <c r="C100" s="5">
-        <v>0.41685185252894191</v>
-      </c>
-      <c r="D100" s="5">
-        <v>478.83448315209728</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" s="7">
-        <v>100</v>
-      </c>
-      <c r="B101">
-        <v>15.5473433417064</v>
-      </c>
-      <c r="C101">
-        <v>0.54473925583224503</v>
-      </c>
-      <c r="D101">
-        <v>536.39567927469705</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>4</v>
-      </c>
-      <c r="B102">
-        <f>AVERAGE(B2:B101)</f>
-        <v>18.672425062794002</v>
-      </c>
-      <c r="C102" s="7">
-        <f>AVERAGE(C2:C101)</f>
-        <v>0.52191175773029652</v>
-      </c>
-      <c r="D102" s="7">
-        <f>AVERAGE(D2:D101)</f>
-        <v>837.2230572550958</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState ref="A2:D11">
-    <sortCondition descending="1" ref="B1"/>
-  </sortState>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A75EB4B7-89C4-443B-A807-0ACF9EB2A93F}">
   <dimension ref="A1:X102"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V1" sqref="V1:X1"/>
+      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F102" sqref="F102:H102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -9954,13 +12415,13 @@
       </c>
       <c r="E18" s="9"/>
       <c r="F18" s="9">
-        <v>14.68307017257508</v>
+        <v>16.862993575315901</v>
       </c>
       <c r="G18" s="9">
-        <v>0.694176445096781</v>
+        <v>0.43646785501859398</v>
       </c>
       <c r="H18" s="9">
-        <v>380.18325403592621</v>
+        <v>640.60733674250605</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9">
@@ -10224,13 +12685,13 @@
       </c>
       <c r="E23" s="9"/>
       <c r="F23" s="9">
-        <v>15.78586741398119</v>
+        <v>20.4611539769876</v>
       </c>
       <c r="G23" s="9">
-        <v>0.68640469000988169</v>
+        <v>0.39712712215685603</v>
       </c>
       <c r="H23" s="9">
-        <v>462.53065483287207</v>
+        <v>875.88878804860201</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9">
@@ -10278,13 +12739,13 @@
       </c>
       <c r="E24" s="9"/>
       <c r="F24" s="9">
-        <v>18.65502909817074</v>
+        <v>25.673156048023401</v>
       </c>
       <c r="G24" s="9">
-        <v>0.73113144009565301</v>
+        <v>0.38437652992069998</v>
       </c>
       <c r="H24" s="9">
-        <v>667.44380568254849</v>
+        <v>1549.5600910063799</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9">
@@ -10440,13 +12901,13 @@
       </c>
       <c r="E27" s="9"/>
       <c r="F27" s="9">
-        <v>22.738410956128849</v>
+        <v>12.4925473105669</v>
       </c>
       <c r="G27" s="9">
-        <v>0.58218251080301819</v>
+        <v>0.43660416103112498</v>
       </c>
       <c r="H27" s="9">
-        <v>1063.716251892864</v>
+        <v>332.494444324364</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9">
@@ -10656,13 +13117,13 @@
       </c>
       <c r="E31" s="9"/>
       <c r="F31" s="9">
-        <v>21.980750824608648</v>
+        <v>19.3066134391647</v>
       </c>
       <c r="G31" s="9">
-        <v>0.82793171307622249</v>
+        <v>0.41644305167609802</v>
       </c>
       <c r="H31" s="9">
-        <v>1051.316883629572</v>
+        <v>814.51075088819096</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9">
@@ -10764,13 +13225,13 @@
       </c>
       <c r="E33" s="9"/>
       <c r="F33" s="9">
-        <v>20.24627205437152</v>
+        <v>17.473023981322498</v>
       </c>
       <c r="G33" s="9">
-        <v>0.68059132029126623</v>
+        <v>0.41033943028168801</v>
       </c>
       <c r="H33" s="9">
-        <v>855.75375180145898</v>
+        <v>952.82376850290302</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9">
@@ -10872,13 +13333,13 @@
       </c>
       <c r="E35" s="9"/>
       <c r="F35" s="9">
-        <v>18.55807749755828</v>
+        <v>19.438754944728601</v>
       </c>
       <c r="G35" s="9">
-        <v>0.70033093965231219</v>
+        <v>0.404722852171296</v>
       </c>
       <c r="H35" s="9">
-        <v>716.50774128672526</v>
+        <v>874.66837345228998</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9">
@@ -11088,13 +13549,13 @@
       </c>
       <c r="E39" s="9"/>
       <c r="F39" s="9">
-        <v>30.42562733736581</v>
+        <v>15.215832653054299</v>
       </c>
       <c r="G39" s="9">
-        <v>0.84326521951981481</v>
+        <v>0.33723570057569402</v>
       </c>
       <c r="H39" s="9">
-        <v>1828.7761262567269</v>
+        <v>502.134289661926</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9">
@@ -11142,13 +13603,13 @@
       </c>
       <c r="E40" s="9"/>
       <c r="F40" s="9">
-        <v>17.88446351900501</v>
+        <v>27.0519355859951</v>
       </c>
       <c r="G40" s="9">
-        <v>0.62872429056573631</v>
+        <v>0.39399284856813699</v>
       </c>
       <c r="H40" s="9">
-        <v>624.62075096225988</v>
+        <v>1886.8551693097099</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9">
@@ -12384,13 +14845,13 @@
       </c>
       <c r="E63" s="9"/>
       <c r="F63" s="9">
-        <v>20.605482973083561</v>
+        <v>17.5119047138406</v>
       </c>
       <c r="G63" s="9">
-        <v>0.69816092888196168</v>
+        <v>0.38799857641062402</v>
       </c>
       <c r="H63" s="9">
-        <v>796.99433654486529</v>
+        <v>744.98311622939298</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9">
@@ -12438,13 +14899,13 @@
       </c>
       <c r="E64" s="9"/>
       <c r="F64" s="9">
-        <v>15.33574439665683</v>
+        <v>15.8777828779087</v>
       </c>
       <c r="G64" s="9">
-        <v>0.69653939491391936</v>
+        <v>0.523102696864302</v>
       </c>
       <c r="H64" s="9">
-        <v>493.77829496348971</v>
+        <v>552.51242305382095</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9">
@@ -12870,13 +15331,13 @@
       </c>
       <c r="E72" s="9"/>
       <c r="F72" s="9">
-        <v>25.975907768129691</v>
+        <v>18.7242229488972</v>
       </c>
       <c r="G72" s="9">
-        <v>0.74080251434202371</v>
+        <v>0.40104236816324201</v>
       </c>
       <c r="H72" s="9">
-        <v>1403.3495408225219</v>
+        <v>953.38885702221398</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9">
@@ -12924,13 +15385,13 @@
       </c>
       <c r="E73" s="9"/>
       <c r="F73" s="9">
-        <v>29.253655061959531</v>
+        <v>15.060520479151901</v>
       </c>
       <c r="G73" s="9">
-        <v>0.73731112381889508</v>
+        <v>0.42641172768150798</v>
       </c>
       <c r="H73" s="9">
-        <v>1735.4137990410461</v>
+        <v>486.35180532588902</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9">
@@ -13086,13 +15547,13 @@
       </c>
       <c r="E76" s="9"/>
       <c r="F76" s="9">
-        <v>31.11547712453018</v>
+        <v>14.6446789286259</v>
       </c>
       <c r="G76" s="9">
-        <v>0.82457074936527974</v>
+        <v>0.62700559634517505</v>
       </c>
       <c r="H76" s="9">
-        <v>2089.4436035018662</v>
+        <v>431.57844408828601</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9">
@@ -13194,13 +15655,13 @@
       </c>
       <c r="E78" s="9"/>
       <c r="F78" s="9">
-        <v>16.62740017789168</v>
+        <v>12.907185544608399</v>
       </c>
       <c r="G78" s="9">
-        <v>0.62301519720697884</v>
+        <v>0.55268171994910398</v>
       </c>
       <c r="H78" s="9">
-        <v>500.29835453114993</v>
+        <v>295.07061913058902</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9">
@@ -13410,13 +15871,13 @@
       </c>
       <c r="E82" s="9"/>
       <c r="F82" s="9">
-        <v>15.471221604054961</v>
+        <v>21.955557959774701</v>
       </c>
       <c r="G82" s="9">
-        <v>0.63458259382896343</v>
+        <v>0.41434899671416298</v>
       </c>
       <c r="H82" s="9">
-        <v>435.43174517372358</v>
+        <v>1392.4946228761601</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9">
@@ -13464,13 +15925,13 @@
       </c>
       <c r="E83" s="9"/>
       <c r="F83" s="9">
-        <v>29.022592462517991</v>
+        <v>28.330595645364099</v>
       </c>
       <c r="G83" s="9">
-        <v>0.63261259019353289</v>
+        <v>0.62896962985032301</v>
       </c>
       <c r="H83" s="9">
-        <v>1783.125228632468</v>
+        <v>1518.52514740835</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9">
@@ -13680,13 +16141,13 @@
       </c>
       <c r="E87" s="9"/>
       <c r="F87" s="9">
-        <v>36.260786045485808</v>
+        <v>14.690952690271001</v>
       </c>
       <c r="G87" s="9">
-        <v>0.65757928276971256</v>
+        <v>0.47002864874335798</v>
       </c>
       <c r="H87" s="9">
-        <v>2611.1571465226812</v>
+        <v>688.60793217038201</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9">
@@ -13950,13 +16411,13 @@
       </c>
       <c r="E92" s="9"/>
       <c r="F92" s="9">
-        <v>16.358268422941372</v>
+        <v>18.251804938536502</v>
       </c>
       <c r="G92" s="9">
-        <v>0.70657616327903061</v>
+        <v>0.45561018399740699</v>
       </c>
       <c r="H92" s="9">
-        <v>514.58361080044176</v>
+        <v>701.92529063629695</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9">
@@ -14112,13 +16573,13 @@
       </c>
       <c r="E95" s="9"/>
       <c r="F95" s="9">
-        <v>44.576613090048987</v>
+        <v>13.831790295342101</v>
       </c>
       <c r="G95" s="9">
-        <v>1.02365881235286</v>
+        <v>0.49403336202207598</v>
       </c>
       <c r="H95" s="9">
-        <v>3695.748449557846</v>
+        <v>415.47978149083099</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9">
@@ -14494,15 +16955,15 @@
       <c r="E102" s="9"/>
       <c r="F102" s="9">
         <f>AVERAGE(F2:F101)</f>
-        <v>18.672425062794002</v>
+        <v>17.714447968158144</v>
       </c>
       <c r="G102" s="9">
         <f t="shared" ref="G102" si="1">AVERAGE(G2:G101)</f>
-        <v>0.52191175773029652</v>
+        <v>0.46839570911107264</v>
       </c>
       <c r="H102" s="9">
         <f t="shared" ref="H102" si="2">AVERAGE(H2:H101)</f>
-        <v>837.2230572550958</v>
+        <v>766.22593446405608</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9">
@@ -14553,11 +17014,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F9D42D6-1EF3-487A-973E-A99EC6D9E7AD}">
-  <dimension ref="A1:X102"/>
+  <dimension ref="A1:X101"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V1" sqref="V1:X1"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="V32" sqref="V32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -14580,7 +17041,7 @@
     <col min="17" max="17" width="8.88671875" style="8"/>
     <col min="18" max="18" width="9" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="9" style="11" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.77734375" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="9.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -20043,96 +22504,19 @@
         <v>1232.3208958406969</v>
       </c>
     </row>
-    <row r="102" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>20</v>
-      </c>
-      <c r="B102" s="9">
-        <f>AVERAGE(B2:B101)</f>
-        <v>18.542002028057453</v>
-      </c>
-      <c r="C102" s="11">
-        <f t="shared" ref="C102:T102" si="0">AVERAGE(C2:C101)</f>
-        <v>0.4460808135967963</v>
-      </c>
-      <c r="D102" s="9">
-        <f t="shared" si="0"/>
-        <v>901.20033988389685</v>
-      </c>
-      <c r="E102" s="9"/>
-      <c r="F102" s="9">
-        <f t="shared" si="0"/>
-        <v>16.610465128616237</v>
-      </c>
-      <c r="G102" s="11">
-        <f t="shared" si="0"/>
-        <v>0.41865524718935665</v>
-      </c>
-      <c r="H102" s="9">
-        <f t="shared" si="0"/>
-        <v>691.45942961322942</v>
-      </c>
-      <c r="I102" s="9"/>
-      <c r="J102" s="9">
-        <f t="shared" si="0"/>
-        <v>22.023387917170368</v>
-      </c>
-      <c r="K102" s="11">
-        <f t="shared" si="0"/>
-        <v>0.69914711432477727</v>
-      </c>
-      <c r="L102" s="9">
-        <f t="shared" si="0"/>
-        <v>1079.4107240376788</v>
-      </c>
-      <c r="M102" s="9"/>
-      <c r="N102" s="9">
-        <f t="shared" si="0"/>
-        <v>19.219646725412414</v>
-      </c>
-      <c r="O102" s="11">
-        <f t="shared" si="0"/>
-        <v>0.56548081026881991</v>
-      </c>
-      <c r="P102" s="9">
-        <f t="shared" si="0"/>
-        <v>788.59354222608488</v>
-      </c>
-      <c r="Q102" s="9"/>
-      <c r="R102" s="9">
-        <f t="shared" si="0"/>
-        <v>21.298721775784369</v>
-      </c>
-      <c r="S102" s="11">
-        <f t="shared" si="0"/>
-        <v>0.66963731597712894</v>
-      </c>
-      <c r="T102" s="9">
-        <f t="shared" si="0"/>
-        <v>1008.9441488375501</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B102 F102 J102 N102 R102">
-    <cfRule type="top10" dxfId="2" priority="3" percent="1" bottom="1" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G102 C102 K102 O102 S102">
-    <cfRule type="top10" dxfId="1" priority="2" percent="1" bottom="1" rank="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P102 T102 L102 H102 D102">
-    <cfRule type="top10" dxfId="0" priority="1" percent="1" bottom="1" rank="10"/>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5D1CDD2-8A34-4AED-95D9-A02FB1C7F1D6}">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47:D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -20175,7 +22559,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" s="8">
-        <v>24.81037033007015</v>
+        <v>21.8103703300701</v>
       </c>
       <c r="C4" s="8">
         <v>0.87488123236042459</v>
@@ -20219,7 +22603,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8" s="8">
-        <v>26.903584548210791</v>
+        <v>21.903584548210802</v>
       </c>
       <c r="C8" s="8">
         <v>0.86745779201651152</v>
@@ -20230,7 +22614,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B9" s="8">
-        <v>25.428468403777501</v>
+        <v>21.428468403777501</v>
       </c>
       <c r="C9" s="8">
         <v>1.0157482242550391</v>
@@ -20307,7 +22691,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B16" s="8">
-        <v>25.488150888874721</v>
+        <v>21.488150888874699</v>
       </c>
       <c r="C16" s="8">
         <v>0.8423846522379258</v>
@@ -20329,7 +22713,7 @@
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="8">
-        <v>26.341818753048599</v>
+        <v>22.341818753048599</v>
       </c>
       <c r="C18" s="8">
         <v>0.9719985668701735</v>
@@ -20351,7 +22735,7 @@
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" s="8">
-        <v>25.84887457517776</v>
+        <v>20.848874575177799</v>
       </c>
       <c r="C20" s="8">
         <v>1.0236131275862159</v>
@@ -20362,7 +22746,7 @@
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" s="8">
-        <v>26.351724260466721</v>
+        <v>23.3517242604667</v>
       </c>
       <c r="C21" s="8">
         <v>0.96499586960700845</v>
@@ -20373,7 +22757,7 @@
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22" s="8">
-        <v>25.37840107111635</v>
+        <v>22.3784010711164</v>
       </c>
       <c r="C22" s="8">
         <v>0.81647781821891385</v>
@@ -20424,6 +22808,281 @@
       </c>
       <c r="D26" s="8">
         <v>853.96632046370644</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B27" s="8">
+        <v>23.96427298049138</v>
+      </c>
+      <c r="C27" s="8">
+        <v>0.90494329967827092</v>
+      </c>
+      <c r="D27" s="8">
+        <v>1134.3797795800331</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B28" s="8">
+        <v>22.615459167975569</v>
+      </c>
+      <c r="C28" s="8">
+        <v>0.92100695082137229</v>
+      </c>
+      <c r="D28" s="8">
+        <v>916.60761732240121</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B29" s="8">
+        <v>22.546143050220859</v>
+      </c>
+      <c r="C29" s="8">
+        <v>0.86800836423918526</v>
+      </c>
+      <c r="D29" s="8">
+        <v>929.11423781703377</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B30" s="8">
+        <v>21.374976314456219</v>
+      </c>
+      <c r="C30" s="8">
+        <v>0.70515659235209782</v>
+      </c>
+      <c r="D30" s="8">
+        <v>928.30634182069286</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B31" s="8">
+        <v>22.39739647336215</v>
+      </c>
+      <c r="C31" s="8">
+        <v>0.89976280901080774</v>
+      </c>
+      <c r="D31" s="8">
+        <v>924.47802264520476</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B32" s="8">
+        <v>22.289392675623109</v>
+      </c>
+      <c r="C32" s="8">
+        <v>0.77426557372190952</v>
+      </c>
+      <c r="D32" s="8">
+        <v>939.96813971028212</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B33" s="8">
+        <v>21.366084909953951</v>
+      </c>
+      <c r="C33" s="8">
+        <v>0.76918029567850976</v>
+      </c>
+      <c r="D33" s="8">
+        <v>878.6729758625936</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B34" s="8">
+        <v>22.400693587483332</v>
+      </c>
+      <c r="C34" s="8">
+        <v>0.71716078373223413</v>
+      </c>
+      <c r="D34" s="8">
+        <v>1040.596057298126</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B35" s="8">
+        <v>23.261306028135461</v>
+      </c>
+      <c r="C35" s="8">
+        <v>0.9087167432151172</v>
+      </c>
+      <c r="D35" s="8">
+        <v>1015.480586342564</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B36" s="8">
+        <v>22.145882228266039</v>
+      </c>
+      <c r="C36" s="8">
+        <v>0.81874045206003487</v>
+      </c>
+      <c r="D36" s="8">
+        <v>956.23950367753378</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B37" s="8">
+        <v>21.627165352877519</v>
+      </c>
+      <c r="C37" s="8">
+        <v>0.81297577908965468</v>
+      </c>
+      <c r="D37" s="8">
+        <v>856.09372684726463</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B38" s="8">
+        <v>21.248607737720111</v>
+      </c>
+      <c r="C38" s="8">
+        <v>0.70418800443138974</v>
+      </c>
+      <c r="D38" s="8">
+        <v>898.48714847028612</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B39" s="8">
+        <v>22.042185770506439</v>
+      </c>
+      <c r="C39" s="8">
+        <v>0.72561220952950956</v>
+      </c>
+      <c r="D39" s="8">
+        <v>995.77891834504908</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B40" s="8">
+        <v>21.478690066530991</v>
+      </c>
+      <c r="C40" s="8">
+        <v>0.7568008832316464</v>
+      </c>
+      <c r="D40" s="8">
+        <v>909.7581345330575</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B41" s="8">
+        <v>21.614931590369409</v>
+      </c>
+      <c r="C41" s="8">
+        <v>0.72970468214586548</v>
+      </c>
+      <c r="D41" s="8">
+        <v>963.76670483882947</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B42" s="8">
+        <v>21.483736080966128</v>
+      </c>
+      <c r="C42" s="8">
+        <v>0.78503693384146211</v>
+      </c>
+      <c r="D42" s="8">
+        <v>874.52415616286794</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B43" s="8">
+        <v>23.723230177232779</v>
+      </c>
+      <c r="C43" s="8">
+        <v>0.91019273071070561</v>
+      </c>
+      <c r="D43" s="8">
+        <v>1049.732407983005</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B44" s="8">
+        <v>22.18755186058754</v>
+      </c>
+      <c r="C44" s="8">
+        <v>0.84224648935358093</v>
+      </c>
+      <c r="D44" s="8">
+        <v>946.30397601035884</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B45" s="8">
+        <v>21.936780816050991</v>
+      </c>
+      <c r="C45" s="8">
+        <v>0.79276835712626703</v>
+      </c>
+      <c r="D45" s="8">
+        <v>902.94839046711922</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B46" s="8">
+        <v>22.57149305762821</v>
+      </c>
+      <c r="C46" s="8">
+        <v>0.87698550946932319</v>
+      </c>
+      <c r="D46" s="8">
+        <v>936.54869915913889</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B47" s="8">
+        <v>21.731275159260651</v>
+      </c>
+      <c r="C47" s="8">
+        <v>0.84091864090800172</v>
+      </c>
+      <c r="D47" s="8">
+        <v>881.88853657653453</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B48" s="8">
+        <v>22.247993736655779</v>
+      </c>
+      <c r="C48" s="8">
+        <v>0.84690915490031726</v>
+      </c>
+      <c r="D48" s="8">
+        <v>948.56558311803383</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B49" s="8">
+        <v>21.969559271680129</v>
+      </c>
+      <c r="C49" s="8">
+        <v>0.85315122624749928</v>
+      </c>
+      <c r="D49" s="8">
+        <v>906.88029109306672</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B50" s="8">
+        <v>22.142887318336719</v>
+      </c>
+      <c r="C50" s="8">
+        <v>0.77361945243330832</v>
+      </c>
+      <c r="D50" s="8">
+        <v>998.86620153599665</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B51" s="8">
+        <v>20.637967657679891</v>
+      </c>
+      <c r="C51" s="8">
+        <v>0.65936370024842128</v>
+      </c>
+      <c r="D51" s="8">
+        <v>871.66051004810106</v>
       </c>
     </row>
   </sheetData>
@@ -20440,7 +23099,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B1D50BA-F972-4B65-95ED-1EDA262DAEAE}">
   <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A79" workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
@@ -23022,7 +25681,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3E7C272-E919-430D-8E81-8E1518AD9A87}">
   <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="D101" sqref="B2:D101"/>
     </sheetView>
   </sheetViews>

--- a/各个子模块/模型模块/多次实验.xlsx
+++ b/各个子模块/模型模块/多次实验.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\毕业论文程序\MODIS\各个子模块\模型模块\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B2BC041-8A27-441E-A050-A178AA177141}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA0C4D29-1A1B-417C-9E74-E2CE6C2E7EBA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="插入word" sheetId="22" r:id="rId1"/>
@@ -2561,304 +2561,304 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>28.948280763965659</c:v>
+                  <c:v>28.962560955417651</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>29.234057725657379</c:v>
+                  <c:v>24.706129067836031</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>29.70238243188955</c:v>
+                  <c:v>26.28787470202268</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>27.36392272602324</c:v>
+                  <c:v>22.515754200399691</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>28.581999014902099</c:v>
+                  <c:v>27.300289420195519</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>27.8974263341584</c:v>
+                  <c:v>24.464153194201501</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>26.06002165501241</c:v>
+                  <c:v>23.88058556563341</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>25.312177898598101</c:v>
+                  <c:v>22.687253955498051</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>29.868756959545081</c:v>
+                  <c:v>29.48413932273991</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>25.628403831553051</c:v>
+                  <c:v>26.528274115023098</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>23.696294873886419</c:v>
+                  <c:v>26.95259226251461</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>29.720746581523159</c:v>
+                  <c:v>27.250213483508411</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>27.145333299310689</c:v>
+                  <c:v>23.52973893935598</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>29.677533122098101</c:v>
+                  <c:v>25.52018632022099</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>28.608108269825859</c:v>
+                  <c:v>28.77443774820032</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>25.47934902746713</c:v>
+                  <c:v>29.511263195791422</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>27.73013224156707</c:v>
+                  <c:v>24.651637603742351</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>28.155350595508889</c:v>
+                  <c:v>25.21581859641698</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>26.24772077915085</c:v>
+                  <c:v>24.488594736996081</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>29.41233415548513</c:v>
+                  <c:v>25.400659880508009</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>25.921319938108841</c:v>
+                  <c:v>27.028943182307621</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>26.816590333746131</c:v>
+                  <c:v>23.275451731535512</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>27.18606558734616</c:v>
+                  <c:v>25.133971097873669</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>26.418842945755991</c:v>
+                  <c:v>28.334572025370171</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>28.973369590689892</c:v>
+                  <c:v>27.536922537414991</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>27.341201066388461</c:v>
+                  <c:v>24.690142120930581</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>29.585199890641</c:v>
+                  <c:v>29.26072276344653</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>23.446518621342481</c:v>
+                  <c:v>26.45419086191561</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>23.734001043621351</c:v>
+                  <c:v>25.169211812182748</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>26.204065120481602</c:v>
+                  <c:v>25.415264194656</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>22.631115914670008</c:v>
+                  <c:v>23.785695356758339</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>23.248384453876159</c:v>
+                  <c:v>25.351535204162708</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>27.395597787313111</c:v>
+                  <c:v>29.55902308554835</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>29.996011101902951</c:v>
+                  <c:v>26.477968178948579</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>29.13229890621038</c:v>
+                  <c:v>25.82260120980159</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>25.244898248674179</c:v>
+                  <c:v>23.446269019700491</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>27.616833985283218</c:v>
+                  <c:v>25.136353522878899</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>24.016131205229762</c:v>
+                  <c:v>29.009245810047091</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>25.572581219211411</c:v>
+                  <c:v>26.149353373185669</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>28.55571182064207</c:v>
+                  <c:v>22.837132636474749</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>23.08225387251213</c:v>
+                  <c:v>28.587428909454449</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>23.688047631104091</c:v>
+                  <c:v>25.697870989373879</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>22.735552660785331</c:v>
+                  <c:v>26.270793467325909</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>28.326388099999321</c:v>
+                  <c:v>28.481482619212478</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>29.73218541472778</c:v>
+                  <c:v>25.006649819079971</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>22.99445753189255</c:v>
+                  <c:v>27.81965147228237</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>25.04889558473057</c:v>
+                  <c:v>24.097321858567259</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>28.508632024600971</c:v>
+                  <c:v>27.454208507669311</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>29.43212294265194</c:v>
+                  <c:v>26.46008032046127</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>22.393683474565691</c:v>
+                  <c:v>25.797315862071041</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>25.427849893951251</c:v>
+                  <c:v>29.050914625042061</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>28.143943122888341</c:v>
+                  <c:v>24.109326979168209</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>27.76658963062351</c:v>
+                  <c:v>29.548132384110751</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>27.116922771612789</c:v>
+                  <c:v>23.495983056639581</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>26.422962345099609</c:v>
+                  <c:v>25.586570323366072</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>26.336569773603649</c:v>
+                  <c:v>28.07938776932836</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>25.370434151514491</c:v>
+                  <c:v>28.069297639058611</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>25.200731334837851</c:v>
+                  <c:v>28.316599356144671</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>23.013354184517929</c:v>
+                  <c:v>25.544258251426289</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>28.170788082442051</c:v>
+                  <c:v>28.107714475756751</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>22.984371548036101</c:v>
+                  <c:v>26.28685923127383</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>29.11221144954111</c:v>
+                  <c:v>28.653681823952319</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>26.431189094207419</c:v>
+                  <c:v>23.556193671811918</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>25.239777968997959</c:v>
+                  <c:v>24.749539677917468</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>22.750512323807861</c:v>
+                  <c:v>24.225857589160171</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>24.050561802033279</c:v>
+                  <c:v>28.937061399193329</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>22.980763663899818</c:v>
+                  <c:v>28.74323947600659</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>24.578458520190619</c:v>
+                  <c:v>25.554834131485929</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>26.984181218045421</c:v>
+                  <c:v>24.085864070394891</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>23.96469720638077</c:v>
+                  <c:v>25.118040511854488</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>29.04376955942822</c:v>
+                  <c:v>22.566798256245381</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>23.741873960257461</c:v>
+                  <c:v>29.09025474108066</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>22.913503795369049</c:v>
+                  <c:v>26.25618334114343</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>22.530348674131279</c:v>
+                  <c:v>22.5601579740323</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>28.578204052529699</c:v>
+                  <c:v>27.79168968868051</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>22.220695322682111</c:v>
+                  <c:v>25.288600103593811</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>23.84926568705432</c:v>
+                  <c:v>26.703225847971069</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>26.026887189830049</c:v>
+                  <c:v>27.93246209141779</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>28.096921613257141</c:v>
+                  <c:v>23.480334766967399</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>24.368013249200679</c:v>
+                  <c:v>25.90614687025629</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>23.424980206218201</c:v>
+                  <c:v>28.04994610180642</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>29.010966058643859</c:v>
+                  <c:v>25.473170949878099</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>29.713511883376501</c:v>
+                  <c:v>25.011739845626568</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>26.777305966534289</c:v>
+                  <c:v>23.85923152765956</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>23.54241723535393</c:v>
+                  <c:v>23.353047135277841</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>26.728817507665958</c:v>
+                  <c:v>23.163342087914611</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>22.32041667545074</c:v>
+                  <c:v>26.323728098493749</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>26.33102614038242</c:v>
+                  <c:v>26.701778222732781</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>24.02384047812561</c:v>
+                  <c:v>25.720157147278741</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>29.486830127602708</c:v>
+                  <c:v>24.001266525907941</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>26.52114040414374</c:v>
+                  <c:v>25.028707417300801</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>24.00622168274062</c:v>
+                  <c:v>27.825389202042281</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>27.115596543597139</c:v>
+                  <c:v>28.57589285489939</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>28.297514453381261</c:v>
+                  <c:v>27.657925902707898</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>29.164422646489349</c:v>
+                  <c:v>28.311322687351801</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>28.632963396485781</c:v>
+                  <c:v>29.475223926506761</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>28.65872294669667</c:v>
+                  <c:v>24.71449202183361</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>22.994985395552369</c:v>
+                  <c:v>27.757130842920919</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>23.52539418841133</c:v>
+                  <c:v>22.91173302774029</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>22.704251899653581</c:v>
+                  <c:v>23.59517765005435</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5254,304 +5254,304 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>24.56242125078829</c:v>
+                  <c:v>27.90059375743656</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>28.777150770943141</c:v>
+                  <c:v>29.868085583644579</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>22.208258681905541</c:v>
+                  <c:v>28.639541981262241</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>29.818329559011151</c:v>
+                  <c:v>29.596468448255589</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>22.12108483218492</c:v>
+                  <c:v>27.064715439807919</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>23.905852880583311</c:v>
+                  <c:v>27.406364125658929</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>27.475666460768249</c:v>
+                  <c:v>28.956924618009939</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>27.216644795278839</c:v>
+                  <c:v>30.496766208413931</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>24.721749108556448</c:v>
+                  <c:v>27.318619931694279</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>23.68912158784951</c:v>
+                  <c:v>27.680413880104851</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>24.141046929449089</c:v>
+                  <c:v>30.649692355617699</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>24.50010837705095</c:v>
+                  <c:v>30.164149667139849</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>23.34330737411014</c:v>
+                  <c:v>27.858319965072539</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>23.997421717743769</c:v>
+                  <c:v>29.59736689079239</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>29.119927615070491</c:v>
+                  <c:v>29.522231951163761</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>24.826160885802469</c:v>
+                  <c:v>28.615813272883639</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>22.100523916982631</c:v>
+                  <c:v>30.94246942719808</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>29.10390815292817</c:v>
+                  <c:v>28.86572110707796</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>27.223185304446069</c:v>
+                  <c:v>29.327439272432201</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>29.95249965767011</c:v>
+                  <c:v>30.241633637764849</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>24.995867019399281</c:v>
+                  <c:v>28.353360551344821</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>26.36841378069245</c:v>
+                  <c:v>28.092848605298069</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>29.223937832306881</c:v>
+                  <c:v>27.29753937232012</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>23.42417712612642</c:v>
+                  <c:v>28.2656814061564</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>25.503460382417799</c:v>
+                  <c:v>29.02458791391453</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>28.026655164790821</c:v>
+                  <c:v>30.847798208339889</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>26.265899812473691</c:v>
+                  <c:v>30.337588685674579</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>24.52268224702625</c:v>
+                  <c:v>29.692919616924002</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>29.780970825611789</c:v>
+                  <c:v>30.588666319822629</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>24.182344151645761</c:v>
+                  <c:v>29.434661178830151</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>27.975151672595551</c:v>
+                  <c:v>28.320519410593111</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>25.778061425090549</c:v>
+                  <c:v>28.10612141404501</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>29.118144806827608</c:v>
+                  <c:v>29.899634771688731</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>28.382834899937109</c:v>
+                  <c:v>28.206451436455431</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>27.0514749076914</c:v>
+                  <c:v>30.834368609250799</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>22.824750286125589</c:v>
+                  <c:v>28.83518363781134</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>22.569381466887791</c:v>
+                  <c:v>28.20397484630033</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>22.08994857113532</c:v>
+                  <c:v>29.79574927854857</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>29.848677085885061</c:v>
+                  <c:v>27.45659996135625</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>23.32904780336434</c:v>
+                  <c:v>30.853161036916461</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>27.523146124304649</c:v>
+                  <c:v>29.374072286118039</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>24.814772456889141</c:v>
+                  <c:v>28.99638997345069</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>27.5673210579874</c:v>
+                  <c:v>27.092781177378018</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>25.29545867183457</c:v>
+                  <c:v>30.034488872172432</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>22.64733154010721</c:v>
+                  <c:v>28.276183976608142</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>22.635826210074718</c:v>
+                  <c:v>29.686369625351229</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>23.04523100513433</c:v>
+                  <c:v>27.0048126716638</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>29.580839846961641</c:v>
+                  <c:v>29.461680507222852</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>27.052127425569129</c:v>
+                  <c:v>29.728616413085351</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>22.599563202339159</c:v>
+                  <c:v>30.99474891818317</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>25.733645742886232</c:v>
+                  <c:v>29.280441203067451</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>26.446232773967289</c:v>
+                  <c:v>29.5609451196386</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>26.036422953787461</c:v>
+                  <c:v>29.91326458766682</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>26.10069179222706</c:v>
+                  <c:v>28.466951887641098</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>29.059589396624379</c:v>
+                  <c:v>30.80206859089186</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>29.159722338594332</c:v>
+                  <c:v>27.683494071629539</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>22.168562172904501</c:v>
+                  <c:v>29.068290706117491</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>28.21054787141054</c:v>
+                  <c:v>27.009684931249481</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>29.075047708109121</c:v>
+                  <c:v>29.645386570059699</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>24.189064878448491</c:v>
+                  <c:v>30.656528098902989</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>27.86596792057988</c:v>
+                  <c:v>30.042456729082009</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>29.144777848208751</c:v>
+                  <c:v>28.761814965035839</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>22.9012373045361</c:v>
+                  <c:v>30.521547332798551</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>22.049507100274869</c:v>
+                  <c:v>28.1645711195135</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>23.482767890663592</c:v>
+                  <c:v>27.20187215873004</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>29.220952390834711</c:v>
+                  <c:v>28.695131611835929</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>25.458001231386131</c:v>
+                  <c:v>30.36685684534212</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>29.650278406953039</c:v>
+                  <c:v>27.735860343490231</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>28.671172898431742</c:v>
+                  <c:v>30.297779843801091</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>26.181549788662561</c:v>
+                  <c:v>30.364771217094638</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>28.910441983948139</c:v>
+                  <c:v>29.736984559622272</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>29.590422708254479</c:v>
+                  <c:v>27.11321978087695</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>27.058083481804051</c:v>
+                  <c:v>30.765884872701019</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>25.922453852005081</c:v>
+                  <c:v>27.57672691598367</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>24.952554594234599</c:v>
+                  <c:v>29.1277217816403</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>29.295486281074432</c:v>
+                  <c:v>27.805457685698741</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>23.094640015115779</c:v>
+                  <c:v>28.679406372252849</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>23.824455282749408</c:v>
+                  <c:v>30.821795728348039</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>29.410394067069252</c:v>
+                  <c:v>28.641268098315791</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>24.96299247443925</c:v>
+                  <c:v>27.33098157082582</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>27.143163659734459</c:v>
+                  <c:v>30.141896404399908</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>28.741109895895018</c:v>
+                  <c:v>28.98250662135402</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>28.37986514266381</c:v>
+                  <c:v>29.553762230203969</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>25.670946176445799</c:v>
+                  <c:v>30.396806907875391</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>26.60104212735283</c:v>
+                  <c:v>28.632875238649049</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>22.18215514471667</c:v>
+                  <c:v>30.476053843676681</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>22.844218366272951</c:v>
+                  <c:v>28.867706436674109</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>22.915425809318339</c:v>
+                  <c:v>29.65685274508056</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>26.456271439072331</c:v>
+                  <c:v>30.670677053395881</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>29.979906775593459</c:v>
+                  <c:v>28.120130361709279</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>29.103106382555769</c:v>
+                  <c:v>30.12884512116068</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>23.57440693405745</c:v>
+                  <c:v>28.82578966876244</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>26.24773632069763</c:v>
+                  <c:v>27.432799905724501</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>25.74705707533392</c:v>
+                  <c:v>30.037348456372371</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>23.308479844505321</c:v>
+                  <c:v>28.535185153858521</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>26.952116720867391</c:v>
+                  <c:v>27.874570042118439</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>29.86113039760393</c:v>
+                  <c:v>29.257656951033141</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>26.62556961404059</c:v>
+                  <c:v>28.68559745329091</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>27.19651691345825</c:v>
+                  <c:v>30.710905025946349</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>25.81265319530749</c:v>
+                  <c:v>29.789892602172952</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5660,13 +5660,14 @@
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:tickLblSkip val="9"/>
+        <c:tickMarkSkip val="9"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="625613304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="30"/>
+          <c:max val="32"/>
           <c:min val="14"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -7861,8 +7862,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9B45C74-46E5-450D-B772-448AC085728C}">
   <dimension ref="B8:N27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24:C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -7886,6 +7887,15 @@
       <c r="H8" s="37"/>
       <c r="I8" s="37"/>
       <c r="J8" s="14"/>
+      <c r="L8" s="12">
+        <v>28.495118677053924</v>
+      </c>
+      <c r="M8" s="12">
+        <v>0.82050650991677354</v>
+      </c>
+      <c r="N8" s="12">
+        <v>815.5762741464988</v>
+      </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="16" t="s">
@@ -7936,9 +7946,21 @@
         <v>22.278288908300109</v>
       </c>
       <c r="I10" s="23">
-        <v>25.84156843320827</v>
+        <v>29.124279157275716</v>
       </c>
       <c r="J10" s="13"/>
+      <c r="K10" s="35" t="e">
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L10" s="35" t="e">
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M10" s="35" t="e">
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
+      </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="18" t="s">
@@ -7963,9 +7985,18 @@
         <v>0.76172252852077793</v>
       </c>
       <c r="I11" s="26">
-        <v>0.79004033293909182</v>
+        <v>1.0554620342055081</v>
       </c>
       <c r="J11" s="13"/>
+      <c r="K11" s="12">
+        <v>26.085651441172743</v>
+      </c>
+      <c r="L11" s="12">
+        <v>0.81010002402416315</v>
+      </c>
+      <c r="M11" s="12">
+        <v>1164.2878356706001</v>
+      </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="18" t="s">
@@ -7990,9 +8021,18 @@
         <v>1031.7821362494788</v>
       </c>
       <c r="I12" s="23">
-        <v>1175.8233997810821</v>
+        <v>1272.3049262677621</v>
       </c>
       <c r="J12" s="13"/>
+      <c r="L12" s="12">
+        <v>29.124279157275716</v>
+      </c>
+      <c r="M12" s="12">
+        <v>1.0554620342055081</v>
+      </c>
+      <c r="N12" s="12">
+        <v>1272.3049262677621</v>
+      </c>
     </row>
     <row r="13" spans="2:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="37" t="s">
@@ -8032,6 +8072,18 @@
       <c r="I14" s="19" t="s">
         <v>34</v>
       </c>
+      <c r="K14" s="35" t="e">
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L14" s="35" t="e">
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M14" s="35" t="e">
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
+      </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="18" t="s">
@@ -8055,8 +8107,8 @@
       <c r="H15" s="15">
         <v>25.673470219034094</v>
       </c>
-      <c r="I15" s="15">
-        <v>26.258469693323129</v>
+      <c r="I15" s="23">
+        <v>26.085651441172743</v>
       </c>
       <c r="J15" s="13"/>
       <c r="L15" s="12">
@@ -8091,8 +8143,8 @@
       <c r="H16" s="30">
         <v>0.9742649069914403</v>
       </c>
-      <c r="I16" s="30">
-        <v>0.77136798848580934</v>
+      <c r="I16" s="26">
+        <v>0.81010002402416315</v>
       </c>
       <c r="J16" s="13"/>
     </row>
@@ -8118,8 +8170,8 @@
       <c r="H17" s="15">
         <v>1322.7859467357737</v>
       </c>
-      <c r="I17" s="15">
-        <v>1189.2021257385124</v>
+      <c r="I17" s="23">
+        <v>1164.2878356706001</v>
       </c>
       <c r="J17" s="13"/>
     </row>
@@ -8163,17 +8215,17 @@
       <c r="I20" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="L20" s="8">
+      <c r="L20" s="8" t="e">
         <f>AVERAGE(L9:L19)</f>
-        <v>25.673470219034094</v>
-      </c>
-      <c r="M20" s="8">
+        <v>#REF!</v>
+      </c>
+      <c r="M20" s="8" t="e">
         <f t="shared" ref="M20:N20" si="0">AVERAGE(M9:M19)</f>
-        <v>0.9742649069914403</v>
+        <v>#REF!</v>
       </c>
       <c r="N20" s="8">
         <f t="shared" si="0"/>
-        <v>1322.7859467357737</v>
+        <v>1297.5454365017679</v>
       </c>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
@@ -18987,11 +19039,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A75EB4B7-89C4-443B-A807-0ACF9EB2A93F}">
-  <dimension ref="A1:AB101"/>
+  <dimension ref="A1:AB102"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V2" sqref="V2:X101"/>
+    <sheetView topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Z102" sqref="Z102:AB102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -19141,14 +19193,14 @@
       <c r="X2" s="8">
         <v>704.36015751240359</v>
       </c>
-      <c r="Z2" s="8">
-        <v>28.948280763965659</v>
-      </c>
-      <c r="AA2" s="8">
-        <v>0.74192714270540638</v>
-      </c>
-      <c r="AB2" s="8">
-        <v>1115.429757686861</v>
+      <c r="Z2" s="35">
+        <v>28.962560955417651</v>
+      </c>
+      <c r="AA2" s="35">
+        <v>0.80922880393016439</v>
+      </c>
+      <c r="AB2" s="35">
+        <v>1495.34031305401</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
@@ -19213,14 +19265,14 @@
       <c r="X3" s="8">
         <v>1710.610211458177</v>
       </c>
-      <c r="Z3" s="8">
-        <v>29.234057725657379</v>
-      </c>
-      <c r="AA3" s="8">
-        <v>0.69404202773682799</v>
-      </c>
-      <c r="AB3" s="8">
-        <v>1172.399490832109</v>
+      <c r="Z3" s="35">
+        <v>24.706129067836031</v>
+      </c>
+      <c r="AA3" s="35">
+        <v>0.88257076458675376</v>
+      </c>
+      <c r="AB3" s="35">
+        <v>647.3567466115004</v>
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
@@ -19285,14 +19337,14 @@
       <c r="X4" s="8">
         <v>672.27987676770704</v>
       </c>
-      <c r="Z4" s="8">
-        <v>29.70238243188955</v>
-      </c>
-      <c r="AA4" s="8">
-        <v>0.68738740402025333</v>
-      </c>
-      <c r="AB4" s="8">
-        <v>1027.3641643162539</v>
+      <c r="Z4" s="35">
+        <v>26.28787470202268</v>
+      </c>
+      <c r="AA4" s="35">
+        <v>0.77891086123734976</v>
+      </c>
+      <c r="AB4" s="35">
+        <v>848.24194089968819</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
@@ -19357,14 +19409,14 @@
       <c r="X5" s="8">
         <v>629.47254649241893</v>
       </c>
-      <c r="Z5" s="8">
-        <v>27.36392272602324</v>
-      </c>
-      <c r="AA5" s="8">
-        <v>0.76919112231806852</v>
-      </c>
-      <c r="AB5" s="8">
-        <v>1254.2709911269401</v>
+      <c r="Z5" s="35">
+        <v>22.515754200399691</v>
+      </c>
+      <c r="AA5" s="35">
+        <v>0.75984113957708843</v>
+      </c>
+      <c r="AB5" s="35">
+        <v>1522.2098494005411</v>
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
@@ -19429,14 +19481,14 @@
       <c r="X6" s="8">
         <v>2036.308516737188</v>
       </c>
-      <c r="Z6" s="8">
-        <v>28.581999014902099</v>
-      </c>
-      <c r="AA6" s="8">
-        <v>0.71285842964909818</v>
-      </c>
-      <c r="AB6" s="8">
-        <v>1307.2240097120409</v>
+      <c r="Z6" s="35">
+        <v>27.300289420195519</v>
+      </c>
+      <c r="AA6" s="35">
+        <v>0.89161080148826644</v>
+      </c>
+      <c r="AB6" s="35">
+        <v>1417.938341360049</v>
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
@@ -19501,14 +19553,14 @@
       <c r="X7" s="8">
         <v>1150.6062617935791</v>
       </c>
-      <c r="Z7" s="8">
-        <v>27.8974263341584</v>
-      </c>
-      <c r="AA7" s="8">
-        <v>0.90000106108610423</v>
-      </c>
-      <c r="AB7" s="8">
-        <v>1177.861967813209</v>
+      <c r="Z7" s="35">
+        <v>24.464153194201501</v>
+      </c>
+      <c r="AA7" s="35">
+        <v>0.80917613055159732</v>
+      </c>
+      <c r="AB7" s="35">
+        <v>1032.2417781941381</v>
       </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
@@ -19573,14 +19625,14 @@
       <c r="X8" s="8">
         <v>1112.034947128521</v>
       </c>
-      <c r="Z8" s="8">
-        <v>26.06002165501241</v>
-      </c>
-      <c r="AA8" s="8">
-        <v>0.68315613130719777</v>
-      </c>
-      <c r="AB8" s="8">
-        <v>1193.60513537632</v>
+      <c r="Z8" s="35">
+        <v>23.88058556563341</v>
+      </c>
+      <c r="AA8" s="35">
+        <v>0.85963373532001441</v>
+      </c>
+      <c r="AB8" s="35">
+        <v>770.28253108385456</v>
       </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.25">
@@ -19645,14 +19697,14 @@
       <c r="X9" s="8">
         <v>1204.3950067084429</v>
       </c>
-      <c r="Z9" s="8">
-        <v>25.312177898598101</v>
-      </c>
-      <c r="AA9" s="8">
-        <v>0.80913124456268226</v>
-      </c>
-      <c r="AB9" s="8">
-        <v>1061.9294064475521</v>
+      <c r="Z9" s="35">
+        <v>22.687253955498051</v>
+      </c>
+      <c r="AA9" s="35">
+        <v>0.74564901679361073</v>
+      </c>
+      <c r="AB9" s="35">
+        <v>1356.4855518232739</v>
       </c>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.25">
@@ -19717,14 +19769,14 @@
       <c r="X10" s="8">
         <v>1279.576459255323</v>
       </c>
-      <c r="Z10" s="8">
-        <v>29.868756959545081</v>
-      </c>
-      <c r="AA10" s="8">
-        <v>0.90967671165804997</v>
-      </c>
-      <c r="AB10" s="8">
-        <v>1296.335674817522</v>
+      <c r="Z10" s="35">
+        <v>29.48413932273991</v>
+      </c>
+      <c r="AA10" s="35">
+        <v>0.84981109783990916</v>
+      </c>
+      <c r="AB10" s="35">
+        <v>999.64619860359699</v>
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
@@ -19789,14 +19841,14 @@
       <c r="X11" s="8">
         <v>3454.174432718788</v>
       </c>
-      <c r="Z11" s="8">
-        <v>25.628403831553051</v>
-      </c>
-      <c r="AA11" s="8">
-        <v>0.77242896577517961</v>
-      </c>
-      <c r="AB11" s="8">
-        <v>1075.314086715407</v>
+      <c r="Z11" s="35">
+        <v>26.528274115023098</v>
+      </c>
+      <c r="AA11" s="35">
+        <v>0.78029119757474119</v>
+      </c>
+      <c r="AB11" s="35">
+        <v>778.01177833742372</v>
       </c>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.25">
@@ -19861,14 +19913,14 @@
       <c r="X12" s="8">
         <v>596.82699752096312</v>
       </c>
-      <c r="Z12" s="8">
-        <v>23.696294873886419</v>
-      </c>
-      <c r="AA12" s="8">
-        <v>0.93165230277586231</v>
-      </c>
-      <c r="AB12" s="8">
-        <v>1053.6476384581081</v>
+      <c r="Z12" s="35">
+        <v>26.95259226251461</v>
+      </c>
+      <c r="AA12" s="35">
+        <v>0.8781028809754835</v>
+      </c>
+      <c r="AB12" s="35">
+        <v>1621.274580200871</v>
       </c>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
@@ -19933,14 +19985,14 @@
       <c r="X13" s="8">
         <v>1322.7859467357737</v>
       </c>
-      <c r="Z13" s="8">
-        <v>29.720746581523159</v>
-      </c>
-      <c r="AA13" s="8">
-        <v>0.62463711360696739</v>
-      </c>
-      <c r="AB13" s="8">
-        <v>1109.6440445795531</v>
+      <c r="Z13" s="35">
+        <v>27.250213483508411</v>
+      </c>
+      <c r="AA13" s="35">
+        <v>0.81211205840894862</v>
+      </c>
+      <c r="AB13" s="35">
+        <v>1035.1539686519679</v>
       </c>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.25">
@@ -20005,14 +20057,14 @@
       <c r="X14" s="8">
         <v>1624.577864397158</v>
       </c>
-      <c r="Z14" s="8">
-        <v>27.145333299310689</v>
-      </c>
-      <c r="AA14" s="8">
-        <v>0.77548834254596866</v>
-      </c>
-      <c r="AB14" s="8">
-        <v>1036.098374501322</v>
+      <c r="Z14" s="35">
+        <v>23.52973893935598</v>
+      </c>
+      <c r="AA14" s="35">
+        <v>0.71128410026339162</v>
+      </c>
+      <c r="AB14" s="35">
+        <v>1723.6734861486491</v>
       </c>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.25">
@@ -20077,14 +20129,14 @@
       <c r="X15" s="8">
         <v>1524.5157548467221</v>
       </c>
-      <c r="Z15" s="8">
-        <v>29.677533122098101</v>
-      </c>
-      <c r="AA15" s="8">
-        <v>0.8580837107943694</v>
-      </c>
-      <c r="AB15" s="8">
-        <v>1234.826354511395</v>
+      <c r="Z15" s="35">
+        <v>25.52018632022099</v>
+      </c>
+      <c r="AA15" s="35">
+        <v>0.89683826511213449</v>
+      </c>
+      <c r="AB15" s="35">
+        <v>1170.805115266058</v>
       </c>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.25">
@@ -20149,14 +20201,14 @@
       <c r="X16" s="8">
         <v>1170.9140214486561</v>
       </c>
-      <c r="Z16" s="8">
-        <v>28.608108269825859</v>
-      </c>
-      <c r="AA16" s="8">
-        <v>0.64273441208589066</v>
-      </c>
-      <c r="AB16" s="8">
-        <v>1114.7975487265701</v>
+      <c r="Z16" s="35">
+        <v>28.77443774820032</v>
+      </c>
+      <c r="AA16" s="35">
+        <v>0.85100215445902383</v>
+      </c>
+      <c r="AB16" s="35">
+        <v>1359.0671099892791</v>
       </c>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.25">
@@ -20221,14 +20273,14 @@
       <c r="X17" s="8">
         <v>2346.847371549125</v>
       </c>
-      <c r="Z17" s="8">
-        <v>25.47934902746713</v>
-      </c>
-      <c r="AA17" s="8">
-        <v>0.77986166433472304</v>
-      </c>
-      <c r="AB17" s="8">
-        <v>1211.2118133749709</v>
+      <c r="Z17" s="35">
+        <v>29.511263195791422</v>
+      </c>
+      <c r="AA17" s="35">
+        <v>0.88558670816837759</v>
+      </c>
+      <c r="AB17" s="35">
+        <v>1686.2474946640641</v>
       </c>
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.25">
@@ -20293,14 +20345,14 @@
       <c r="X18" s="8">
         <v>2362.5877087275799</v>
       </c>
-      <c r="Z18" s="8">
-        <v>27.73013224156707</v>
-      </c>
-      <c r="AA18" s="8">
-        <v>0.85114329795450017</v>
-      </c>
-      <c r="AB18" s="8">
-        <v>1346.7170291519631</v>
+      <c r="Z18" s="35">
+        <v>24.651637603742351</v>
+      </c>
+      <c r="AA18" s="35">
+        <v>0.78227412003919239</v>
+      </c>
+      <c r="AB18" s="35">
+        <v>1776.9224715343539</v>
       </c>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.25">
@@ -20365,14 +20417,14 @@
       <c r="X19" s="8">
         <v>1435.7282317223239</v>
       </c>
-      <c r="Z19" s="8">
-        <v>28.155350595508889</v>
-      </c>
-      <c r="AA19" s="8">
-        <v>0.85336348227152681</v>
-      </c>
-      <c r="AB19" s="8">
-        <v>1168.352967751496</v>
+      <c r="Z19" s="35">
+        <v>25.21581859641698</v>
+      </c>
+      <c r="AA19" s="35">
+        <v>0.88063880598435484</v>
+      </c>
+      <c r="AB19" s="35">
+        <v>1317.5221702561021</v>
       </c>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.25">
@@ -20437,14 +20489,14 @@
       <c r="X20" s="8">
         <v>3160.2998476933558</v>
       </c>
-      <c r="Z20" s="8">
-        <v>26.24772077915085</v>
-      </c>
-      <c r="AA20" s="8">
-        <v>0.64122756196038588</v>
-      </c>
-      <c r="AB20" s="8">
-        <v>1122.113782332762</v>
+      <c r="Z20" s="35">
+        <v>24.488594736996081</v>
+      </c>
+      <c r="AA20" s="35">
+        <v>0.87479164671207865</v>
+      </c>
+      <c r="AB20" s="35">
+        <v>1056.449322002916</v>
       </c>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.25">
@@ -20509,14 +20561,14 @@
       <c r="X21" s="8">
         <v>2405.481179050184</v>
       </c>
-      <c r="Z21" s="8">
-        <v>29.41233415548513</v>
-      </c>
-      <c r="AA21" s="8">
-        <v>0.68935903048689018</v>
-      </c>
-      <c r="AB21" s="8">
-        <v>1058.885344269615</v>
+      <c r="Z21" s="35">
+        <v>25.400659880508009</v>
+      </c>
+      <c r="AA21" s="35">
+        <v>0.87763044577767657</v>
+      </c>
+      <c r="AB21" s="35">
+        <v>1499.6453101380689</v>
       </c>
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.25">
@@ -20581,14 +20633,14 @@
       <c r="X22" s="8">
         <v>2334.3259153527119</v>
       </c>
-      <c r="Z22" s="8">
-        <v>25.921319938108841</v>
-      </c>
-      <c r="AA22" s="8">
-        <v>0.69237002026523065</v>
-      </c>
-      <c r="AB22" s="8">
-        <v>1232.525931170685</v>
+      <c r="Z22" s="35">
+        <v>27.028943182307621</v>
+      </c>
+      <c r="AA22" s="35">
+        <v>0.89385297347004689</v>
+      </c>
+      <c r="AB22" s="35">
+        <v>1748.7356900884149</v>
       </c>
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.25">
@@ -20653,14 +20705,14 @@
       <c r="X23" s="8">
         <v>1911.357949478522</v>
       </c>
-      <c r="Z23" s="8">
-        <v>26.816590333746131</v>
-      </c>
-      <c r="AA23" s="8">
-        <v>0.70537096919837283</v>
-      </c>
-      <c r="AB23" s="8">
-        <v>1158.5012449366341</v>
+      <c r="Z23" s="35">
+        <v>23.275451731535512</v>
+      </c>
+      <c r="AA23" s="35">
+        <v>0.73561347817659894</v>
+      </c>
+      <c r="AB23" s="35">
+        <v>1634.8342230598159</v>
       </c>
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.25">
@@ -20725,14 +20777,14 @@
       <c r="X24" s="8">
         <v>1624.577864397158</v>
       </c>
-      <c r="Z24" s="8">
-        <v>27.18606558734616</v>
-      </c>
-      <c r="AA24" s="8">
-        <v>0.75561607348408955</v>
-      </c>
-      <c r="AB24" s="8">
-        <v>1307.298462758205</v>
+      <c r="Z24" s="35">
+        <v>25.133971097873669</v>
+      </c>
+      <c r="AA24" s="35">
+        <v>0.74072396353471148</v>
+      </c>
+      <c r="AB24" s="35">
+        <v>1043.449216690824</v>
       </c>
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.25">
@@ -20797,14 +20849,14 @@
       <c r="X25" s="8">
         <v>1524.5157548467221</v>
       </c>
-      <c r="Z25" s="8">
-        <v>26.418842945755991</v>
-      </c>
-      <c r="AA25" s="8">
-        <v>0.79893189895058048</v>
-      </c>
-      <c r="AB25" s="8">
-        <v>1123.712639692782</v>
+      <c r="Z25" s="35">
+        <v>28.334572025370171</v>
+      </c>
+      <c r="AA25" s="35">
+        <v>0.73668632392044375</v>
+      </c>
+      <c r="AB25" s="35">
+        <v>917.4519762031523</v>
       </c>
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.25">
@@ -20869,14 +20921,14 @@
       <c r="X26" s="8">
         <v>1170.9140214486561</v>
       </c>
-      <c r="Z26" s="8">
-        <v>28.973369590689892</v>
-      </c>
-      <c r="AA26" s="8">
-        <v>0.60249813054309231</v>
-      </c>
-      <c r="AB26" s="8">
-        <v>1108.4612006442051</v>
+      <c r="Z26" s="35">
+        <v>27.536922537414991</v>
+      </c>
+      <c r="AA26" s="35">
+        <v>0.90622885079572135</v>
+      </c>
+      <c r="AB26" s="35">
+        <v>767.20513766271301</v>
       </c>
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.25">
@@ -20941,14 +20993,14 @@
       <c r="X27" s="8">
         <v>2346.847371549125</v>
       </c>
-      <c r="Z27" s="8">
-        <v>27.341201066388461</v>
-      </c>
-      <c r="AA27" s="8">
-        <v>0.68599863978309716</v>
-      </c>
-      <c r="AB27" s="8">
-        <v>1042.6495016499671</v>
+      <c r="Z27" s="35">
+        <v>24.690142120930581</v>
+      </c>
+      <c r="AA27" s="35">
+        <v>0.84806277433632493</v>
+      </c>
+      <c r="AB27" s="35">
+        <v>919.03622304171881</v>
       </c>
     </row>
     <row r="28" spans="1:28" x14ac:dyDescent="0.25">
@@ -21013,14 +21065,14 @@
       <c r="X28" s="8">
         <v>2362.5877087275799</v>
       </c>
-      <c r="Z28" s="8">
-        <v>29.585199890641</v>
-      </c>
-      <c r="AA28" s="8">
-        <v>0.8410314346997918</v>
-      </c>
-      <c r="AB28" s="8">
-        <v>1321.566276494091</v>
+      <c r="Z28" s="35">
+        <v>29.26072276344653</v>
+      </c>
+      <c r="AA28" s="35">
+        <v>0.87815111951757163</v>
+      </c>
+      <c r="AB28" s="35">
+        <v>1586.9812414680459</v>
       </c>
     </row>
     <row r="29" spans="1:28" x14ac:dyDescent="0.25">
@@ -21085,14 +21137,14 @@
       <c r="X29" s="8">
         <v>1435.7282317223239</v>
       </c>
-      <c r="Z29" s="8">
-        <v>23.446518621342481</v>
-      </c>
-      <c r="AA29" s="8">
-        <v>0.72171922222423712</v>
-      </c>
-      <c r="AB29" s="8">
-        <v>1173.9171958910119</v>
+      <c r="Z29" s="35">
+        <v>26.45419086191561</v>
+      </c>
+      <c r="AA29" s="35">
+        <v>0.9059937157391631</v>
+      </c>
+      <c r="AB29" s="35">
+        <v>732.76033793823558</v>
       </c>
     </row>
     <row r="30" spans="1:28" x14ac:dyDescent="0.25">
@@ -21157,14 +21209,14 @@
       <c r="X30" s="8">
         <v>3160.2998476933558</v>
       </c>
-      <c r="Z30" s="8">
-        <v>23.734001043621351</v>
-      </c>
-      <c r="AA30" s="8">
-        <v>0.75818991091035715</v>
-      </c>
-      <c r="AB30" s="8">
-        <v>1107.1671889334791</v>
+      <c r="Z30" s="35">
+        <v>25.169211812182748</v>
+      </c>
+      <c r="AA30" s="35">
+        <v>0.83339209465280006</v>
+      </c>
+      <c r="AB30" s="35">
+        <v>1076.039477275036</v>
       </c>
     </row>
     <row r="31" spans="1:28" x14ac:dyDescent="0.25">
@@ -21229,14 +21281,14 @@
       <c r="X31" s="8">
         <v>2405.481179050184</v>
       </c>
-      <c r="Z31" s="8">
-        <v>26.204065120481602</v>
-      </c>
-      <c r="AA31" s="8">
-        <v>0.85647259794198893</v>
-      </c>
-      <c r="AB31" s="8">
-        <v>1085.6464262691049</v>
+      <c r="Z31" s="35">
+        <v>25.415264194656</v>
+      </c>
+      <c r="AA31" s="35">
+        <v>0.71959390010715074</v>
+      </c>
+      <c r="AB31" s="35">
+        <v>633.66665795642541</v>
       </c>
     </row>
     <row r="32" spans="1:28" x14ac:dyDescent="0.25">
@@ -21301,14 +21353,14 @@
       <c r="X32" s="8">
         <v>2334.3259153527119</v>
       </c>
-      <c r="Z32" s="8">
-        <v>22.631115914670008</v>
-      </c>
-      <c r="AA32" s="8">
-        <v>0.689502787146273</v>
-      </c>
-      <c r="AB32" s="8">
-        <v>1142.79703251965</v>
+      <c r="Z32" s="35">
+        <v>23.785695356758339</v>
+      </c>
+      <c r="AA32" s="35">
+        <v>0.85928211801198506</v>
+      </c>
+      <c r="AB32" s="35">
+        <v>1047.482721973694</v>
       </c>
     </row>
     <row r="33" spans="1:28" x14ac:dyDescent="0.25">
@@ -21373,14 +21425,14 @@
       <c r="X33" s="8">
         <v>1911.357949478522</v>
       </c>
-      <c r="Z33" s="8">
-        <v>23.248384453876159</v>
-      </c>
-      <c r="AA33" s="8">
-        <v>0.81817383819085121</v>
-      </c>
-      <c r="AB33" s="8">
-        <v>1250.6956188365129</v>
+      <c r="Z33" s="35">
+        <v>25.351535204162708</v>
+      </c>
+      <c r="AA33" s="35">
+        <v>0.81778527050993755</v>
+      </c>
+      <c r="AB33" s="35">
+        <v>715.86118825556127</v>
       </c>
     </row>
     <row r="34" spans="1:28" x14ac:dyDescent="0.25">
@@ -21445,14 +21497,14 @@
       <c r="X34" s="8">
         <v>1334.9886590000001</v>
       </c>
-      <c r="Z34" s="8">
-        <v>27.395597787313111</v>
-      </c>
-      <c r="AA34" s="8">
-        <v>0.78897961617244516</v>
-      </c>
-      <c r="AB34" s="8">
-        <v>1262.2626721701549</v>
+      <c r="Z34" s="35">
+        <v>29.55902308554835</v>
+      </c>
+      <c r="AA34" s="35">
+        <v>0.86216108430162319</v>
+      </c>
+      <c r="AB34" s="35">
+        <v>1065.6358999307829</v>
       </c>
     </row>
     <row r="35" spans="1:28" x14ac:dyDescent="0.25">
@@ -21517,14 +21569,14 @@
       <c r="X35" s="8">
         <v>1871.2588310000001</v>
       </c>
-      <c r="Z35" s="8">
-        <v>29.996011101902951</v>
-      </c>
-      <c r="AA35" s="8">
-        <v>0.78366092740818405</v>
-      </c>
-      <c r="AB35" s="8">
-        <v>1201.986727869767</v>
+      <c r="Z35" s="35">
+        <v>26.477968178948579</v>
+      </c>
+      <c r="AA35" s="35">
+        <v>0.78580030922464317</v>
+      </c>
+      <c r="AB35" s="35">
+        <v>976.3547151712412</v>
       </c>
     </row>
     <row r="36" spans="1:28" x14ac:dyDescent="0.25">
@@ -21589,14 +21641,14 @@
       <c r="X36" s="8">
         <v>1374.0269330000001</v>
       </c>
-      <c r="Z36" s="8">
-        <v>29.13229890621038</v>
-      </c>
-      <c r="AA36" s="8">
-        <v>0.71194432358410309</v>
-      </c>
-      <c r="AB36" s="8">
-        <v>1255.9135059713681</v>
+      <c r="Z36" s="35">
+        <v>25.82260120980159</v>
+      </c>
+      <c r="AA36" s="35">
+        <v>0.84307926670334454</v>
+      </c>
+      <c r="AB36" s="35">
+        <v>920.68329447115423</v>
       </c>
     </row>
     <row r="37" spans="1:28" x14ac:dyDescent="0.25">
@@ -21661,14 +21713,14 @@
       <c r="X37" s="8">
         <v>2571.101506</v>
       </c>
-      <c r="Z37" s="8">
-        <v>25.244898248674179</v>
-      </c>
-      <c r="AA37" s="8">
-        <v>0.63918890073566725</v>
-      </c>
-      <c r="AB37" s="8">
-        <v>1358.1601825135349</v>
+      <c r="Z37" s="35">
+        <v>23.446269019700491</v>
+      </c>
+      <c r="AA37" s="35">
+        <v>0.88652841664956183</v>
+      </c>
+      <c r="AB37" s="35">
+        <v>769.57925155130761</v>
       </c>
     </row>
     <row r="38" spans="1:28" x14ac:dyDescent="0.25">
@@ -21733,14 +21785,14 @@
       <c r="X38" s="8">
         <v>561.55941970000003</v>
       </c>
-      <c r="Z38" s="8">
-        <v>27.616833985283218</v>
-      </c>
-      <c r="AA38" s="8">
-        <v>0.62639442851378069</v>
-      </c>
-      <c r="AB38" s="8">
-        <v>1071.445132531451</v>
+      <c r="Z38" s="35">
+        <v>25.136353522878899</v>
+      </c>
+      <c r="AA38" s="35">
+        <v>0.86348729245276568</v>
+      </c>
+      <c r="AB38" s="35">
+        <v>1228.55153303834</v>
       </c>
     </row>
     <row r="39" spans="1:28" x14ac:dyDescent="0.25">
@@ -21805,14 +21857,14 @@
       <c r="X39" s="8">
         <v>764.58025009999994</v>
       </c>
-      <c r="Z39" s="8">
-        <v>24.016131205229762</v>
-      </c>
-      <c r="AA39" s="8">
-        <v>0.83466373496002777</v>
-      </c>
-      <c r="AB39" s="8">
-        <v>1339.9705166129811</v>
+      <c r="Z39" s="35">
+        <v>29.009245810047091</v>
+      </c>
+      <c r="AA39" s="35">
+        <v>0.84517455360484961</v>
+      </c>
+      <c r="AB39" s="35">
+        <v>1478.3096061176259</v>
       </c>
     </row>
     <row r="40" spans="1:28" x14ac:dyDescent="0.25">
@@ -21877,14 +21929,14 @@
       <c r="X40" s="8">
         <v>2657.4619309999998</v>
       </c>
-      <c r="Z40" s="8">
-        <v>25.572581219211411</v>
-      </c>
-      <c r="AA40" s="8">
-        <v>0.74018984879782279</v>
-      </c>
-      <c r="AB40" s="8">
-        <v>1166.8236034794299</v>
+      <c r="Z40" s="35">
+        <v>26.149353373185669</v>
+      </c>
+      <c r="AA40" s="35">
+        <v>0.81401193007468098</v>
+      </c>
+      <c r="AB40" s="35">
+        <v>1383.087764868819</v>
       </c>
     </row>
     <row r="41" spans="1:28" x14ac:dyDescent="0.25">
@@ -21949,14 +22001,14 @@
       <c r="X41" s="8">
         <v>1360.012637</v>
       </c>
-      <c r="Z41" s="8">
-        <v>28.55571182064207</v>
-      </c>
-      <c r="AA41" s="8">
-        <v>0.7941535158307742</v>
-      </c>
-      <c r="AB41" s="8">
-        <v>1333.1411025483339</v>
+      <c r="Z41" s="35">
+        <v>22.837132636474749</v>
+      </c>
+      <c r="AA41" s="35">
+        <v>0.79885296339157741</v>
+      </c>
+      <c r="AB41" s="35">
+        <v>1453.372168461734</v>
       </c>
     </row>
     <row r="42" spans="1:28" x14ac:dyDescent="0.25">
@@ -22021,14 +22073,14 @@
       <c r="X42" s="8">
         <v>1029.613447</v>
       </c>
-      <c r="Z42" s="8">
-        <v>23.08225387251213</v>
-      </c>
-      <c r="AA42" s="8">
-        <v>0.63805002136805067</v>
-      </c>
-      <c r="AB42" s="8">
-        <v>1176.2335013189399</v>
+      <c r="Z42" s="35">
+        <v>28.587428909454449</v>
+      </c>
+      <c r="AA42" s="35">
+        <v>0.77676848345082283</v>
+      </c>
+      <c r="AB42" s="35">
+        <v>1397.125797632915</v>
       </c>
     </row>
     <row r="43" spans="1:28" x14ac:dyDescent="0.25">
@@ -22093,14 +22145,14 @@
       <c r="X43" s="8">
         <v>1084.971763</v>
       </c>
-      <c r="Z43" s="8">
-        <v>23.688047631104091</v>
-      </c>
-      <c r="AA43" s="8">
-        <v>0.6835952375905513</v>
-      </c>
-      <c r="AB43" s="8">
-        <v>1039.714818378377</v>
+      <c r="Z43" s="35">
+        <v>25.697870989373879</v>
+      </c>
+      <c r="AA43" s="35">
+        <v>0.89680428011624524</v>
+      </c>
+      <c r="AB43" s="35">
+        <v>813.13792797177985</v>
       </c>
     </row>
     <row r="44" spans="1:28" x14ac:dyDescent="0.25">
@@ -22165,14 +22217,14 @@
       <c r="X44" s="8">
         <v>1866.8099804138849</v>
       </c>
-      <c r="Z44" s="8">
-        <v>22.735552660785331</v>
-      </c>
-      <c r="AA44" s="8">
-        <v>0.82483816304417235</v>
-      </c>
-      <c r="AB44" s="8">
-        <v>1146.237715687193</v>
+      <c r="Z44" s="35">
+        <v>26.270793467325909</v>
+      </c>
+      <c r="AA44" s="35">
+        <v>0.7766216081160553</v>
+      </c>
+      <c r="AB44" s="35">
+        <v>1639.886225340806</v>
       </c>
     </row>
     <row r="45" spans="1:28" x14ac:dyDescent="0.25">
@@ -22237,14 +22289,14 @@
       <c r="X45" s="8">
         <v>1095.711639442527</v>
       </c>
-      <c r="Z45" s="8">
-        <v>28.326388099999321</v>
-      </c>
-      <c r="AA45" s="8">
-        <v>0.77537257845906316</v>
-      </c>
-      <c r="AB45" s="8">
-        <v>1212.642013407992</v>
+      <c r="Z45" s="35">
+        <v>28.481482619212478</v>
+      </c>
+      <c r="AA45" s="35">
+        <v>0.72222005064255046</v>
+      </c>
+      <c r="AB45" s="35">
+        <v>993.00838932954059</v>
       </c>
     </row>
     <row r="46" spans="1:28" x14ac:dyDescent="0.25">
@@ -22309,14 +22361,14 @@
       <c r="X46" s="8">
         <v>1092.983661933933</v>
       </c>
-      <c r="Z46" s="8">
-        <v>29.73218541472778</v>
-      </c>
-      <c r="AA46" s="8">
-        <v>0.71444718663420637</v>
-      </c>
-      <c r="AB46" s="8">
-        <v>1319.196338279259</v>
+      <c r="Z46" s="35">
+        <v>25.006649819079971</v>
+      </c>
+      <c r="AA46" s="35">
+        <v>0.85351004866964764</v>
+      </c>
+      <c r="AB46" s="35">
+        <v>1568.6512162611759</v>
       </c>
     </row>
     <row r="47" spans="1:28" x14ac:dyDescent="0.25">
@@ -22381,14 +22433,14 @@
       <c r="X47" s="8">
         <v>2201.773864787086</v>
       </c>
-      <c r="Z47" s="8">
-        <v>22.99445753189255</v>
-      </c>
-      <c r="AA47" s="8">
-        <v>0.64962429655507681</v>
-      </c>
-      <c r="AB47" s="8">
-        <v>1127.1564598772541</v>
+      <c r="Z47" s="35">
+        <v>27.81965147228237</v>
+      </c>
+      <c r="AA47" s="35">
+        <v>0.86843731903150179</v>
+      </c>
+      <c r="AB47" s="35">
+        <v>1180.213622296749</v>
       </c>
     </row>
     <row r="48" spans="1:28" x14ac:dyDescent="0.25">
@@ -22453,14 +22505,14 @@
       <c r="X48" s="8">
         <v>2809.2962655542392</v>
       </c>
-      <c r="Z48" s="8">
-        <v>25.04889558473057</v>
-      </c>
-      <c r="AA48" s="8">
-        <v>0.73384569992877635</v>
-      </c>
-      <c r="AB48" s="8">
-        <v>1204.9261350846889</v>
+      <c r="Z48" s="35">
+        <v>24.097321858567259</v>
+      </c>
+      <c r="AA48" s="35">
+        <v>0.79841485865550244</v>
+      </c>
+      <c r="AB48" s="35">
+        <v>1006.921730911443</v>
       </c>
     </row>
     <row r="49" spans="1:28" x14ac:dyDescent="0.25">
@@ -22525,14 +22577,14 @@
       <c r="X49" s="8">
         <v>2004.6413952729181</v>
       </c>
-      <c r="Z49" s="8">
-        <v>28.508632024600971</v>
-      </c>
-      <c r="AA49" s="8">
-        <v>0.97211278287713343</v>
-      </c>
-      <c r="AB49" s="8">
-        <v>1171.4066952072999</v>
+      <c r="Z49" s="35">
+        <v>27.454208507669311</v>
+      </c>
+      <c r="AA49" s="35">
+        <v>0.79640565819033027</v>
+      </c>
+      <c r="AB49" s="35">
+        <v>1672.631701264462</v>
       </c>
     </row>
     <row r="50" spans="1:28" x14ac:dyDescent="0.25">
@@ -22597,14 +22649,14 @@
       <c r="X50" s="8">
         <v>1915.037371168607</v>
       </c>
-      <c r="Z50" s="8">
-        <v>29.43212294265194</v>
-      </c>
-      <c r="AA50" s="8">
-        <v>0.90432141510353525</v>
-      </c>
-      <c r="AB50" s="8">
-        <v>1182.5073663086321</v>
+      <c r="Z50" s="35">
+        <v>26.46008032046127</v>
+      </c>
+      <c r="AA50" s="35">
+        <v>0.87635768817990489</v>
+      </c>
+      <c r="AB50" s="35">
+        <v>1392.2903212919739</v>
       </c>
     </row>
     <row r="51" spans="1:28" x14ac:dyDescent="0.25">
@@ -22669,14 +22721,14 @@
       <c r="X51" s="8">
         <v>683.74533718691907</v>
       </c>
-      <c r="Z51" s="8">
-        <v>22.393683474565691</v>
-      </c>
-      <c r="AA51" s="8">
-        <v>0.72738086225460941</v>
-      </c>
-      <c r="AB51" s="8">
-        <v>1032.199102682868</v>
+      <c r="Z51" s="35">
+        <v>25.797315862071041</v>
+      </c>
+      <c r="AA51" s="35">
+        <v>0.83861570911412464</v>
+      </c>
+      <c r="AB51" s="35">
+        <v>1008.5815777604</v>
       </c>
     </row>
     <row r="52" spans="1:28" x14ac:dyDescent="0.25">
@@ -22741,14 +22793,14 @@
       <c r="X52" s="8">
         <v>2009.3192310472371</v>
       </c>
-      <c r="Z52" s="8">
-        <v>25.427849893951251</v>
-      </c>
-      <c r="AA52" s="8">
-        <v>0.92837988087394607</v>
-      </c>
-      <c r="AB52" s="8">
-        <v>1224.1876587652021</v>
+      <c r="Z52" s="35">
+        <v>29.050914625042061</v>
+      </c>
+      <c r="AA52" s="35">
+        <v>0.79903058379402492</v>
+      </c>
+      <c r="AB52" s="35">
+        <v>1073.8417620253549</v>
       </c>
     </row>
     <row r="53" spans="1:28" x14ac:dyDescent="0.25">
@@ -22813,14 +22865,14 @@
       <c r="X53" s="8">
         <v>1719.513179980999</v>
       </c>
-      <c r="Z53" s="8">
-        <v>28.143943122888341</v>
-      </c>
-      <c r="AA53" s="8">
-        <v>0.7765384796351904</v>
-      </c>
-      <c r="AB53" s="8">
-        <v>1054.5578476933219</v>
+      <c r="Z53" s="35">
+        <v>24.109326979168209</v>
+      </c>
+      <c r="AA53" s="35">
+        <v>0.88853754017704667</v>
+      </c>
+      <c r="AB53" s="35">
+        <v>1597.3464804984669</v>
       </c>
     </row>
     <row r="54" spans="1:28" x14ac:dyDescent="0.25">
@@ -22885,14 +22937,14 @@
       <c r="X54" s="8">
         <v>1672.574978965298</v>
       </c>
-      <c r="Z54" s="8">
-        <v>27.76658963062351</v>
-      </c>
-      <c r="AA54" s="8">
-        <v>0.87813890216755208</v>
-      </c>
-      <c r="AB54" s="8">
-        <v>1216.1594478207401</v>
+      <c r="Z54" s="35">
+        <v>29.548132384110751</v>
+      </c>
+      <c r="AA54" s="35">
+        <v>0.84260244133034345</v>
+      </c>
+      <c r="AB54" s="35">
+        <v>1354.56163321445</v>
       </c>
     </row>
     <row r="55" spans="1:28" x14ac:dyDescent="0.25">
@@ -22957,14 +23009,14 @@
       <c r="X55" s="8">
         <v>1416.0286600885199</v>
       </c>
-      <c r="Z55" s="8">
-        <v>27.116922771612789</v>
-      </c>
-      <c r="AA55" s="8">
-        <v>0.85033230977409091</v>
-      </c>
-      <c r="AB55" s="8">
-        <v>1050.838676725265</v>
+      <c r="Z55" s="35">
+        <v>23.495983056639581</v>
+      </c>
+      <c r="AA55" s="35">
+        <v>0.80490466010420392</v>
+      </c>
+      <c r="AB55" s="35">
+        <v>1118.7707725703549</v>
       </c>
     </row>
     <row r="56" spans="1:28" x14ac:dyDescent="0.25">
@@ -23029,14 +23081,14 @@
       <c r="X56" s="8">
         <v>1322.5066538042911</v>
       </c>
-      <c r="Z56" s="8">
-        <v>26.422962345099609</v>
-      </c>
-      <c r="AA56" s="8">
-        <v>0.98976631560387252</v>
-      </c>
-      <c r="AB56" s="8">
-        <v>1154.855706507768</v>
+      <c r="Z56" s="35">
+        <v>25.586570323366072</v>
+      </c>
+      <c r="AA56" s="35">
+        <v>0.84229177398954858</v>
+      </c>
+      <c r="AB56" s="35">
+        <v>1447.6840929639491</v>
       </c>
     </row>
     <row r="57" spans="1:28" x14ac:dyDescent="0.25">
@@ -23101,14 +23153,14 @@
       <c r="X57" s="8">
         <v>1367.026363787342</v>
       </c>
-      <c r="Z57" s="8">
-        <v>26.336569773603649</v>
-      </c>
-      <c r="AA57" s="8">
-        <v>0.79054577078707278</v>
-      </c>
-      <c r="AB57" s="8">
-        <v>1109.330739184426</v>
+      <c r="Z57" s="35">
+        <v>28.07938776932836</v>
+      </c>
+      <c r="AA57" s="35">
+        <v>0.82058244013594495</v>
+      </c>
+      <c r="AB57" s="35">
+        <v>863.98816737779271</v>
       </c>
     </row>
     <row r="58" spans="1:28" x14ac:dyDescent="0.25">
@@ -23173,14 +23225,14 @@
       <c r="X58" s="8">
         <v>1143.467137118836</v>
       </c>
-      <c r="Z58" s="8">
-        <v>25.370434151514491</v>
-      </c>
-      <c r="AA58" s="8">
-        <v>0.75198770356089528</v>
-      </c>
-      <c r="AB58" s="8">
-        <v>1357.27469548317</v>
+      <c r="Z58" s="35">
+        <v>28.069297639058611</v>
+      </c>
+      <c r="AA58" s="35">
+        <v>0.76292610610557776</v>
+      </c>
+      <c r="AB58" s="35">
+        <v>1442.113261263293</v>
       </c>
     </row>
     <row r="59" spans="1:28" x14ac:dyDescent="0.25">
@@ -23245,14 +23297,14 @@
       <c r="X59" s="8">
         <v>3160.235839283534</v>
       </c>
-      <c r="Z59" s="8">
-        <v>25.200731334837851</v>
-      </c>
-      <c r="AA59" s="8">
-        <v>0.94622799168616156</v>
-      </c>
-      <c r="AB59" s="8">
-        <v>1196.638240176344</v>
+      <c r="Z59" s="35">
+        <v>28.316599356144671</v>
+      </c>
+      <c r="AA59" s="35">
+        <v>0.85593862645796948</v>
+      </c>
+      <c r="AB59" s="35">
+        <v>1740.1586597867131</v>
       </c>
     </row>
     <row r="60" spans="1:28" x14ac:dyDescent="0.25">
@@ -23317,14 +23369,14 @@
       <c r="X60" s="8">
         <v>1121.8363576230231</v>
       </c>
-      <c r="Z60" s="8">
-        <v>23.013354184517929</v>
-      </c>
-      <c r="AA60" s="8">
-        <v>0.91950825788936719</v>
-      </c>
-      <c r="AB60" s="8">
-        <v>1345.3918749411071</v>
+      <c r="Z60" s="35">
+        <v>25.544258251426289</v>
+      </c>
+      <c r="AA60" s="35">
+        <v>0.82495181306795362</v>
+      </c>
+      <c r="AB60" s="35">
+        <v>1323.2236964131009</v>
       </c>
     </row>
     <row r="61" spans="1:28" x14ac:dyDescent="0.25">
@@ -23389,14 +23441,14 @@
       <c r="X61" s="8">
         <v>1585.1527587617779</v>
       </c>
-      <c r="Z61" s="8">
-        <v>28.170788082442051</v>
-      </c>
-      <c r="AA61" s="8">
-        <v>0.87972931038611724</v>
-      </c>
-      <c r="AB61" s="8">
-        <v>1162.738171335531</v>
+      <c r="Z61" s="35">
+        <v>28.107714475756751</v>
+      </c>
+      <c r="AA61" s="35">
+        <v>0.8304568781991396</v>
+      </c>
+      <c r="AB61" s="35">
+        <v>1513.4340477853621</v>
       </c>
     </row>
     <row r="62" spans="1:28" x14ac:dyDescent="0.25">
@@ -23461,14 +23513,14 @@
       <c r="X62" s="8">
         <v>1806.4245974504761</v>
       </c>
-      <c r="Z62" s="8">
-        <v>22.984371548036101</v>
-      </c>
-      <c r="AA62" s="8">
-        <v>0.60690498939337456</v>
-      </c>
-      <c r="AB62" s="8">
-        <v>1292.7667706835059</v>
+      <c r="Z62" s="35">
+        <v>26.28685923127383</v>
+      </c>
+      <c r="AA62" s="35">
+        <v>0.80796241687830539</v>
+      </c>
+      <c r="AB62" s="35">
+        <v>1354.8768926285029</v>
       </c>
     </row>
     <row r="63" spans="1:28" x14ac:dyDescent="0.25">
@@ -23533,14 +23585,14 @@
       <c r="X63" s="8">
         <v>717.0937784788033</v>
       </c>
-      <c r="Z63" s="8">
-        <v>29.11221144954111</v>
-      </c>
-      <c r="AA63" s="8">
-        <v>0.77182613530564914</v>
-      </c>
-      <c r="AB63" s="8">
-        <v>1131.561031766511</v>
+      <c r="Z63" s="35">
+        <v>28.653681823952319</v>
+      </c>
+      <c r="AA63" s="35">
+        <v>0.77729736133004312</v>
+      </c>
+      <c r="AB63" s="35">
+        <v>1169.620531282138</v>
       </c>
     </row>
     <row r="64" spans="1:28" x14ac:dyDescent="0.25">
@@ -23605,14 +23657,14 @@
       <c r="X64" s="8">
         <v>2561.635902367429</v>
       </c>
-      <c r="Z64" s="8">
-        <v>26.431189094207419</v>
-      </c>
-      <c r="AA64" s="8">
-        <v>0.93772478867082176</v>
-      </c>
-      <c r="AB64" s="8">
-        <v>1042.0175994179699</v>
+      <c r="Z64" s="35">
+        <v>23.556193671811918</v>
+      </c>
+      <c r="AA64" s="35">
+        <v>0.7270295794611078</v>
+      </c>
+      <c r="AB64" s="35">
+        <v>1375.0469746489971</v>
       </c>
     </row>
     <row r="65" spans="1:28" x14ac:dyDescent="0.25">
@@ -23677,14 +23729,14 @@
       <c r="X65" s="8">
         <v>1618.577010133183</v>
       </c>
-      <c r="Z65" s="8">
-        <v>25.239777968997959</v>
-      </c>
-      <c r="AA65" s="8">
-        <v>0.74307215127677906</v>
-      </c>
-      <c r="AB65" s="8">
-        <v>1095.538639152735</v>
+      <c r="Z65" s="35">
+        <v>24.749539677917468</v>
+      </c>
+      <c r="AA65" s="35">
+        <v>0.80742577910102198</v>
+      </c>
+      <c r="AB65" s="35">
+        <v>1148.213469362272</v>
       </c>
     </row>
     <row r="66" spans="1:28" x14ac:dyDescent="0.25">
@@ -23749,14 +23801,14 @@
       <c r="X66" s="8">
         <v>2809.991256444594</v>
       </c>
-      <c r="Z66" s="8">
-        <v>22.750512323807861</v>
-      </c>
-      <c r="AA66" s="8">
-        <v>0.61579840574536715</v>
-      </c>
-      <c r="AB66" s="8">
-        <v>1203.792598490651</v>
+      <c r="Z66" s="35">
+        <v>24.225857589160171</v>
+      </c>
+      <c r="AA66" s="35">
+        <v>0.84178422887680437</v>
+      </c>
+      <c r="AB66" s="35">
+        <v>1344.4572105407869</v>
       </c>
     </row>
     <row r="67" spans="1:28" x14ac:dyDescent="0.25">
@@ -23821,14 +23873,14 @@
       <c r="X67" s="8">
         <v>2506.056082577652</v>
       </c>
-      <c r="Z67" s="8">
-        <v>24.050561802033279</v>
-      </c>
-      <c r="AA67" s="8">
-        <v>0.73644643944928778</v>
-      </c>
-      <c r="AB67" s="8">
-        <v>1254.736919846257</v>
+      <c r="Z67" s="35">
+        <v>28.937061399193329</v>
+      </c>
+      <c r="AA67" s="35">
+        <v>0.76953563748555553</v>
+      </c>
+      <c r="AB67" s="35">
+        <v>1122.040657647641</v>
       </c>
     </row>
     <row r="68" spans="1:28" x14ac:dyDescent="0.25">
@@ -23893,14 +23945,14 @@
       <c r="X68" s="8">
         <v>1549.7611062662399</v>
       </c>
-      <c r="Z68" s="8">
-        <v>22.980763663899818</v>
-      </c>
-      <c r="AA68" s="8">
-        <v>0.87378886062810812</v>
-      </c>
-      <c r="AB68" s="8">
-        <v>1256.2855385195001</v>
+      <c r="Z68" s="35">
+        <v>28.74323947600659</v>
+      </c>
+      <c r="AA68" s="35">
+        <v>0.79985677703568547</v>
+      </c>
+      <c r="AB68" s="35">
+        <v>672.17334739642047</v>
       </c>
     </row>
     <row r="69" spans="1:28" x14ac:dyDescent="0.25">
@@ -23965,14 +24017,14 @@
       <c r="X69" s="8">
         <v>2106.4253086594649</v>
       </c>
-      <c r="Z69" s="8">
-        <v>24.578458520190619</v>
-      </c>
-      <c r="AA69" s="8">
-        <v>0.83060436577927055</v>
-      </c>
-      <c r="AB69" s="8">
-        <v>1119.002031621601</v>
+      <c r="Z69" s="35">
+        <v>25.554834131485929</v>
+      </c>
+      <c r="AA69" s="35">
+        <v>0.81924476241103916</v>
+      </c>
+      <c r="AB69" s="35">
+        <v>689.81515824162193</v>
       </c>
     </row>
     <row r="70" spans="1:28" x14ac:dyDescent="0.25">
@@ -24037,14 +24089,14 @@
       <c r="X70" s="8">
         <v>684.63267893340412</v>
       </c>
-      <c r="Z70" s="8">
-        <v>26.984181218045421</v>
-      </c>
-      <c r="AA70" s="8">
-        <v>0.61760972348334864</v>
-      </c>
-      <c r="AB70" s="8">
-        <v>1064.363574854385</v>
+      <c r="Z70" s="35">
+        <v>24.085864070394891</v>
+      </c>
+      <c r="AA70" s="35">
+        <v>0.7936298122855916</v>
+      </c>
+      <c r="AB70" s="35">
+        <v>648.71234825574993</v>
       </c>
     </row>
     <row r="71" spans="1:28" x14ac:dyDescent="0.25">
@@ -24109,14 +24161,14 @@
       <c r="X71" s="8">
         <v>1671.757047247924</v>
       </c>
-      <c r="Z71" s="8">
-        <v>23.96469720638077</v>
-      </c>
-      <c r="AA71" s="8">
-        <v>0.91170363826666034</v>
-      </c>
-      <c r="AB71" s="8">
-        <v>1268.9486631709101</v>
+      <c r="Z71" s="35">
+        <v>25.118040511854488</v>
+      </c>
+      <c r="AA71" s="35">
+        <v>0.87235114490945398</v>
+      </c>
+      <c r="AB71" s="35">
+        <v>737.08776370830662</v>
       </c>
     </row>
     <row r="72" spans="1:28" x14ac:dyDescent="0.25">
@@ -24181,14 +24233,14 @@
       <c r="X72" s="8">
         <v>686.81565281489111</v>
       </c>
-      <c r="Z72" s="8">
-        <v>29.04376955942822</v>
-      </c>
-      <c r="AA72" s="8">
-        <v>0.67786750204274537</v>
-      </c>
-      <c r="AB72" s="8">
-        <v>1264.815524154181</v>
+      <c r="Z72" s="35">
+        <v>22.566798256245381</v>
+      </c>
+      <c r="AA72" s="35">
+        <v>0.74926610828718421</v>
+      </c>
+      <c r="AB72" s="35">
+        <v>589.53801972923156</v>
       </c>
     </row>
     <row r="73" spans="1:28" x14ac:dyDescent="0.25">
@@ -24253,14 +24305,14 @@
       <c r="X73" s="8">
         <v>2131.7520196304422</v>
       </c>
-      <c r="Z73" s="8">
-        <v>23.741873960257461</v>
-      </c>
-      <c r="AA73" s="8">
-        <v>0.71630054386331465</v>
-      </c>
-      <c r="AB73" s="8">
-        <v>1368.735277658192</v>
+      <c r="Z73" s="35">
+        <v>29.09025474108066</v>
+      </c>
+      <c r="AA73" s="35">
+        <v>0.81507229276536386</v>
+      </c>
+      <c r="AB73" s="35">
+        <v>1098.3138036190501</v>
       </c>
     </row>
     <row r="74" spans="1:28" x14ac:dyDescent="0.25">
@@ -24325,14 +24377,14 @@
       <c r="X74" s="8">
         <v>1202.233479872431</v>
       </c>
-      <c r="Z74" s="8">
-        <v>22.913503795369049</v>
-      </c>
-      <c r="AA74" s="8">
-        <v>0.711927674604519</v>
-      </c>
-      <c r="AB74" s="8">
-        <v>1082.225324719009</v>
+      <c r="Z74" s="35">
+        <v>26.25618334114343</v>
+      </c>
+      <c r="AA74" s="35">
+        <v>0.7196828683379467</v>
+      </c>
+      <c r="AB74" s="35">
+        <v>1022.947933877959</v>
       </c>
     </row>
     <row r="75" spans="1:28" x14ac:dyDescent="0.25">
@@ -24397,14 +24449,14 @@
       <c r="X75" s="8">
         <v>1952.2648990208779</v>
       </c>
-      <c r="Z75" s="8">
-        <v>22.530348674131279</v>
-      </c>
-      <c r="AA75" s="8">
-        <v>0.90146391106571988</v>
-      </c>
-      <c r="AB75" s="8">
-        <v>1208.0794311724151</v>
+      <c r="Z75" s="35">
+        <v>22.5601579740323</v>
+      </c>
+      <c r="AA75" s="35">
+        <v>0.89926191562148983</v>
+      </c>
+      <c r="AB75" s="35">
+        <v>1641.8440682860989</v>
       </c>
     </row>
     <row r="76" spans="1:28" x14ac:dyDescent="0.25">
@@ -24469,14 +24521,14 @@
       <c r="X76" s="8">
         <v>739.36445132253107</v>
       </c>
-      <c r="Z76" s="8">
-        <v>28.578204052529699</v>
-      </c>
-      <c r="AA76" s="8">
-        <v>0.65058007325120049</v>
-      </c>
-      <c r="AB76" s="8">
-        <v>1315.8831597441319</v>
+      <c r="Z76" s="35">
+        <v>27.79168968868051</v>
+      </c>
+      <c r="AA76" s="35">
+        <v>0.77150015054008791</v>
+      </c>
+      <c r="AB76" s="35">
+        <v>1368.391392891687</v>
       </c>
     </row>
     <row r="77" spans="1:28" x14ac:dyDescent="0.25">
@@ -24541,14 +24593,14 @@
       <c r="X77" s="8">
         <v>1664.213901261026</v>
       </c>
-      <c r="Z77" s="8">
-        <v>22.220695322682111</v>
-      </c>
-      <c r="AA77" s="8">
-        <v>0.6592917546260052</v>
-      </c>
-      <c r="AB77" s="8">
-        <v>1302.883626639654</v>
+      <c r="Z77" s="35">
+        <v>25.288600103593811</v>
+      </c>
+      <c r="AA77" s="35">
+        <v>0.74970976102516906</v>
+      </c>
+      <c r="AB77" s="35">
+        <v>770.11104991971808</v>
       </c>
     </row>
     <row r="78" spans="1:28" x14ac:dyDescent="0.25">
@@ -24613,14 +24665,14 @@
       <c r="X78" s="8">
         <v>1349.7526339157421</v>
       </c>
-      <c r="Z78" s="8">
-        <v>23.84926568705432</v>
-      </c>
-      <c r="AA78" s="8">
-        <v>0.60354960332774532</v>
-      </c>
-      <c r="AB78" s="8">
-        <v>1202.3252763299911</v>
+      <c r="Z78" s="35">
+        <v>26.703225847971069</v>
+      </c>
+      <c r="AA78" s="35">
+        <v>0.78722631647600527</v>
+      </c>
+      <c r="AB78" s="35">
+        <v>841.57739335038536</v>
       </c>
     </row>
     <row r="79" spans="1:28" x14ac:dyDescent="0.25">
@@ -24685,14 +24737,14 @@
       <c r="X79" s="8">
         <v>768.71260039098479</v>
       </c>
-      <c r="Z79" s="8">
-        <v>26.026887189830049</v>
-      </c>
-      <c r="AA79" s="8">
-        <v>0.84773856249969248</v>
-      </c>
-      <c r="AB79" s="8">
-        <v>1273.9070095286841</v>
+      <c r="Z79" s="35">
+        <v>27.93246209141779</v>
+      </c>
+      <c r="AA79" s="35">
+        <v>0.7606193513234637</v>
+      </c>
+      <c r="AB79" s="35">
+        <v>1371.3750331408669</v>
       </c>
     </row>
     <row r="80" spans="1:28" x14ac:dyDescent="0.25">
@@ -24757,14 +24809,14 @@
       <c r="X80" s="8">
         <v>573.84009336679583</v>
       </c>
-      <c r="Z80" s="8">
-        <v>28.096921613257141</v>
-      </c>
-      <c r="AA80" s="8">
-        <v>0.98116270779586046</v>
-      </c>
-      <c r="AB80" s="8">
-        <v>1303.017597729194</v>
+      <c r="Z80" s="35">
+        <v>23.480334766967399</v>
+      </c>
+      <c r="AA80" s="35">
+        <v>0.73246280960816612</v>
+      </c>
+      <c r="AB80" s="35">
+        <v>1325.9797392465221</v>
       </c>
     </row>
     <row r="81" spans="1:28" x14ac:dyDescent="0.25">
@@ -24829,14 +24881,14 @@
       <c r="X81" s="8">
         <v>1250.4758060434681</v>
       </c>
-      <c r="Z81" s="8">
-        <v>24.368013249200679</v>
-      </c>
-      <c r="AA81" s="8">
-        <v>0.63193426852846901</v>
-      </c>
-      <c r="AB81" s="8">
-        <v>1134.5594024949321</v>
+      <c r="Z81" s="35">
+        <v>25.90614687025629</v>
+      </c>
+      <c r="AA81" s="35">
+        <v>0.84561765961023039</v>
+      </c>
+      <c r="AB81" s="35">
+        <v>1529.7799284240359</v>
       </c>
     </row>
     <row r="82" spans="1:28" x14ac:dyDescent="0.25">
@@ -24901,14 +24953,14 @@
       <c r="X82" s="8">
         <v>749.22612540622924</v>
       </c>
-      <c r="Z82" s="8">
-        <v>23.424980206218201</v>
-      </c>
-      <c r="AA82" s="8">
-        <v>0.8216045841133115</v>
-      </c>
-      <c r="AB82" s="8">
-        <v>1126.800073698699</v>
+      <c r="Z82" s="35">
+        <v>28.04994610180642</v>
+      </c>
+      <c r="AA82" s="35">
+        <v>0.72997525485399839</v>
+      </c>
+      <c r="AB82" s="35">
+        <v>639.98917931861308</v>
       </c>
     </row>
     <row r="83" spans="1:28" x14ac:dyDescent="0.25">
@@ -24973,14 +25025,14 @@
       <c r="X83" s="8">
         <v>607.47075018672285</v>
       </c>
-      <c r="Z83" s="8">
-        <v>29.010966058643859</v>
-      </c>
-      <c r="AA83" s="8">
-        <v>0.67367377838414</v>
-      </c>
-      <c r="AB83" s="8">
-        <v>1030.5601839028061</v>
+      <c r="Z83" s="35">
+        <v>25.473170949878099</v>
+      </c>
+      <c r="AA83" s="35">
+        <v>0.7400615798042004</v>
+      </c>
+      <c r="AB83" s="35">
+        <v>1079.051458193821</v>
       </c>
     </row>
     <row r="84" spans="1:28" x14ac:dyDescent="0.25">
@@ -25045,14 +25097,14 @@
       <c r="X84" s="8">
         <v>2805.0462895092001</v>
       </c>
-      <c r="Z84" s="8">
-        <v>29.713511883376501</v>
-      </c>
-      <c r="AA84" s="8">
-        <v>0.88687302125186773</v>
-      </c>
-      <c r="AB84" s="8">
-        <v>1284.888648918715</v>
+      <c r="Z84" s="35">
+        <v>25.011739845626568</v>
+      </c>
+      <c r="AA84" s="35">
+        <v>0.82200237458883496</v>
+      </c>
+      <c r="AB84" s="35">
+        <v>654.98738349141183</v>
       </c>
     </row>
     <row r="85" spans="1:28" x14ac:dyDescent="0.25">
@@ -25117,14 +25169,14 @@
       <c r="X85" s="8">
         <v>2350.0169068944751</v>
       </c>
-      <c r="Z85" s="8">
-        <v>26.777305966534289</v>
-      </c>
-      <c r="AA85" s="8">
-        <v>0.74165249979404768</v>
-      </c>
-      <c r="AB85" s="8">
-        <v>1262.242385624387</v>
+      <c r="Z85" s="35">
+        <v>23.85923152765956</v>
+      </c>
+      <c r="AA85" s="35">
+        <v>0.77454459424033428</v>
+      </c>
+      <c r="AB85" s="35">
+        <v>1141.2484353844891</v>
       </c>
     </row>
     <row r="86" spans="1:28" x14ac:dyDescent="0.25">
@@ -25189,14 +25241,14 @@
       <c r="X86" s="8">
         <v>1393.5896403111051</v>
       </c>
-      <c r="Z86" s="8">
-        <v>23.54241723535393</v>
-      </c>
-      <c r="AA86" s="8">
-        <v>0.68052746069219328</v>
-      </c>
-      <c r="AB86" s="8">
-        <v>1289.7397344699291</v>
+      <c r="Z86" s="35">
+        <v>23.353047135277841</v>
+      </c>
+      <c r="AA86" s="35">
+        <v>0.80373784670033865</v>
+      </c>
+      <c r="AB86" s="35">
+        <v>599.38064628617178</v>
       </c>
     </row>
     <row r="87" spans="1:28" x14ac:dyDescent="0.25">
@@ -25261,14 +25313,14 @@
       <c r="X87" s="8">
         <v>759.97723691703288</v>
       </c>
-      <c r="Z87" s="8">
-        <v>26.728817507665958</v>
-      </c>
-      <c r="AA87" s="8">
-        <v>0.83575357126697281</v>
-      </c>
-      <c r="AB87" s="8">
-        <v>1279.0957777831279</v>
+      <c r="Z87" s="35">
+        <v>23.163342087914611</v>
+      </c>
+      <c r="AA87" s="35">
+        <v>0.72393743592621085</v>
+      </c>
+      <c r="AB87" s="35">
+        <v>865.26962019267512</v>
       </c>
     </row>
     <row r="88" spans="1:28" x14ac:dyDescent="0.25">
@@ -25333,14 +25385,14 @@
       <c r="X88" s="8">
         <v>673.29955699205755</v>
       </c>
-      <c r="Z88" s="8">
-        <v>22.32041667545074</v>
-      </c>
-      <c r="AA88" s="8">
-        <v>0.65832759232404015</v>
-      </c>
-      <c r="AB88" s="8">
-        <v>1038.3631941794049</v>
+      <c r="Z88" s="35">
+        <v>26.323728098493749</v>
+      </c>
+      <c r="AA88" s="35">
+        <v>0.76274503571734642</v>
+      </c>
+      <c r="AB88" s="35">
+        <v>1190.2914234302291</v>
       </c>
     </row>
     <row r="89" spans="1:28" x14ac:dyDescent="0.25">
@@ -25405,14 +25457,14 @@
       <c r="X89" s="8">
         <v>2339.9007725530519</v>
       </c>
-      <c r="Z89" s="8">
-        <v>26.33102614038242</v>
-      </c>
-      <c r="AA89" s="8">
-        <v>0.71111789840670814</v>
-      </c>
-      <c r="AB89" s="8">
-        <v>1090.0301687599319</v>
+      <c r="Z89" s="35">
+        <v>26.701778222732781</v>
+      </c>
+      <c r="AA89" s="35">
+        <v>0.7587000721262529</v>
+      </c>
+      <c r="AB89" s="35">
+        <v>1633.4716639143021</v>
       </c>
     </row>
     <row r="90" spans="1:28" x14ac:dyDescent="0.25">
@@ -25477,14 +25529,14 @@
       <c r="X90" s="8">
         <v>2504.1965978968578</v>
       </c>
-      <c r="Z90" s="8">
-        <v>24.02384047812561</v>
-      </c>
-      <c r="AA90" s="8">
-        <v>0.60272610554518113</v>
-      </c>
-      <c r="AB90" s="8">
-        <v>1199.248936167442</v>
+      <c r="Z90" s="35">
+        <v>25.720157147278741</v>
+      </c>
+      <c r="AA90" s="35">
+        <v>0.77955271460222575</v>
+      </c>
+      <c r="AB90" s="35">
+        <v>749.14840931253809</v>
       </c>
     </row>
     <row r="91" spans="1:28" x14ac:dyDescent="0.25">
@@ -25549,14 +25601,14 @@
       <c r="X91" s="8">
         <v>1847.84412620127</v>
       </c>
-      <c r="Z91" s="8">
-        <v>29.486830127602708</v>
-      </c>
-      <c r="AA91" s="8">
-        <v>0.68123879680692134</v>
-      </c>
-      <c r="AB91" s="8">
-        <v>1136.714041517446</v>
+      <c r="Z91" s="35">
+        <v>24.001266525907941</v>
+      </c>
+      <c r="AA91" s="35">
+        <v>0.84629137462776693</v>
+      </c>
+      <c r="AB91" s="35">
+        <v>1207.9588767598771</v>
       </c>
     </row>
     <row r="92" spans="1:28" x14ac:dyDescent="0.25">
@@ -25621,14 +25673,14 @@
       <c r="X92" s="8">
         <v>1319.0287388473259</v>
       </c>
-      <c r="Z92" s="8">
-        <v>26.52114040414374</v>
-      </c>
-      <c r="AA92" s="8">
-        <v>0.81759920082208115</v>
-      </c>
-      <c r="AB92" s="8">
-        <v>1207.0086592299001</v>
+      <c r="Z92" s="35">
+        <v>25.028707417300801</v>
+      </c>
+      <c r="AA92" s="35">
+        <v>0.7148005769241409</v>
+      </c>
+      <c r="AB92" s="35">
+        <v>1461.762475927143</v>
       </c>
     </row>
     <row r="93" spans="1:28" x14ac:dyDescent="0.25">
@@ -25693,14 +25745,14 @@
       <c r="X93" s="8">
         <v>1042.334390147874</v>
       </c>
-      <c r="Z93" s="8">
-        <v>24.00622168274062</v>
-      </c>
-      <c r="AA93" s="8">
-        <v>0.70241228601977623</v>
-      </c>
-      <c r="AB93" s="8">
-        <v>1145.937935946479</v>
+      <c r="Z93" s="35">
+        <v>27.825389202042281</v>
+      </c>
+      <c r="AA93" s="35">
+        <v>0.82381610536896033</v>
+      </c>
+      <c r="AB93" s="35">
+        <v>615.58858115146893</v>
       </c>
     </row>
     <row r="94" spans="1:28" x14ac:dyDescent="0.25">
@@ -25765,14 +25817,14 @@
       <c r="X94" s="8">
         <v>1321.7035657886761</v>
       </c>
-      <c r="Z94" s="8">
-        <v>27.115596543597139</v>
-      </c>
-      <c r="AA94" s="8">
-        <v>0.98144766172381526</v>
-      </c>
-      <c r="AB94" s="8">
-        <v>1314.395891896681</v>
+      <c r="Z94" s="35">
+        <v>28.57589285489939</v>
+      </c>
+      <c r="AA94" s="35">
+        <v>0.79193059904580487</v>
+      </c>
+      <c r="AB94" s="35">
+        <v>936.05222457449156</v>
       </c>
     </row>
     <row r="95" spans="1:28" x14ac:dyDescent="0.25">
@@ -25837,14 +25889,14 @@
       <c r="X95" s="8">
         <v>1858.386097876423</v>
       </c>
-      <c r="Z95" s="8">
-        <v>28.297514453381261</v>
-      </c>
-      <c r="AA95" s="8">
-        <v>0.96820367837623089</v>
-      </c>
-      <c r="AB95" s="8">
-        <v>1289.9054122296111</v>
+      <c r="Z95" s="35">
+        <v>27.657925902707898</v>
+      </c>
+      <c r="AA95" s="35">
+        <v>0.75302447952167562</v>
+      </c>
+      <c r="AB95" s="35">
+        <v>1105.7041057415879</v>
       </c>
     </row>
     <row r="96" spans="1:28" x14ac:dyDescent="0.25">
@@ -25909,14 +25961,14 @@
       <c r="X96" s="8">
         <v>3463.2743957688781</v>
       </c>
-      <c r="Z96" s="8">
-        <v>29.164422646489349</v>
-      </c>
-      <c r="AA96" s="8">
-        <v>0.92402124988993972</v>
-      </c>
-      <c r="AB96" s="8">
-        <v>1113.968320710615</v>
+      <c r="Z96" s="35">
+        <v>28.311322687351801</v>
+      </c>
+      <c r="AA96" s="35">
+        <v>0.82206488481976447</v>
+      </c>
+      <c r="AB96" s="35">
+        <v>1314.298492785143</v>
       </c>
     </row>
     <row r="97" spans="1:28" x14ac:dyDescent="0.25">
@@ -25981,14 +26033,14 @@
       <c r="X97" s="8">
         <v>700.5964041082558</v>
       </c>
-      <c r="Z97" s="8">
-        <v>28.632963396485781</v>
-      </c>
-      <c r="AA97" s="8">
-        <v>0.87406267939337812</v>
-      </c>
-      <c r="AB97" s="8">
-        <v>1201.1508457058039</v>
+      <c r="Z97" s="35">
+        <v>29.475223926506761</v>
+      </c>
+      <c r="AA97" s="35">
+        <v>0.71349822280304609</v>
+      </c>
+      <c r="AB97" s="35">
+        <v>740.78722659563255</v>
       </c>
     </row>
     <row r="98" spans="1:28" x14ac:dyDescent="0.25">
@@ -26053,14 +26105,14 @@
       <c r="X98" s="8">
         <v>2253.992409966922</v>
       </c>
-      <c r="Z98" s="8">
-        <v>28.65872294669667</v>
-      </c>
-      <c r="AA98" s="8">
-        <v>0.84861720244825634</v>
-      </c>
-      <c r="AB98" s="8">
-        <v>1214.6488349388981</v>
+      <c r="Z98" s="35">
+        <v>24.71449202183361</v>
+      </c>
+      <c r="AA98" s="35">
+        <v>0.76589195408762201</v>
+      </c>
+      <c r="AB98" s="35">
+        <v>594.9792799134749</v>
       </c>
     </row>
     <row r="99" spans="1:28" x14ac:dyDescent="0.25">
@@ -26125,14 +26177,14 @@
       <c r="X99" s="8">
         <v>1762.1835101038721</v>
       </c>
-      <c r="Z99" s="8">
-        <v>22.994985395552369</v>
-      </c>
-      <c r="AA99" s="8">
-        <v>0.69653381562986472</v>
-      </c>
-      <c r="AB99" s="8">
-        <v>1186.560207497741</v>
+      <c r="Z99" s="35">
+        <v>27.757130842920919</v>
+      </c>
+      <c r="AA99" s="35">
+        <v>0.77883512880737049</v>
+      </c>
+      <c r="AB99" s="35">
+        <v>1724.9936098358289</v>
       </c>
     </row>
     <row r="100" spans="1:28" x14ac:dyDescent="0.25">
@@ -26197,14 +26249,14 @@
       <c r="X100" s="8">
         <v>1835.89539623264</v>
       </c>
-      <c r="Z100" s="8">
-        <v>23.52539418841133</v>
-      </c>
-      <c r="AA100" s="8">
-        <v>0.62342236438823162</v>
-      </c>
-      <c r="AB100" s="8">
-        <v>1326.9880972429989</v>
+      <c r="Z100" s="35">
+        <v>22.91173302774029</v>
+      </c>
+      <c r="AA100" s="35">
+        <v>0.7644796605672336</v>
+      </c>
+      <c r="AB100" s="35">
+        <v>1242.858898945196</v>
       </c>
     </row>
     <row r="101" spans="1:28" x14ac:dyDescent="0.25">
@@ -26269,14 +26321,40 @@
       <c r="X101" s="8">
         <v>1401.2631594335251</v>
       </c>
-      <c r="Z101" s="8">
-        <v>22.704251899653581</v>
-      </c>
-      <c r="AA101" s="8">
-        <v>0.87254215654385536</v>
-      </c>
-      <c r="AB101" s="8">
-        <v>1329.65527487554</v>
+      <c r="Z101" s="35">
+        <v>23.59517765005435</v>
+      </c>
+      <c r="AA101" s="35">
+        <v>0.82575007240936094</v>
+      </c>
+      <c r="AB101" s="35">
+        <v>1747.893391702773</v>
+      </c>
+    </row>
+    <row r="102" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="V102">
+        <f>AVERAGE(V2:V101)</f>
+        <v>27.551908741080162</v>
+      </c>
+      <c r="W102" s="35">
+        <f>AVERAGE(W2:W101)</f>
+        <v>0.87361506134746392</v>
+      </c>
+      <c r="X102" s="35">
+        <f>AVERAGE(X2:X101)</f>
+        <v>1645.6494547972366</v>
+      </c>
+      <c r="Z102" s="35">
+        <f>AVERAGE(Z2:Z101)</f>
+        <v>26.085651441172743</v>
+      </c>
+      <c r="AA102" s="35">
+        <f>AVERAGE(AA2:AA101)</f>
+        <v>0.81010002402416315</v>
+      </c>
+      <c r="AB102" s="35">
+        <f>AVERAGE(AB2:AB101)</f>
+        <v>1164.2878356706001</v>
       </c>
     </row>
   </sheetData>
@@ -26289,11 +26367,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F9D42D6-1EF3-487A-973E-A99EC6D9E7AD}">
-  <dimension ref="A1:AB101"/>
+  <dimension ref="A1:AB102"/>
   <sheetViews>
     <sheetView topLeftCell="I1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AC94" sqref="AC94"/>
+      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Z2" sqref="Z2:AB101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -26450,14 +26528,14 @@
       <c r="X2" s="35">
         <v>891.08807187706032</v>
       </c>
-      <c r="Z2" s="8">
-        <v>24.56242125078829</v>
-      </c>
-      <c r="AA2" s="8">
-        <v>0.88892546287858565</v>
-      </c>
-      <c r="AB2" s="8">
-        <v>1089.529654481227</v>
+      <c r="Z2" s="35">
+        <v>27.90059375743656</v>
+      </c>
+      <c r="AA2" s="35">
+        <v>0.9226413072339763</v>
+      </c>
+      <c r="AB2" s="35">
+        <v>1447.908795479234</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
@@ -26522,14 +26600,14 @@
       <c r="X3" s="35">
         <v>940.69979262643881</v>
       </c>
-      <c r="Z3" s="8">
-        <v>28.777150770943141</v>
-      </c>
-      <c r="AA3" s="8">
-        <v>0.88039103608179925</v>
-      </c>
-      <c r="AB3" s="8">
-        <v>1165.680750730922</v>
+      <c r="Z3" s="35">
+        <v>29.868085583644579</v>
+      </c>
+      <c r="AA3" s="35">
+        <v>0.9832509310749844</v>
+      </c>
+      <c r="AB3" s="35">
+        <v>1199.426600403533</v>
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
@@ -26594,14 +26672,14 @@
       <c r="X4" s="35">
         <v>1190.6493151003731</v>
       </c>
-      <c r="Z4" s="8">
-        <v>22.208258681905541</v>
-      </c>
-      <c r="AA4" s="8">
-        <v>0.63065612472000621</v>
-      </c>
-      <c r="AB4" s="8">
-        <v>1310.767506846234</v>
+      <c r="Z4" s="35">
+        <v>28.639541981262241</v>
+      </c>
+      <c r="AA4" s="35">
+        <v>0.97629110483788195</v>
+      </c>
+      <c r="AB4" s="35">
+        <v>1098.250024114287</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
@@ -26666,14 +26744,14 @@
       <c r="X5" s="35">
         <v>1339.618817022279</v>
       </c>
-      <c r="Z5" s="8">
-        <v>29.818329559011151</v>
-      </c>
-      <c r="AA5" s="8">
-        <v>0.88346696197399721</v>
-      </c>
-      <c r="AB5" s="8">
-        <v>1138.2877058743691</v>
+      <c r="Z5" s="35">
+        <v>29.596468448255589</v>
+      </c>
+      <c r="AA5" s="35">
+        <v>0.97770894412002329</v>
+      </c>
+      <c r="AB5" s="35">
+        <v>1367.7924119590191</v>
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
@@ -26738,14 +26816,14 @@
       <c r="X6" s="35">
         <v>1008.548837965042</v>
       </c>
-      <c r="Z6" s="8">
-        <v>22.12108483218492</v>
-      </c>
-      <c r="AA6" s="8">
-        <v>0.91765843660516044</v>
-      </c>
-      <c r="AB6" s="8">
-        <v>1087.1370249411491</v>
+      <c r="Z6" s="35">
+        <v>27.064715439807919</v>
+      </c>
+      <c r="AA6" s="35">
+        <v>1.004884371266165</v>
+      </c>
+      <c r="AB6" s="35">
+        <v>1361.1210002921459</v>
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
@@ -26810,14 +26888,14 @@
       <c r="X7" s="35">
         <v>947.38286201892731</v>
       </c>
-      <c r="Z7" s="8">
-        <v>23.905852880583311</v>
-      </c>
-      <c r="AA7" s="8">
-        <v>0.63131473837674845</v>
-      </c>
-      <c r="AB7" s="8">
-        <v>1321.469231025023</v>
+      <c r="Z7" s="35">
+        <v>27.406364125658929</v>
+      </c>
+      <c r="AA7" s="35">
+        <v>1.1846012117187701</v>
+      </c>
+      <c r="AB7" s="35">
+        <v>1257.128034545673</v>
       </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
@@ -26882,14 +26960,14 @@
       <c r="X8" s="35">
         <v>1530.50988716292</v>
       </c>
-      <c r="Z8" s="8">
-        <v>27.475666460768249</v>
-      </c>
-      <c r="AA8" s="8">
-        <v>0.6032594668378376</v>
-      </c>
-      <c r="AB8" s="8">
-        <v>1219.1026015721161</v>
+      <c r="Z8" s="35">
+        <v>28.956924618009939</v>
+      </c>
+      <c r="AA8" s="35">
+        <v>1.008414564374746</v>
+      </c>
+      <c r="AB8" s="35">
+        <v>1439.230026232726</v>
       </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.25">
@@ -26954,14 +27032,14 @@
       <c r="X9" s="35">
         <v>1224.501479093582</v>
       </c>
-      <c r="Z9" s="8">
-        <v>27.216644795278839</v>
-      </c>
-      <c r="AA9" s="8">
-        <v>0.72768699754435673</v>
-      </c>
-      <c r="AB9" s="8">
-        <v>1035.9431321678719</v>
+      <c r="Z9" s="35">
+        <v>30.496766208413931</v>
+      </c>
+      <c r="AA9" s="35">
+        <v>1.01333925510363</v>
+      </c>
+      <c r="AB9" s="35">
+        <v>1395.7320230908631</v>
       </c>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.25">
@@ -27026,14 +27104,14 @@
       <c r="X10" s="35">
         <v>929.65043410251712</v>
       </c>
-      <c r="Z10" s="8">
-        <v>24.721749108556448</v>
-      </c>
-      <c r="AA10" s="8">
-        <v>0.6473322408101474</v>
-      </c>
-      <c r="AB10" s="8">
-        <v>1274.488494047821</v>
+      <c r="Z10" s="35">
+        <v>27.318619931694279</v>
+      </c>
+      <c r="AA10" s="35">
+        <v>1.190831165301192</v>
+      </c>
+      <c r="AB10" s="35">
+        <v>1426.3877776721349</v>
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
@@ -27098,14 +27176,14 @@
       <c r="X11" s="35">
         <v>915.62995084300201</v>
       </c>
-      <c r="Z11" s="8">
-        <v>23.68912158784951</v>
-      </c>
-      <c r="AA11" s="8">
-        <v>0.95454977732324986</v>
-      </c>
-      <c r="AB11" s="8">
-        <v>1223.449171468709</v>
+      <c r="Z11" s="35">
+        <v>27.680413880104851</v>
+      </c>
+      <c r="AA11" s="35">
+        <v>1.205840336376353</v>
+      </c>
+      <c r="AB11" s="35">
+        <v>1324.418617157877</v>
       </c>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.25">
@@ -27170,14 +27248,14 @@
       <c r="X12" s="35">
         <v>941.12402651988475</v>
       </c>
-      <c r="Z12" s="8">
-        <v>24.141046929449089</v>
-      </c>
-      <c r="AA12" s="8">
-        <v>0.64865018194253599</v>
-      </c>
-      <c r="AB12" s="8">
-        <v>1168.921924321384</v>
+      <c r="Z12" s="35">
+        <v>30.649692355617699</v>
+      </c>
+      <c r="AA12" s="35">
+        <v>1.165450705342058</v>
+      </c>
+      <c r="AB12" s="35">
+        <v>1292.3921481366119</v>
       </c>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
@@ -27242,14 +27320,14 @@
       <c r="X13" s="35">
         <v>1003.974335180377</v>
       </c>
-      <c r="Z13" s="8">
-        <v>24.50010837705095</v>
-      </c>
-      <c r="AA13" s="8">
-        <v>0.93147687166279258</v>
-      </c>
-      <c r="AB13" s="8">
-        <v>1324.987414791123</v>
+      <c r="Z13" s="35">
+        <v>30.164149667139849</v>
+      </c>
+      <c r="AA13" s="35">
+        <v>1.061799829131258</v>
+      </c>
+      <c r="AB13" s="35">
+        <v>1142.202896283203</v>
       </c>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.25">
@@ -27314,14 +27392,14 @@
       <c r="X14" s="35">
         <v>1326.215030845271</v>
       </c>
-      <c r="Z14" s="8">
-        <v>23.34330737411014</v>
-      </c>
-      <c r="AA14" s="8">
-        <v>0.80531165154100659</v>
-      </c>
-      <c r="AB14" s="8">
-        <v>1133.943354622369</v>
+      <c r="Z14" s="35">
+        <v>27.858319965072539</v>
+      </c>
+      <c r="AA14" s="35">
+        <v>1.100556739966466</v>
+      </c>
+      <c r="AB14" s="35">
+        <v>1094.356925933293</v>
       </c>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.25">
@@ -27386,14 +27464,14 @@
       <c r="X15" s="35">
         <v>962.72564844984254</v>
       </c>
-      <c r="Z15" s="8">
-        <v>23.997421717743769</v>
-      </c>
-      <c r="AA15" s="8">
-        <v>0.68282992106478435</v>
-      </c>
-      <c r="AB15" s="8">
-        <v>1207.3363853095</v>
+      <c r="Z15" s="35">
+        <v>29.59736689079239</v>
+      </c>
+      <c r="AA15" s="35">
+        <v>0.92334710262611674</v>
+      </c>
+      <c r="AB15" s="35">
+        <v>1225.717425602747</v>
       </c>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.25">
@@ -27458,14 +27536,14 @@
       <c r="X16" s="35">
         <v>1344.950920607419</v>
       </c>
-      <c r="Z16" s="8">
-        <v>29.119927615070491</v>
-      </c>
-      <c r="AA16" s="8">
-        <v>0.87344621222025232</v>
-      </c>
-      <c r="AB16" s="8">
-        <v>1029.952717883262</v>
+      <c r="Z16" s="35">
+        <v>29.522231951163761</v>
+      </c>
+      <c r="AA16" s="35">
+        <v>1.0686239888318549</v>
+      </c>
+      <c r="AB16" s="35">
+        <v>1139.1396480597141</v>
       </c>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.25">
@@ -27530,14 +27608,14 @@
       <c r="X17" s="35">
         <v>935.26735633221426</v>
       </c>
-      <c r="Z17" s="8">
-        <v>24.826160885802469</v>
-      </c>
-      <c r="AA17" s="8">
-        <v>0.96626902423927696</v>
-      </c>
-      <c r="AB17" s="8">
-        <v>1086.8699473182139</v>
+      <c r="Z17" s="35">
+        <v>28.615813272883639</v>
+      </c>
+      <c r="AA17" s="35">
+        <v>0.99681970912416729</v>
+      </c>
+      <c r="AB17" s="35">
+        <v>1422.4313899693279</v>
       </c>
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.25">
@@ -27602,14 +27680,14 @@
       <c r="X18" s="35">
         <v>1399.712467036421</v>
       </c>
-      <c r="Z18" s="8">
-        <v>22.100523916982631</v>
-      </c>
-      <c r="AA18" s="8">
-        <v>0.87193072655477344</v>
-      </c>
-      <c r="AB18" s="8">
-        <v>1124.799838223814</v>
+      <c r="Z18" s="35">
+        <v>30.94246942719808</v>
+      </c>
+      <c r="AA18" s="35">
+        <v>1.0529963787276191</v>
+      </c>
+      <c r="AB18" s="35">
+        <v>1142.236510467221</v>
       </c>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.25">
@@ -27674,14 +27752,14 @@
       <c r="X19" s="35">
         <v>912.90001429736856</v>
       </c>
-      <c r="Z19" s="8">
-        <v>29.10390815292817</v>
-      </c>
-      <c r="AA19" s="8">
-        <v>0.72827890987925059</v>
-      </c>
-      <c r="AB19" s="8">
-        <v>1208.218542363576</v>
+      <c r="Z19" s="35">
+        <v>28.86572110707796</v>
+      </c>
+      <c r="AA19" s="35">
+        <v>1.030049181641397</v>
+      </c>
+      <c r="AB19" s="35">
+        <v>1405.889054137393</v>
       </c>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.25">
@@ -27746,14 +27824,14 @@
       <c r="X20" s="35">
         <v>1222.211744236552</v>
       </c>
-      <c r="Z20" s="8">
-        <v>27.223185304446069</v>
-      </c>
-      <c r="AA20" s="8">
-        <v>0.67286713583442315</v>
-      </c>
-      <c r="AB20" s="8">
-        <v>1060.7486733552489</v>
+      <c r="Z20" s="35">
+        <v>29.327439272432201</v>
+      </c>
+      <c r="AA20" s="35">
+        <v>1.08221329145061</v>
+      </c>
+      <c r="AB20" s="35">
+        <v>1179.226504825004</v>
       </c>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.25">
@@ -27818,14 +27896,14 @@
       <c r="X21" s="35">
         <v>1343.421754087723</v>
       </c>
-      <c r="Z21" s="8">
-        <v>29.95249965767011</v>
-      </c>
-      <c r="AA21" s="8">
-        <v>0.78589672861638937</v>
-      </c>
-      <c r="AB21" s="8">
-        <v>1252.4544014034279</v>
+      <c r="Z21" s="35">
+        <v>30.241633637764849</v>
+      </c>
+      <c r="AA21" s="35">
+        <v>0.99966826869381564</v>
+      </c>
+      <c r="AB21" s="35">
+        <v>1214.835537943198</v>
       </c>
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.25">
@@ -27890,14 +27968,14 @@
       <c r="X22" s="35">
         <v>1352.413472167204</v>
       </c>
-      <c r="Z22" s="8">
-        <v>24.995867019399281</v>
-      </c>
-      <c r="AA22" s="8">
-        <v>0.98647800219118476</v>
-      </c>
-      <c r="AB22" s="8">
-        <v>1320.4718897422749</v>
+      <c r="Z22" s="35">
+        <v>28.353360551344821</v>
+      </c>
+      <c r="AA22" s="35">
+        <v>1.1014390645477179</v>
+      </c>
+      <c r="AB22" s="35">
+        <v>1199.121048484463</v>
       </c>
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.25">
@@ -27962,14 +28040,14 @@
       <c r="X23" s="35">
         <v>945.7031439610588</v>
       </c>
-      <c r="Z23" s="8">
-        <v>26.36841378069245</v>
-      </c>
-      <c r="AA23" s="8">
-        <v>0.73049602826296756</v>
-      </c>
-      <c r="AB23" s="8">
-        <v>1241.5247840780139</v>
+      <c r="Z23" s="35">
+        <v>28.092848605298069</v>
+      </c>
+      <c r="AA23" s="35">
+        <v>1.022298394999464</v>
+      </c>
+      <c r="AB23" s="35">
+        <v>1301.2200959163699</v>
       </c>
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.25">
@@ -28034,14 +28112,14 @@
       <c r="X24" s="35">
         <v>943.51073450176841</v>
       </c>
-      <c r="Z24" s="8">
-        <v>29.223937832306881</v>
-      </c>
-      <c r="AA24" s="8">
-        <v>0.64844196859065606</v>
-      </c>
-      <c r="AB24" s="8">
-        <v>1316.758109011208</v>
+      <c r="Z24" s="35">
+        <v>27.29753937232012</v>
+      </c>
+      <c r="AA24" s="35">
+        <v>0.98876342633134096</v>
+      </c>
+      <c r="AB24" s="35">
+        <v>1193.5962365199321</v>
       </c>
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.25">
@@ -28106,14 +28184,14 @@
       <c r="X25" s="35">
         <v>980.09951333320464</v>
       </c>
-      <c r="Z25" s="8">
-        <v>23.42417712612642</v>
-      </c>
-      <c r="AA25" s="8">
-        <v>0.71710789857944313</v>
-      </c>
-      <c r="AB25" s="8">
-        <v>1290.879098563342</v>
+      <c r="Z25" s="35">
+        <v>28.2656814061564</v>
+      </c>
+      <c r="AA25" s="35">
+        <v>1.043831302627348</v>
+      </c>
+      <c r="AB25" s="35">
+        <v>1095.123899494329</v>
       </c>
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.25">
@@ -28178,14 +28256,14 @@
       <c r="X26" s="35">
         <v>853.96632046370644</v>
       </c>
-      <c r="Z26" s="8">
-        <v>25.503460382417799</v>
-      </c>
-      <c r="AA26" s="8">
-        <v>0.71555098997667388</v>
-      </c>
-      <c r="AB26" s="8">
-        <v>1344.446934234724</v>
+      <c r="Z26" s="35">
+        <v>29.02458791391453</v>
+      </c>
+      <c r="AA26" s="35">
+        <v>0.91639076758357318</v>
+      </c>
+      <c r="AB26" s="35">
+        <v>1065.005804921245</v>
       </c>
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.25">
@@ -28250,14 +28328,14 @@
       <c r="X27" s="35">
         <v>1134.3797795800331</v>
       </c>
-      <c r="Z27" s="8">
-        <v>28.026655164790821</v>
-      </c>
-      <c r="AA27" s="8">
-        <v>0.70728878149184082</v>
-      </c>
-      <c r="AB27" s="8">
-        <v>1330.8392663565469</v>
+      <c r="Z27" s="35">
+        <v>30.847798208339889</v>
+      </c>
+      <c r="AA27" s="35">
+        <v>0.94655004736157011</v>
+      </c>
+      <c r="AB27" s="35">
+        <v>1423.912953956713</v>
       </c>
     </row>
     <row r="28" spans="1:28" x14ac:dyDescent="0.25">
@@ -28322,14 +28400,14 @@
       <c r="X28" s="35">
         <v>916.60761732240121</v>
       </c>
-      <c r="Z28" s="8">
-        <v>26.265899812473691</v>
-      </c>
-      <c r="AA28" s="8">
-        <v>0.94103268646274063</v>
-      </c>
-      <c r="AB28" s="8">
-        <v>1235.3142827750589</v>
+      <c r="Z28" s="35">
+        <v>30.337588685674579</v>
+      </c>
+      <c r="AA28" s="35">
+        <v>1.1004422396226241</v>
+      </c>
+      <c r="AB28" s="35">
+        <v>1331.2305188147079</v>
       </c>
     </row>
     <row r="29" spans="1:28" x14ac:dyDescent="0.25">
@@ -28394,14 +28472,14 @@
       <c r="X29" s="35">
         <v>929.11423781703377</v>
       </c>
-      <c r="Z29" s="8">
-        <v>24.52268224702625</v>
-      </c>
-      <c r="AA29" s="8">
-        <v>0.60150446289552117</v>
-      </c>
-      <c r="AB29" s="8">
-        <v>1260.018270960175</v>
+      <c r="Z29" s="35">
+        <v>29.692919616924002</v>
+      </c>
+      <c r="AA29" s="35">
+        <v>0.92558091303717649</v>
+      </c>
+      <c r="AB29" s="35">
+        <v>1364.9072390462841</v>
       </c>
     </row>
     <row r="30" spans="1:28" x14ac:dyDescent="0.25">
@@ -28466,14 +28544,14 @@
       <c r="X30" s="35">
         <v>928.30634182069286</v>
       </c>
-      <c r="Z30" s="8">
-        <v>29.780970825611789</v>
-      </c>
-      <c r="AA30" s="8">
-        <v>0.74608496010598446</v>
-      </c>
-      <c r="AB30" s="8">
-        <v>1302.4254418875871</v>
+      <c r="Z30" s="35">
+        <v>30.588666319822629</v>
+      </c>
+      <c r="AA30" s="35">
+        <v>1.0000003783450491</v>
+      </c>
+      <c r="AB30" s="35">
+        <v>1074.6345551646791</v>
       </c>
     </row>
     <row r="31" spans="1:28" x14ac:dyDescent="0.25">
@@ -28538,14 +28616,14 @@
       <c r="X31" s="35">
         <v>924.47802264520476</v>
       </c>
-      <c r="Z31" s="8">
-        <v>24.182344151645761</v>
-      </c>
-      <c r="AA31" s="8">
-        <v>0.76644906734660756</v>
-      </c>
-      <c r="AB31" s="8">
-        <v>1292.263803744793</v>
+      <c r="Z31" s="35">
+        <v>29.434661178830151</v>
+      </c>
+      <c r="AA31" s="35">
+        <v>1.071320905141623</v>
+      </c>
+      <c r="AB31" s="35">
+        <v>1404.925749896652</v>
       </c>
     </row>
     <row r="32" spans="1:28" x14ac:dyDescent="0.25">
@@ -28610,14 +28688,14 @@
       <c r="X32" s="35">
         <v>939.96813971028212</v>
       </c>
-      <c r="Z32" s="8">
-        <v>27.975151672595551</v>
-      </c>
-      <c r="AA32" s="8">
-        <v>0.98223399960814572</v>
-      </c>
-      <c r="AB32" s="8">
-        <v>1278.623344279581</v>
+      <c r="Z32" s="35">
+        <v>28.320519410593111</v>
+      </c>
+      <c r="AA32" s="35">
+        <v>1.0378592514473639</v>
+      </c>
+      <c r="AB32" s="35">
+        <v>1073.059524718961</v>
       </c>
     </row>
     <row r="33" spans="1:28" x14ac:dyDescent="0.25">
@@ -28682,14 +28760,14 @@
       <c r="X33" s="35">
         <v>1478.67297586259</v>
       </c>
-      <c r="Z33" s="8">
-        <v>25.778061425090549</v>
-      </c>
-      <c r="AA33" s="8">
-        <v>0.83541693099465775</v>
-      </c>
-      <c r="AB33" s="8">
-        <v>1189.921022618516</v>
+      <c r="Z33" s="35">
+        <v>28.10612141404501</v>
+      </c>
+      <c r="AA33" s="35">
+        <v>1.092839175660101</v>
+      </c>
+      <c r="AB33" s="35">
+        <v>1094.21280086053</v>
       </c>
     </row>
     <row r="34" spans="1:28" x14ac:dyDescent="0.25">
@@ -28754,14 +28832,14 @@
       <c r="X34" s="35">
         <v>1040.596057298126</v>
       </c>
-      <c r="Z34" s="8">
-        <v>29.118144806827608</v>
-      </c>
-      <c r="AA34" s="8">
-        <v>0.71014195103552391</v>
-      </c>
-      <c r="AB34" s="8">
-        <v>1128.7125054055671</v>
+      <c r="Z34" s="35">
+        <v>29.899634771688731</v>
+      </c>
+      <c r="AA34" s="35">
+        <v>0.9900733386630356</v>
+      </c>
+      <c r="AB34" s="35">
+        <v>1274.988249943563</v>
       </c>
     </row>
     <row r="35" spans="1:28" x14ac:dyDescent="0.25">
@@ -28826,14 +28904,14 @@
       <c r="X35" s="35">
         <v>1015.480586342564</v>
       </c>
-      <c r="Z35" s="8">
-        <v>28.382834899937109</v>
-      </c>
-      <c r="AA35" s="8">
-        <v>0.76289651118377755</v>
-      </c>
-      <c r="AB35" s="8">
-        <v>1043.01246723336</v>
+      <c r="Z35" s="35">
+        <v>28.206451436455431</v>
+      </c>
+      <c r="AA35" s="35">
+        <v>1.0907888923803051</v>
+      </c>
+      <c r="AB35" s="35">
+        <v>1307.7989579341099</v>
       </c>
     </row>
     <row r="36" spans="1:28" x14ac:dyDescent="0.25">
@@ -28898,14 +28976,14 @@
       <c r="X36" s="35">
         <v>1226.2395036775299</v>
       </c>
-      <c r="Z36" s="8">
-        <v>27.0514749076914</v>
-      </c>
-      <c r="AA36" s="8">
-        <v>0.75194571449444236</v>
-      </c>
-      <c r="AB36" s="8">
-        <v>1276.2548221846121</v>
+      <c r="Z36" s="35">
+        <v>30.834368609250799</v>
+      </c>
+      <c r="AA36" s="35">
+        <v>1.050508306158066</v>
+      </c>
+      <c r="AB36" s="35">
+        <v>1259.8689616025049</v>
       </c>
     </row>
     <row r="37" spans="1:28" x14ac:dyDescent="0.25">
@@ -28970,14 +29048,14 @@
       <c r="X37" s="35">
         <v>856.09372684726463</v>
       </c>
-      <c r="Z37" s="8">
-        <v>22.824750286125589</v>
-      </c>
-      <c r="AA37" s="8">
-        <v>0.929781543791103</v>
-      </c>
-      <c r="AB37" s="8">
-        <v>1298.5576750434061</v>
+      <c r="Z37" s="35">
+        <v>28.83518363781134</v>
+      </c>
+      <c r="AA37" s="35">
+        <v>1.0504145347831551</v>
+      </c>
+      <c r="AB37" s="35">
+        <v>1270.8485545102551</v>
       </c>
     </row>
     <row r="38" spans="1:28" x14ac:dyDescent="0.25">
@@ -29042,14 +29120,14 @@
       <c r="X38" s="35">
         <v>898.48714847028612</v>
       </c>
-      <c r="Z38" s="8">
-        <v>22.569381466887791</v>
-      </c>
-      <c r="AA38" s="8">
-        <v>0.97959730235589593</v>
-      </c>
-      <c r="AB38" s="8">
-        <v>1290.7384355084521</v>
+      <c r="Z38" s="35">
+        <v>28.20397484630033</v>
+      </c>
+      <c r="AA38" s="35">
+        <v>1.044547442334204</v>
+      </c>
+      <c r="AB38" s="35">
+        <v>1394.286589225454</v>
       </c>
     </row>
     <row r="39" spans="1:28" x14ac:dyDescent="0.25">
@@ -29114,14 +29192,14 @@
       <c r="X39" s="35">
         <v>995.77891834504908</v>
       </c>
-      <c r="Z39" s="8">
-        <v>22.08994857113532</v>
-      </c>
-      <c r="AA39" s="8">
-        <v>0.79456843777059938</v>
-      </c>
-      <c r="AB39" s="8">
-        <v>1136.9034602231011</v>
+      <c r="Z39" s="35">
+        <v>29.79574927854857</v>
+      </c>
+      <c r="AA39" s="35">
+        <v>0.94777564516389512</v>
+      </c>
+      <c r="AB39" s="35">
+        <v>1293.407214056484</v>
       </c>
     </row>
     <row r="40" spans="1:28" x14ac:dyDescent="0.25">
@@ -29186,14 +29264,14 @@
       <c r="X40" s="35">
         <v>909.7581345330575</v>
       </c>
-      <c r="Z40" s="8">
-        <v>29.848677085885061</v>
-      </c>
-      <c r="AA40" s="8">
-        <v>0.69130668766692827</v>
-      </c>
-      <c r="AB40" s="8">
-        <v>1080.8083144243819</v>
+      <c r="Z40" s="35">
+        <v>27.45659996135625</v>
+      </c>
+      <c r="AA40" s="35">
+        <v>0.99837398792878651</v>
+      </c>
+      <c r="AB40" s="35">
+        <v>1354.108991035298</v>
       </c>
     </row>
     <row r="41" spans="1:28" x14ac:dyDescent="0.25">
@@ -29258,14 +29336,14 @@
       <c r="X41" s="35">
         <v>963.76670483882947</v>
       </c>
-      <c r="Z41" s="8">
-        <v>23.32904780336434</v>
-      </c>
-      <c r="AA41" s="8">
-        <v>0.73503176081135146</v>
-      </c>
-      <c r="AB41" s="8">
-        <v>1159.048960789172</v>
+      <c r="Z41" s="35">
+        <v>30.853161036916461</v>
+      </c>
+      <c r="AA41" s="35">
+        <v>1.2043189945255339</v>
+      </c>
+      <c r="AB41" s="35">
+        <v>1137.2036248823381</v>
       </c>
     </row>
     <row r="42" spans="1:28" x14ac:dyDescent="0.25">
@@ -29330,14 +29408,14 @@
       <c r="X42" s="35">
         <v>874.52415616286794</v>
       </c>
-      <c r="Z42" s="8">
-        <v>27.523146124304649</v>
-      </c>
-      <c r="AA42" s="8">
-        <v>0.8628292991948614</v>
-      </c>
-      <c r="AB42" s="8">
-        <v>1289.8246363766709</v>
+      <c r="Z42" s="35">
+        <v>29.374072286118039</v>
+      </c>
+      <c r="AA42" s="35">
+        <v>0.95965637058042286</v>
+      </c>
+      <c r="AB42" s="35">
+        <v>1435.2659781107591</v>
       </c>
     </row>
     <row r="43" spans="1:28" x14ac:dyDescent="0.25">
@@ -29402,14 +29480,14 @@
       <c r="X43" s="35">
         <v>1049.732407983005</v>
       </c>
-      <c r="Z43" s="8">
-        <v>24.814772456889141</v>
-      </c>
-      <c r="AA43" s="8">
-        <v>0.70012414267992706</v>
-      </c>
-      <c r="AB43" s="8">
-        <v>1168.1702587651239</v>
+      <c r="Z43" s="35">
+        <v>28.99638997345069</v>
+      </c>
+      <c r="AA43" s="35">
+        <v>1.164794805054159</v>
+      </c>
+      <c r="AB43" s="35">
+        <v>1112.1587583576611</v>
       </c>
     </row>
     <row r="44" spans="1:28" x14ac:dyDescent="0.25">
@@ -29474,14 +29552,14 @@
       <c r="X44" s="35">
         <v>946.30397601035884</v>
       </c>
-      <c r="Z44" s="8">
-        <v>27.5673210579874</v>
-      </c>
-      <c r="AA44" s="8">
-        <v>0.82218818913312486</v>
-      </c>
-      <c r="AB44" s="8">
-        <v>1259.8093492995561</v>
+      <c r="Z44" s="35">
+        <v>27.092781177378018</v>
+      </c>
+      <c r="AA44" s="35">
+        <v>1.191857517312793</v>
+      </c>
+      <c r="AB44" s="35">
+        <v>1376.8209882285601</v>
       </c>
     </row>
     <row r="45" spans="1:28" x14ac:dyDescent="0.25">
@@ -29546,14 +29624,14 @@
       <c r="X45" s="35">
         <v>902.94839046711922</v>
       </c>
-      <c r="Z45" s="8">
-        <v>25.29545867183457</v>
-      </c>
-      <c r="AA45" s="8">
-        <v>0.9436359050900559</v>
-      </c>
-      <c r="AB45" s="8">
-        <v>1318.8823394955591</v>
+      <c r="Z45" s="35">
+        <v>30.034488872172432</v>
+      </c>
+      <c r="AA45" s="35">
+        <v>1.125187498413972</v>
+      </c>
+      <c r="AB45" s="35">
+        <v>1432.650912461957</v>
       </c>
     </row>
     <row r="46" spans="1:28" x14ac:dyDescent="0.25">
@@ -29618,14 +29696,14 @@
       <c r="X46" s="35">
         <v>936.54869915913889</v>
       </c>
-      <c r="Z46" s="8">
-        <v>22.64733154010721</v>
-      </c>
-      <c r="AA46" s="8">
-        <v>0.6025530106097492</v>
-      </c>
-      <c r="AB46" s="8">
-        <v>1032.005381522029</v>
+      <c r="Z46" s="35">
+        <v>28.276183976608142</v>
+      </c>
+      <c r="AA46" s="35">
+        <v>1.209689894661681</v>
+      </c>
+      <c r="AB46" s="35">
+        <v>1399.578273515699</v>
       </c>
     </row>
     <row r="47" spans="1:28" x14ac:dyDescent="0.25">
@@ -29690,14 +29768,14 @@
       <c r="X47" s="35">
         <v>1331.88853657653</v>
       </c>
-      <c r="Z47" s="8">
-        <v>22.635826210074718</v>
-      </c>
-      <c r="AA47" s="8">
-        <v>0.90603508978491365</v>
-      </c>
-      <c r="AB47" s="8">
-        <v>1134.384545888357</v>
+      <c r="Z47" s="35">
+        <v>29.686369625351229</v>
+      </c>
+      <c r="AA47" s="35">
+        <v>1.204331869287756</v>
+      </c>
+      <c r="AB47" s="35">
+        <v>1277.805202758673</v>
       </c>
     </row>
     <row r="48" spans="1:28" x14ac:dyDescent="0.25">
@@ -29762,14 +29840,14 @@
       <c r="X48" s="35">
         <v>948.56558311803383</v>
       </c>
-      <c r="Z48" s="8">
-        <v>23.04523100513433</v>
-      </c>
-      <c r="AA48" s="8">
-        <v>0.7114415123999871</v>
-      </c>
-      <c r="AB48" s="8">
-        <v>1233.4165410355611</v>
+      <c r="Z48" s="35">
+        <v>27.0048126716638</v>
+      </c>
+      <c r="AA48" s="35">
+        <v>0.99756530206269156</v>
+      </c>
+      <c r="AB48" s="35">
+        <v>1222.3337621670421</v>
       </c>
     </row>
     <row r="49" spans="1:28" x14ac:dyDescent="0.25">
@@ -29834,14 +29912,14 @@
       <c r="X49" s="35">
         <v>906.88029109306694</v>
       </c>
-      <c r="Z49" s="8">
-        <v>29.580839846961641</v>
-      </c>
-      <c r="AA49" s="8">
-        <v>0.70585762905267702</v>
-      </c>
-      <c r="AB49" s="8">
-        <v>1276.828246736507</v>
+      <c r="Z49" s="35">
+        <v>29.461680507222852</v>
+      </c>
+      <c r="AA49" s="35">
+        <v>1.1546033484824261</v>
+      </c>
+      <c r="AB49" s="35">
+        <v>1296.174635280727</v>
       </c>
     </row>
     <row r="50" spans="1:28" x14ac:dyDescent="0.25">
@@ -29906,14 +29984,14 @@
       <c r="X50" s="35">
         <v>998.86620153599665</v>
       </c>
-      <c r="Z50" s="8">
-        <v>27.052127425569129</v>
-      </c>
-      <c r="AA50" s="8">
-        <v>0.95814271564371434</v>
-      </c>
-      <c r="AB50" s="8">
-        <v>1030.106308930207</v>
+      <c r="Z50" s="35">
+        <v>29.728616413085351</v>
+      </c>
+      <c r="AA50" s="35">
+        <v>1.121274636853129</v>
+      </c>
+      <c r="AB50" s="35">
+        <v>1421.06103978229</v>
       </c>
     </row>
     <row r="51" spans="1:28" x14ac:dyDescent="0.25">
@@ -29978,14 +30056,14 @@
       <c r="X51" s="35">
         <v>871.66051004810106</v>
       </c>
-      <c r="Z51" s="8">
-        <v>22.599563202339159</v>
-      </c>
-      <c r="AA51" s="8">
-        <v>0.92424408999493357</v>
-      </c>
-      <c r="AB51" s="8">
-        <v>1120.8248275795579</v>
+      <c r="Z51" s="35">
+        <v>30.99474891818317</v>
+      </c>
+      <c r="AA51" s="35">
+        <v>1.1638731085252541</v>
+      </c>
+      <c r="AB51" s="35">
+        <v>1270.111681759756</v>
       </c>
     </row>
     <row r="52" spans="1:28" x14ac:dyDescent="0.25">
@@ -30050,14 +30128,14 @@
       <c r="X52" s="35">
         <v>957.93155630000001</v>
       </c>
-      <c r="Z52" s="8">
-        <v>25.733645742886232</v>
-      </c>
-      <c r="AA52" s="8">
-        <v>0.79402123641159561</v>
-      </c>
-      <c r="AB52" s="8">
-        <v>1340.507375350415</v>
+      <c r="Z52" s="35">
+        <v>29.280441203067451</v>
+      </c>
+      <c r="AA52" s="35">
+        <v>0.99774123176039153</v>
+      </c>
+      <c r="AB52" s="35">
+        <v>1247.0105373757899</v>
       </c>
     </row>
     <row r="53" spans="1:28" x14ac:dyDescent="0.25">
@@ -30122,14 +30200,14 @@
       <c r="X53" s="35">
         <v>896.52894949999995</v>
       </c>
-      <c r="Z53" s="8">
-        <v>26.446232773967289</v>
-      </c>
-      <c r="AA53" s="8">
-        <v>0.81174274228979648</v>
-      </c>
-      <c r="AB53" s="8">
-        <v>1187.174426920913</v>
+      <c r="Z53" s="35">
+        <v>29.5609451196386</v>
+      </c>
+      <c r="AA53" s="35">
+        <v>0.96878171464345375</v>
+      </c>
+      <c r="AB53" s="35">
+        <v>1457.9668769180821</v>
       </c>
     </row>
     <row r="54" spans="1:28" x14ac:dyDescent="0.25">
@@ -30194,14 +30272,14 @@
       <c r="X54" s="35">
         <v>897.968842</v>
       </c>
-      <c r="Z54" s="8">
-        <v>26.036422953787461</v>
-      </c>
-      <c r="AA54" s="8">
-        <v>0.84262410124177578</v>
-      </c>
-      <c r="AB54" s="8">
-        <v>1084.4969671484471</v>
+      <c r="Z54" s="35">
+        <v>29.91326458766682</v>
+      </c>
+      <c r="AA54" s="35">
+        <v>1.1847427751144739</v>
+      </c>
+      <c r="AB54" s="35">
+        <v>1272.8877748730019</v>
       </c>
     </row>
     <row r="55" spans="1:28" x14ac:dyDescent="0.25">
@@ -30266,14 +30344,14 @@
       <c r="X55" s="35">
         <v>869.12657709999996</v>
       </c>
-      <c r="Z55" s="8">
-        <v>26.10069179222706</v>
-      </c>
-      <c r="AA55" s="8">
-        <v>0.91449362320094463</v>
-      </c>
-      <c r="AB55" s="8">
-        <v>1098.2506532846639</v>
+      <c r="Z55" s="35">
+        <v>28.466951887641098</v>
+      </c>
+      <c r="AA55" s="35">
+        <v>0.94559145019344981</v>
+      </c>
+      <c r="AB55" s="35">
+        <v>1185.029469430785</v>
       </c>
     </row>
     <row r="56" spans="1:28" x14ac:dyDescent="0.25">
@@ -30338,14 +30416,14 @@
       <c r="X56" s="35">
         <v>941.76403760000005</v>
       </c>
-      <c r="Z56" s="8">
-        <v>29.059589396624379</v>
-      </c>
-      <c r="AA56" s="8">
-        <v>0.95623373005893297</v>
-      </c>
-      <c r="AB56" s="8">
-        <v>1145.894598553316</v>
+      <c r="Z56" s="35">
+        <v>30.80206859089186</v>
+      </c>
+      <c r="AA56" s="35">
+        <v>1.1742543398290011</v>
+      </c>
+      <c r="AB56" s="35">
+        <v>1142.228976247432</v>
       </c>
     </row>
     <row r="57" spans="1:28" x14ac:dyDescent="0.25">
@@ -30410,14 +30488,14 @@
       <c r="X57" s="35">
         <v>911.96841930000005</v>
       </c>
-      <c r="Z57" s="8">
-        <v>29.159722338594332</v>
-      </c>
-      <c r="AA57" s="8">
-        <v>0.67814002347936386</v>
-      </c>
-      <c r="AB57" s="8">
-        <v>1280.589563221461</v>
+      <c r="Z57" s="35">
+        <v>27.683494071629539</v>
+      </c>
+      <c r="AA57" s="35">
+        <v>1.0745009380818329</v>
+      </c>
+      <c r="AB57" s="35">
+        <v>1431.1365585060109</v>
       </c>
     </row>
     <row r="58" spans="1:28" x14ac:dyDescent="0.25">
@@ -30482,14 +30560,14 @@
       <c r="X58" s="35">
         <v>945.04201120000005</v>
       </c>
-      <c r="Z58" s="8">
-        <v>22.168562172904501</v>
-      </c>
-      <c r="AA58" s="8">
-        <v>0.83569590634890434</v>
-      </c>
-      <c r="AB58" s="8">
-        <v>1216.130762800454</v>
+      <c r="Z58" s="35">
+        <v>29.068290706117491</v>
+      </c>
+      <c r="AA58" s="35">
+        <v>0.94919540293698834</v>
+      </c>
+      <c r="AB58" s="35">
+        <v>1211.923911752225</v>
       </c>
     </row>
     <row r="59" spans="1:28" x14ac:dyDescent="0.25">
@@ -30554,14 +30632,14 @@
       <c r="X59" s="35">
         <v>860.66759969999998</v>
       </c>
-      <c r="Z59" s="8">
-        <v>28.21054787141054</v>
-      </c>
-      <c r="AA59" s="8">
-        <v>0.84370128395147581</v>
-      </c>
-      <c r="AB59" s="8">
-        <v>1143.8644776457079</v>
+      <c r="Z59" s="35">
+        <v>27.009684931249481</v>
+      </c>
+      <c r="AA59" s="35">
+        <v>1.0530296049078529</v>
+      </c>
+      <c r="AB59" s="35">
+        <v>1278.9086959683709</v>
       </c>
     </row>
     <row r="60" spans="1:28" x14ac:dyDescent="0.25">
@@ -30626,14 +30704,14 @@
       <c r="X60" s="35">
         <v>952.44238789999997</v>
       </c>
-      <c r="Z60" s="8">
-        <v>29.075047708109121</v>
-      </c>
-      <c r="AA60" s="8">
-        <v>0.87573922516955061</v>
-      </c>
-      <c r="AB60" s="8">
-        <v>1250.8387591349569</v>
+      <c r="Z60" s="35">
+        <v>29.645386570059699</v>
+      </c>
+      <c r="AA60" s="35">
+        <v>1.0021657348248509</v>
+      </c>
+      <c r="AB60" s="35">
+        <v>1198.871543027685</v>
       </c>
     </row>
     <row r="61" spans="1:28" x14ac:dyDescent="0.25">
@@ -30698,14 +30776,14 @@
       <c r="X61" s="35">
         <v>910.51433640000005</v>
       </c>
-      <c r="Z61" s="8">
-        <v>24.189064878448491</v>
-      </c>
-      <c r="AA61" s="8">
-        <v>0.62164124473580262</v>
-      </c>
-      <c r="AB61" s="8">
-        <v>1204.7057521234251</v>
+      <c r="Z61" s="35">
+        <v>30.656528098902989</v>
+      </c>
+      <c r="AA61" s="35">
+        <v>1.205405346997368</v>
+      </c>
+      <c r="AB61" s="35">
+        <v>1371.3626629463729</v>
       </c>
     </row>
     <row r="62" spans="1:28" x14ac:dyDescent="0.25">
@@ -30770,14 +30848,14 @@
       <c r="X62" s="35">
         <v>945.30911583468855</v>
       </c>
-      <c r="Z62" s="8">
-        <v>27.86596792057988</v>
-      </c>
-      <c r="AA62" s="8">
-        <v>0.63962547146577564</v>
-      </c>
-      <c r="AB62" s="8">
-        <v>1042.390555015563</v>
+      <c r="Z62" s="35">
+        <v>30.042456729082009</v>
+      </c>
+      <c r="AA62" s="35">
+        <v>1.070312098565531</v>
+      </c>
+      <c r="AB62" s="35">
+        <v>1316.625502490692</v>
       </c>
     </row>
     <row r="63" spans="1:28" x14ac:dyDescent="0.25">
@@ -30842,14 +30920,14 @@
       <c r="X63" s="35">
         <v>1287.9129908187399</v>
       </c>
-      <c r="Z63" s="8">
-        <v>29.144777848208751</v>
-      </c>
-      <c r="AA63" s="8">
-        <v>0.66040693920615656</v>
-      </c>
-      <c r="AB63" s="8">
-        <v>1098.534083698662</v>
+      <c r="Z63" s="35">
+        <v>28.761814965035839</v>
+      </c>
+      <c r="AA63" s="35">
+        <v>1.0969136742029351</v>
+      </c>
+      <c r="AB63" s="35">
+        <v>1454.950449289807</v>
       </c>
     </row>
     <row r="64" spans="1:28" x14ac:dyDescent="0.25">
@@ -30914,14 +30992,14 @@
       <c r="X64" s="35">
         <v>1387.17190311126</v>
       </c>
-      <c r="Z64" s="8">
-        <v>22.9012373045361</v>
-      </c>
-      <c r="AA64" s="8">
-        <v>0.84853978112601647</v>
-      </c>
-      <c r="AB64" s="8">
-        <v>1170.297162896125</v>
+      <c r="Z64" s="35">
+        <v>30.521547332798551</v>
+      </c>
+      <c r="AA64" s="35">
+        <v>1.115100026387065</v>
+      </c>
+      <c r="AB64" s="35">
+        <v>1223.8788855703101</v>
       </c>
     </row>
     <row r="65" spans="1:28" x14ac:dyDescent="0.25">
@@ -30986,14 +31064,14 @@
       <c r="X65" s="35">
         <v>970.79270495841547</v>
       </c>
-      <c r="Z65" s="8">
-        <v>22.049507100274869</v>
-      </c>
-      <c r="AA65" s="8">
-        <v>0.82493347889746671</v>
-      </c>
-      <c r="AB65" s="8">
-        <v>1038.249594627775</v>
+      <c r="Z65" s="35">
+        <v>28.1645711195135</v>
+      </c>
+      <c r="AA65" s="35">
+        <v>0.99833367634935777</v>
+      </c>
+      <c r="AB65" s="35">
+        <v>1113.129980728716</v>
       </c>
     </row>
     <row r="66" spans="1:28" x14ac:dyDescent="0.25">
@@ -31058,14 +31136,14 @@
       <c r="X66" s="35">
         <v>1255.14933362088</v>
       </c>
-      <c r="Z66" s="8">
-        <v>23.482767890663592</v>
-      </c>
-      <c r="AA66" s="8">
-        <v>0.63369252394204101</v>
-      </c>
-      <c r="AB66" s="8">
-        <v>1156.637271182002</v>
+      <c r="Z66" s="35">
+        <v>27.20187215873004</v>
+      </c>
+      <c r="AA66" s="35">
+        <v>1.017001849170035</v>
+      </c>
+      <c r="AB66" s="35">
+        <v>1173.7866969569241</v>
       </c>
     </row>
     <row r="67" spans="1:28" x14ac:dyDescent="0.25">
@@ -31130,14 +31208,14 @@
       <c r="X67" s="35">
         <v>945.46015371266253</v>
       </c>
-      <c r="Z67" s="8">
-        <v>29.220952390834711</v>
-      </c>
-      <c r="AA67" s="8">
-        <v>0.8617922345929947</v>
-      </c>
-      <c r="AB67" s="8">
-        <v>1342.978108635042</v>
+      <c r="Z67" s="35">
+        <v>28.695131611835929</v>
+      </c>
+      <c r="AA67" s="35">
+        <v>0.91019724022877235</v>
+      </c>
+      <c r="AB67" s="35">
+        <v>1131.875063902685</v>
       </c>
     </row>
     <row r="68" spans="1:28" x14ac:dyDescent="0.25">
@@ -31202,14 +31280,14 @@
       <c r="X68" s="35">
         <v>1043.654475974635</v>
       </c>
-      <c r="Z68" s="8">
-        <v>25.458001231386131</v>
-      </c>
-      <c r="AA68" s="8">
-        <v>0.90729471239122961</v>
-      </c>
-      <c r="AB68" s="8">
-        <v>1033.505770583592</v>
+      <c r="Z68" s="35">
+        <v>30.36685684534212</v>
+      </c>
+      <c r="AA68" s="35">
+        <v>1.19140399063803</v>
+      </c>
+      <c r="AB68" s="35">
+        <v>1083.216144259073</v>
       </c>
     </row>
     <row r="69" spans="1:28" x14ac:dyDescent="0.25">
@@ -31274,14 +31352,14 @@
       <c r="X69" s="35">
         <v>869.41533060319637</v>
       </c>
-      <c r="Z69" s="8">
-        <v>29.650278406953039</v>
-      </c>
-      <c r="AA69" s="8">
-        <v>0.63180970078897836</v>
-      </c>
-      <c r="AB69" s="8">
-        <v>1081.0476632141499</v>
+      <c r="Z69" s="35">
+        <v>27.735860343490231</v>
+      </c>
+      <c r="AA69" s="35">
+        <v>0.92327342304070636</v>
+      </c>
+      <c r="AB69" s="35">
+        <v>1302.620903690271</v>
       </c>
     </row>
     <row r="70" spans="1:28" x14ac:dyDescent="0.25">
@@ -31346,14 +31424,14 @@
       <c r="X70" s="35">
         <v>969.65110238184877</v>
       </c>
-      <c r="Z70" s="8">
-        <v>28.671172898431742</v>
-      </c>
-      <c r="AA70" s="8">
-        <v>0.84883142236215658</v>
-      </c>
-      <c r="AB70" s="8">
-        <v>1112.832605890849</v>
+      <c r="Z70" s="35">
+        <v>30.297779843801091</v>
+      </c>
+      <c r="AA70" s="35">
+        <v>0.99380290211694389</v>
+      </c>
+      <c r="AB70" s="35">
+        <v>1159.270881556793</v>
       </c>
     </row>
     <row r="71" spans="1:28" x14ac:dyDescent="0.25">
@@ -31418,14 +31496,14 @@
       <c r="X71" s="35">
         <v>901.6226628456975</v>
       </c>
-      <c r="Z71" s="8">
-        <v>26.181549788662561</v>
-      </c>
-      <c r="AA71" s="8">
-        <v>0.76630631024162355</v>
-      </c>
-      <c r="AB71" s="8">
-        <v>1205.048287913638</v>
+      <c r="Z71" s="35">
+        <v>30.364771217094638</v>
+      </c>
+      <c r="AA71" s="35">
+        <v>1.1041143505529529</v>
+      </c>
+      <c r="AB71" s="35">
+        <v>1251.362642065671</v>
       </c>
     </row>
     <row r="72" spans="1:28" x14ac:dyDescent="0.25">
@@ -31490,14 +31568,14 @@
       <c r="X72" s="35">
         <v>978.97971730898792</v>
       </c>
-      <c r="Z72" s="8">
-        <v>28.910441983948139</v>
-      </c>
-      <c r="AA72" s="8">
-        <v>0.95132982996262072</v>
-      </c>
-      <c r="AB72" s="8">
-        <v>1043.374678854027</v>
+      <c r="Z72" s="35">
+        <v>29.736984559622272</v>
+      </c>
+      <c r="AA72" s="35">
+        <v>0.93082267254256901</v>
+      </c>
+      <c r="AB72" s="35">
+        <v>1408.9312222464209</v>
       </c>
     </row>
     <row r="73" spans="1:28" x14ac:dyDescent="0.25">
@@ -31562,14 +31640,14 @@
       <c r="X73" s="35">
         <v>851.62350724652651</v>
       </c>
-      <c r="Z73" s="8">
-        <v>29.590422708254479</v>
-      </c>
-      <c r="AA73" s="8">
-        <v>0.66315228226959788</v>
-      </c>
-      <c r="AB73" s="8">
-        <v>1319.0476473814981</v>
+      <c r="Z73" s="35">
+        <v>27.11321978087695</v>
+      </c>
+      <c r="AA73" s="35">
+        <v>0.91090797180449479</v>
+      </c>
+      <c r="AB73" s="35">
+        <v>1198.5329279501609</v>
       </c>
     </row>
     <row r="74" spans="1:28" x14ac:dyDescent="0.25">
@@ -31634,14 +31712,14 @@
       <c r="X74" s="35">
         <v>970.19152540402877</v>
       </c>
-      <c r="Z74" s="8">
-        <v>27.058083481804051</v>
-      </c>
-      <c r="AA74" s="8">
-        <v>0.67194706326177034</v>
-      </c>
-      <c r="AB74" s="8">
-        <v>1026.8457584736091</v>
+      <c r="Z74" s="35">
+        <v>30.765884872701019</v>
+      </c>
+      <c r="AA74" s="35">
+        <v>1.09927074327491</v>
+      </c>
+      <c r="AB74" s="35">
+        <v>1120.051086119591</v>
       </c>
     </row>
     <row r="75" spans="1:28" x14ac:dyDescent="0.25">
@@ -31706,14 +31784,14 @@
       <c r="X75" s="35">
         <v>977.59703583505632</v>
       </c>
-      <c r="Z75" s="8">
-        <v>25.922453852005081</v>
-      </c>
-      <c r="AA75" s="8">
-        <v>0.9363208431332779</v>
-      </c>
-      <c r="AB75" s="8">
-        <v>1024.6461006181389</v>
+      <c r="Z75" s="35">
+        <v>27.57672691598367</v>
+      </c>
+      <c r="AA75" s="35">
+        <v>1.145696283730073</v>
+      </c>
+      <c r="AB75" s="35">
+        <v>1147.34722327945</v>
       </c>
     </row>
     <row r="76" spans="1:28" x14ac:dyDescent="0.25">
@@ -31778,14 +31856,14 @@
       <c r="X76" s="35">
         <v>1421.3417981289599</v>
       </c>
-      <c r="Z76" s="8">
-        <v>24.952554594234599</v>
-      </c>
-      <c r="AA76" s="8">
-        <v>0.63736262902108343</v>
-      </c>
-      <c r="AB76" s="8">
-        <v>1323.1050056813031</v>
+      <c r="Z76" s="35">
+        <v>29.1277217816403</v>
+      </c>
+      <c r="AA76" s="35">
+        <v>0.92571842960294082</v>
+      </c>
+      <c r="AB76" s="35">
+        <v>1243.802058937624</v>
       </c>
     </row>
     <row r="77" spans="1:28" x14ac:dyDescent="0.25">
@@ -31850,14 +31928,14 @@
       <c r="X77" s="35">
         <v>924.913175197594</v>
       </c>
-      <c r="Z77" s="8">
-        <v>29.295486281074432</v>
-      </c>
-      <c r="AA77" s="8">
-        <v>0.63346121369618302</v>
-      </c>
-      <c r="AB77" s="8">
-        <v>1102.4513503895139</v>
+      <c r="Z77" s="35">
+        <v>27.805457685698741</v>
+      </c>
+      <c r="AA77" s="35">
+        <v>1.0143625865227279</v>
+      </c>
+      <c r="AB77" s="35">
+        <v>1104.1725518995279</v>
       </c>
     </row>
     <row r="78" spans="1:28" x14ac:dyDescent="0.25">
@@ -31922,14 +32000,14 @@
       <c r="X78" s="35">
         <v>878.66480800544343</v>
       </c>
-      <c r="Z78" s="8">
-        <v>23.094640015115779</v>
-      </c>
-      <c r="AA78" s="8">
-        <v>0.9660066012608971</v>
-      </c>
-      <c r="AB78" s="8">
-        <v>1123.1294270714211</v>
+      <c r="Z78" s="35">
+        <v>28.679406372252849</v>
+      </c>
+      <c r="AA78" s="35">
+        <v>1.1125985266624661</v>
+      </c>
+      <c r="AB78" s="35">
+        <v>1065.1540391420599</v>
       </c>
     </row>
     <row r="79" spans="1:28" x14ac:dyDescent="0.25">
@@ -31994,14 +32072,14 @@
       <c r="X79" s="35">
         <v>1002.455179503775</v>
       </c>
-      <c r="Z79" s="8">
-        <v>23.824455282749408</v>
-      </c>
-      <c r="AA79" s="8">
-        <v>0.90319337377861153</v>
-      </c>
-      <c r="AB79" s="8">
-        <v>1288.035585552323</v>
+      <c r="Z79" s="35">
+        <v>30.821795728348039</v>
+      </c>
+      <c r="AA79" s="35">
+        <v>1.1116223744221241</v>
+      </c>
+      <c r="AB79" s="35">
+        <v>1402.667352693011</v>
       </c>
     </row>
     <row r="80" spans="1:28" x14ac:dyDescent="0.25">
@@ -32066,14 +32144,14 @@
       <c r="X80" s="35">
         <v>954.41244342660752</v>
       </c>
-      <c r="Z80" s="8">
-        <v>29.410394067069252</v>
-      </c>
-      <c r="AA80" s="8">
-        <v>0.74917247509180274</v>
-      </c>
-      <c r="AB80" s="8">
-        <v>1180.73085549337</v>
+      <c r="Z80" s="35">
+        <v>28.641268098315791</v>
+      </c>
+      <c r="AA80" s="35">
+        <v>0.99032032886426524</v>
+      </c>
+      <c r="AB80" s="35">
+        <v>1385.2074615031661</v>
       </c>
     </row>
     <row r="81" spans="1:28" x14ac:dyDescent="0.25">
@@ -32138,14 +32216,14 @@
       <c r="X81" s="35">
         <v>900.66708673243227</v>
       </c>
-      <c r="Z81" s="8">
-        <v>24.96299247443925</v>
-      </c>
-      <c r="AA81" s="8">
-        <v>0.68380928378660089</v>
-      </c>
-      <c r="AB81" s="8">
-        <v>1161.44575789543</v>
+      <c r="Z81" s="35">
+        <v>27.33098157082582</v>
+      </c>
+      <c r="AA81" s="35">
+        <v>1.121321294962798</v>
+      </c>
+      <c r="AB81" s="35">
+        <v>1366.032424142973</v>
       </c>
     </row>
     <row r="82" spans="1:28" x14ac:dyDescent="0.25">
@@ -32210,14 +32288,14 @@
       <c r="X82" s="35">
         <v>1242.44517759168</v>
       </c>
-      <c r="Z82" s="8">
-        <v>27.143163659734459</v>
-      </c>
-      <c r="AA82" s="8">
-        <v>0.73865875408493176</v>
-      </c>
-      <c r="AB82" s="8">
-        <v>1192.436554004815</v>
+      <c r="Z82" s="35">
+        <v>30.141896404399908</v>
+      </c>
+      <c r="AA82" s="35">
+        <v>1.066410928862586</v>
+      </c>
+      <c r="AB82" s="35">
+        <v>1394.6776719961049</v>
       </c>
     </row>
     <row r="83" spans="1:28" x14ac:dyDescent="0.25">
@@ -32282,14 +32360,14 @@
       <c r="X83" s="35">
         <v>1039.529706762924</v>
       </c>
-      <c r="Z83" s="8">
-        <v>28.741109895895018</v>
-      </c>
-      <c r="AA83" s="8">
-        <v>0.93032206744256341</v>
-      </c>
-      <c r="AB83" s="8">
-        <v>1062.798554870242</v>
+      <c r="Z83" s="35">
+        <v>28.98250662135402</v>
+      </c>
+      <c r="AA83" s="35">
+        <v>0.92683640146845903</v>
+      </c>
+      <c r="AB83" s="35">
+        <v>1459.909518663871</v>
       </c>
     </row>
     <row r="84" spans="1:28" x14ac:dyDescent="0.25">
@@ -32354,14 +32432,14 @@
       <c r="X84" s="35">
         <v>1281.01122877591</v>
       </c>
-      <c r="Z84" s="8">
-        <v>28.37986514266381</v>
-      </c>
-      <c r="AA84" s="8">
-        <v>0.82043259205022356</v>
-      </c>
-      <c r="AB84" s="8">
-        <v>1315.9799763720421</v>
+      <c r="Z84" s="35">
+        <v>29.553762230203969</v>
+      </c>
+      <c r="AA84" s="35">
+        <v>0.96179204042705879</v>
+      </c>
+      <c r="AB84" s="35">
+        <v>1410.472476803486</v>
       </c>
     </row>
     <row r="85" spans="1:28" x14ac:dyDescent="0.25">
@@ -32426,14 +32504,14 @@
       <c r="X85" s="35">
         <v>918.66136326294884</v>
       </c>
-      <c r="Z85" s="8">
-        <v>25.670946176445799</v>
-      </c>
-      <c r="AA85" s="8">
-        <v>0.68942004970490034</v>
-      </c>
-      <c r="AB85" s="8">
-        <v>1332.119338220017</v>
+      <c r="Z85" s="35">
+        <v>30.396806907875391</v>
+      </c>
+      <c r="AA85" s="35">
+        <v>1.1077397030653611</v>
+      </c>
+      <c r="AB85" s="35">
+        <v>1226.172776348227</v>
       </c>
     </row>
     <row r="86" spans="1:28" x14ac:dyDescent="0.25">
@@ -32498,14 +32576,14 @@
       <c r="X86" s="35">
         <v>874.76194357723318</v>
       </c>
-      <c r="Z86" s="8">
-        <v>26.60104212735283</v>
-      </c>
-      <c r="AA86" s="8">
-        <v>0.78509771659226402</v>
-      </c>
-      <c r="AB86" s="8">
-        <v>1280.127836189552</v>
+      <c r="Z86" s="35">
+        <v>28.632875238649049</v>
+      </c>
+      <c r="AA86" s="35">
+        <v>1.03452139687496</v>
+      </c>
+      <c r="AB86" s="35">
+        <v>1354.3146581195469</v>
       </c>
     </row>
     <row r="87" spans="1:28" x14ac:dyDescent="0.25">
@@ -32570,14 +32648,14 @@
       <c r="X87" s="35">
         <v>860.29362896998941</v>
       </c>
-      <c r="Z87" s="8">
-        <v>22.18215514471667</v>
-      </c>
-      <c r="AA87" s="8">
-        <v>0.651751752840529</v>
-      </c>
-      <c r="AB87" s="8">
-        <v>1216.61040059015</v>
+      <c r="Z87" s="35">
+        <v>30.476053843676681</v>
+      </c>
+      <c r="AA87" s="35">
+        <v>1.1269293374473739</v>
+      </c>
+      <c r="AB87" s="35">
+        <v>1418.3350124393751</v>
       </c>
     </row>
     <row r="88" spans="1:28" x14ac:dyDescent="0.25">
@@ -32642,14 +32720,14 @@
       <c r="X88" s="35">
         <v>1427.82718198668</v>
       </c>
-      <c r="Z88" s="8">
-        <v>22.844218366272951</v>
-      </c>
-      <c r="AA88" s="8">
-        <v>0.96311417383493714</v>
-      </c>
-      <c r="AB88" s="8">
-        <v>1287.45592319298</v>
+      <c r="Z88" s="35">
+        <v>28.867706436674109</v>
+      </c>
+      <c r="AA88" s="35">
+        <v>1.0139771627298739</v>
+      </c>
+      <c r="AB88" s="35">
+        <v>1392.898819961647</v>
       </c>
     </row>
     <row r="89" spans="1:28" x14ac:dyDescent="0.25">
@@ -32714,14 +32792,14 @@
       <c r="X89" s="35">
         <v>923.01350686209332</v>
       </c>
-      <c r="Z89" s="8">
-        <v>22.915425809318339</v>
-      </c>
-      <c r="AA89" s="8">
-        <v>0.95818846464571028</v>
-      </c>
-      <c r="AB89" s="8">
-        <v>1292.9406179603279</v>
+      <c r="Z89" s="35">
+        <v>29.65685274508056</v>
+      </c>
+      <c r="AA89" s="35">
+        <v>0.96543456284397533</v>
+      </c>
+      <c r="AB89" s="35">
+        <v>1368.341827519512</v>
       </c>
     </row>
     <row r="90" spans="1:28" x14ac:dyDescent="0.25">
@@ -32786,14 +32864,14 @@
       <c r="X90" s="35">
         <v>980.92547151047052</v>
       </c>
-      <c r="Z90" s="8">
-        <v>26.456271439072331</v>
-      </c>
-      <c r="AA90" s="8">
-        <v>0.72579400659510163</v>
-      </c>
-      <c r="AB90" s="8">
-        <v>1091.718284731576</v>
+      <c r="Z90" s="35">
+        <v>30.670677053395881</v>
+      </c>
+      <c r="AA90" s="35">
+        <v>1.1491657386681551</v>
+      </c>
+      <c r="AB90" s="35">
+        <v>1305.7445041789799</v>
       </c>
     </row>
     <row r="91" spans="1:28" x14ac:dyDescent="0.25">
@@ -32858,14 +32936,14 @@
       <c r="X91" s="35">
         <v>1439.56521459294</v>
       </c>
-      <c r="Z91" s="8">
-        <v>29.979906775593459</v>
-      </c>
-      <c r="AA91" s="8">
-        <v>0.62833264111031373</v>
-      </c>
-      <c r="AB91" s="8">
-        <v>1051.988333204376</v>
+      <c r="Z91" s="35">
+        <v>28.120130361709279</v>
+      </c>
+      <c r="AA91" s="35">
+        <v>1.0504306599990729</v>
+      </c>
+      <c r="AB91" s="35">
+        <v>1126.678489508374</v>
       </c>
     </row>
     <row r="92" spans="1:28" x14ac:dyDescent="0.25">
@@ -32930,14 +33008,14 @@
       <c r="X92" s="35">
         <v>955.49407975206771</v>
       </c>
-      <c r="Z92" s="8">
-        <v>29.103106382555769</v>
-      </c>
-      <c r="AA92" s="8">
-        <v>0.62036042693748084</v>
-      </c>
-      <c r="AB92" s="8">
-        <v>1253.7542686275519</v>
+      <c r="Z92" s="35">
+        <v>30.12884512116068</v>
+      </c>
+      <c r="AA92" s="35">
+        <v>1.1603465363909899</v>
+      </c>
+      <c r="AB92" s="35">
+        <v>1241.813744963413</v>
       </c>
     </row>
     <row r="93" spans="1:28" x14ac:dyDescent="0.25">
@@ -33002,14 +33080,14 @@
       <c r="X93" s="35">
         <v>963.30598884729159</v>
       </c>
-      <c r="Z93" s="8">
-        <v>23.57440693405745</v>
-      </c>
-      <c r="AA93" s="8">
-        <v>0.89119935065589462</v>
-      </c>
-      <c r="AB93" s="8">
-        <v>1129.908683504869</v>
+      <c r="Z93" s="35">
+        <v>28.82578966876244</v>
+      </c>
+      <c r="AA93" s="35">
+        <v>1.0130377670794231</v>
+      </c>
+      <c r="AB93" s="35">
+        <v>1406.9881754386361</v>
       </c>
     </row>
     <row r="94" spans="1:28" x14ac:dyDescent="0.25">
@@ -33074,14 +33152,14 @@
       <c r="X94" s="35">
         <v>1307.42231829769</v>
       </c>
-      <c r="Z94" s="8">
-        <v>26.24773632069763</v>
-      </c>
-      <c r="AA94" s="8">
-        <v>0.85415853233892258</v>
-      </c>
-      <c r="AB94" s="8">
-        <v>1119.867728812575</v>
+      <c r="Z94" s="35">
+        <v>27.432799905724501</v>
+      </c>
+      <c r="AA94" s="35">
+        <v>1.18713111581076</v>
+      </c>
+      <c r="AB94" s="35">
+        <v>1061.6954115785679</v>
       </c>
     </row>
     <row r="95" spans="1:28" x14ac:dyDescent="0.25">
@@ -33146,14 +33224,14 @@
       <c r="X95" s="35">
         <v>885.41290451986913</v>
       </c>
-      <c r="Z95" s="8">
-        <v>25.74705707533392</v>
-      </c>
-      <c r="AA95" s="8">
-        <v>0.66964900678117034</v>
-      </c>
-      <c r="AB95" s="8">
-        <v>1197.079838678485</v>
+      <c r="Z95" s="35">
+        <v>30.037348456372371</v>
+      </c>
+      <c r="AA95" s="35">
+        <v>1.136647669008559</v>
+      </c>
+      <c r="AB95" s="35">
+        <v>1081.787454494342</v>
       </c>
     </row>
     <row r="96" spans="1:28" x14ac:dyDescent="0.25">
@@ -33218,14 +33296,14 @@
       <c r="X96" s="35">
         <v>1072.604755824015</v>
       </c>
-      <c r="Z96" s="8">
-        <v>23.308479844505321</v>
-      </c>
-      <c r="AA96" s="8">
-        <v>0.75719186696757423</v>
-      </c>
-      <c r="AB96" s="8">
-        <v>1035.200854823998</v>
+      <c r="Z96" s="35">
+        <v>28.535185153858521</v>
+      </c>
+      <c r="AA96" s="35">
+        <v>1.1451463919837519</v>
+      </c>
+      <c r="AB96" s="35">
+        <v>1336.9900264603459</v>
       </c>
     </row>
     <row r="97" spans="1:28" x14ac:dyDescent="0.25">
@@ -33290,14 +33368,14 @@
       <c r="X97" s="35">
         <v>794.38240173183942</v>
       </c>
-      <c r="Z97" s="8">
-        <v>26.952116720867391</v>
-      </c>
-      <c r="AA97" s="8">
-        <v>0.69647855082157417</v>
-      </c>
-      <c r="AB97" s="8">
-        <v>1144.0928105817011</v>
+      <c r="Z97" s="35">
+        <v>27.874570042118439</v>
+      </c>
+      <c r="AA97" s="35">
+        <v>0.98140505906083664</v>
+      </c>
+      <c r="AB97" s="35">
+        <v>1387.3304263591781</v>
       </c>
     </row>
     <row r="98" spans="1:28" x14ac:dyDescent="0.25">
@@ -33362,14 +33440,14 @@
       <c r="X98" s="35">
         <v>965.39510530210703</v>
       </c>
-      <c r="Z98" s="8">
-        <v>29.86113039760393</v>
-      </c>
-      <c r="AA98" s="8">
-        <v>0.91427643140086778</v>
-      </c>
-      <c r="AB98" s="8">
-        <v>1037.4849997753779</v>
+      <c r="Z98" s="35">
+        <v>29.257656951033141</v>
+      </c>
+      <c r="AA98" s="35">
+        <v>1.150155540976072</v>
+      </c>
+      <c r="AB98" s="35">
+        <v>1347.0033228665211</v>
       </c>
     </row>
     <row r="99" spans="1:28" x14ac:dyDescent="0.25">
@@ -33434,14 +33512,14 @@
       <c r="X99" s="35">
         <v>1007.410189560303</v>
       </c>
-      <c r="Z99" s="8">
-        <v>26.62556961404059</v>
-      </c>
-      <c r="AA99" s="8">
-        <v>0.62008828421872164</v>
-      </c>
-      <c r="AB99" s="8">
-        <v>1087.3098404021951</v>
+      <c r="Z99" s="35">
+        <v>28.68559745329091</v>
+      </c>
+      <c r="AA99" s="35">
+        <v>1.202741684654969</v>
+      </c>
+      <c r="AB99" s="35">
+        <v>1117.532735657305</v>
       </c>
     </row>
     <row r="100" spans="1:28" x14ac:dyDescent="0.25">
@@ -33506,14 +33584,14 @@
       <c r="X100" s="35">
         <v>862.04075663129311</v>
       </c>
-      <c r="Z100" s="8">
-        <v>27.19651691345825</v>
-      </c>
-      <c r="AA100" s="8">
-        <v>0.77135821152340878</v>
-      </c>
-      <c r="AB100" s="8">
-        <v>1322.565950212173</v>
+      <c r="Z100" s="35">
+        <v>30.710905025946349</v>
+      </c>
+      <c r="AA100" s="35">
+        <v>0.92435131540445614</v>
+      </c>
+      <c r="AB100" s="35">
+        <v>1455.1861771736851</v>
       </c>
     </row>
     <row r="101" spans="1:28" x14ac:dyDescent="0.25">
@@ -33578,14 +33656,28 @@
       <c r="X101" s="35">
         <v>965.47587924604807</v>
       </c>
-      <c r="Z101" s="8">
-        <v>25.81265319530749</v>
-      </c>
-      <c r="AA101" s="8">
-        <v>0.91257358322878224</v>
-      </c>
-      <c r="AB101" s="8">
-        <v>1332.072178442151</v>
+      <c r="Z101" s="35">
+        <v>29.789892602172952</v>
+      </c>
+      <c r="AA101" s="35">
+        <v>1.03721967804343</v>
+      </c>
+      <c r="AB101" s="35">
+        <v>1153.4307350612171</v>
+      </c>
+    </row>
+    <row r="102" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="Z102" s="35">
+        <f>AVERAGE(Z2:Z101)</f>
+        <v>29.124279157275716</v>
+      </c>
+      <c r="AA102" s="35">
+        <f>AVERAGE(AA2:AA101)</f>
+        <v>1.0554620342055081</v>
+      </c>
+      <c r="AB102" s="35">
+        <f>AVERAGE(AB2:AB101)</f>
+        <v>1272.3049262677621</v>
       </c>
     </row>
   </sheetData>
@@ -33597,10 +33689,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B96A137-9A94-445D-975E-4A9F678FF8B9}">
-  <dimension ref="A1:R101"/>
+  <dimension ref="A1:R102"/>
   <sheetViews>
-    <sheetView topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D101"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="A103" sqref="A103:XFD103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -33624,173 +33716,167 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B2" s="35">
-        <v>21.211091420827081</v>
+        <v>28.962560955417651</v>
       </c>
       <c r="C2" s="35">
-        <v>1.0872129237706381</v>
+        <v>0.80922880393016439</v>
       </c>
       <c r="D2" s="35">
-        <v>704.36015751240359</v>
+        <v>1495.34031305401</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B3" s="35">
-        <v>28.782670124635271</v>
+        <v>24.706129067836031</v>
       </c>
       <c r="C3" s="35">
-        <v>0.8094077069694976</v>
+        <v>0.88257076458675376</v>
       </c>
       <c r="D3" s="35">
-        <v>1710.610211458177</v>
+        <v>647.3567466115004</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B4" s="35">
-        <v>21.30327885791176</v>
+        <v>26.28787470202268</v>
       </c>
       <c r="C4" s="35">
-        <v>1.1472596358864771</v>
+        <v>0.77891086123734976</v>
       </c>
       <c r="D4" s="35">
-        <v>672.27987676770704</v>
+        <v>848.24194089968819</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B5" s="35">
-        <v>21.303782659332079</v>
+        <v>22.515754200399691</v>
       </c>
       <c r="C5" s="35">
-        <v>1.1650688960281981</v>
+        <v>0.75984113957708843</v>
       </c>
       <c r="D5" s="35">
-        <v>629.47254649241893</v>
+        <v>1522.2098494005411</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B6" s="35">
-        <v>30.132498629336911</v>
+        <v>27.300289420195519</v>
       </c>
       <c r="C6" s="35">
-        <v>0.8888812780584544</v>
+        <v>0.89161080148826644</v>
       </c>
       <c r="D6" s="35">
-        <v>2036.308516737188</v>
+        <v>1417.938341360049</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B7" s="35">
-        <f>AVERAGE(B2:B6)</f>
-        <v>24.546664338408618</v>
+        <v>24.464153194201501</v>
       </c>
       <c r="C7" s="35">
-        <f t="shared" ref="C7:D7" si="0">AVERAGE(C2:C6)</f>
-        <v>1.0195660881426529</v>
+        <v>0.80917613055159732</v>
       </c>
       <c r="D7" s="35">
-        <f t="shared" si="0"/>
-        <v>1150.6062617935791</v>
+        <v>1032.2417781941381</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B8" s="35">
-        <v>24.37140657230324</v>
+        <v>23.88058556563341</v>
       </c>
       <c r="C8" s="35">
-        <v>0.96811565951733292</v>
+        <v>0.85963373532001441</v>
       </c>
       <c r="D8" s="35">
-        <v>1112.034947128521</v>
+        <v>770.28253108385456</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B9" s="35">
-        <v>24.491896806448931</v>
+        <v>22.687253955498051</v>
       </c>
       <c r="C9" s="35">
-        <v>0.96138472363152505</v>
+        <v>0.74564901679361073</v>
       </c>
       <c r="D9" s="35">
-        <v>1204.3950067084429</v>
+        <v>1356.4855518232739</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B10" s="35">
-        <v>25.96409857885121</v>
+        <v>29.48413932273991</v>
       </c>
       <c r="C10" s="35">
-        <v>1.133146344112818</v>
+        <v>0.84981109783990916</v>
       </c>
       <c r="D10" s="35">
-        <v>1279.576459255323</v>
+        <v>999.64619860359699</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B11" s="35">
-        <v>39.713998720578367</v>
+        <v>26.528274115023098</v>
       </c>
       <c r="C11" s="35">
-        <v>0.62861236102618423</v>
+        <v>0.78029119757474119</v>
       </c>
       <c r="D11" s="35">
-        <v>3454.174432718788</v>
+        <v>778.01177833742372</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B12" s="35">
-        <v>20.58678570074159</v>
+        <v>26.95259226251461</v>
       </c>
       <c r="C12" s="35">
-        <v>0.90825835976206637</v>
+        <v>0.8781028809754835</v>
       </c>
       <c r="D12" s="35">
-        <v>596.82699752096312</v>
+        <v>1621.274580200871</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B13" s="35">
-        <f>AVERAGE(B2:B12)</f>
-        <v>25.673470219034094</v>
+        <v>27.250213483508411</v>
       </c>
       <c r="C13" s="35">
-        <f t="shared" ref="C13:D13" si="1">AVERAGE(C2:C12)</f>
-        <v>0.9742649069914403</v>
+        <v>0.81211205840894862</v>
       </c>
       <c r="D13" s="35">
-        <f t="shared" si="1"/>
-        <v>1322.7859467357737</v>
+        <v>1035.1539686519679</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B14" s="35">
-        <v>28.08200039340797</v>
+        <v>23.52973893935598</v>
       </c>
       <c r="C14" s="35">
-        <v>0.90493872651007079</v>
+        <v>0.71128410026339162</v>
       </c>
       <c r="D14" s="35">
-        <v>1624.577864397158</v>
+        <v>1723.6734861486491</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B15" s="35">
-        <v>26.674372440159839</v>
+        <v>25.52018632022099</v>
       </c>
       <c r="C15" s="35">
-        <v>0.78706832155624218</v>
+        <v>0.89683826511213449</v>
       </c>
       <c r="D15" s="35">
-        <v>1524.5157548467221</v>
+        <v>1170.805115266058</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B16" s="35">
-        <v>23.32747818120108</v>
+        <v>28.77443774820032</v>
       </c>
       <c r="C16" s="35">
-        <v>0.73794079209057617</v>
+        <v>0.85100215445902383</v>
       </c>
       <c r="D16" s="35">
-        <v>1170.9140214486561</v>
+        <v>1359.0671099892791</v>
       </c>
       <c r="I16" s="35">
         <v>24.141865030000002</v>
@@ -33825,13 +33911,13 @@
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B17" s="35">
-        <v>30.989957255951701</v>
+        <v>29.511263195791422</v>
       </c>
       <c r="C17" s="35">
-        <v>0.71085016211984486</v>
+        <v>0.88558670816837759</v>
       </c>
       <c r="D17" s="35">
-        <v>2346.847371549125</v>
+        <v>1686.2474946640641</v>
       </c>
       <c r="I17" s="35">
         <v>0.58944407399999998</v>
@@ -33866,13 +33952,13 @@
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B18" s="35">
-        <v>32.425974813444739</v>
+        <v>24.651637603742351</v>
       </c>
       <c r="C18" s="35">
-        <v>0.92121421498219758</v>
+        <v>0.78227412003919239</v>
       </c>
       <c r="D18" s="35">
-        <v>2362.5877087275799</v>
+        <v>1776.9224715343539</v>
       </c>
       <c r="I18" s="35">
         <v>1334.9886590000001</v>
@@ -33907,387 +33993,387 @@
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B19" s="35">
-        <v>26.26309775794363</v>
+        <v>25.21581859641698</v>
       </c>
       <c r="C19" s="35">
-        <v>0.90977654371412298</v>
+        <v>0.88063880598435484</v>
       </c>
       <c r="D19" s="35">
-        <v>1435.7282317223239</v>
+        <v>1317.5221702561021</v>
       </c>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B20" s="35">
-        <v>37.595274316947773</v>
+        <v>24.488594736996081</v>
       </c>
       <c r="C20" s="35">
-        <v>0.66459653005257768</v>
+        <v>0.87479164671207865</v>
       </c>
       <c r="D20" s="35">
-        <v>3160.2998476933558</v>
+        <v>1056.449322002916</v>
       </c>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B21" s="35">
-        <v>31.147791240044828</v>
+        <v>25.400659880508009</v>
       </c>
       <c r="C21" s="35">
-        <v>0.65526800181961153</v>
+        <v>0.87763044577767657</v>
       </c>
       <c r="D21" s="35">
-        <v>2405.481179050184</v>
+        <v>1499.6453101380689</v>
       </c>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B22" s="35">
-        <v>31.51803644965943</v>
+        <v>27.028943182307621</v>
       </c>
       <c r="C22" s="35">
-        <v>0.84161746479156707</v>
+        <v>0.89385297347004689</v>
       </c>
       <c r="D22" s="35">
-        <v>2334.3259153527119</v>
+        <v>1748.7356900884149</v>
       </c>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B23" s="35">
-        <v>29.022691834341121</v>
+        <v>23.275451731535512</v>
       </c>
       <c r="C23" s="35">
-        <v>0.90532517565162995</v>
+        <v>0.73561347817659894</v>
       </c>
       <c r="D23" s="35">
-        <v>1911.357949478522</v>
+        <v>1634.8342230598159</v>
       </c>
     </row>
     <row r="24" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B24" s="35">
-        <v>28.08200039340797</v>
+        <v>25.133971097873669</v>
       </c>
       <c r="C24" s="35">
-        <v>0.90493872651007079</v>
+        <v>0.74072396353471148</v>
       </c>
       <c r="D24" s="35">
-        <v>1624.577864397158</v>
+        <v>1043.449216690824</v>
       </c>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B25" s="35">
-        <v>26.674372440159839</v>
+        <v>28.334572025370171</v>
       </c>
       <c r="C25" s="35">
-        <v>0.78706832155624218</v>
+        <v>0.73668632392044375</v>
       </c>
       <c r="D25" s="35">
-        <v>1524.5157548467221</v>
+        <v>917.4519762031523</v>
       </c>
     </row>
     <row r="26" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B26" s="35">
-        <v>23.32747818120108</v>
+        <v>27.536922537414991</v>
       </c>
       <c r="C26" s="35">
-        <v>0.73794079209057617</v>
+        <v>0.90622885079572135</v>
       </c>
       <c r="D26" s="35">
-        <v>1170.9140214486561</v>
+        <v>767.20513766271301</v>
       </c>
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B27" s="35">
-        <v>30.989957255951701</v>
+        <v>24.690142120930581</v>
       </c>
       <c r="C27" s="35">
-        <v>0.71085016211984486</v>
+        <v>0.84806277433632493</v>
       </c>
       <c r="D27" s="35">
-        <v>2346.847371549125</v>
+        <v>919.03622304171881</v>
       </c>
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B28" s="35">
-        <v>32.425974813444739</v>
+        <v>29.26072276344653</v>
       </c>
       <c r="C28" s="35">
-        <v>0.92121421498219758</v>
+        <v>0.87815111951757163</v>
       </c>
       <c r="D28" s="35">
-        <v>2362.5877087275799</v>
+        <v>1586.9812414680459</v>
       </c>
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B29" s="35">
-        <v>26.26309775794363</v>
+        <v>26.45419086191561</v>
       </c>
       <c r="C29" s="35">
-        <v>0.90977654371412298</v>
+        <v>0.9059937157391631</v>
       </c>
       <c r="D29" s="35">
-        <v>1435.7282317223239</v>
+        <v>732.76033793823558</v>
       </c>
     </row>
     <row r="30" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B30" s="35">
-        <v>37.595274316947773</v>
+        <v>25.169211812182748</v>
       </c>
       <c r="C30" s="35">
-        <v>0.66459653005257768</v>
+        <v>0.83339209465280006</v>
       </c>
       <c r="D30" s="35">
-        <v>3160.2998476933558</v>
+        <v>1076.039477275036</v>
       </c>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B31" s="35">
-        <v>31.147791240044828</v>
+        <v>25.415264194656</v>
       </c>
       <c r="C31" s="35">
-        <v>0.65526800181961153</v>
+        <v>0.71959390010715074</v>
       </c>
       <c r="D31" s="35">
-        <v>2405.481179050184</v>
+        <v>633.66665795642541</v>
       </c>
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B32" s="35">
-        <v>31.51803644965943</v>
+        <v>23.785695356758339</v>
       </c>
       <c r="C32" s="35">
-        <v>0.84161746479156707</v>
+        <v>0.85928211801198506</v>
       </c>
       <c r="D32" s="35">
-        <v>2334.3259153527119</v>
+        <v>1047.482721973694</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B33" s="35">
-        <v>29.022691834341121</v>
+        <v>25.351535204162708</v>
       </c>
       <c r="C33" s="35">
-        <v>0.90532517565162995</v>
+        <v>0.81778527050993755</v>
       </c>
       <c r="D33" s="35">
-        <v>1911.357949478522</v>
+        <v>715.86118825556127</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B34" s="35">
-        <v>24.141865030000002</v>
+        <v>29.55902308554835</v>
       </c>
       <c r="C34" s="35">
-        <v>0.58944407399999998</v>
+        <v>0.86216108430162319</v>
       </c>
       <c r="D34" s="35">
-        <v>1334.9886590000001</v>
+        <v>1065.6358999307829</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B35" s="35">
-        <v>29.65588009</v>
+        <v>26.477968178948579</v>
       </c>
       <c r="C35" s="35">
-        <v>1.131071347</v>
+        <v>0.78580030922464317</v>
       </c>
       <c r="D35" s="35">
-        <v>1871.2588310000001</v>
+        <v>976.3547151712412</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B36" s="35">
-        <v>25.19703264</v>
+        <v>25.82260120980159</v>
       </c>
       <c r="C36" s="35">
-        <v>0.82659172199999997</v>
+        <v>0.84307926670334454</v>
       </c>
       <c r="D36" s="35">
-        <v>1374.0269330000001</v>
+        <v>920.68329447115423</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B37" s="35">
-        <v>33.499020989999998</v>
+        <v>23.446269019700491</v>
       </c>
       <c r="C37" s="35">
-        <v>0.70181149799999998</v>
+        <v>0.88652841664956183</v>
       </c>
       <c r="D37" s="35">
-        <v>2571.101506</v>
+        <v>769.57925155130761</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B38" s="35">
-        <v>19.888152699999999</v>
+        <v>25.136353522878899</v>
       </c>
       <c r="C38" s="35">
-        <v>0.92489506799999999</v>
+        <v>0.86348729245276568</v>
       </c>
       <c r="D38" s="35">
-        <v>561.55941970000003</v>
+        <v>1228.55153303834</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B39" s="35">
-        <v>21.085059820000001</v>
+        <v>29.009245810047091</v>
       </c>
       <c r="C39" s="35">
-        <v>0.81670727499999995</v>
+        <v>0.84517455360484961</v>
       </c>
       <c r="D39" s="35">
-        <v>764.58025009999994</v>
+        <v>1478.3096061176259</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B40" s="35">
-        <v>33.717232639999999</v>
+        <v>26.149353373185669</v>
       </c>
       <c r="C40" s="35">
-        <v>0.64071282699999998</v>
+        <v>0.81401193007468098</v>
       </c>
       <c r="D40" s="35">
-        <v>2657.4619309999998</v>
+        <v>1383.087764868819</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B41" s="35">
-        <v>24.71237094</v>
+        <v>22.837132636474749</v>
       </c>
       <c r="C41" s="35">
-        <v>0.73689665599999998</v>
+        <v>0.79885296339157741</v>
       </c>
       <c r="D41" s="35">
-        <v>1360.012637</v>
+        <v>1453.372168461734</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B42" s="35">
-        <v>22.734938469999999</v>
+        <v>28.587428909454449</v>
       </c>
       <c r="C42" s="35">
-        <v>0.785028265</v>
+        <v>0.77676848345082283</v>
       </c>
       <c r="D42" s="35">
-        <v>1029.613447</v>
+        <v>1397.125797632915</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B43" s="35">
-        <v>24.571165329999999</v>
+        <v>25.697870989373879</v>
       </c>
       <c r="C43" s="35">
-        <v>1.0464549139999999</v>
+        <v>0.89680428011624524</v>
       </c>
       <c r="D43" s="35">
-        <v>1084.971763</v>
+        <v>813.13792797177985</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B44" s="35">
-        <v>28.265347966591481</v>
+        <v>26.270793467325909</v>
       </c>
       <c r="C44" s="35">
-        <v>0.83521749334679585</v>
+        <v>0.7766216081160553</v>
       </c>
       <c r="D44" s="35">
-        <v>1866.8099804138849</v>
+        <v>1639.886225340806</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B45" s="35">
-        <v>24.958768719838059</v>
+        <v>28.481482619212478</v>
       </c>
       <c r="C45" s="35">
-        <v>1.0680053795268329</v>
+        <v>0.72222005064255046</v>
       </c>
       <c r="D45" s="35">
-        <v>1095.711639442527</v>
+        <v>993.00838932954059</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B46" s="35">
-        <v>24.03954992256185</v>
+        <v>25.006649819079971</v>
       </c>
       <c r="C46" s="35">
-        <v>0.92950272819695356</v>
+        <v>0.85351004866964764</v>
       </c>
       <c r="D46" s="35">
-        <v>1092.983661933933</v>
+        <v>1568.6512162611759</v>
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B47" s="35">
-        <v>32.247491884222157</v>
+        <v>27.81965147228237</v>
       </c>
       <c r="C47" s="35">
-        <v>0.63595021320437684</v>
+        <v>0.86843731903150179</v>
       </c>
       <c r="D47" s="35">
-        <v>2201.773864787086</v>
+        <v>1180.213622296749</v>
       </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B48" s="35">
-        <v>35.947131724135403</v>
+        <v>24.097321858567259</v>
       </c>
       <c r="C48" s="35">
-        <v>0.87314953493567227</v>
+        <v>0.79841485865550244</v>
       </c>
       <c r="D48" s="35">
-        <v>2809.2962655542392</v>
+        <v>1006.921730911443</v>
       </c>
     </row>
     <row r="49" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B49" s="35">
-        <v>30.10519706848007</v>
+        <v>27.454208507669311</v>
       </c>
       <c r="C49" s="35">
-        <v>0.62227402169028723</v>
+        <v>0.79640565819033027</v>
       </c>
       <c r="D49" s="35">
-        <v>2004.6413952729181</v>
+        <v>1672.631701264462</v>
       </c>
     </row>
     <row r="50" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B50" s="35">
-        <v>29.978251091065491</v>
+        <v>26.46008032046127</v>
       </c>
       <c r="C50" s="35">
-        <v>1.199055185249668</v>
+        <v>0.87635768817990489</v>
       </c>
       <c r="D50" s="35">
-        <v>1915.037371168607</v>
+        <v>1392.2903212919739</v>
       </c>
     </row>
     <row r="51" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B51" s="35">
-        <v>21.52950992373011</v>
+        <v>25.797315862071041</v>
       </c>
       <c r="C51" s="35">
-        <v>1.06111513801465</v>
+        <v>0.83861570911412464</v>
       </c>
       <c r="D51" s="35">
-        <v>683.74533718691907</v>
+        <v>1008.5815777604</v>
       </c>
     </row>
     <row r="52" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B52" s="35">
-        <v>31.048604048970471</v>
+        <v>29.050914625042061</v>
       </c>
       <c r="C52" s="35">
-        <v>0.84004001913338688</v>
+        <v>0.79903058379402492</v>
       </c>
       <c r="D52" s="35">
-        <v>2009.3192310472371</v>
+        <v>1073.8417620253549</v>
       </c>
     </row>
     <row r="53" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B53" s="35">
-        <v>28.23439010766522</v>
+        <v>24.109326979168209</v>
       </c>
       <c r="C53" s="35">
-        <v>0.99488383573478734</v>
+        <v>0.88853754017704667</v>
       </c>
       <c r="D53" s="35">
-        <v>1719.513179980999</v>
+        <v>1597.3464804984669</v>
       </c>
       <c r="I53" s="35">
         <v>27.006242495709859</v>
@@ -34322,13 +34408,13 @@
     </row>
     <row r="54" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B54" s="35">
-        <v>27.006242495709859</v>
+        <v>29.548132384110751</v>
       </c>
       <c r="C54" s="35">
-        <v>0.86552663509305905</v>
+        <v>0.84260244133034345</v>
       </c>
       <c r="D54" s="35">
-        <v>1672.574978965298</v>
+        <v>1354.56163321445</v>
       </c>
       <c r="I54" s="35">
         <v>0.86552663509305905</v>
@@ -34363,13 +34449,13 @@
     </row>
     <row r="55" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B55" s="35">
-        <v>25.86381240589203</v>
+        <v>23.495983056639581</v>
       </c>
       <c r="C55" s="35">
-        <v>0.9248108581076061</v>
+        <v>0.80490466010420392</v>
       </c>
       <c r="D55" s="35">
-        <v>1416.0286600885199</v>
+        <v>1118.7707725703549</v>
       </c>
       <c r="I55" s="35">
         <v>1672.574978965298</v>
@@ -34404,508 +34490,522 @@
     </row>
     <row r="56" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B56" s="35">
-        <v>24.495480706961459</v>
+        <v>25.586570323366072</v>
       </c>
       <c r="C56" s="35">
-        <v>0.58703496079147999</v>
+        <v>0.84229177398954858</v>
       </c>
       <c r="D56" s="35">
-        <v>1322.5066538042911</v>
+        <v>1447.6840929639491</v>
       </c>
     </row>
     <row r="57" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B57" s="35">
-        <v>25.336269742981958</v>
+        <v>28.07938776932836</v>
       </c>
       <c r="C57" s="35">
-        <v>0.83867144651452807</v>
+        <v>0.82058244013594495</v>
       </c>
       <c r="D57" s="35">
-        <v>1367.026363787342</v>
+        <v>863.98816737779271</v>
       </c>
     </row>
     <row r="58" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B58" s="35">
-        <v>25.429412477210011</v>
+        <v>28.069297639058611</v>
       </c>
       <c r="C58" s="35">
-        <v>1.1799580530600611</v>
+        <v>0.76292610610557776</v>
       </c>
       <c r="D58" s="35">
-        <v>1143.467137118836</v>
+        <v>1442.113261263293</v>
       </c>
     </row>
     <row r="59" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B59" s="35">
-        <v>37.594768335840769</v>
+        <v>28.316599356144671</v>
       </c>
       <c r="C59" s="35">
-        <v>0.66466009458568476</v>
+        <v>0.85593862645796948</v>
       </c>
       <c r="D59" s="35">
-        <v>3160.235839283534</v>
+        <v>1740.1586597867131</v>
       </c>
     </row>
     <row r="60" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B60" s="35">
-        <v>24.54554467887089</v>
+        <v>25.544258251426289</v>
       </c>
       <c r="C60" s="35">
-        <v>1.116272109065684</v>
+        <v>0.82495181306795362</v>
       </c>
       <c r="D60" s="35">
-        <v>1121.8363576230231</v>
+        <v>1323.2236964131009</v>
       </c>
     </row>
     <row r="61" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B61" s="35">
-        <v>28.413430965580591</v>
+        <v>28.107714475756751</v>
       </c>
       <c r="C61" s="35">
-        <v>1.105549122082905</v>
+        <v>0.8304568781991396</v>
       </c>
       <c r="D61" s="35">
-        <v>1585.1527587617779</v>
+        <v>1513.4340477853621</v>
       </c>
     </row>
     <row r="62" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B62" s="35">
-        <v>29.256894075675611</v>
+        <v>26.28685923127383</v>
       </c>
       <c r="C62" s="35">
-        <v>1.2327097099311379</v>
+        <v>0.80796241687830539</v>
       </c>
       <c r="D62" s="35">
-        <v>1806.4245974504761</v>
+        <v>1354.8768926285029</v>
       </c>
     </row>
     <row r="63" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B63" s="35">
-        <v>22.501652136547762</v>
+        <v>28.653681823952319</v>
       </c>
       <c r="C63" s="35">
-        <v>1.3460683927182671</v>
+        <v>0.77729736133004312</v>
       </c>
       <c r="D63" s="35">
-        <v>717.0937784788033</v>
+        <v>1169.620531282138</v>
       </c>
     </row>
     <row r="64" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B64" s="35">
-        <v>33.473369638926513</v>
+        <v>23.556193671811918</v>
       </c>
       <c r="C64" s="35">
-        <v>0.70493365053404078</v>
+        <v>0.7270295794611078</v>
       </c>
       <c r="D64" s="35">
-        <v>2561.635902367429</v>
+        <v>1375.0469746489971</v>
       </c>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B65" s="35">
-        <v>28.051356276909349</v>
+        <v>24.749539677917468</v>
       </c>
       <c r="C65" s="35">
-        <v>0.90584648006130697</v>
+        <v>0.80742577910102198</v>
       </c>
       <c r="D65" s="35">
-        <v>1618.577010133183</v>
+        <v>1148.213469362272</v>
       </c>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B66" s="35">
-        <v>35.942699322794567</v>
+        <v>24.225857589160171</v>
       </c>
       <c r="C66" s="35">
-        <v>0.87299842768781377</v>
+        <v>0.84178422887680437</v>
       </c>
       <c r="D66" s="35">
-        <v>2809.991256444594</v>
+        <v>1344.4572105407869</v>
       </c>
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B67" s="35">
-        <v>33.30323631876557</v>
+        <v>28.937061399193329</v>
       </c>
       <c r="C67" s="35">
-        <v>0.94364793280322357</v>
+        <v>0.76953563748555553</v>
       </c>
       <c r="D67" s="35">
-        <v>2506.056082577652</v>
+        <v>1122.040657647641</v>
       </c>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B68" s="35">
-        <v>26.49314284431053</v>
+        <v>28.74323947600659</v>
       </c>
       <c r="C68" s="35">
-        <v>0.72934836315878393</v>
+        <v>0.79985677703568547</v>
       </c>
       <c r="D68" s="35">
-        <v>1549.7611062662399</v>
+        <v>672.17334739642047</v>
       </c>
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B69" s="35">
-        <v>29.890194133048912</v>
+        <v>25.554834131485929</v>
       </c>
       <c r="C69" s="35">
-        <v>0.57045213317522958</v>
+        <v>0.81924476241103916</v>
       </c>
       <c r="D69" s="35">
-        <v>2106.4253086594649</v>
+        <v>689.81515824162193</v>
       </c>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B70" s="35">
-        <v>20.89819293641035</v>
+        <v>24.085864070394891</v>
       </c>
       <c r="C70" s="35">
-        <v>0.87124019039427825</v>
+        <v>0.7936298122855916</v>
       </c>
       <c r="D70" s="35">
-        <v>684.63267893340412</v>
+        <v>648.71234825574993</v>
       </c>
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B71" s="35">
-        <v>27.85949345498646</v>
+        <v>25.118040511854488</v>
       </c>
       <c r="C71" s="35">
-        <v>0.67008711883762462</v>
+        <v>0.87235114490945398</v>
       </c>
       <c r="D71" s="35">
-        <v>1671.757047247924</v>
+        <v>737.08776370830662</v>
       </c>
     </row>
     <row r="72" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B72" s="35">
-        <v>21.633916308700879</v>
+        <v>22.566798256245381</v>
       </c>
       <c r="C72" s="35">
-        <v>1.168855524422665</v>
+        <v>0.74926610828718421</v>
       </c>
       <c r="D72" s="35">
-        <v>686.81565281489111</v>
+        <v>589.53801972923156</v>
       </c>
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B73" s="35">
-        <v>31.223158815688681</v>
+        <v>29.09025474108066</v>
       </c>
       <c r="C73" s="35">
-        <v>0.77037577778665289</v>
+        <v>0.81507229276536386</v>
       </c>
       <c r="D73" s="35">
-        <v>2131.7520196304422</v>
+        <v>1098.3138036190501</v>
       </c>
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B74" s="35">
-        <v>23.929597947998879</v>
+        <v>26.25618334114343</v>
       </c>
       <c r="C74" s="35">
-        <v>0.67136727748134983</v>
+        <v>0.7196828683379467</v>
       </c>
       <c r="D74" s="35">
-        <v>1202.233479872431</v>
+        <v>1022.947933877959</v>
       </c>
     </row>
     <row r="75" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B75" s="35">
-        <v>30.094400160068211</v>
+        <v>22.5601579740323</v>
       </c>
       <c r="C75" s="35">
-        <v>0.77104887337768313</v>
+        <v>0.89926191562148983</v>
       </c>
       <c r="D75" s="35">
-        <v>1952.2648990208779</v>
+        <v>1641.8440682860989</v>
       </c>
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B76" s="35">
-        <v>22.064237260462178</v>
+        <v>27.79168968868051</v>
       </c>
       <c r="C76" s="35">
-        <v>1.1628763277849321</v>
+        <v>0.77150015054008791</v>
       </c>
       <c r="D76" s="35">
-        <v>739.36445132253107</v>
+        <v>1368.391392891687</v>
       </c>
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B77" s="35">
-        <v>28.091728103048961</v>
+        <v>25.288600103593811</v>
       </c>
       <c r="C77" s="35">
-        <v>0.81960150599022452</v>
+        <v>0.74970976102516906</v>
       </c>
       <c r="D77" s="35">
-        <v>1664.213901261026</v>
+        <v>770.11104991971808</v>
       </c>
     </row>
     <row r="78" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B78" s="35">
-        <v>25.13978222047891</v>
+        <v>26.703225847971069</v>
       </c>
       <c r="C78" s="35">
-        <v>0.76589873084120397</v>
+        <v>0.78722631647600527</v>
       </c>
       <c r="D78" s="35">
-        <v>1349.7526339157421</v>
+        <v>841.57739335038536</v>
       </c>
     </row>
     <row r="79" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B79" s="35">
-        <v>21.588310654823459</v>
+        <v>27.93246209141779</v>
       </c>
       <c r="C79" s="35">
-        <v>0.981774568252475</v>
+        <v>0.7606193513234637</v>
       </c>
       <c r="D79" s="35">
-        <v>768.71260039098479</v>
+        <v>1371.3750331408669</v>
       </c>
     </row>
     <row r="80" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B80" s="35">
-        <v>20.203067831898551</v>
+        <v>23.480334766967399</v>
       </c>
       <c r="C80" s="35">
-        <v>1.031733301738003</v>
+        <v>0.73246280960816612</v>
       </c>
       <c r="D80" s="35">
-        <v>573.84009336679583</v>
+        <v>1325.9797392465221</v>
       </c>
     </row>
     <row r="81" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B81" s="35">
-        <v>26.57731857299158</v>
+        <v>25.90614687025629</v>
       </c>
       <c r="C81" s="35">
-        <v>1.1781111623090459</v>
+        <v>0.84561765961023039</v>
       </c>
       <c r="D81" s="35">
-        <v>1250.4758060434681</v>
+        <v>1529.7799284240359</v>
       </c>
     </row>
     <row r="82" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B82" s="35">
-        <v>23.291746930990399</v>
+        <v>28.04994610180642</v>
       </c>
       <c r="C82" s="35">
-        <v>1.4167080761365141</v>
+        <v>0.72997525485399839</v>
       </c>
       <c r="D82" s="35">
-        <v>749.22612540622924</v>
+        <v>639.98917931861308</v>
       </c>
     </row>
     <row r="83" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B83" s="35">
-        <v>21.145133800626329</v>
+        <v>25.473170949878099</v>
       </c>
       <c r="C83" s="35">
-        <v>1.1110611856278401</v>
+        <v>0.7400615798042004</v>
       </c>
       <c r="D83" s="35">
-        <v>607.47075018672285</v>
+        <v>1079.051458193821</v>
       </c>
     </row>
     <row r="84" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B84" s="35">
-        <v>35.91915207157021</v>
+        <v>25.011739845626568</v>
       </c>
       <c r="C84" s="35">
-        <v>0.87327700924880525</v>
+        <v>0.82200237458883496</v>
       </c>
       <c r="D84" s="35">
-        <v>2805.0462895092001</v>
+        <v>654.98738349141183</v>
       </c>
     </row>
     <row r="85" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B85" s="35">
-        <v>32.496589449928699</v>
+        <v>23.85923152765956</v>
       </c>
       <c r="C85" s="35">
-        <v>0.55801710690456496</v>
+        <v>0.77454459424033428</v>
       </c>
       <c r="D85" s="35">
-        <v>2350.0169068944751</v>
+        <v>1141.2484353844891</v>
       </c>
     </row>
     <row r="86" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B86" s="35">
-        <v>25.858164654596798</v>
+        <v>23.353047135277841</v>
       </c>
       <c r="C86" s="35">
-        <v>0.82927802387742133</v>
+        <v>0.80373784670033865</v>
       </c>
       <c r="D86" s="35">
-        <v>1393.5896403111051</v>
+        <v>599.38064628617178</v>
       </c>
     </row>
     <row r="87" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B87" s="35">
-        <v>22.542372139278761</v>
+        <v>23.163342087914611</v>
       </c>
       <c r="C87" s="35">
-        <v>1.1850382269738571</v>
+        <v>0.72393743592621085</v>
       </c>
       <c r="D87" s="35">
-        <v>759.97723691703288</v>
+        <v>865.26962019267512</v>
       </c>
     </row>
     <row r="88" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B88" s="35">
-        <v>20.64352892541736</v>
+        <v>26.323728098493749</v>
       </c>
       <c r="C88" s="35">
-        <v>0.89627965632479201</v>
+        <v>0.76274503571734642</v>
       </c>
       <c r="D88" s="35">
-        <v>673.29955699205755</v>
+        <v>1190.2914234302291</v>
       </c>
     </row>
     <row r="89" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B89" s="35">
-        <v>31.031656238833161</v>
+        <v>26.701778222732781</v>
       </c>
       <c r="C89" s="35">
-        <v>0.71730601649899584</v>
+        <v>0.7587000721262529</v>
       </c>
       <c r="D89" s="35">
-        <v>2339.9007725530519</v>
+        <v>1633.4716639143021</v>
       </c>
     </row>
     <row r="90" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B90" s="35">
-        <v>33.497310359850601</v>
+        <v>25.720157147278741</v>
       </c>
       <c r="C90" s="35">
-        <v>0.72416334913943714</v>
+        <v>0.77955271460222575</v>
       </c>
       <c r="D90" s="35">
-        <v>2504.1965978968578</v>
+        <v>749.14840931253809</v>
       </c>
     </row>
     <row r="91" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B91" s="35">
-        <v>28.135939250948031</v>
+        <v>24.001266525907941</v>
       </c>
       <c r="C91" s="35">
-        <v>0.87507449914229019</v>
+        <v>0.84629137462776693</v>
       </c>
       <c r="D91" s="35">
-        <v>1847.84412620127</v>
+        <v>1207.9588767598771</v>
       </c>
     </row>
     <row r="92" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B92" s="35">
-        <v>24.777543983771249</v>
+        <v>25.028707417300801</v>
       </c>
       <c r="C92" s="35">
-        <v>0.73263930688512702</v>
+        <v>0.7148005769241409</v>
       </c>
       <c r="D92" s="35">
-        <v>1319.0287388473259</v>
+        <v>1461.762475927143</v>
       </c>
     </row>
     <row r="93" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B93" s="35">
-        <v>22.433744153226481</v>
+        <v>27.825389202042281</v>
       </c>
       <c r="C93" s="35">
-        <v>0.77493799909306593</v>
+        <v>0.82381610536896033</v>
       </c>
       <c r="D93" s="35">
-        <v>1042.334390147874</v>
+        <v>615.58858115146893</v>
       </c>
     </row>
     <row r="94" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B94" s="35">
-        <v>24.458508890494581</v>
+        <v>28.57589285489939</v>
       </c>
       <c r="C94" s="35">
-        <v>0.58643215103747715</v>
+        <v>0.79193059904580487</v>
       </c>
       <c r="D94" s="35">
-        <v>1321.7035657886761</v>
+        <v>936.05222457449156</v>
       </c>
     </row>
     <row r="95" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B95" s="35">
-        <v>29.595999588565789</v>
+        <v>27.657925902707898</v>
       </c>
       <c r="C95" s="35">
-        <v>1.1286195812090669</v>
+        <v>0.75302447952167562</v>
       </c>
       <c r="D95" s="35">
-        <v>1858.386097876423</v>
+        <v>1105.7041057415879</v>
       </c>
     </row>
     <row r="96" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B96" s="35">
-        <v>39.765535574311542</v>
+        <v>28.311322687351801</v>
       </c>
       <c r="C96" s="35">
-        <v>0.62752554151641859</v>
+        <v>0.82206488481976447</v>
       </c>
       <c r="D96" s="35">
-        <v>3463.2743957688781</v>
+        <v>1314.298492785143</v>
       </c>
     </row>
     <row r="97" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B97" s="35">
-        <v>21.244684731462531</v>
+        <v>29.475223926506761</v>
       </c>
       <c r="C97" s="35">
-        <v>0.92131569771102662</v>
+        <v>0.71349822280304609</v>
       </c>
       <c r="D97" s="35">
-        <v>700.5964041082558</v>
+        <v>740.78722659563255</v>
       </c>
     </row>
     <row r="98" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B98" s="35">
-        <v>32.223671062045831</v>
+        <v>24.71449202183361</v>
       </c>
       <c r="C98" s="35">
-        <v>0.61721064770043943</v>
+        <v>0.76589195408762201</v>
       </c>
       <c r="D98" s="35">
-        <v>2253.992409966922</v>
+        <v>594.9792799134749</v>
       </c>
     </row>
     <row r="99" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B99" s="35">
-        <v>27.813685499238701</v>
+        <v>27.757130842920919</v>
       </c>
       <c r="C99" s="35">
-        <v>0.6246727698986686</v>
+        <v>0.77883512880737049</v>
       </c>
       <c r="D99" s="35">
-        <v>1762.1835101038721</v>
+        <v>1724.9936098358289</v>
       </c>
     </row>
     <row r="100" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B100" s="35">
-        <v>28.329320159974191</v>
+        <v>22.91173302774029</v>
       </c>
       <c r="C100" s="35">
-        <v>0.8959015433871671</v>
+        <v>0.7644796605672336</v>
       </c>
       <c r="D100" s="35">
-        <v>1835.89539623264</v>
+        <v>1242.858898945196</v>
       </c>
     </row>
     <row r="101" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B101" s="35">
-        <v>25.353922717427629</v>
+        <v>23.59517765005435</v>
       </c>
       <c r="C101" s="35">
-        <v>0.78741107233889274</v>
+        <v>0.82575007240936094</v>
       </c>
       <c r="D101" s="35">
-        <v>1401.2631594335251</v>
+        <v>1747.893391702773</v>
+      </c>
+    </row>
+    <row r="102" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B102" s="35">
+        <f>AVERAGE(B2:B101)</f>
+        <v>26.085651441172743</v>
+      </c>
+      <c r="C102" s="35">
+        <f>AVERAGE(C2:C101)</f>
+        <v>0.81010002402416315</v>
+      </c>
+      <c r="D102" s="35">
+        <f>AVERAGE(D2:D101)</f>
+        <v>1164.2878356706001</v>
       </c>
     </row>
   </sheetData>
@@ -34917,10 +35017,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89A7DA60-A90B-4CCB-82E2-B00D3D879225}">
-  <dimension ref="A1:D102"/>
+  <dimension ref="A1:DB102"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="J104" sqref="J104"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D101" sqref="B2:D101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -34928,7 +35028,7 @@
     <col min="1" max="16384" width="8.88671875" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
@@ -34942,1118 +35042,2018 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:106" x14ac:dyDescent="0.25">
       <c r="B2" s="35">
-        <v>29.281267422315452</v>
+        <v>27.90059375743656</v>
       </c>
       <c r="C2" s="35">
-        <v>0.83186903053623462</v>
+        <v>0.9226413072339763</v>
       </c>
       <c r="D2" s="35">
-        <v>857.39262185715199</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1447.908795479234</v>
+      </c>
+    </row>
+    <row r="3" spans="1:106" x14ac:dyDescent="0.25">
       <c r="B3" s="35">
-        <v>27.968246187558041</v>
+        <v>29.868085583644579</v>
       </c>
       <c r="C3" s="35">
-        <v>0.77825943499856309</v>
+        <v>0.9832509310749844</v>
       </c>
       <c r="D3" s="35">
-        <v>782.22279480785505</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1199.426600403533</v>
+      </c>
+    </row>
+    <row r="4" spans="1:106" x14ac:dyDescent="0.25">
       <c r="B4" s="35">
-        <v>25.54100172278665</v>
+        <v>28.639541981262241</v>
       </c>
       <c r="C4" s="35">
-        <v>0.96062284244951135</v>
+        <v>0.97629110483788195</v>
       </c>
       <c r="D4" s="35">
-        <v>652.3427690033908</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1098.250024114287</v>
+      </c>
+    </row>
+    <row r="5" spans="1:106" x14ac:dyDescent="0.25">
       <c r="B5" s="35">
-        <v>30.46952948470345</v>
+        <v>29.596468448255589</v>
       </c>
       <c r="C5" s="35">
-        <v>0.60943516912659312</v>
+        <v>0.97770894412002329</v>
       </c>
       <c r="D5" s="35">
-        <v>928.39222701921312</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1367.7924119590191</v>
+      </c>
+    </row>
+    <row r="6" spans="1:106" x14ac:dyDescent="0.25">
       <c r="B6" s="35">
-        <v>30.393881046005149</v>
+        <v>27.064715439807919</v>
       </c>
       <c r="C6" s="35">
-        <v>0.8601694242293112</v>
+        <v>1.004884371266165</v>
       </c>
       <c r="D6" s="35">
-        <v>923.78800503871105</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1361.1210002921459</v>
+      </c>
+    </row>
+    <row r="7" spans="1:106" x14ac:dyDescent="0.25">
       <c r="B7" s="35">
-        <v>31.823878680297842</v>
+        <v>27.406364125658929</v>
       </c>
       <c r="C7" s="35">
-        <v>0.73699603023078031</v>
+        <v>1.1846012117187701</v>
       </c>
       <c r="D7" s="35">
-        <v>1012.759254258315</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1257.128034545673</v>
+      </c>
+      <c r="G7" s="35">
+        <v>27.90059375743656</v>
+      </c>
+      <c r="H7" s="35">
+        <v>29.868085583644579</v>
+      </c>
+      <c r="I7" s="35">
+        <v>28.639541981262241</v>
+      </c>
+      <c r="J7" s="35">
+        <v>29.596468448255589</v>
+      </c>
+      <c r="K7" s="35">
+        <v>27.064715439807919</v>
+      </c>
+      <c r="L7" s="35">
+        <v>27.406364125658929</v>
+      </c>
+      <c r="M7" s="35">
+        <v>28.956924618009939</v>
+      </c>
+      <c r="N7" s="35">
+        <v>30.496766208413931</v>
+      </c>
+      <c r="O7" s="35">
+        <v>27.318619931694279</v>
+      </c>
+      <c r="P7" s="35">
+        <v>27.680413880104851</v>
+      </c>
+      <c r="Q7" s="35">
+        <v>30.649692355617699</v>
+      </c>
+      <c r="R7" s="35">
+        <v>30.164149667139849</v>
+      </c>
+      <c r="S7" s="35">
+        <v>27.858319965072539</v>
+      </c>
+      <c r="T7" s="35">
+        <v>29.59736689079239</v>
+      </c>
+      <c r="U7" s="35">
+        <v>29.522231951163761</v>
+      </c>
+      <c r="V7" s="35">
+        <v>28.615813272883639</v>
+      </c>
+      <c r="W7" s="35">
+        <v>30.94246942719808</v>
+      </c>
+      <c r="X7" s="35">
+        <v>28.86572110707796</v>
+      </c>
+      <c r="Y7" s="35">
+        <v>29.327439272432201</v>
+      </c>
+      <c r="Z7" s="35">
+        <v>30.241633637764849</v>
+      </c>
+      <c r="AA7" s="35">
+        <v>28.353360551344821</v>
+      </c>
+      <c r="AB7" s="35">
+        <v>28.092848605298069</v>
+      </c>
+      <c r="AC7" s="35">
+        <v>27.29753937232012</v>
+      </c>
+      <c r="AD7" s="35">
+        <v>28.2656814061564</v>
+      </c>
+      <c r="AE7" s="35">
+        <v>29.02458791391453</v>
+      </c>
+      <c r="AF7" s="35">
+        <v>30.847798208339889</v>
+      </c>
+      <c r="AG7" s="35">
+        <v>30.337588685674579</v>
+      </c>
+      <c r="AH7" s="35">
+        <v>29.692919616924002</v>
+      </c>
+      <c r="AI7" s="35">
+        <v>30.588666319822629</v>
+      </c>
+      <c r="AJ7" s="35">
+        <v>29.434661178830151</v>
+      </c>
+      <c r="AK7" s="35">
+        <v>28.320519410593111</v>
+      </c>
+      <c r="AL7" s="35">
+        <v>28.10612141404501</v>
+      </c>
+      <c r="AM7" s="35">
+        <v>29.899634771688731</v>
+      </c>
+      <c r="AN7" s="35">
+        <v>28.206451436455431</v>
+      </c>
+      <c r="AO7" s="35">
+        <v>30.834368609250799</v>
+      </c>
+      <c r="AP7" s="35">
+        <v>28.83518363781134</v>
+      </c>
+      <c r="AQ7" s="35">
+        <v>28.20397484630033</v>
+      </c>
+      <c r="AR7" s="35">
+        <v>29.79574927854857</v>
+      </c>
+      <c r="AS7" s="35">
+        <v>27.45659996135625</v>
+      </c>
+      <c r="AT7" s="35">
+        <v>30.853161036916461</v>
+      </c>
+      <c r="AU7" s="35">
+        <v>29.374072286118039</v>
+      </c>
+      <c r="AV7" s="35">
+        <v>28.99638997345069</v>
+      </c>
+      <c r="AW7" s="35">
+        <v>27.092781177378018</v>
+      </c>
+      <c r="AX7" s="35">
+        <v>30.034488872172432</v>
+      </c>
+      <c r="AY7" s="35">
+        <v>28.276183976608142</v>
+      </c>
+      <c r="AZ7" s="35">
+        <v>29.686369625351229</v>
+      </c>
+      <c r="BA7" s="35">
+        <v>27.0048126716638</v>
+      </c>
+      <c r="BB7" s="35">
+        <v>29.461680507222852</v>
+      </c>
+      <c r="BC7" s="35">
+        <v>29.728616413085351</v>
+      </c>
+      <c r="BD7" s="35">
+        <v>30.99474891818317</v>
+      </c>
+      <c r="BE7" s="35">
+        <v>29.280441203067451</v>
+      </c>
+      <c r="BF7" s="35">
+        <v>29.5609451196386</v>
+      </c>
+      <c r="BG7" s="35">
+        <v>29.91326458766682</v>
+      </c>
+      <c r="BH7" s="35">
+        <v>28.466951887641098</v>
+      </c>
+      <c r="BI7" s="35">
+        <v>30.80206859089186</v>
+      </c>
+      <c r="BJ7" s="35">
+        <v>27.683494071629539</v>
+      </c>
+      <c r="BK7" s="35">
+        <v>29.068290706117491</v>
+      </c>
+      <c r="BL7" s="35">
+        <v>27.009684931249481</v>
+      </c>
+      <c r="BM7" s="35">
+        <v>29.645386570059699</v>
+      </c>
+      <c r="BN7" s="35">
+        <v>30.656528098902989</v>
+      </c>
+      <c r="BO7" s="35">
+        <v>30.042456729082009</v>
+      </c>
+      <c r="BP7" s="35">
+        <v>28.761814965035839</v>
+      </c>
+      <c r="BQ7" s="35">
+        <v>30.521547332798551</v>
+      </c>
+      <c r="BR7" s="35">
+        <v>28.1645711195135</v>
+      </c>
+      <c r="BS7" s="35">
+        <v>27.20187215873004</v>
+      </c>
+      <c r="BT7" s="35">
+        <v>28.695131611835929</v>
+      </c>
+      <c r="BU7" s="35">
+        <v>30.36685684534212</v>
+      </c>
+      <c r="BV7" s="35">
+        <v>27.735860343490231</v>
+      </c>
+      <c r="BW7" s="35">
+        <v>30.297779843801091</v>
+      </c>
+      <c r="BX7" s="35">
+        <v>30.364771217094638</v>
+      </c>
+      <c r="BY7" s="35">
+        <v>29.736984559622272</v>
+      </c>
+      <c r="BZ7" s="35">
+        <v>27.11321978087695</v>
+      </c>
+      <c r="CA7" s="35">
+        <v>30.765884872701019</v>
+      </c>
+      <c r="CB7" s="35">
+        <v>27.57672691598367</v>
+      </c>
+      <c r="CC7" s="35">
+        <v>29.1277217816403</v>
+      </c>
+      <c r="CD7" s="35">
+        <v>27.805457685698741</v>
+      </c>
+      <c r="CE7" s="35">
+        <v>28.679406372252849</v>
+      </c>
+      <c r="CF7" s="35">
+        <v>30.821795728348039</v>
+      </c>
+      <c r="CG7" s="35">
+        <v>28.641268098315791</v>
+      </c>
+      <c r="CH7" s="35">
+        <v>27.33098157082582</v>
+      </c>
+      <c r="CI7" s="35">
+        <v>30.141896404399908</v>
+      </c>
+      <c r="CJ7" s="35">
+        <v>28.98250662135402</v>
+      </c>
+      <c r="CK7" s="35">
+        <v>29.553762230203969</v>
+      </c>
+      <c r="CL7" s="35">
+        <v>30.396806907875391</v>
+      </c>
+      <c r="CM7" s="35">
+        <v>28.632875238649049</v>
+      </c>
+      <c r="CN7" s="35">
+        <v>30.476053843676681</v>
+      </c>
+      <c r="CO7" s="35">
+        <v>28.867706436674109</v>
+      </c>
+      <c r="CP7" s="35">
+        <v>29.65685274508056</v>
+      </c>
+      <c r="CQ7" s="35">
+        <v>30.670677053395881</v>
+      </c>
+      <c r="CR7" s="35">
+        <v>28.120130361709279</v>
+      </c>
+      <c r="CS7" s="35">
+        <v>30.12884512116068</v>
+      </c>
+      <c r="CT7" s="35">
+        <v>28.82578966876244</v>
+      </c>
+      <c r="CU7" s="35">
+        <v>27.432799905724501</v>
+      </c>
+      <c r="CV7" s="35">
+        <v>30.037348456372371</v>
+      </c>
+      <c r="CW7" s="35">
+        <v>28.535185153858521</v>
+      </c>
+      <c r="CX7" s="35">
+        <v>27.874570042118439</v>
+      </c>
+      <c r="CY7" s="35">
+        <v>29.257656951033141</v>
+      </c>
+      <c r="CZ7" s="35">
+        <v>28.68559745329091</v>
+      </c>
+      <c r="DA7" s="35">
+        <v>30.710905025946349</v>
+      </c>
+      <c r="DB7" s="35">
+        <v>29.789892602172952</v>
+      </c>
+    </row>
+    <row r="8" spans="1:106" x14ac:dyDescent="0.25">
       <c r="B8" s="35">
-        <v>25.79654787338783</v>
+        <v>28.956924618009939</v>
       </c>
       <c r="C8" s="35">
-        <v>0.62380564492666613</v>
+        <v>1.008414564374746</v>
       </c>
       <c r="D8" s="35">
-        <v>665.46188218399004</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1439.230026232726</v>
+      </c>
+      <c r="G8" s="35">
+        <v>0.9226413072339763</v>
+      </c>
+      <c r="H8" s="35">
+        <v>0.9832509310749844</v>
+      </c>
+      <c r="I8" s="35">
+        <v>0.97629110483788195</v>
+      </c>
+      <c r="J8" s="35">
+        <v>0.97770894412002329</v>
+      </c>
+      <c r="K8" s="35">
+        <v>1.004884371266165</v>
+      </c>
+      <c r="L8" s="35">
+        <v>1.1846012117187701</v>
+      </c>
+      <c r="M8" s="35">
+        <v>1.008414564374746</v>
+      </c>
+      <c r="N8" s="35">
+        <v>1.01333925510363</v>
+      </c>
+      <c r="O8" s="35">
+        <v>1.190831165301192</v>
+      </c>
+      <c r="P8" s="35">
+        <v>1.205840336376353</v>
+      </c>
+      <c r="Q8" s="35">
+        <v>1.165450705342058</v>
+      </c>
+      <c r="R8" s="35">
+        <v>1.061799829131258</v>
+      </c>
+      <c r="S8" s="35">
+        <v>1.100556739966466</v>
+      </c>
+      <c r="T8" s="35">
+        <v>0.92334710262611674</v>
+      </c>
+      <c r="U8" s="35">
+        <v>1.0686239888318549</v>
+      </c>
+      <c r="V8" s="35">
+        <v>0.99681970912416729</v>
+      </c>
+      <c r="W8" s="35">
+        <v>1.0529963787276191</v>
+      </c>
+      <c r="X8" s="35">
+        <v>1.030049181641397</v>
+      </c>
+      <c r="Y8" s="35">
+        <v>1.08221329145061</v>
+      </c>
+      <c r="Z8" s="35">
+        <v>0.99966826869381564</v>
+      </c>
+      <c r="AA8" s="35">
+        <v>1.1014390645477179</v>
+      </c>
+      <c r="AB8" s="35">
+        <v>1.022298394999464</v>
+      </c>
+      <c r="AC8" s="35">
+        <v>0.98876342633134096</v>
+      </c>
+      <c r="AD8" s="35">
+        <v>1.043831302627348</v>
+      </c>
+      <c r="AE8" s="35">
+        <v>0.91639076758357318</v>
+      </c>
+      <c r="AF8" s="35">
+        <v>0.94655004736157011</v>
+      </c>
+      <c r="AG8" s="35">
+        <v>1.1004422396226241</v>
+      </c>
+      <c r="AH8" s="35">
+        <v>0.92558091303717649</v>
+      </c>
+      <c r="AI8" s="35">
+        <v>1.0000003783450491</v>
+      </c>
+      <c r="AJ8" s="35">
+        <v>1.071320905141623</v>
+      </c>
+      <c r="AK8" s="35">
+        <v>1.0378592514473639</v>
+      </c>
+      <c r="AL8" s="35">
+        <v>1.092839175660101</v>
+      </c>
+      <c r="AM8" s="35">
+        <v>0.9900733386630356</v>
+      </c>
+      <c r="AN8" s="35">
+        <v>1.0907888923803051</v>
+      </c>
+      <c r="AO8" s="35">
+        <v>1.050508306158066</v>
+      </c>
+      <c r="AP8" s="35">
+        <v>1.0504145347831551</v>
+      </c>
+      <c r="AQ8" s="35">
+        <v>1.044547442334204</v>
+      </c>
+      <c r="AR8" s="35">
+        <v>0.94777564516389512</v>
+      </c>
+      <c r="AS8" s="35">
+        <v>0.99837398792878651</v>
+      </c>
+      <c r="AT8" s="35">
+        <v>1.2043189945255339</v>
+      </c>
+      <c r="AU8" s="35">
+        <v>0.95965637058042286</v>
+      </c>
+      <c r="AV8" s="35">
+        <v>1.164794805054159</v>
+      </c>
+      <c r="AW8" s="35">
+        <v>1.191857517312793</v>
+      </c>
+      <c r="AX8" s="35">
+        <v>1.125187498413972</v>
+      </c>
+      <c r="AY8" s="35">
+        <v>1.209689894661681</v>
+      </c>
+      <c r="AZ8" s="35">
+        <v>1.204331869287756</v>
+      </c>
+      <c r="BA8" s="35">
+        <v>0.99756530206269156</v>
+      </c>
+      <c r="BB8" s="35">
+        <v>1.1546033484824261</v>
+      </c>
+      <c r="BC8" s="35">
+        <v>1.121274636853129</v>
+      </c>
+      <c r="BD8" s="35">
+        <v>1.1638731085252541</v>
+      </c>
+      <c r="BE8" s="35">
+        <v>0.99774123176039153</v>
+      </c>
+      <c r="BF8" s="35">
+        <v>0.96878171464345375</v>
+      </c>
+      <c r="BG8" s="35">
+        <v>1.1847427751144739</v>
+      </c>
+      <c r="BH8" s="35">
+        <v>0.94559145019344981</v>
+      </c>
+      <c r="BI8" s="35">
+        <v>1.1742543398290011</v>
+      </c>
+      <c r="BJ8" s="35">
+        <v>1.0745009380818329</v>
+      </c>
+      <c r="BK8" s="35">
+        <v>0.94919540293698834</v>
+      </c>
+      <c r="BL8" s="35">
+        <v>1.0530296049078529</v>
+      </c>
+      <c r="BM8" s="35">
+        <v>1.0021657348248509</v>
+      </c>
+      <c r="BN8" s="35">
+        <v>1.205405346997368</v>
+      </c>
+      <c r="BO8" s="35">
+        <v>1.070312098565531</v>
+      </c>
+      <c r="BP8" s="35">
+        <v>1.0969136742029351</v>
+      </c>
+      <c r="BQ8" s="35">
+        <v>1.115100026387065</v>
+      </c>
+      <c r="BR8" s="35">
+        <v>0.99833367634935777</v>
+      </c>
+      <c r="BS8" s="35">
+        <v>1.017001849170035</v>
+      </c>
+      <c r="BT8" s="35">
+        <v>0.91019724022877235</v>
+      </c>
+      <c r="BU8" s="35">
+        <v>1.19140399063803</v>
+      </c>
+      <c r="BV8" s="35">
+        <v>0.92327342304070636</v>
+      </c>
+      <c r="BW8" s="35">
+        <v>0.99380290211694389</v>
+      </c>
+      <c r="BX8" s="35">
+        <v>1.1041143505529529</v>
+      </c>
+      <c r="BY8" s="35">
+        <v>0.93082267254256901</v>
+      </c>
+      <c r="BZ8" s="35">
+        <v>0.91090797180449479</v>
+      </c>
+      <c r="CA8" s="35">
+        <v>1.09927074327491</v>
+      </c>
+      <c r="CB8" s="35">
+        <v>1.145696283730073</v>
+      </c>
+      <c r="CC8" s="35">
+        <v>0.92571842960294082</v>
+      </c>
+      <c r="CD8" s="35">
+        <v>1.0143625865227279</v>
+      </c>
+      <c r="CE8" s="35">
+        <v>1.1125985266624661</v>
+      </c>
+      <c r="CF8" s="35">
+        <v>1.1116223744221241</v>
+      </c>
+      <c r="CG8" s="35">
+        <v>0.99032032886426524</v>
+      </c>
+      <c r="CH8" s="35">
+        <v>1.121321294962798</v>
+      </c>
+      <c r="CI8" s="35">
+        <v>1.066410928862586</v>
+      </c>
+      <c r="CJ8" s="35">
+        <v>0.92683640146845903</v>
+      </c>
+      <c r="CK8" s="35">
+        <v>0.96179204042705879</v>
+      </c>
+      <c r="CL8" s="35">
+        <v>1.1077397030653611</v>
+      </c>
+      <c r="CM8" s="35">
+        <v>1.03452139687496</v>
+      </c>
+      <c r="CN8" s="35">
+        <v>1.1269293374473739</v>
+      </c>
+      <c r="CO8" s="35">
+        <v>1.0139771627298739</v>
+      </c>
+      <c r="CP8" s="35">
+        <v>0.96543456284397533</v>
+      </c>
+      <c r="CQ8" s="35">
+        <v>1.1491657386681551</v>
+      </c>
+      <c r="CR8" s="35">
+        <v>1.0504306599990729</v>
+      </c>
+      <c r="CS8" s="35">
+        <v>1.1603465363909899</v>
+      </c>
+      <c r="CT8" s="35">
+        <v>1.0130377670794231</v>
+      </c>
+      <c r="CU8" s="35">
+        <v>1.18713111581076</v>
+      </c>
+      <c r="CV8" s="35">
+        <v>1.136647669008559</v>
+      </c>
+      <c r="CW8" s="35">
+        <v>1.1451463919837519</v>
+      </c>
+      <c r="CX8" s="35">
+        <v>0.98140505906083664</v>
+      </c>
+      <c r="CY8" s="35">
+        <v>1.150155540976072</v>
+      </c>
+      <c r="CZ8" s="35">
+        <v>1.202741684654969</v>
+      </c>
+      <c r="DA8" s="35">
+        <v>0.92435131540445614</v>
+      </c>
+      <c r="DB8" s="35">
+        <v>1.03721967804343</v>
+      </c>
+    </row>
+    <row r="9" spans="1:106" x14ac:dyDescent="0.25">
       <c r="B9" s="35">
-        <v>26.53815443066868</v>
+        <v>30.496766208413931</v>
       </c>
       <c r="C9" s="35">
-        <v>0.95401945304987101</v>
+        <v>1.01333925510363</v>
       </c>
       <c r="D9" s="35">
-        <v>704.27364058601972</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1395.7320230908631</v>
+      </c>
+      <c r="G9" s="35">
+        <v>1447.908795479234</v>
+      </c>
+      <c r="H9" s="35">
+        <v>1199.426600403533</v>
+      </c>
+      <c r="I9" s="35">
+        <v>1098.250024114287</v>
+      </c>
+      <c r="J9" s="35">
+        <v>1367.7924119590191</v>
+      </c>
+      <c r="K9" s="35">
+        <v>1361.1210002921459</v>
+      </c>
+      <c r="L9" s="35">
+        <v>1257.128034545673</v>
+      </c>
+      <c r="M9" s="35">
+        <v>1439.230026232726</v>
+      </c>
+      <c r="N9" s="35">
+        <v>1395.7320230908631</v>
+      </c>
+      <c r="O9" s="35">
+        <v>1426.3877776721349</v>
+      </c>
+      <c r="P9" s="35">
+        <v>1324.418617157877</v>
+      </c>
+      <c r="Q9" s="35">
+        <v>1292.3921481366119</v>
+      </c>
+      <c r="R9" s="35">
+        <v>1142.202896283203</v>
+      </c>
+      <c r="S9" s="35">
+        <v>1094.356925933293</v>
+      </c>
+      <c r="T9" s="35">
+        <v>1225.717425602747</v>
+      </c>
+      <c r="U9" s="35">
+        <v>1139.1396480597141</v>
+      </c>
+      <c r="V9" s="35">
+        <v>1422.4313899693279</v>
+      </c>
+      <c r="W9" s="35">
+        <v>1142.236510467221</v>
+      </c>
+      <c r="X9" s="35">
+        <v>1405.889054137393</v>
+      </c>
+      <c r="Y9" s="35">
+        <v>1179.226504825004</v>
+      </c>
+      <c r="Z9" s="35">
+        <v>1214.835537943198</v>
+      </c>
+      <c r="AA9" s="35">
+        <v>1199.121048484463</v>
+      </c>
+      <c r="AB9" s="35">
+        <v>1301.2200959163699</v>
+      </c>
+      <c r="AC9" s="35">
+        <v>1193.5962365199321</v>
+      </c>
+      <c r="AD9" s="35">
+        <v>1095.123899494329</v>
+      </c>
+      <c r="AE9" s="35">
+        <v>1065.005804921245</v>
+      </c>
+      <c r="AF9" s="35">
+        <v>1423.912953956713</v>
+      </c>
+      <c r="AG9" s="35">
+        <v>1331.2305188147079</v>
+      </c>
+      <c r="AH9" s="35">
+        <v>1364.9072390462841</v>
+      </c>
+      <c r="AI9" s="35">
+        <v>1074.6345551646791</v>
+      </c>
+      <c r="AJ9" s="35">
+        <v>1404.925749896652</v>
+      </c>
+      <c r="AK9" s="35">
+        <v>1073.059524718961</v>
+      </c>
+      <c r="AL9" s="35">
+        <v>1094.21280086053</v>
+      </c>
+      <c r="AM9" s="35">
+        <v>1274.988249943563</v>
+      </c>
+      <c r="AN9" s="35">
+        <v>1307.7989579341099</v>
+      </c>
+      <c r="AO9" s="35">
+        <v>1259.8689616025049</v>
+      </c>
+      <c r="AP9" s="35">
+        <v>1270.8485545102551</v>
+      </c>
+      <c r="AQ9" s="35">
+        <v>1394.286589225454</v>
+      </c>
+      <c r="AR9" s="35">
+        <v>1293.407214056484</v>
+      </c>
+      <c r="AS9" s="35">
+        <v>1354.108991035298</v>
+      </c>
+      <c r="AT9" s="35">
+        <v>1137.2036248823381</v>
+      </c>
+      <c r="AU9" s="35">
+        <v>1435.2659781107591</v>
+      </c>
+      <c r="AV9" s="35">
+        <v>1112.1587583576611</v>
+      </c>
+      <c r="AW9" s="35">
+        <v>1376.8209882285601</v>
+      </c>
+      <c r="AX9" s="35">
+        <v>1432.650912461957</v>
+      </c>
+      <c r="AY9" s="35">
+        <v>1399.578273515699</v>
+      </c>
+      <c r="AZ9" s="35">
+        <v>1277.805202758673</v>
+      </c>
+      <c r="BA9" s="35">
+        <v>1222.3337621670421</v>
+      </c>
+      <c r="BB9" s="35">
+        <v>1296.174635280727</v>
+      </c>
+      <c r="BC9" s="35">
+        <v>1421.06103978229</v>
+      </c>
+      <c r="BD9" s="35">
+        <v>1270.111681759756</v>
+      </c>
+      <c r="BE9" s="35">
+        <v>1247.0105373757899</v>
+      </c>
+      <c r="BF9" s="35">
+        <v>1457.9668769180821</v>
+      </c>
+      <c r="BG9" s="35">
+        <v>1272.8877748730019</v>
+      </c>
+      <c r="BH9" s="35">
+        <v>1185.029469430785</v>
+      </c>
+      <c r="BI9" s="35">
+        <v>1142.228976247432</v>
+      </c>
+      <c r="BJ9" s="35">
+        <v>1431.1365585060109</v>
+      </c>
+      <c r="BK9" s="35">
+        <v>1211.923911752225</v>
+      </c>
+      <c r="BL9" s="35">
+        <v>1278.9086959683709</v>
+      </c>
+      <c r="BM9" s="35">
+        <v>1198.871543027685</v>
+      </c>
+      <c r="BN9" s="35">
+        <v>1371.3626629463729</v>
+      </c>
+      <c r="BO9" s="35">
+        <v>1316.625502490692</v>
+      </c>
+      <c r="BP9" s="35">
+        <v>1454.950449289807</v>
+      </c>
+      <c r="BQ9" s="35">
+        <v>1223.8788855703101</v>
+      </c>
+      <c r="BR9" s="35">
+        <v>1113.129980728716</v>
+      </c>
+      <c r="BS9" s="35">
+        <v>1173.7866969569241</v>
+      </c>
+      <c r="BT9" s="35">
+        <v>1131.875063902685</v>
+      </c>
+      <c r="BU9" s="35">
+        <v>1083.216144259073</v>
+      </c>
+      <c r="BV9" s="35">
+        <v>1302.620903690271</v>
+      </c>
+      <c r="BW9" s="35">
+        <v>1159.270881556793</v>
+      </c>
+      <c r="BX9" s="35">
+        <v>1251.362642065671</v>
+      </c>
+      <c r="BY9" s="35">
+        <v>1408.9312222464209</v>
+      </c>
+      <c r="BZ9" s="35">
+        <v>1198.5329279501609</v>
+      </c>
+      <c r="CA9" s="35">
+        <v>1120.051086119591</v>
+      </c>
+      <c r="CB9" s="35">
+        <v>1147.34722327945</v>
+      </c>
+      <c r="CC9" s="35">
+        <v>1243.802058937624</v>
+      </c>
+      <c r="CD9" s="35">
+        <v>1104.1725518995279</v>
+      </c>
+      <c r="CE9" s="35">
+        <v>1065.1540391420599</v>
+      </c>
+      <c r="CF9" s="35">
+        <v>1402.667352693011</v>
+      </c>
+      <c r="CG9" s="35">
+        <v>1385.2074615031661</v>
+      </c>
+      <c r="CH9" s="35">
+        <v>1366.032424142973</v>
+      </c>
+      <c r="CI9" s="35">
+        <v>1394.6776719961049</v>
+      </c>
+      <c r="CJ9" s="35">
+        <v>1459.909518663871</v>
+      </c>
+      <c r="CK9" s="35">
+        <v>1410.472476803486</v>
+      </c>
+      <c r="CL9" s="35">
+        <v>1226.172776348227</v>
+      </c>
+      <c r="CM9" s="35">
+        <v>1354.3146581195469</v>
+      </c>
+      <c r="CN9" s="35">
+        <v>1418.3350124393751</v>
+      </c>
+      <c r="CO9" s="35">
+        <v>1392.898819961647</v>
+      </c>
+      <c r="CP9" s="35">
+        <v>1368.341827519512</v>
+      </c>
+      <c r="CQ9" s="35">
+        <v>1305.7445041789799</v>
+      </c>
+      <c r="CR9" s="35">
+        <v>1126.678489508374</v>
+      </c>
+      <c r="CS9" s="35">
+        <v>1241.813744963413</v>
+      </c>
+      <c r="CT9" s="35">
+        <v>1406.9881754386361</v>
+      </c>
+      <c r="CU9" s="35">
+        <v>1061.6954115785679</v>
+      </c>
+      <c r="CV9" s="35">
+        <v>1081.787454494342</v>
+      </c>
+      <c r="CW9" s="35">
+        <v>1336.9900264603459</v>
+      </c>
+      <c r="CX9" s="35">
+        <v>1387.3304263591781</v>
+      </c>
+      <c r="CY9" s="35">
+        <v>1347.0033228665211</v>
+      </c>
+      <c r="CZ9" s="35">
+        <v>1117.532735657305</v>
+      </c>
+      <c r="DA9" s="35">
+        <v>1455.1861771736851</v>
+      </c>
+      <c r="DB9" s="35">
+        <v>1153.4307350612171</v>
+      </c>
+    </row>
+    <row r="10" spans="1:106" x14ac:dyDescent="0.25">
       <c r="B10" s="35">
-        <v>27.769625527748541</v>
+        <v>27.318619931694279</v>
       </c>
       <c r="C10" s="35">
-        <v>0.94470099994680368</v>
+        <v>1.190831165301192</v>
       </c>
       <c r="D10" s="35">
-        <v>771.15210195138366</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1426.3877776721349</v>
+      </c>
+    </row>
+    <row r="11" spans="1:106" x14ac:dyDescent="0.25">
       <c r="B11" s="35">
-        <v>30.795951827904101</v>
+        <v>27.680413880104851</v>
       </c>
       <c r="C11" s="35">
-        <v>0.78497727682605012</v>
+        <v>1.205840336376353</v>
       </c>
       <c r="D11" s="35">
-        <v>948.39064898659024</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1324.418617157877</v>
+      </c>
+    </row>
+    <row r="12" spans="1:106" x14ac:dyDescent="0.25">
       <c r="B12" s="35">
-        <v>26.20818390162173</v>
+        <v>30.649692355617699</v>
       </c>
       <c r="C12" s="35">
-        <v>0.93005151788195206</v>
+        <v>1.165450705342058</v>
       </c>
       <c r="D12" s="35">
-        <v>686.86890342122456</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1292.3921481366119</v>
+      </c>
+    </row>
+    <row r="13" spans="1:106" x14ac:dyDescent="0.25">
       <c r="B13" s="35">
-        <v>31.736368596110879</v>
+        <v>30.164149667139849</v>
       </c>
       <c r="C13" s="35">
-        <v>0.93164830889417094</v>
+        <v>1.061799829131258</v>
       </c>
       <c r="D13" s="35">
-        <v>1007.197091668213</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1142.202896283203</v>
+      </c>
+    </row>
+    <row r="14" spans="1:106" x14ac:dyDescent="0.25">
       <c r="B14" s="35">
-        <v>29.81785426642552</v>
+        <v>27.858319965072539</v>
       </c>
       <c r="C14" s="35">
-        <v>0.74873564294610218</v>
+        <v>1.100556739966466</v>
       </c>
       <c r="D14" s="35">
-        <v>889.10443305379079</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1094.356925933293</v>
+      </c>
+    </row>
+    <row r="15" spans="1:106" x14ac:dyDescent="0.25">
       <c r="B15" s="35">
-        <v>29.609522712784141</v>
+        <v>29.59736689079239</v>
       </c>
       <c r="C15" s="35">
-        <v>0.62717877449296688</v>
+        <v>0.92334710262611674</v>
       </c>
       <c r="D15" s="35">
-        <v>876.72383527887996</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1225.717425602747</v>
+      </c>
+    </row>
+    <row r="16" spans="1:106" x14ac:dyDescent="0.25">
       <c r="B16" s="35">
-        <v>28.08501227476064</v>
+        <v>29.522231951163761</v>
       </c>
       <c r="C16" s="35">
-        <v>0.67956982143953726</v>
+        <v>1.0686239888318549</v>
       </c>
       <c r="D16" s="35">
-        <v>788.76791447345602</v>
+        <v>1139.1396480597141</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="35">
-        <v>31.858124028880749</v>
+        <v>28.615813272883639</v>
       </c>
       <c r="C17" s="35">
-        <v>0.62756823024901298</v>
+        <v>0.99681970912416729</v>
       </c>
       <c r="D17" s="35">
-        <v>1014.9400666395489</v>
+        <v>1422.4313899693279</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="35">
-        <v>28.385127304978479</v>
+        <v>30.94246942719808</v>
       </c>
       <c r="C18" s="35">
-        <v>0.87609338247948831</v>
+        <v>1.0529963787276191</v>
       </c>
       <c r="D18" s="35">
-        <v>805.71545211983482</v>
+        <v>1142.236510467221</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" s="35">
-        <v>28.01691929638806</v>
+        <v>28.86572110707796</v>
       </c>
       <c r="C19" s="35">
-        <v>0.80258907107786981</v>
+        <v>1.030049181641397</v>
       </c>
       <c r="D19" s="35">
-        <v>784.94776686032151</v>
+        <v>1405.889054137393</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" s="35">
-        <v>29.434338191749379</v>
+        <v>29.327439272432201</v>
       </c>
       <c r="C20" s="35">
-        <v>0.74674509718686233</v>
+        <v>1.08221329145061</v>
       </c>
       <c r="D20" s="35">
-        <v>866.38026478627592</v>
+        <v>1179.226504825004</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" s="35">
-        <v>31.762615366709088</v>
+        <v>30.241633637764849</v>
       </c>
       <c r="C21" s="35">
-        <v>0.61444810415074069</v>
+        <v>0.99966826869381564</v>
       </c>
       <c r="D21" s="35">
-        <v>1008.863734933505</v>
+        <v>1214.835537943198</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22" s="35">
-        <v>27.8728695035458</v>
+        <v>28.353360551344821</v>
       </c>
       <c r="C22" s="35">
-        <v>0.80671217867948253</v>
+        <v>1.1014390645477179</v>
       </c>
       <c r="D22" s="35">
-        <v>776.89685436169373</v>
+        <v>1199.121048484463</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" s="35">
-        <v>27.693762753618149</v>
+        <v>28.092848605298069</v>
       </c>
       <c r="C23" s="35">
-        <v>0.71967430817805289</v>
+        <v>1.022298394999464</v>
       </c>
       <c r="D23" s="35">
-        <v>766.94449545368764</v>
+        <v>1301.2200959163699</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24" s="35">
-        <v>25.601434711891539</v>
+        <v>27.29753937232012</v>
       </c>
       <c r="C24" s="35">
-        <v>0.84974617814075737</v>
+        <v>0.98876342633134096</v>
       </c>
       <c r="D24" s="35">
-        <v>655.43345930724479</v>
+        <v>1193.5962365199321</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B25" s="35">
-        <v>28.975298023823019</v>
+        <v>28.2656814061564</v>
       </c>
       <c r="C25" s="35">
-        <v>0.73674361379315378</v>
+        <v>1.043831302627348</v>
       </c>
       <c r="D25" s="35">
-        <v>839.56789556936212</v>
+        <v>1095.123899494329</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B26" s="35">
-        <v>25.0317051408162</v>
+        <v>29.02458791391453</v>
       </c>
       <c r="C26" s="35">
-        <v>0.7449236305227267</v>
+        <v>0.91639076758357318</v>
       </c>
       <c r="D26" s="35">
-        <v>626.58626225676403</v>
+        <v>1065.005804921245</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B27" s="35">
-        <v>25.871576758127372</v>
+        <v>30.847798208339889</v>
       </c>
       <c r="C27" s="35">
-        <v>0.68175694079981974</v>
+        <v>0.94655004736157011</v>
       </c>
       <c r="D27" s="35">
-        <v>669.33848395167627</v>
+        <v>1423.912953956713</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B28" s="35">
-        <v>30.261384103097161</v>
+        <v>30.337588685674579</v>
       </c>
       <c r="C28" s="35">
-        <v>0.90716573621677454</v>
+        <v>1.1004422396226241</v>
       </c>
       <c r="D28" s="35">
-        <v>915.75136783518178</v>
+        <v>1331.2305188147079</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B29" s="35">
-        <v>30.811349805798859</v>
+        <v>29.692919616924002</v>
       </c>
       <c r="C29" s="35">
-        <v>0.97292667453570347</v>
+        <v>0.92558091303717649</v>
       </c>
       <c r="D29" s="35">
-        <v>949.33927685530159</v>
+        <v>1364.9072390462841</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B30" s="35">
-        <v>30.336411742620339</v>
+        <v>30.588666319822629</v>
       </c>
       <c r="C30" s="35">
-        <v>0.86855938155394541</v>
+        <v>1.0000003783450491</v>
       </c>
       <c r="D30" s="35">
-        <v>920.29787741779296</v>
+        <v>1074.6345551646791</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B31" s="35">
-        <v>31.57421349924353</v>
+        <v>29.434661178830151</v>
       </c>
       <c r="C31" s="35">
-        <v>0.97680734152398729</v>
+        <v>1.071320905141623</v>
       </c>
       <c r="D31" s="35">
-        <v>996.93095809581234</v>
+        <v>1404.925749896652</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B32" s="35">
-        <v>31.980134487763159</v>
+        <v>28.320519410593111</v>
       </c>
       <c r="C32" s="35">
-        <v>0.64233640095301781</v>
+        <v>1.0378592514473639</v>
       </c>
       <c r="D32" s="35">
-        <v>1022.729001855419</v>
+        <v>1073.059524718961</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B33" s="35">
-        <v>25.47273555595341</v>
+        <v>28.10612141404501</v>
       </c>
       <c r="C33" s="35">
-        <v>0.8079106011206626</v>
+        <v>1.092839175660101</v>
       </c>
       <c r="D33" s="35">
-        <v>648.86025670353308</v>
+        <v>1094.21280086053</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B34" s="35">
-        <v>31.11485798979469</v>
+        <v>29.899634771688731</v>
       </c>
       <c r="C34" s="35">
-        <v>0.73738161132040991</v>
+        <v>0.9900733386630356</v>
       </c>
       <c r="D34" s="35">
-        <v>968.13438772509039</v>
+        <v>1274.988249943563</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B35" s="35">
-        <v>26.696350612565851</v>
+        <v>28.206451436455431</v>
       </c>
       <c r="C35" s="35">
-        <v>0.93337393510007682</v>
+        <v>1.0907888923803051</v>
       </c>
       <c r="D35" s="35">
-        <v>712.69513602904533</v>
+        <v>1307.7989579341099</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B36" s="35">
-        <v>28.46136519293718</v>
+        <v>30.834368609250799</v>
       </c>
       <c r="C36" s="35">
-        <v>0.60778396311964678</v>
+        <v>1.050508306158066</v>
       </c>
       <c r="D36" s="35">
-        <v>810.04930864573578</v>
+        <v>1259.8689616025049</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B37" s="35">
-        <v>27.886104212973049</v>
+        <v>28.83518363781134</v>
       </c>
       <c r="C37" s="35">
-        <v>0.91214172486135126</v>
+        <v>1.0504145347831551</v>
       </c>
       <c r="D37" s="35">
-        <v>777.63480817679317</v>
+        <v>1270.8485545102551</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B38" s="35">
-        <v>26.771857061031788</v>
+        <v>28.20397484630033</v>
       </c>
       <c r="C38" s="35">
-        <v>0.95950801596189961</v>
+        <v>1.044547442334204</v>
       </c>
       <c r="D38" s="35">
-        <v>716.73233049631767</v>
+        <v>1394.286589225454</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B39" s="35">
-        <v>29.330825712951849</v>
+        <v>29.79574927854857</v>
       </c>
       <c r="C39" s="35">
-        <v>0.70807226065006657</v>
+        <v>0.94777564516389512</v>
       </c>
       <c r="D39" s="35">
-        <v>860.29733700355735</v>
+        <v>1293.407214056484</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B40" s="35">
-        <v>31.418780796733081</v>
+        <v>27.45659996135625</v>
       </c>
       <c r="C40" s="35">
-        <v>0.63363735806321497</v>
+        <v>0.99837398792878651</v>
       </c>
       <c r="D40" s="35">
-        <v>987.13978675316321</v>
+        <v>1354.108991035298</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B41" s="35">
-        <v>29.18889221911062</v>
+        <v>30.853161036916461</v>
       </c>
       <c r="C41" s="35">
-        <v>0.81486857180551109</v>
+        <v>1.2043189945255339</v>
       </c>
       <c r="D41" s="35">
-        <v>851.99142897885656</v>
+        <v>1137.2036248823381</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B42" s="35">
-        <v>30.791296958498119</v>
+        <v>29.374072286118039</v>
       </c>
       <c r="C42" s="35">
-        <v>0.81135981263178181</v>
+        <v>0.95965637058042286</v>
       </c>
       <c r="D42" s="35">
-        <v>948.10396838641532</v>
+        <v>1435.2659781107591</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B43" s="35">
-        <v>30.89748792031984</v>
+        <v>28.99638997345069</v>
       </c>
       <c r="C43" s="35">
-        <v>0.96518590486537903</v>
+        <v>1.164794805054159</v>
       </c>
       <c r="D43" s="35">
-        <v>954.65475978631036</v>
+        <v>1112.1587583576611</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B44" s="35">
-        <v>27.68231311282203</v>
+        <v>27.092781177378018</v>
       </c>
       <c r="C44" s="35">
-        <v>0.67300155713865384</v>
+        <v>1.191857517312793</v>
       </c>
       <c r="D44" s="35">
-        <v>766.31045927631851</v>
+        <v>1376.8209882285601</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B45" s="35">
-        <v>25.36775511415782</v>
+        <v>30.034488872172432</v>
       </c>
       <c r="C45" s="35">
-        <v>0.6935603121819911</v>
+        <v>1.125187498413972</v>
       </c>
       <c r="D45" s="35">
-        <v>643.52299953188037</v>
+        <v>1432.650912461957</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B46" s="35">
-        <v>30.271020376377081</v>
+        <v>28.276183976608142</v>
       </c>
       <c r="C46" s="35">
-        <v>0.85043491660458026</v>
+        <v>1.209689894661681</v>
       </c>
       <c r="D46" s="35">
-        <v>916.33467462703663</v>
+        <v>1399.578273515699</v>
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B47" s="35">
-        <v>25.02515668619273</v>
+        <v>29.686369625351229</v>
       </c>
       <c r="C47" s="35">
-        <v>0.93852080321801257</v>
+        <v>1.204331869287756</v>
       </c>
       <c r="D47" s="35">
-        <v>626.25846716849685</v>
+        <v>1277.805202758673</v>
       </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B48" s="35">
-        <v>30.166391199289269</v>
+        <v>27.0048126716638</v>
       </c>
       <c r="C48" s="35">
-        <v>0.60270900696846885</v>
+        <v>0.99756530206269156</v>
       </c>
       <c r="D48" s="35">
-        <v>910.01115798855699</v>
+        <v>1222.3337621670421</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B49" s="35">
-        <v>30.456578168729401</v>
+        <v>29.461680507222852</v>
       </c>
       <c r="C49" s="35">
-        <v>0.927577355891122</v>
+        <v>1.1546033484824261</v>
       </c>
       <c r="D49" s="35">
-        <v>927.60315374792413</v>
+        <v>1296.174635280727</v>
       </c>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B50" s="35">
-        <v>30.065050588419592</v>
+        <v>29.728616413085351</v>
       </c>
       <c r="C50" s="35">
-        <v>0.67722703266763173</v>
+        <v>1.121274636853129</v>
       </c>
       <c r="D50" s="35">
-        <v>903.90726688422899</v>
+        <v>1421.06103978229</v>
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B51" s="35">
-        <v>27.771032909491719</v>
+        <v>30.99474891818317</v>
       </c>
       <c r="C51" s="35">
-        <v>0.86610498379337297</v>
+        <v>1.1638731085252541</v>
       </c>
       <c r="D51" s="35">
-        <v>771.23026886007187</v>
+        <v>1270.111681759756</v>
       </c>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B52" s="35">
-        <v>30.85669323869169</v>
+        <v>29.280441203067451</v>
       </c>
       <c r="C52" s="35">
-        <v>0.74408229709263207</v>
+        <v>0.99774123176039153</v>
       </c>
       <c r="D52" s="35">
-        <v>952.13551762672125</v>
+        <v>1247.0105373757899</v>
       </c>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B53" s="35">
-        <v>27.25185273541819</v>
+        <v>29.5609451196386</v>
       </c>
       <c r="C53" s="35">
-        <v>0.80953545524814896</v>
+        <v>0.96878171464345375</v>
       </c>
       <c r="D53" s="35">
-        <v>742.66347751291983</v>
+        <v>1457.9668769180821</v>
       </c>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B54" s="35">
-        <v>26.37538166048725</v>
+        <v>29.91326458766682</v>
       </c>
       <c r="C54" s="35">
-        <v>0.84714324179185119</v>
+        <v>1.1847427751144739</v>
       </c>
       <c r="D54" s="35">
-        <v>695.66075773636715</v>
+        <v>1272.8877748730019</v>
       </c>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B55" s="35">
-        <v>27.818532833129101</v>
+        <v>28.466951887641098</v>
       </c>
       <c r="C55" s="35">
-        <v>0.85235462944861418</v>
+        <v>0.94559145019344981</v>
       </c>
       <c r="D55" s="35">
-        <v>773.87076898788166</v>
+        <v>1185.029469430785</v>
       </c>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B56" s="35">
-        <v>27.66765787614192</v>
+        <v>30.80206859089186</v>
       </c>
       <c r="C56" s="35">
-        <v>0.85010300690903851</v>
+        <v>1.1742543398290011</v>
       </c>
       <c r="D56" s="35">
-        <v>765.49929235123818</v>
+        <v>1142.228976247432</v>
       </c>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B57" s="35">
-        <v>26.16807605638467</v>
+        <v>27.683494071629539</v>
       </c>
       <c r="C57" s="35">
-        <v>0.68888198842576243</v>
+        <v>1.0745009380818329</v>
       </c>
       <c r="D57" s="35">
-        <v>684.76820449273282</v>
+        <v>1431.1365585060109</v>
       </c>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B58" s="35">
-        <v>26.960800573192099</v>
+        <v>29.068290706117491</v>
       </c>
       <c r="C58" s="35">
-        <v>0.89513531087984077</v>
+        <v>0.94919540293698834</v>
       </c>
       <c r="D58" s="35">
-        <v>726.88476754743522</v>
+        <v>1211.923911752225</v>
       </c>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B59" s="35">
-        <v>30.86736420780209</v>
+        <v>27.009684931249481</v>
       </c>
       <c r="C59" s="35">
-        <v>0.96024768861891929</v>
+        <v>1.0530296049078529</v>
       </c>
       <c r="D59" s="35">
-        <v>952.79417313710155</v>
+        <v>1278.9086959683709</v>
       </c>
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B60" s="35">
-        <v>31.77785416409024</v>
+        <v>29.645386570059699</v>
       </c>
       <c r="C60" s="35">
-        <v>0.65663023482852878</v>
+        <v>1.0021657348248509</v>
       </c>
       <c r="D60" s="35">
-        <v>1009.832015274187</v>
+        <v>1198.871543027685</v>
       </c>
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B61" s="35">
-        <v>26.228734687708059</v>
+        <v>30.656528098902989</v>
       </c>
       <c r="C61" s="35">
-        <v>0.76934405323512756</v>
+        <v>1.205405346997368</v>
       </c>
       <c r="D61" s="35">
-        <v>687.9465233181802</v>
+        <v>1371.3626629463729</v>
       </c>
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B62" s="35">
-        <v>25.007454185510522</v>
+        <v>30.042456729082009</v>
       </c>
       <c r="C62" s="35">
-        <v>0.91399883616813171</v>
+        <v>1.070312098565531</v>
       </c>
       <c r="D62" s="35">
-        <v>625.37276484040751</v>
+        <v>1316.625502490692</v>
       </c>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B63" s="35">
-        <v>30.46745335291731</v>
+        <v>28.761814965035839</v>
       </c>
       <c r="C63" s="35">
-        <v>0.96042485247518727</v>
+        <v>1.0969136742029351</v>
       </c>
       <c r="D63" s="35">
-        <v>928.26571381219253</v>
+        <v>1454.950449289807</v>
       </c>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B64" s="35">
-        <v>25.489335962954002</v>
+        <v>30.521547332798551</v>
       </c>
       <c r="C64" s="35">
-        <v>0.68308918066265767</v>
+        <v>1.115100026387065</v>
       </c>
       <c r="D64" s="35">
-        <v>649.70624783234007</v>
+        <v>1223.8788855703101</v>
       </c>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B65" s="35">
-        <v>25.487264079596049</v>
+        <v>28.1645711195135</v>
       </c>
       <c r="C65" s="35">
-        <v>0.84450993776255379</v>
+        <v>0.99833367634935777</v>
       </c>
       <c r="D65" s="35">
-        <v>649.60063026306682</v>
+        <v>1113.129980728716</v>
       </c>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B66" s="35">
-        <v>29.972551364419179</v>
+        <v>27.20187215873004</v>
       </c>
       <c r="C66" s="35">
-        <v>0.9395192732045603</v>
+        <v>1.017001849170035</v>
       </c>
       <c r="D66" s="35">
-        <v>898.35383529274577</v>
+        <v>1173.7866969569241</v>
       </c>
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B67" s="35">
-        <v>30.752941358961621</v>
+        <v>28.695131611835929</v>
       </c>
       <c r="C67" s="35">
-        <v>0.83837653993346728</v>
+        <v>0.91019724022877235</v>
       </c>
       <c r="D67" s="35">
-        <v>945.74340222773242</v>
+        <v>1131.875063902685</v>
       </c>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B68" s="35">
-        <v>25.574396448992079</v>
+        <v>30.36685684534212</v>
       </c>
       <c r="C68" s="35">
-        <v>0.92758259077873628</v>
+        <v>1.19140399063803</v>
       </c>
       <c r="D68" s="35">
-        <v>654.04975373021864</v>
+        <v>1083.216144259073</v>
       </c>
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B69" s="35">
-        <v>28.921332892969289</v>
+        <v>27.735860343490231</v>
       </c>
       <c r="C69" s="35">
-        <v>0.64993838817692651</v>
+        <v>0.92327342304070636</v>
       </c>
       <c r="D69" s="35">
-        <v>836.44349630594718</v>
+        <v>1302.620903690271</v>
       </c>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B70" s="35">
-        <v>27.332028170921671</v>
+        <v>30.297779843801091</v>
       </c>
       <c r="C70" s="35">
-        <v>0.72242991006697277</v>
+        <v>0.99380290211694389</v>
       </c>
       <c r="D70" s="35">
-        <v>747.03976393605603</v>
+        <v>1159.270881556793</v>
       </c>
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B71" s="35">
-        <v>27.455169019264229</v>
+        <v>30.364771217094638</v>
       </c>
       <c r="C71" s="35">
-        <v>0.86325846337595491</v>
+        <v>1.1041143505529529</v>
       </c>
       <c r="D71" s="35">
-        <v>753.7863058763661</v>
+        <v>1251.362642065671</v>
       </c>
     </row>
     <row r="72" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B72" s="35">
-        <v>30.263938361631869</v>
+        <v>29.736984559622272</v>
       </c>
       <c r="C72" s="35">
-        <v>0.95314676182339797</v>
+        <v>0.93082267254256901</v>
       </c>
       <c r="D72" s="35">
-        <v>915.905965156653</v>
+        <v>1408.9312222464209</v>
       </c>
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B73" s="35">
-        <v>27.211963866562119</v>
+        <v>27.11321978087695</v>
       </c>
       <c r="C73" s="35">
-        <v>0.76490812318640256</v>
+        <v>0.91090797180449479</v>
       </c>
       <c r="D73" s="35">
-        <v>740.49097747508222</v>
+        <v>1198.5329279501609</v>
       </c>
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B74" s="35">
-        <v>30.667749388983982</v>
+        <v>30.765884872701019</v>
       </c>
       <c r="C74" s="35">
-        <v>0.65542423894639512</v>
+        <v>1.09927074327491</v>
       </c>
       <c r="D74" s="35">
-        <v>940.51085258552735</v>
+        <v>1120.051086119591</v>
       </c>
     </row>
     <row r="75" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B75" s="35">
-        <v>26.81101344081134</v>
+        <v>27.57672691598367</v>
       </c>
       <c r="C75" s="35">
-        <v>0.85309898914345816</v>
+        <v>1.145696283730073</v>
       </c>
       <c r="D75" s="35">
-        <v>718.83044172336656</v>
+        <v>1147.34722327945</v>
       </c>
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B76" s="35">
-        <v>30.599297418275398</v>
+        <v>29.1277217816403</v>
       </c>
       <c r="C76" s="35">
-        <v>0.84447405379735585</v>
+        <v>0.92571842960294082</v>
       </c>
       <c r="D76" s="35">
-        <v>936.31700249207563</v>
+        <v>1243.802058937624</v>
       </c>
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B77" s="35">
-        <v>26.607622384836699</v>
+        <v>27.805457685698741</v>
       </c>
       <c r="C77" s="35">
-        <v>0.69078434366927699</v>
+        <v>1.0143625865227279</v>
       </c>
       <c r="D77" s="35">
-        <v>707.96556897406276</v>
+        <v>1104.1725518995279</v>
       </c>
     </row>
     <row r="78" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B78" s="35">
-        <v>28.343101952755291</v>
+        <v>28.679406372252849</v>
       </c>
       <c r="C78" s="35">
-        <v>0.95688467670569199</v>
+        <v>1.1125985266624661</v>
       </c>
       <c r="D78" s="35">
-        <v>803.33142830428051</v>
+        <v>1065.1540391420599</v>
       </c>
     </row>
     <row r="79" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B79" s="35">
-        <v>29.120301420916249</v>
+        <v>30.821795728348039</v>
       </c>
       <c r="C79" s="35">
-        <v>0.88157709999154787</v>
+        <v>1.1116223744221241</v>
       </c>
       <c r="D79" s="35">
-        <v>847.99195484501672</v>
+        <v>1402.667352693011</v>
       </c>
     </row>
     <row r="80" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B80" s="35">
-        <v>25.126606714233461</v>
+        <v>28.641268098315791</v>
       </c>
       <c r="C80" s="35">
-        <v>0.78627494926936858</v>
+        <v>0.99032032886426524</v>
       </c>
       <c r="D80" s="35">
-        <v>631.34636497176223</v>
+        <v>1385.2074615031661</v>
       </c>
     </row>
     <row r="81" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B81" s="35">
-        <v>28.195842387044951</v>
+        <v>27.33098157082582</v>
       </c>
       <c r="C81" s="35">
-        <v>0.80454072157894985</v>
+        <v>1.121321294962798</v>
       </c>
       <c r="D81" s="35">
-        <v>795.00552791508051</v>
+        <v>1366.032424142973</v>
       </c>
     </row>
     <row r="82" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B82" s="35">
-        <v>28.504139374115919</v>
+        <v>30.141896404399908</v>
       </c>
       <c r="C82" s="35">
-        <v>0.98799550441550021</v>
+        <v>1.066410928862586</v>
       </c>
       <c r="D82" s="35">
-        <v>812.4859614590257</v>
+        <v>1394.6776719961049</v>
       </c>
     </row>
     <row r="83" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B83" s="35">
-        <v>29.11736412294367</v>
+        <v>28.98250662135402</v>
       </c>
       <c r="C83" s="35">
-        <v>0.75470919247373802</v>
+        <v>0.92683640146845903</v>
       </c>
       <c r="D83" s="35">
-        <v>847.82089346808743</v>
+        <v>1459.909518663871</v>
       </c>
     </row>
     <row r="84" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B84" s="35">
-        <v>28.433882372069629</v>
+        <v>29.553762230203969</v>
       </c>
       <c r="C84" s="35">
-        <v>0.69546768853266927</v>
+        <v>0.96179204042705879</v>
       </c>
       <c r="D84" s="35">
-        <v>808.48566674869198</v>
+        <v>1410.472476803486</v>
       </c>
     </row>
     <row r="85" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B85" s="35">
-        <v>29.234303980481229</v>
+        <v>30.396806907875391</v>
       </c>
       <c r="C85" s="35">
-        <v>0.77103335259899253</v>
+        <v>1.1077397030653611</v>
       </c>
       <c r="D85" s="35">
-        <v>854.64452922318048</v>
+        <v>1226.172776348227</v>
       </c>
     </row>
     <row r="86" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B86" s="35">
-        <v>26.836383248109161</v>
+        <v>28.632875238649049</v>
       </c>
       <c r="C86" s="35">
-        <v>0.95293074100838016</v>
+        <v>1.03452139687496</v>
       </c>
       <c r="D86" s="35">
-        <v>720.19146583939403</v>
+        <v>1354.3146581195469</v>
       </c>
     </row>
     <row r="87" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B87" s="35">
-        <v>26.079934357451592</v>
+        <v>30.476053843676681</v>
       </c>
       <c r="C87" s="35">
-        <v>0.72666227282868301</v>
+        <v>1.1269293374473739</v>
       </c>
       <c r="D87" s="35">
-        <v>680.16297608898378</v>
+        <v>1418.3350124393751</v>
       </c>
     </row>
     <row r="88" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B88" s="35">
-        <v>29.088002208028222</v>
+        <v>28.867706436674109</v>
       </c>
       <c r="C88" s="35">
-        <v>0.60283040638193297</v>
+        <v>1.0139771627298739</v>
       </c>
       <c r="D88" s="35">
-        <v>846.11187245425469</v>
+        <v>1392.898819961647</v>
       </c>
     </row>
     <row r="89" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B89" s="35">
-        <v>31.060537544529829</v>
+        <v>29.65685274508056</v>
       </c>
       <c r="C89" s="35">
-        <v>0.70430659185558353</v>
+        <v>0.96543456284397533</v>
       </c>
       <c r="D89" s="35">
-        <v>964.75699255514689</v>
+        <v>1368.341827519512</v>
       </c>
     </row>
     <row r="90" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B90" s="35">
-        <v>28.187184479583149</v>
+        <v>30.670677053395881</v>
       </c>
       <c r="C90" s="35">
-        <v>0.81233931669761406</v>
+        <v>1.1491657386681551</v>
       </c>
       <c r="D90" s="35">
-        <v>794.51736888605308</v>
+        <v>1305.7445041789799</v>
       </c>
     </row>
     <row r="91" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B91" s="35">
-        <v>27.81684971816227</v>
+        <v>28.120130361709279</v>
       </c>
       <c r="C91" s="35">
-        <v>0.79242559000874269</v>
+        <v>1.0504306599990729</v>
       </c>
       <c r="D91" s="35">
-        <v>773.77712824282435</v>
+        <v>1126.678489508374</v>
       </c>
     </row>
     <row r="92" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B92" s="35">
-        <v>26.93093222051175</v>
+        <v>30.12884512116068</v>
       </c>
       <c r="C92" s="35">
-        <v>0.96051334985947712</v>
+        <v>1.1603465363909899</v>
       </c>
       <c r="D92" s="35">
-        <v>725.27511026579793</v>
+        <v>1241.813744963413</v>
       </c>
     </row>
     <row r="93" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B93" s="35">
-        <v>30.801693327474279</v>
+        <v>28.82578966876244</v>
       </c>
       <c r="C93" s="35">
-        <v>0.73524525509871086</v>
+        <v>1.0130377670794231</v>
       </c>
       <c r="D93" s="35">
-        <v>948.74431183977356</v>
+        <v>1406.9881754386361</v>
       </c>
     </row>
     <row r="94" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B94" s="35">
-        <v>25.633160667809179</v>
+        <v>27.432799905724501</v>
       </c>
       <c r="C94" s="35">
-        <v>0.79842693156421762</v>
+        <v>1.18713111581076</v>
       </c>
       <c r="D94" s="35">
-        <v>657.05892582171953</v>
+        <v>1061.6954115785679</v>
       </c>
     </row>
     <row r="95" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B95" s="35">
-        <v>29.319956741267902</v>
+        <v>30.037348456372371</v>
       </c>
       <c r="C95" s="35">
-        <v>0.82372955008043247</v>
+        <v>1.136647669008559</v>
       </c>
       <c r="D95" s="35">
-        <v>859.65986330982105</v>
+        <v>1081.787454494342</v>
       </c>
     </row>
     <row r="96" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B96" s="35">
-        <v>28.493981340081561</v>
+        <v>28.535185153858521</v>
       </c>
       <c r="C96" s="35">
-        <v>0.8900137821668781</v>
+        <v>1.1451463919837519</v>
       </c>
       <c r="D96" s="35">
-        <v>811.90697260891636</v>
+        <v>1336.9900264603459</v>
       </c>
     </row>
     <row r="97" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B97" s="35">
-        <v>27.481299347544379</v>
+        <v>27.874570042118439</v>
       </c>
       <c r="C97" s="35">
-        <v>0.69460102827014958</v>
+        <v>0.98140505906083664</v>
       </c>
       <c r="D97" s="35">
-        <v>755.22181382934286</v>
+        <v>1387.3304263591781</v>
       </c>
     </row>
     <row r="98" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B98" s="35">
-        <v>29.07777365420236</v>
+        <v>29.257656951033141</v>
       </c>
       <c r="C98" s="35">
-        <v>0.67986793465510931</v>
+        <v>1.150155540976072</v>
       </c>
       <c r="D98" s="35">
-        <v>845.51692068502484</v>
+        <v>1347.0033228665211</v>
       </c>
     </row>
     <row r="99" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B99" s="35">
-        <v>26.319027133445601</v>
+        <v>28.68559745329091</v>
       </c>
       <c r="C99" s="35">
-        <v>0.75844548255374222</v>
+        <v>1.202741684654969</v>
       </c>
       <c r="D99" s="35">
-        <v>692.69118925104578</v>
+        <v>1117.532735657305</v>
       </c>
     </row>
     <row r="100" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B100" s="35">
-        <v>27.7914558687804</v>
+        <v>30.710905025946349</v>
       </c>
       <c r="C100" s="35">
-        <v>0.89664586982410899</v>
+        <v>0.92435131540445614</v>
       </c>
       <c r="D100" s="35">
-        <v>772.36501930636837</v>
+        <v>1455.1861771736851</v>
       </c>
     </row>
     <row r="101" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B101" s="35">
-        <v>28.430774895310918</v>
+        <v>29.789892602172952</v>
       </c>
       <c r="C101" s="35">
-        <v>0.64246886880928555</v>
+        <v>1.03721967804343</v>
       </c>
       <c r="D101" s="35">
-        <v>808.3089611478415</v>
+        <v>1153.4307350612171</v>
       </c>
     </row>
     <row r="102" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B102" s="35">
         <f>AVERAGE(B2:B101)</f>
-        <v>28.481570918699841</v>
+        <v>29.124279157275716</v>
       </c>
       <c r="C102" s="35">
         <f>AVERAGE(C2:C101)</f>
-        <v>0.79985553916859731</v>
+        <v>1.0554620342055081</v>
       </c>
       <c r="D102" s="35">
         <f>AVERAGE(D2:D101)</f>
-        <v>815.14790738232989</v>
+        <v>1272.3049262677621</v>
       </c>
     </row>
   </sheetData>
@@ -36067,7 +37067,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E2BCC6F-659C-4F4B-881A-39155E0E0DBC}">
   <dimension ref="A1:R101"/>
   <sheetViews>
-    <sheetView topLeftCell="A91" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I119" sqref="I119"/>
     </sheetView>
   </sheetViews>
@@ -37387,8 +38387,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5D1CDD2-8A34-4AED-95D9-A02FB1C7F1D6}">
   <dimension ref="A1:D102"/>
   <sheetViews>
-    <sheetView topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="C102" sqref="C102"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
